--- a/Tennis/WTA Tour/Petra Kvitová.xlsx
+++ b/Tennis/WTA Tour/Petra Kvitová.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5778" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE07884C-C645-4360-921B-2E5879AEC9B8}"/>
+  <xr:revisionPtr revIDLastSave="5845" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87E4EEF8-87A9-409F-A6CA-C44CA64A35E3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="13" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2006" sheetId="12" r:id="rId1"/>
@@ -29,9 +29,10 @@
     <sheet name="2019" sheetId="26" r:id="rId14"/>
     <sheet name="2020" sheetId="27" r:id="rId15"/>
     <sheet name="2021" sheetId="28" r:id="rId16"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId17"/>
-    <sheet name="YTD Wins-Losses" sheetId="29" r:id="rId18"/>
-    <sheet name="Winning Percentile Range" sheetId="30" r:id="rId19"/>
+    <sheet name="2022" sheetId="31" r:id="rId17"/>
+    <sheet name="YTD Stats" sheetId="1" r:id="rId18"/>
+    <sheet name="YTD Wins-Losses" sheetId="32" r:id="rId19"/>
+    <sheet name="Winning Percentile Range" sheetId="33" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3988" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4014" uniqueCount="789">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2406,6 +2407,18 @@
   </si>
   <si>
     <t>INDIAN WELLS MASTERS</t>
+  </si>
+  <si>
+    <t>ADELAIDE INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>Priscilla Hon (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>3-6 7-6(4) 7-5</t>
+  </si>
+  <si>
+    <t>Ons Jabeur (TUNISIA)</t>
   </si>
 </sst>
 </file>
@@ -2564,20 +2577,17 @@
               <a:rPr lang="en-US" b="1" i="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Petra Kvitová (CZECH REPUBLIC):</a:t>
+              <a:t>Petra Kvitová</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t> </a:t>
+              <a:t> (CZECH REPUBLIC): YTD Wins-Losses</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" i="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>YTD Wins-Losses</a:t>
-            </a:r>
+            <a:endParaRPr lang="en-US" b="1" i="0">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2643,10 +2653,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$17</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>2006</c:v>
                 </c:pt>
@@ -2695,15 +2705,18 @@
                 <c:pt idx="15">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>2022</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$17</c:f>
+              <c:f>'YTD Stats'!$D$2:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
                 </c:pt>
@@ -2752,12 +2765,15 @@
                 <c:pt idx="15">
                   <c:v>29</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-849D-4468-AA87-44C4A1F22C35}"/>
+              <c16:uniqueId val="{00000000-6B8A-46BE-B21E-341CEE8013F6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2787,10 +2803,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$17</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>2006</c:v>
                 </c:pt>
@@ -2839,15 +2855,18 @@
                 <c:pt idx="15">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>2022</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$17</c:f>
+              <c:f>'YTD Stats'!$E$2:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -2896,12 +2915,15 @@
                 <c:pt idx="15">
                   <c:v>16</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-849D-4468-AA87-44C4A1F22C35}"/>
+              <c16:uniqueId val="{00000001-6B8A-46BE-B21E-341CEE8013F6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2915,11 +2937,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="14198671"/>
-        <c:axId val="14216143"/>
+        <c:axId val="1712370031"/>
+        <c:axId val="1712365039"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="14198671"/>
+        <c:axId val="1712370031"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3017,7 +3039,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14216143"/>
+        <c:crossAx val="1712365039"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3025,7 +3047,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="14216143"/>
+        <c:axId val="1712365039"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3131,7 +3153,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14198671"/>
+        <c:crossAx val="1712370031"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3243,21 +3265,9 @@
               <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Petra Kvitová (CZECH REPUBLIC)</a:t>
+              <a:t>Petra Kvitová (CZECH REPUBLIC): Winning Percentile Range</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>: </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Winning Percentile Range</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1400">
+            <a:endParaRPr lang="en-US" sz="1100">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
@@ -3353,10 +3363,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$17</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>2006</c:v>
                 </c:pt>
@@ -3405,15 +3415,18 @@
                 <c:pt idx="15">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>2022</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$17</c:f>
+              <c:f>'YTD Stats'!$F$2:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.8</c:v>
                 </c:pt>
@@ -3462,13 +3475,16 @@
                 <c:pt idx="15">
                   <c:v>0.44827586206896552</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B0BA-4D3E-A198-79ECB28A93D9}"/>
+              <c16:uniqueId val="{00000000-A23A-4FC1-8134-FC2C980D2127}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3482,11 +3498,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="455395215"/>
-        <c:axId val="455396463"/>
+        <c:axId val="1712384175"/>
+        <c:axId val="1712380015"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="455395215"/>
+        <c:axId val="1712384175"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3584,7 +3600,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455396463"/>
+        <c:crossAx val="1712380015"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3592,7 +3608,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="455396463"/>
+        <c:axId val="1712380015"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3698,7 +3714,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455395215"/>
+        <c:crossAx val="1712384175"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4860,7 +4876,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{07D0D855-9587-445A-9778-A0BD078713FC}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{FB5FD3AE-BD83-40D8-88EA-754C36BEA7D1}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4872,7 +4888,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0146FCDD-8F4C-42B6-B115-B40A2B329203}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{49AB58A6-3BDB-4339-8866-D1B56A3CD7EB}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4893,7 +4909,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F665739-1547-4C48-8790-4968C0393A52}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AE20507-A875-478A-B485-A8660EB38204}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4926,7 +4942,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{691D9CA1-44B6-4616-9AE0-62BE412079DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1CF6FC4-986E-48DA-A0F4-F56EACFEDE41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9222,7 +9238,7 @@
   </sheetPr>
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
@@ -10115,8 +10131,8 @@
   </sheetPr>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10596,8 +10612,8 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E64" activeCellId="15" sqref="E3 E6 E13 E17 E20 E24 E29 E32 E40 E42 E45 E48 E53 E57 E61 E64"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11390,14 +11406,129 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31FA85B0-2187-40F9-B180-17FB32D8705C}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>786</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>497</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>783</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>788</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11447,7 +11578,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="9">
-        <f t="shared" ref="F2:F17" si="0">(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F18" si="0">(D2-E2)/D2</f>
         <v>0.8</v>
       </c>
       <c r="T2" s="10"/>
@@ -11771,57 +11902,78 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="7">
-        <f>SUM(B2:B17)</f>
-        <v>293</v>
-      </c>
-      <c r="C18" s="7">
-        <f t="shared" ref="C18:E18" si="1">SUM(C2:C17)</f>
-        <v>28</v>
-      </c>
-      <c r="D18" s="7">
-        <f t="shared" si="1"/>
-        <v>574</v>
-      </c>
-      <c r="E18" s="7">
-        <f t="shared" si="1"/>
-        <v>251</v>
-      </c>
-      <c r="F18" s="8">
-        <f>(D18-E18)/D18</f>
-        <v>0.56271777003484325</v>
+      <c r="A18">
+        <v>2022</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>771</v>
+        <v>81</v>
       </c>
       <c r="B19" s="7">
-        <f>AVERAGE(B2:B17)</f>
-        <v>18.3125</v>
+        <f>SUM(B2:B18)</f>
+        <v>295</v>
       </c>
       <c r="C19" s="7">
-        <f t="shared" ref="C19:E19" si="2">AVERAGE(C2:C17)</f>
-        <v>1.75</v>
+        <f>SUM(C2:C18)</f>
+        <v>28</v>
       </c>
       <c r="D19" s="7">
-        <f t="shared" si="2"/>
-        <v>35.875</v>
+        <f>SUM(D2:D18)</f>
+        <v>575</v>
       </c>
       <c r="E19" s="7">
-        <f t="shared" si="2"/>
-        <v>15.6875</v>
+        <f>SUM(E2:E18)</f>
+        <v>253</v>
       </c>
       <c r="F19" s="8">
         <f>(D19-E19)/D19</f>
-        <v>0.56271777003484325</v>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="B20" s="7">
+        <f>AVERAGE(B2:B18)</f>
+        <v>17.352941176470587</v>
+      </c>
+      <c r="C20" s="7">
+        <f>AVERAGE(C2:C18)</f>
+        <v>1.6470588235294117</v>
+      </c>
+      <c r="D20" s="7">
+        <f>AVERAGE(D2:D18)</f>
+        <v>33.823529411764703</v>
+      </c>
+      <c r="E20" s="7">
+        <f>AVERAGE(E2:E18)</f>
+        <v>14.882352941176471</v>
+      </c>
+      <c r="F20" s="8">
+        <f>(D20-E20)/D20</f>
+        <v>0.55999999999999994</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F17">
+  <conditionalFormatting sqref="F2:F18">
     <cfRule type="iconSet" priority="4">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -11830,7 +11982,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F17">
+  <conditionalFormatting sqref="F2:F18">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>

--- a/Tennis/WTA Tour/Petra Kvitová.xlsx
+++ b/Tennis/WTA Tour/Petra Kvitová.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5845" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87E4EEF8-87A9-409F-A6CA-C44CA64A35E3}"/>
+  <xr:revisionPtr revIDLastSave="5850" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57CCAAFD-7B75-4E2F-B80E-28A64CFED82A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="13" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4014" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4016" uniqueCount="789">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2916,7 +2916,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3476,7 +3476,7 @@
                   <c:v>0.44827586206896552</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11413,7 +11413,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11512,6 +11512,12 @@
       </c>
       <c r="D7" t="s">
         <v>168</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -11906,7 +11912,7 @@
         <v>2022</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -11915,11 +11921,11 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" s="9">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -11928,7 +11934,7 @@
       </c>
       <c r="B19" s="7">
         <f>SUM(B2:B18)</f>
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C19" s="7">
         <f>SUM(C2:C18)</f>
@@ -11940,11 +11946,11 @@
       </c>
       <c r="E19" s="7">
         <f>SUM(E2:E18)</f>
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F19" s="8">
         <f>(D19-E19)/D19</f>
-        <v>0.56000000000000005</v>
+        <v>0.55826086956521737</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -11953,7 +11959,7 @@
       </c>
       <c r="B20" s="7">
         <f>AVERAGE(B2:B18)</f>
-        <v>17.352941176470587</v>
+        <v>17.411764705882351</v>
       </c>
       <c r="C20" s="7">
         <f>AVERAGE(C2:C18)</f>
@@ -11965,11 +11971,11 @@
       </c>
       <c r="E20" s="7">
         <f>AVERAGE(E2:E18)</f>
-        <v>14.882352941176471</v>
+        <v>14.941176470588236</v>
       </c>
       <c r="F20" s="8">
         <f>(D20-E20)/D20</f>
-        <v>0.55999999999999994</v>
+        <v>0.55826086956521737</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Petra Kvitová.xlsx
+++ b/Tennis/WTA Tour/Petra Kvitová.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5850" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57CCAAFD-7B75-4E2F-B80E-28A64CFED82A}"/>
+  <xr:revisionPtr revIDLastSave="5958" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33ABF9A5-118D-42BB-91E1-63C681636672}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="13" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="12" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2006" sheetId="12" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4016" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4092" uniqueCount="803">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2419,6 +2419,48 @@
   </si>
   <si>
     <t>Ons Jabeur (TUNISIA)</t>
+  </si>
+  <si>
+    <t>Jule Niemeier (GERMANY)</t>
+  </si>
+  <si>
+    <t>5-7 7-5 7-6(11)</t>
+  </si>
+  <si>
+    <t>Elise Mertens (BELGIUM)</t>
+  </si>
+  <si>
+    <t>5-7 2-1 RETIRED</t>
+  </si>
+  <si>
+    <t>Aliaksandra Sasnovich (BELARUS)</t>
+  </si>
+  <si>
+    <t>6-7(4) 6-4 6-4</t>
+  </si>
+  <si>
+    <t>Clara Burel (FRANCE)</t>
+  </si>
+  <si>
+    <t>Lauren Davis (USA)</t>
+  </si>
+  <si>
+    <t>7-6(5) 6-4</t>
+  </si>
+  <si>
+    <t>Iga Świątek (POLAND)</t>
+  </si>
+  <si>
+    <t>CHARLESTON OPEN</t>
+  </si>
+  <si>
+    <t>Magdalena Fręch (POLAND)</t>
+  </si>
+  <si>
+    <t>7-6(8-6) 3-2 RETIRED</t>
+  </si>
+  <si>
+    <t>6-4 4-6 7-6(5)</t>
   </si>
 </sst>
 </file>
@@ -2766,7 +2808,7 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2916,7 +2958,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3476,7 +3518,7 @@
                   <c:v>0.44827586206896552</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-2</c:v>
+                  <c:v>-0.1111111111111111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8151,7 +8193,7 @@
   <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10132,7 +10174,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10612,8 +10654,8 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11410,20 +11452,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A31" activeCellId="10" sqref="A2 A4 A7 A9 A12 A16 A19 A22 A27 A29 A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -11518,6 +11560,266 @@
       </c>
       <c r="F7" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>767</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>789</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>612</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>249</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>770</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>683</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>237</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>539</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>612</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>791</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>784</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>793</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>775</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" t="s">
+        <v>795</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>796</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>748</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>798</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>799</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="s">
+        <v>800</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>510</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>197</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -11533,8 +11835,8 @@
   </sheetPr>
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11912,20 +12214,20 @@
         <v>2022</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F18" s="9">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>-0.1111111111111111</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -11934,7 +12236,7 @@
       </c>
       <c r="B19" s="7">
         <f>SUM(B2:B18)</f>
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C19" s="7">
         <f>SUM(C2:C18)</f>
@@ -11942,15 +12244,15 @@
       </c>
       <c r="D19" s="7">
         <f>SUM(D2:D18)</f>
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="E19" s="7">
         <f>SUM(E2:E18)</f>
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="F19" s="8">
         <f>(D19-E19)/D19</f>
-        <v>0.55826086956521737</v>
+        <v>0.55231560891938247</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -11959,7 +12261,7 @@
       </c>
       <c r="B20" s="7">
         <f>AVERAGE(B2:B18)</f>
-        <v>17.411764705882351</v>
+        <v>17.882352941176471</v>
       </c>
       <c r="C20" s="7">
         <f>AVERAGE(C2:C18)</f>
@@ -11967,15 +12269,15 @@
       </c>
       <c r="D20" s="7">
         <f>AVERAGE(D2:D18)</f>
-        <v>33.823529411764703</v>
+        <v>34.294117647058826</v>
       </c>
       <c r="E20" s="7">
         <f>AVERAGE(E2:E18)</f>
-        <v>14.941176470588236</v>
+        <v>15.352941176470589</v>
       </c>
       <c r="F20" s="8">
         <f>(D20-E20)/D20</f>
-        <v>0.55826086956521737</v>
+        <v>0.55231560891938258</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Petra Kvitová.xlsx
+++ b/Tennis/WTA Tour/Petra Kvitová.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5958" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33ABF9A5-118D-42BB-91E1-63C681636672}"/>
+  <xr:revisionPtr revIDLastSave="5963" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A302164A-C29E-4DA1-B040-F5178C69348A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="12" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="13" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2006" sheetId="12" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4092" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4096" uniqueCount="803">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2958,7 +2958,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3518,7 +3518,7 @@
                   <c:v>0.44827586206896552</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.1111111111111111</c:v>
+                  <c:v>-0.22222222222222221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10655,7 +10655,7 @@
   <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11454,8 +11454,8 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A31" activeCellId="10" sqref="A2 A4 A7 A9 A12 A16 A19 A22 A27 A29 A31"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E22" activeCellId="5" sqref="E4 E9 E12:E13 E16 E19 E22:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11821,6 +11821,18 @@
       <c r="B31" t="s">
         <v>39</v>
       </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" t="s">
+        <v>741</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11836,7 +11848,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12223,11 +12235,11 @@
         <v>9</v>
       </c>
       <c r="E18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" s="9">
         <f t="shared" si="0"/>
-        <v>-0.1111111111111111</v>
+        <v>-0.22222222222222221</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -12248,11 +12260,11 @@
       </c>
       <c r="E19" s="7">
         <f>SUM(E2:E18)</f>
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F19" s="8">
         <f>(D19-E19)/D19</f>
-        <v>0.55231560891938247</v>
+        <v>0.55060034305317329</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -12273,11 +12285,11 @@
       </c>
       <c r="E20" s="7">
         <f>AVERAGE(E2:E18)</f>
-        <v>15.352941176470589</v>
+        <v>15.411764705882353</v>
       </c>
       <c r="F20" s="8">
         <f>(D20-E20)/D20</f>
-        <v>0.55231560891938258</v>
+        <v>0.55060034305317318</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Petra Kvitová.xlsx
+++ b/Tennis/WTA Tour/Petra Kvitová.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5963" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A302164A-C29E-4DA1-B040-F5178C69348A}"/>
+  <xr:revisionPtr revIDLastSave="6017" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{407B74D0-ADF3-426F-9002-B51228EE0D49}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="13" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2006" sheetId="12" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4096" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4138" uniqueCount="810">
   <si>
     <t>Semifinal</t>
   </si>
@@ -708,9 +708,6 @@
     <t>Irina-Camelia Begu (ROMANIA)</t>
   </si>
   <si>
-    <t>Daria Gavrilova (AUSTRALIA)</t>
-  </si>
-  <si>
     <t>Alizé Cornet (FRANCE)</t>
   </si>
   <si>
@@ -2461,6 +2458,30 @@
   </si>
   <si>
     <t>6-4 4-6 7-6(5)</t>
+  </si>
+  <si>
+    <t>Anna Bondár (HUNGARY)</t>
+  </si>
+  <si>
+    <t>7-6(0) 6-1</t>
+  </si>
+  <si>
+    <t>Dasha Saville (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>Beatriz Haddad Maia (BRAZIL)</t>
+  </si>
+  <si>
+    <t>Katie Boulter (GREAT BRITAIN)</t>
+  </si>
+  <si>
+    <t>6-1 7-6(1)</t>
+  </si>
+  <si>
+    <t>5-7 6-0 7-5</t>
+  </si>
+  <si>
+    <t>Harriet Dart (GREAT BRITAIN)</t>
   </si>
 </sst>
 </file>
@@ -2808,7 +2829,7 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2958,7 +2979,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3518,7 +3539,7 @@
                   <c:v>0.44827586206896552</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.22222222222222221</c:v>
+                  <c:v>0.13333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5345,7 +5366,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
@@ -5354,7 +5375,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
@@ -5368,7 +5389,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
@@ -5382,7 +5403,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
@@ -5396,7 +5417,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>23</v>
@@ -5407,7 +5428,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B7" t="s">
         <v>39</v>
@@ -5416,7 +5437,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
@@ -5430,13 +5451,13 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -5444,18 +5465,18 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
@@ -5464,7 +5485,7 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
@@ -5478,7 +5499,7 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>24</v>
@@ -5492,7 +5513,7 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>24</v>
@@ -5506,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>24</v>
@@ -5520,7 +5541,7 @@
         <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>24</v>
@@ -5531,16 +5552,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>270</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
         <v>271</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>272</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>23</v>
@@ -5551,22 +5572,22 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>272</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
         <v>273</v>
       </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>274</v>
-      </c>
       <c r="E19" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -5574,7 +5595,7 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>24</v>
@@ -5588,13 +5609,13 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
+        <v>276</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" t="s">
         <v>277</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -5602,7 +5623,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>24</v>
@@ -5616,7 +5637,7 @@
         <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>24</v>
@@ -5638,8 +5659,8 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5674,7 +5695,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -5683,7 +5704,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
@@ -5697,7 +5718,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
@@ -5711,7 +5732,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
@@ -5736,7 +5757,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -5759,13 +5780,13 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -5793,7 +5814,7 @@
         <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -5807,7 +5828,7 @@
         <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>24</v>
@@ -5835,7 +5856,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>23</v>
@@ -5846,7 +5867,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -5875,12 +5896,12 @@
         <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -5895,7 +5916,7 @@
         <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -5909,12 +5930,12 @@
         <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -5931,7 +5952,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>24</v>
@@ -5942,7 +5963,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B25" t="s">
         <v>39</v>
@@ -5957,7 +5978,7 @@
         <v>23</v>
       </c>
       <c r="F25" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -5971,13 +5992,13 @@
         <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F27" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -5985,13 +6006,13 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F28" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -6013,7 +6034,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>24</v>
@@ -6027,7 +6048,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>24</v>
@@ -6061,13 +6082,13 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F34" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -6129,7 +6150,7 @@
         <v>24</v>
       </c>
       <c r="F39" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -6137,7 +6158,7 @@
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>24</v>
@@ -6157,7 +6178,7 @@
         <v>23</v>
       </c>
       <c r="F41" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -6185,7 +6206,7 @@
         <v>33</v>
       </c>
       <c r="D44" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>24</v>
@@ -6210,7 +6231,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B47" t="s">
         <v>22</v>
@@ -6230,7 +6251,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B49" t="s">
         <v>22</v>
@@ -6245,12 +6266,12 @@
         <v>23</v>
       </c>
       <c r="F49" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B51" t="s">
         <v>22</v>
@@ -6259,13 +6280,13 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F51" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -6307,7 +6328,7 @@
         <v>24</v>
       </c>
       <c r="F54" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -6321,7 +6342,7 @@
         <v>32</v>
       </c>
       <c r="D56" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>24</v>
@@ -6349,7 +6370,7 @@
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>24</v>
@@ -6363,7 +6384,7 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>24</v>
@@ -6383,12 +6404,12 @@
         <v>23</v>
       </c>
       <c r="F60" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B62" t="s">
         <v>22</v>
@@ -6397,13 +6418,13 @@
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>625</v>
+        <v>804</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F62" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -6417,7 +6438,7 @@
         <v>23</v>
       </c>
       <c r="F63" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -6442,7 +6463,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B67" t="s">
         <v>22</v>
@@ -6465,7 +6486,7 @@
         <v>75</v>
       </c>
       <c r="D68" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>23</v>
@@ -6479,13 +6500,13 @@
         <v>75</v>
       </c>
       <c r="D69" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F69" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -6499,7 +6520,7 @@
         <v>24</v>
       </c>
       <c r="F70" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -6518,7 +6539,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B73" t="s">
         <v>22</v>
@@ -6535,13 +6556,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F74" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
   </sheetData>
@@ -6557,8 +6578,8 @@
   </sheetPr>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6593,7 +6614,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -6602,13 +6623,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
+        <v>627</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
         <v>628</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6622,7 +6643,7 @@
         <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
@@ -6636,7 +6657,7 @@
         <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>23</v>
@@ -6647,7 +6668,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -6662,12 +6683,12 @@
         <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -6682,7 +6703,7 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -6690,18 +6711,18 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
@@ -6710,13 +6731,13 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
+        <v>631</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
         <v>632</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6730,7 +6751,7 @@
         <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6744,7 +6765,7 @@
         <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -6772,7 +6793,7 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>24</v>
@@ -6786,7 +6807,7 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>23</v>
@@ -6797,7 +6818,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
@@ -6806,7 +6827,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>24</v>
@@ -6820,13 +6841,13 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -6834,13 +6855,13 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F22" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -6848,13 +6869,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -6868,7 +6889,7 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>24</v>
@@ -6896,7 +6917,7 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>625</v>
+        <v>804</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>23</v>
@@ -6936,7 +6957,7 @@
         <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>24</v>
@@ -6950,7 +6971,7 @@
         <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>24</v>
@@ -6964,18 +6985,18 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F33" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B35" t="s">
         <v>46</v>
@@ -6998,18 +7019,18 @@
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F36" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B38" t="s">
         <v>46</v>
@@ -7024,7 +7045,7 @@
         <v>24</v>
       </c>
       <c r="F38" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -7032,13 +7053,13 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F39" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -7066,18 +7087,18 @@
         <v>33</v>
       </c>
       <c r="D42" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F42" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B44" t="s">
         <v>22</v>
@@ -7086,7 +7107,7 @@
         <v>33</v>
       </c>
       <c r="D44" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>24</v>
@@ -7120,12 +7141,12 @@
         <v>23</v>
       </c>
       <c r="F46" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B48" t="s">
         <v>22</v>
@@ -7134,13 +7155,13 @@
         <v>32</v>
       </c>
       <c r="D48" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F48" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -7182,7 +7203,7 @@
         <v>24</v>
       </c>
       <c r="F51" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -7204,18 +7225,18 @@
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F53" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B55" t="s">
         <v>22</v>
@@ -7224,13 +7245,13 @@
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F55" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -7238,7 +7259,7 @@
         <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>24</v>
@@ -7252,7 +7273,7 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>24</v>
@@ -7286,7 +7307,7 @@
         <v>32</v>
       </c>
       <c r="D60" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>24</v>
@@ -7300,13 +7321,13 @@
         <v>33</v>
       </c>
       <c r="D61" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F61" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -7328,7 +7349,7 @@
         <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>23</v>
@@ -7339,7 +7360,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B65" t="s">
         <v>22</v>
@@ -7362,18 +7383,18 @@
         <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F66" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B68" t="s">
         <v>22</v>
@@ -7382,7 +7403,7 @@
         <v>33</v>
       </c>
       <c r="D68" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>24</v>
@@ -7410,13 +7431,13 @@
         <v>3</v>
       </c>
       <c r="D70" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F70" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -7424,7 +7445,7 @@
         <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>24</v>
@@ -7472,7 +7493,7 @@
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>24</v>
@@ -7486,7 +7507,7 @@
         <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>24</v>
@@ -7500,18 +7521,18 @@
         <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F77" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B79" t="s">
         <v>22</v>
@@ -7520,7 +7541,7 @@
         <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>24</v>
@@ -7540,7 +7561,7 @@
         <v>24</v>
       </c>
       <c r="F80" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -7562,7 +7583,7 @@
         <v>0</v>
       </c>
       <c r="D82" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>24</v>
@@ -7576,7 +7597,7 @@
         <v>58</v>
       </c>
       <c r="D83" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>23</v>
@@ -7587,7 +7608,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B85" t="s">
         <v>22</v>
@@ -7649,7 +7670,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B90" t="s">
         <v>22</v>
@@ -7661,7 +7682,7 @@
         <v>23</v>
       </c>
       <c r="F90" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -7722,7 +7743,7 @@
         <v>32</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
@@ -7738,13 +7759,13 @@
         <v>33</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -7757,7 +7778,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B5" t="s">
         <v>46</v>
@@ -7766,7 +7787,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
@@ -7780,7 +7801,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
@@ -7794,13 +7815,13 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7814,7 +7835,7 @@
         <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -7842,7 +7863,7 @@
         <v>32</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
@@ -7856,13 +7877,13 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -7876,7 +7897,7 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>24</v>
@@ -7901,7 +7922,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
@@ -7916,7 +7937,7 @@
         <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -7930,12 +7951,12 @@
         <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
@@ -7944,13 +7965,13 @@
         <v>33</v>
       </c>
       <c r="D20" t="s">
+        <v>665</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" t="s">
         <v>666</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -7969,7 +7990,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
@@ -7978,7 +7999,7 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>23</v>
@@ -8012,7 +8033,7 @@
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>24</v>
@@ -8040,13 +8061,13 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F28" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -8060,12 +8081,12 @@
         <v>23</v>
       </c>
       <c r="F29" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B31" t="s">
         <v>22</v>
@@ -8080,7 +8101,7 @@
         <v>23</v>
       </c>
       <c r="F31" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -8094,7 +8115,7 @@
         <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>24</v>
@@ -8161,22 +8182,22 @@
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>670</v>
+      </c>
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
         <v>671</v>
       </c>
-      <c r="B39" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" t="s">
-        <v>672</v>
-      </c>
       <c r="E39" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F39" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -8192,8 +8213,8 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8228,7 +8249,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>22</v>
@@ -8243,7 +8264,7 @@
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -8253,7 +8274,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>23</v>
@@ -8282,12 +8303,12 @@
         <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -8296,7 +8317,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
@@ -8310,7 +8331,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>24</v>
@@ -8324,7 +8345,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>24</v>
@@ -8344,7 +8365,7 @@
         <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8352,7 +8373,7 @@
         <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
@@ -8363,7 +8384,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
@@ -8380,7 +8401,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>24</v>
@@ -8391,7 +8412,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -8400,7 +8421,7 @@
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>24</v>
@@ -8420,7 +8441,7 @@
         <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -8448,7 +8469,7 @@
         <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -8462,7 +8483,7 @@
         <v>24</v>
       </c>
       <c r="F20" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -8470,7 +8491,7 @@
         <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>24</v>
@@ -8481,7 +8502,7 @@
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
@@ -8490,13 +8511,13 @@
         <v>33</v>
       </c>
       <c r="D23" t="s">
+        <v>679</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" t="s">
         <v>680</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -8504,7 +8525,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>23</v>
@@ -8524,13 +8545,13 @@
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F26" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -8538,13 +8559,13 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -8552,18 +8573,18 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B30" t="s">
         <v>39</v>
@@ -8572,18 +8593,18 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F30" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B32" t="s">
         <v>39</v>
@@ -8611,7 +8632,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B35" t="s">
         <v>39</v>
@@ -8631,7 +8652,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B37" t="s">
         <v>39</v>
@@ -8640,7 +8661,7 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>24</v>
@@ -8654,7 +8675,7 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>24</v>
@@ -8668,7 +8689,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>24</v>
@@ -8688,7 +8709,7 @@
         <v>24</v>
       </c>
       <c r="F40" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -8696,7 +8717,7 @@
         <v>58</v>
       </c>
       <c r="D41" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>24</v>
@@ -8716,7 +8737,7 @@
         <v>33</v>
       </c>
       <c r="D43" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>24</v>
@@ -8730,13 +8751,13 @@
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F44" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -8744,13 +8765,13 @@
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F45" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -8758,7 +8779,7 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>24</v>
@@ -8778,7 +8799,7 @@
         <v>24</v>
       </c>
       <c r="F47" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -8792,7 +8813,7 @@
         <v>24</v>
       </c>
       <c r="F48" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -8806,13 +8827,13 @@
         <v>32</v>
       </c>
       <c r="D50" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F50" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -8820,7 +8841,7 @@
         <v>33</v>
       </c>
       <c r="D51" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>24</v>
@@ -8834,18 +8855,18 @@
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F52" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B54" t="s">
         <v>46</v>
@@ -8854,7 +8875,7 @@
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>24</v>
@@ -8868,7 +8889,7 @@
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>625</v>
+        <v>804</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>24</v>
@@ -8896,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>24</v>
@@ -8916,12 +8937,12 @@
         <v>24</v>
       </c>
       <c r="F58" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B60" t="s">
         <v>46</v>
@@ -8930,7 +8951,7 @@
         <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>24</v>
@@ -8950,7 +8971,7 @@
         <v>91</v>
       </c>
       <c r="F61" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -8964,18 +8985,18 @@
         <v>32</v>
       </c>
       <c r="D63" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F63" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B65" t="s">
         <v>22</v>
@@ -8984,7 +9005,7 @@
         <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>24</v>
@@ -9009,7 +9030,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B68" t="s">
         <v>22</v>
@@ -9018,7 +9039,7 @@
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>24</v>
@@ -9032,7 +9053,7 @@
         <v>3</v>
       </c>
       <c r="D69" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>24</v>
@@ -9046,13 +9067,13 @@
         <v>2</v>
       </c>
       <c r="D70" t="s">
+        <v>694</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F70" t="s">
         <v>695</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F70" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -9071,7 +9092,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B73" t="s">
         <v>22</v>
@@ -9086,7 +9107,7 @@
         <v>24</v>
       </c>
       <c r="F73" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -9100,7 +9121,7 @@
         <v>24</v>
       </c>
       <c r="F74" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -9114,7 +9135,7 @@
         <v>23</v>
       </c>
       <c r="F75" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -9128,7 +9149,7 @@
         <v>32</v>
       </c>
       <c r="D77" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>24</v>
@@ -9142,7 +9163,7 @@
         <v>33</v>
       </c>
       <c r="D78" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>24</v>
@@ -9156,7 +9177,7 @@
         <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>23</v>
@@ -9167,7 +9188,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B81" t="s">
         <v>22</v>
@@ -9176,7 +9197,7 @@
         <v>4</v>
       </c>
       <c r="D81" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>24</v>
@@ -9190,13 +9211,13 @@
         <v>3</v>
       </c>
       <c r="D82" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F82" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -9210,7 +9231,7 @@
         <v>33</v>
       </c>
       <c r="D84" t="s">
-        <v>218</v>
+        <v>804</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>23</v>
@@ -9221,7 +9242,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B86" t="s">
         <v>22</v>
@@ -9250,7 +9271,7 @@
         <v>23</v>
       </c>
       <c r="F87" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -9280,8 +9301,8 @@
   </sheetPr>
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9325,13 +9346,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
+        <v>700</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
         <v>701</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -9341,13 +9362,13 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -9358,7 +9379,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -9367,7 +9388,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
@@ -9381,13 +9402,13 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -9395,7 +9416,7 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
@@ -9409,7 +9430,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>24</v>
@@ -9429,7 +9450,7 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -9471,7 +9492,7 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>24</v>
@@ -9485,7 +9506,7 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>24</v>
@@ -9513,7 +9534,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>24</v>
@@ -9527,18 +9548,18 @@
         <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -9561,7 +9582,7 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>23</v>
@@ -9572,7 +9593,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -9581,13 +9602,13 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F22" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -9595,13 +9616,13 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F23" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -9609,7 +9630,7 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>24</v>
@@ -9623,13 +9644,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -9637,18 +9658,18 @@
         <v>58</v>
       </c>
       <c r="D26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F26" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
@@ -9663,7 +9684,7 @@
         <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -9677,7 +9698,7 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>24</v>
@@ -9691,7 +9712,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>24</v>
@@ -9725,12 +9746,12 @@
         <v>23</v>
       </c>
       <c r="F33" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B35" t="s">
         <v>39</v>
@@ -9739,7 +9760,7 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>24</v>
@@ -9753,13 +9774,13 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F36" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -9773,7 +9794,7 @@
         <v>24</v>
       </c>
       <c r="F37" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -9781,13 +9802,13 @@
         <v>58</v>
       </c>
       <c r="D38" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F38" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -9801,7 +9822,7 @@
         <v>33</v>
       </c>
       <c r="D40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>24</v>
@@ -9815,7 +9836,7 @@
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>24</v>
@@ -9863,7 +9884,7 @@
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>24</v>
@@ -9877,13 +9898,13 @@
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F46" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -9897,7 +9918,7 @@
         <v>32</v>
       </c>
       <c r="D48" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>24</v>
@@ -9911,7 +9932,7 @@
         <v>33</v>
       </c>
       <c r="D49" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>24</v>
@@ -9925,7 +9946,7 @@
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>24</v>
@@ -9939,18 +9960,18 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F51" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B53" t="s">
         <v>22</v>
@@ -9959,13 +9980,13 @@
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F53" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -9979,7 +10000,7 @@
         <v>32</v>
       </c>
       <c r="D55" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>24</v>
@@ -10004,7 +10025,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B58" t="s">
         <v>22</v>
@@ -10013,13 +10034,13 @@
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F58" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -10041,7 +10062,7 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>24</v>
@@ -10055,7 +10076,7 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>23</v>
@@ -10075,7 +10096,7 @@
         <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>24</v>
@@ -10089,7 +10110,7 @@
         <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>24</v>
@@ -10109,12 +10130,12 @@
         <v>23</v>
       </c>
       <c r="F65" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B67" t="s">
         <v>22</v>
@@ -10137,13 +10158,13 @@
         <v>75</v>
       </c>
       <c r="D68" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F68" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -10151,13 +10172,13 @@
         <v>75</v>
       </c>
       <c r="D69" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F69" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
   </sheetData>
@@ -10173,7 +10194,7 @@
   </sheetPr>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -10218,13 +10239,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -10234,7 +10255,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
@@ -10250,7 +10271,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
@@ -10294,7 +10315,7 @@
         <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
@@ -10308,7 +10329,7 @@
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>24</v>
@@ -10322,7 +10343,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>24</v>
@@ -10336,13 +10357,13 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -10350,18 +10371,18 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
@@ -10370,13 +10391,13 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
+        <v>724</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>725</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -10384,18 +10405,18 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F14" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -10418,13 +10439,13 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -10432,13 +10453,13 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -10446,7 +10467,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>24</v>
@@ -10460,7 +10481,7 @@
         <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>23</v>
@@ -10471,7 +10492,7 @@
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -10480,13 +10501,13 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10500,7 +10521,7 @@
         <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>24</v>
@@ -10514,13 +10535,13 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -10528,7 +10549,7 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>24</v>
@@ -10542,13 +10563,13 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
+        <v>731</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" t="s">
         <v>732</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -10562,7 +10583,7 @@
         <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>24</v>
@@ -10576,7 +10597,7 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>24</v>
@@ -10590,7 +10611,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>24</v>
@@ -10618,7 +10639,7 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>24</v>
@@ -10632,7 +10653,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>23</v>
@@ -10654,8 +10675,8 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10690,7 +10711,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>22</v>
@@ -10713,13 +10734,13 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
+        <v>736</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
         <v>737</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10733,7 +10754,7 @@
         <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
@@ -10753,12 +10774,12 @@
         <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
@@ -10767,7 +10788,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>24</v>
@@ -10781,13 +10802,13 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -10795,7 +10816,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>24</v>
@@ -10809,7 +10830,7 @@
         <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
@@ -10820,7 +10841,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
@@ -10829,13 +10850,13 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
+        <v>740</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
         <v>741</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -10849,7 +10870,7 @@
         <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>24</v>
@@ -10863,7 +10884,7 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>24</v>
@@ -10883,12 +10904,12 @@
         <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B19" t="s">
         <v>39</v>
@@ -10897,7 +10918,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>24</v>
@@ -10911,7 +10932,7 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>23</v>
@@ -10922,7 +10943,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B22" t="s">
         <v>39</v>
@@ -10931,7 +10952,7 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>24</v>
@@ -10945,13 +10966,13 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F23" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -10965,7 +10986,7 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -10979,13 +11000,13 @@
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F26" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -10993,13 +11014,13 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F27" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -11007,13 +11028,13 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -11021,13 +11042,13 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F29" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -11041,13 +11062,13 @@
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -11075,13 +11096,13 @@
         <v>32</v>
       </c>
       <c r="D34" t="s">
+        <v>751</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" t="s">
         <v>752</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F34" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -11095,12 +11116,12 @@
         <v>91</v>
       </c>
       <c r="F35" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B37" t="s">
         <v>46</v>
@@ -11109,13 +11130,13 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F37" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -11123,13 +11144,13 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
+        <v>756</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" t="s">
         <v>757</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F38" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -11137,13 +11158,13 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F39" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -11157,7 +11178,7 @@
         <v>23</v>
       </c>
       <c r="F40" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -11171,7 +11192,7 @@
         <v>32</v>
       </c>
       <c r="D42" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>23</v>
@@ -11182,7 +11203,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B44" t="s">
         <v>22</v>
@@ -11191,7 +11212,7 @@
         <v>33</v>
       </c>
       <c r="D44" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>24</v>
@@ -11205,18 +11226,18 @@
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F45" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B47" t="s">
         <v>22</v>
@@ -11225,7 +11246,7 @@
         <v>33</v>
       </c>
       <c r="D47" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>24</v>
@@ -11239,7 +11260,7 @@
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>23</v>
@@ -11250,7 +11271,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B50" t="s">
         <v>22</v>
@@ -11273,7 +11294,7 @@
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>24</v>
@@ -11287,7 +11308,7 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>24</v>
@@ -11307,7 +11328,7 @@
         <v>23</v>
       </c>
       <c r="F53" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -11321,7 +11342,7 @@
         <v>32</v>
       </c>
       <c r="D55" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>24</v>
@@ -11335,7 +11356,7 @@
         <v>33</v>
       </c>
       <c r="D56" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>24</v>
@@ -11349,7 +11370,7 @@
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>23</v>
@@ -11360,7 +11381,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B59" t="s">
         <v>22</v>
@@ -11369,13 +11390,13 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
+        <v>779</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59" t="s">
         <v>780</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F59" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -11383,7 +11404,7 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>24</v>
@@ -11397,7 +11418,7 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>23</v>
@@ -11408,7 +11429,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B63" t="s">
         <v>22</v>
@@ -11417,7 +11438,7 @@
         <v>33</v>
       </c>
       <c r="D63" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>24</v>
@@ -11452,10 +11473,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E22" activeCellId="5" sqref="E4 E9 E12:E13 E16 E19 E22:E24"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E38" activeCellId="7" sqref="E4 E9 E12:E13 E16 E19 E22:E24 E33 E38:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11490,27 +11511,27 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>785</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>786</v>
-      </c>
       <c r="E2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -11519,13 +11540,13 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -11533,7 +11554,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>23</v>
@@ -11564,7 +11585,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -11573,7 +11594,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>24</v>
@@ -11587,7 +11608,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>23</v>
@@ -11598,7 +11619,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
@@ -11607,7 +11628,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>24</v>
@@ -11621,7 +11642,7 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>24</v>
@@ -11635,18 +11656,18 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -11655,7 +11676,7 @@
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>24</v>
@@ -11669,18 +11690,18 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
+        <v>790</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
         <v>791</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -11689,13 +11710,13 @@
         <v>33</v>
       </c>
       <c r="D19" t="s">
+        <v>792</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
         <v>793</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -11703,7 +11724,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>23</v>
@@ -11723,13 +11744,13 @@
         <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F22" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -11737,7 +11758,7 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>24</v>
@@ -11751,13 +11772,13 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F24" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -11765,7 +11786,7 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>23</v>
@@ -11776,7 +11797,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B27" t="s">
         <v>39</v>
@@ -11785,18 +11806,18 @@
         <v>33</v>
       </c>
       <c r="D27" t="s">
+        <v>799</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" t="s">
         <v>800</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B29" t="s">
         <v>39</v>
@@ -11811,7 +11832,7 @@
         <v>23</v>
       </c>
       <c r="F29" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -11825,13 +11846,157 @@
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>802</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>804</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>366</v>
+      </c>
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>805</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>480</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>589</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" t="s">
+        <v>806</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>809</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>805</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" t="s">
+        <v>236</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" t="s">
+        <v>761</v>
       </c>
     </row>
   </sheetData>
@@ -11847,7 +12012,7 @@
   </sheetPr>
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -11863,22 +12028,22 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -12226,20 +12391,20 @@
         <v>2022</v>
       </c>
       <c r="B18">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E18">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="9">
         <f t="shared" si="0"/>
-        <v>-0.22222222222222221</v>
+        <v>0.13333333333333333</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -12248,48 +12413,48 @@
       </c>
       <c r="B19" s="7">
         <f>SUM(B2:B18)</f>
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C19" s="7">
         <f>SUM(C2:C18)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19" s="7">
         <f>SUM(D2:D18)</f>
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="E19" s="7">
         <f>SUM(E2:E18)</f>
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F19" s="8">
         <f>(D19-E19)/D19</f>
-        <v>0.55060034305317329</v>
+        <v>0.55178268251273344</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B20" s="7">
         <f>AVERAGE(B2:B18)</f>
-        <v>17.882352941176471</v>
+        <v>18.058823529411764</v>
       </c>
       <c r="C20" s="7">
         <f>AVERAGE(C2:C18)</f>
-        <v>1.6470588235294117</v>
+        <v>1.7058823529411764</v>
       </c>
       <c r="D20" s="7">
         <f>AVERAGE(D2:D18)</f>
-        <v>34.294117647058826</v>
+        <v>34.647058823529413</v>
       </c>
       <c r="E20" s="7">
         <f>AVERAGE(E2:E18)</f>
-        <v>15.411764705882353</v>
+        <v>15.529411764705882</v>
       </c>
       <c r="F20" s="8">
         <f>(D20-E20)/D20</f>
-        <v>0.55060034305317318</v>
+        <v>0.55178268251273344</v>
       </c>
     </row>
   </sheetData>
@@ -12359,7 +12524,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -12368,7 +12533,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
@@ -12382,7 +12547,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
@@ -12396,7 +12561,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
@@ -12416,7 +12581,7 @@
         <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -12424,7 +12589,7 @@
         <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
@@ -12435,7 +12600,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -12444,7 +12609,7 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>24</v>
@@ -12458,7 +12623,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>24</v>
@@ -12472,13 +12637,13 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -12486,7 +12651,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
@@ -12500,7 +12665,7 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>24</v>
@@ -12514,7 +12679,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>24</v>
@@ -12534,12 +12699,12 @@
         <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B16" t="s">
         <v>39</v>
@@ -12548,7 +12713,7 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>23</v>
@@ -12559,7 +12724,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B18" t="s">
         <v>39</v>
@@ -12568,7 +12733,7 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>24</v>
@@ -12582,18 +12747,18 @@
         <v>8</v>
       </c>
       <c r="D19" t="s">
+        <v>297</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s">
         <v>298</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
@@ -12602,13 +12767,13 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
+        <v>300</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" t="s">
         <v>301</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -12616,7 +12781,7 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>24</v>
@@ -12636,12 +12801,12 @@
         <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
@@ -12650,7 +12815,7 @@
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>24</v>
@@ -12664,7 +12829,7 @@
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>24</v>
@@ -12678,13 +12843,13 @@
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -12692,7 +12857,7 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>24</v>
@@ -12706,7 +12871,7 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>24</v>
@@ -12720,13 +12885,13 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F30" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -12734,7 +12899,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>24</v>
@@ -12759,16 +12924,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>314</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
         <v>315</v>
-      </c>
-      <c r="B34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" t="s">
-        <v>316</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>23</v>
@@ -12788,13 +12953,13 @@
         <v>10</v>
       </c>
       <c r="D36" t="s">
+        <v>316</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" t="s">
         <v>317</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F36" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -12802,7 +12967,7 @@
         <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>23</v>
@@ -12813,7 +12978,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B39" t="s">
         <v>39</v>
@@ -12822,7 +12987,7 @@
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>24</v>
@@ -12836,7 +13001,7 @@
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>23</v>
@@ -12847,27 +13012,27 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>321</v>
+      </c>
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
         <v>322</v>
       </c>
-      <c r="B42" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="E42" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" t="s">
         <v>323</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F42" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B44" t="s">
         <v>22</v>
@@ -12882,7 +13047,7 @@
         <v>24</v>
       </c>
       <c r="F44" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -12890,7 +13055,7 @@
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>24</v>
@@ -12904,7 +13069,7 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>24</v>
@@ -12918,7 +13083,7 @@
         <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>24</v>
@@ -12932,7 +13097,7 @@
         <v>58</v>
       </c>
       <c r="D48" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>23</v>
@@ -12943,27 +13108,27 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>330</v>
+      </c>
+      <c r="B50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" t="s">
         <v>331</v>
       </c>
-      <c r="B50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C50" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="E50" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F50" t="s">
         <v>332</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F50" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B52" t="s">
         <v>22</v>
@@ -12972,7 +13137,7 @@
         <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>23</v>
@@ -12983,7 +13148,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B54" t="s">
         <v>22</v>
@@ -12992,7 +13157,7 @@
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>24</v>
@@ -13006,7 +13171,7 @@
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>24</v>
@@ -13034,7 +13199,7 @@
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>24</v>
@@ -13059,7 +13224,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B60" t="s">
         <v>22</v>
@@ -13068,7 +13233,7 @@
         <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>24</v>
@@ -13082,7 +13247,7 @@
         <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>24</v>
@@ -13116,7 +13281,7 @@
         <v>24</v>
       </c>
       <c r="F63" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -13124,7 +13289,7 @@
         <v>58</v>
       </c>
       <c r="D64" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>24</v>
@@ -13191,7 +13356,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>23</v>
@@ -13211,7 +13376,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
@@ -13239,7 +13404,7 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
@@ -13278,7 +13443,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -13287,18 +13452,18 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
+        <v>345</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
         <v>346</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
@@ -13307,7 +13472,7 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>24</v>
@@ -13355,7 +13520,7 @@
         <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -13363,13 +13528,13 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13383,7 +13548,7 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>24</v>
@@ -13397,7 +13562,7 @@
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>24</v>
@@ -13417,41 +13582,41 @@
         <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>354</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
         <v>355</v>
       </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" t="s">
         <v>356</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>357</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
         <v>358</v>
-      </c>
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>359</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>24</v>
@@ -13479,7 +13644,7 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>24</v>
@@ -13507,7 +13672,7 @@
         <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>24</v>
@@ -13518,7 +13683,7 @@
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B30" t="s">
         <v>22</v>
@@ -13535,7 +13700,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>23</v>
@@ -13546,7 +13711,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B33" t="s">
         <v>39</v>
@@ -13566,7 +13731,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B35" t="s">
         <v>39</v>
@@ -13589,7 +13754,7 @@
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>23</v>
@@ -13609,7 +13774,7 @@
         <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>24</v>
@@ -13637,13 +13802,13 @@
         <v>4</v>
       </c>
       <c r="D40" t="s">
+        <v>364</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" t="s">
         <v>365</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F40" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -13662,7 +13827,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B43" t="s">
         <v>46</v>
@@ -13671,13 +13836,13 @@
         <v>33</v>
       </c>
       <c r="D43" t="s">
+        <v>367</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" t="s">
         <v>368</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F43" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -13691,18 +13856,18 @@
         <v>32</v>
       </c>
       <c r="D45" t="s">
+        <v>369</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" t="s">
         <v>370</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F45" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B47" t="s">
         <v>39</v>
@@ -13725,7 +13890,7 @@
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>24</v>
@@ -13739,7 +13904,7 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>23</v>
@@ -13750,7 +13915,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B51" t="s">
         <v>22</v>
@@ -13759,13 +13924,13 @@
         <v>33</v>
       </c>
       <c r="D51" t="s">
+        <v>375</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" t="s">
         <v>376</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F51" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -13773,7 +13938,7 @@
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>23</v>
@@ -13784,7 +13949,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B54" t="s">
         <v>22</v>
@@ -13793,7 +13958,7 @@
         <v>33</v>
       </c>
       <c r="D54" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>24</v>
@@ -13813,7 +13978,7 @@
         <v>23</v>
       </c>
       <c r="F55" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -13833,12 +13998,12 @@
         <v>23</v>
       </c>
       <c r="F57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B59" t="s">
         <v>39</v>
@@ -13847,7 +14012,7 @@
         <v>4</v>
       </c>
       <c r="D59" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>24</v>
@@ -13875,18 +14040,18 @@
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F61" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B63" t="s">
         <v>22</v>
@@ -13895,7 +14060,7 @@
         <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>23</v>
@@ -13906,7 +14071,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B65" t="s">
         <v>22</v>
@@ -13915,7 +14080,7 @@
         <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>24</v>
@@ -13935,7 +14100,7 @@
         <v>24</v>
       </c>
       <c r="F66" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -13943,7 +14108,7 @@
         <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>24</v>
@@ -13957,7 +14122,7 @@
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>24</v>
@@ -13971,7 +14136,7 @@
         <v>3</v>
       </c>
       <c r="D69" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>24</v>
@@ -13996,7 +14161,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B72" t="s">
         <v>22</v>
@@ -14005,7 +14170,7 @@
         <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>24</v>
@@ -14019,13 +14184,13 @@
         <v>8</v>
       </c>
       <c r="D73" t="s">
+        <v>392</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F73" t="s">
         <v>393</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F73" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -14033,7 +14198,7 @@
         <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>24</v>
@@ -14047,7 +14212,7 @@
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>24</v>
@@ -14072,7 +14237,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B78" t="s">
         <v>22</v>
@@ -14087,7 +14252,7 @@
         <v>24</v>
       </c>
       <c r="F78" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -14109,13 +14274,13 @@
         <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -14188,16 +14353,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
         <v>399</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>400</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
@@ -14211,7 +14376,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
@@ -14225,7 +14390,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
@@ -14239,7 +14404,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
@@ -14284,13 +14449,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>24</v>
@@ -14332,7 +14497,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
@@ -14341,18 +14506,18 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
+        <v>402</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
         <v>403</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -14361,7 +14526,7 @@
         <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>24</v>
@@ -14420,7 +14585,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B25" t="s">
         <v>39</v>
@@ -14440,13 +14605,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B27" t="s">
         <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>23</v>
@@ -14457,18 +14622,18 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
+        <v>406</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" t="s">
         <v>407</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B30" t="s">
         <v>39</v>
@@ -14477,7 +14642,7 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>23</v>
@@ -14497,7 +14662,7 @@
         <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>24</v>
@@ -14531,7 +14696,7 @@
         <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>23</v>
@@ -14542,7 +14707,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B37" t="s">
         <v>39</v>
@@ -14551,13 +14716,13 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
+        <v>413</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" t="s">
         <v>414</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F37" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -14576,7 +14741,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B40" t="s">
         <v>39</v>
@@ -14585,7 +14750,7 @@
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>24</v>
@@ -14610,7 +14775,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B43" t="s">
         <v>22</v>
@@ -14625,7 +14790,7 @@
         <v>24</v>
       </c>
       <c r="F43" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -14633,7 +14798,7 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>23</v>
@@ -14653,13 +14818,13 @@
         <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -14687,7 +14852,7 @@
         <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>23</v>
@@ -14698,16 +14863,16 @@
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>419</v>
+      </c>
+      <c r="B51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
         <v>420</v>
-      </c>
-      <c r="B51" t="s">
-        <v>22</v>
-      </c>
-      <c r="C51" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" t="s">
-        <v>421</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>23</v>
@@ -14727,13 +14892,13 @@
         <v>32</v>
       </c>
       <c r="D53" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F53" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -14741,7 +14906,7 @@
         <v>33</v>
       </c>
       <c r="D54" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>24</v>
@@ -14755,13 +14920,13 @@
         <v>4</v>
       </c>
       <c r="D55" t="s">
+        <v>422</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F55" t="s">
         <v>423</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F55" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -14769,33 +14934,33 @@
         <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F56" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>426</v>
+      </c>
+      <c r="B58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" t="s">
         <v>427</v>
       </c>
-      <c r="B58" t="s">
-        <v>22</v>
-      </c>
-      <c r="C58" t="s">
-        <v>4</v>
-      </c>
-      <c r="D58" t="s">
-        <v>428</v>
-      </c>
       <c r="E58" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F58" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -14803,7 +14968,7 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>24</v>
@@ -14817,18 +14982,18 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F60" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B62" t="s">
         <v>22</v>
@@ -14893,7 +15058,7 @@
         <v>58</v>
       </c>
       <c r="D66" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>23</v>
@@ -14904,16 +15069,16 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>431</v>
+      </c>
+      <c r="B68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" t="s">
         <v>432</v>
-      </c>
-      <c r="B68" t="s">
-        <v>22</v>
-      </c>
-      <c r="C68" t="s">
-        <v>4</v>
-      </c>
-      <c r="D68" t="s">
-        <v>433</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>23</v>
@@ -14972,7 +15137,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -14981,7 +15146,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
@@ -15015,7 +15180,7 @@
         <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15029,7 +15194,7 @@
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
@@ -15043,7 +15208,7 @@
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>23</v>
@@ -15054,13 +15219,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>23</v>
@@ -15082,16 +15247,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>436</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>437</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>438</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>24</v>
@@ -15125,7 +15290,7 @@
         <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -15144,7 +15309,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
@@ -15153,7 +15318,7 @@
         <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>24</v>
@@ -15187,7 +15352,7 @@
         <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>24</v>
@@ -15201,7 +15366,7 @@
         <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>23</v>
@@ -15212,7 +15377,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B23" t="s">
         <v>39</v>
@@ -15232,7 +15397,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s">
         <v>39</v>
@@ -15244,7 +15409,7 @@
         <v>23</v>
       </c>
       <c r="F25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -15306,7 +15471,7 @@
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>24</v>
@@ -15340,18 +15505,18 @@
         <v>32</v>
       </c>
       <c r="D34" t="s">
+        <v>442</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" t="s">
         <v>443</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B36" t="s">
         <v>46</v>
@@ -15394,13 +15559,13 @@
         <v>33</v>
       </c>
       <c r="D39" t="s">
+        <v>446</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" t="s">
         <v>447</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F39" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -15442,7 +15607,7 @@
         <v>24</v>
       </c>
       <c r="F42" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -15450,7 +15615,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>23</v>
@@ -15461,7 +15626,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B45" t="s">
         <v>22</v>
@@ -15481,27 +15646,27 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>448</v>
+      </c>
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
         <v>449</v>
       </c>
-      <c r="B47" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="E47" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" t="s">
         <v>450</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F47" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B49" t="s">
         <v>22</v>
@@ -15516,12 +15681,12 @@
         <v>23</v>
       </c>
       <c r="F49" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B51" t="s">
         <v>22</v>
@@ -15530,18 +15695,18 @@
         <v>33</v>
       </c>
       <c r="D51" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F51" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B53" t="s">
         <v>22</v>
@@ -15584,7 +15749,7 @@
         <v>33</v>
       </c>
       <c r="D56" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>24</v>
@@ -15598,7 +15763,7 @@
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>23</v>
@@ -15609,7 +15774,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B59" t="s">
         <v>22</v>
@@ -15618,13 +15783,13 @@
         <v>33</v>
       </c>
       <c r="D59" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F59" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -15644,7 +15809,7 @@
         <v>24</v>
       </c>
       <c r="F61" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -15658,7 +15823,7 @@
         <v>24</v>
       </c>
       <c r="F62" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -15677,7 +15842,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B65" t="s">
         <v>22</v>
@@ -15692,7 +15857,7 @@
         <v>24</v>
       </c>
       <c r="F65" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -15711,7 +15876,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B68" t="s">
         <v>22</v>
@@ -15726,12 +15891,12 @@
         <v>23</v>
       </c>
       <c r="F68" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B70" t="s">
         <v>22</v>
@@ -15754,7 +15919,7 @@
         <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>24</v>
@@ -15856,7 +16021,7 @@
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -15864,13 +16029,13 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
+        <v>463</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
         <v>464</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -15892,13 +16057,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -15926,7 +16091,7 @@
         <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>24</v>
@@ -15974,7 +16139,7 @@
         <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -15993,7 +16158,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
@@ -16050,7 +16215,7 @@
         <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -16058,13 +16223,13 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -16086,7 +16251,7 @@
         <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>24</v>
@@ -16097,7 +16262,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
@@ -16112,12 +16277,12 @@
         <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
@@ -16132,21 +16297,21 @@
         <v>23</v>
       </c>
       <c r="F25" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>471</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
         <v>472</v>
-      </c>
-      <c r="B27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s">
-        <v>473</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>23</v>
@@ -16180,30 +16345,30 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F30" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B32" t="s">
         <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F32" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -16214,7 +16379,7 @@
         <v>24</v>
       </c>
       <c r="F33" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -16228,7 +16393,7 @@
         <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>24</v>
@@ -16309,7 +16474,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B42" t="s">
         <v>39</v>
@@ -16318,7 +16483,7 @@
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>24</v>
@@ -16332,7 +16497,7 @@
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>24</v>
@@ -16346,7 +16511,7 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>24</v>
@@ -16360,7 +16525,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>24</v>
@@ -16408,7 +16573,7 @@
         <v>33</v>
       </c>
       <c r="D49" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>24</v>
@@ -16422,7 +16587,7 @@
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>24</v>
@@ -16442,12 +16607,12 @@
         <v>23</v>
       </c>
       <c r="F51" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B53" t="s">
         <v>46</v>
@@ -16456,13 +16621,13 @@
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F53" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -16470,13 +16635,13 @@
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F54" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -16490,7 +16655,7 @@
         <v>24</v>
       </c>
       <c r="F55" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -16504,7 +16669,7 @@
         <v>24</v>
       </c>
       <c r="F56" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -16518,7 +16683,7 @@
         <v>23</v>
       </c>
       <c r="F57" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -16532,7 +16697,7 @@
         <v>32</v>
       </c>
       <c r="D59" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>24</v>
@@ -16546,7 +16711,7 @@
         <v>33</v>
       </c>
       <c r="D60" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>24</v>
@@ -16560,7 +16725,7 @@
         <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>24</v>
@@ -16574,7 +16739,7 @@
         <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>24</v>
@@ -16594,7 +16759,7 @@
         <v>24</v>
       </c>
       <c r="F63" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -16608,7 +16773,7 @@
         <v>24</v>
       </c>
       <c r="F64" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -16627,7 +16792,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B67" t="s">
         <v>22</v>
@@ -16642,7 +16807,7 @@
         <v>24</v>
       </c>
       <c r="F67" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -16661,7 +16826,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B70" t="s">
         <v>22</v>
@@ -16676,7 +16841,7 @@
         <v>24</v>
       </c>
       <c r="F70" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -16704,18 +16869,18 @@
         <v>32</v>
       </c>
       <c r="D73" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F73" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B75" t="s">
         <v>22</v>
@@ -16738,13 +16903,13 @@
         <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F76" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -16758,7 +16923,7 @@
         <v>24</v>
       </c>
       <c r="F77" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -16792,12 +16957,12 @@
         <v>23</v>
       </c>
       <c r="F80" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B82" t="s">
         <v>22</v>
@@ -16806,7 +16971,7 @@
         <v>4</v>
       </c>
       <c r="D82" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>24</v>
@@ -16820,7 +16985,7 @@
         <v>3</v>
       </c>
       <c r="D83" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>24</v>
@@ -16854,7 +17019,7 @@
         <v>24</v>
       </c>
       <c r="F85" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -16873,7 +17038,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B88" t="s">
         <v>22</v>
@@ -16888,7 +17053,7 @@
         <v>24</v>
       </c>
       <c r="F88" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -16944,12 +17109,12 @@
         <v>24</v>
       </c>
       <c r="F92" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B94" t="s">
         <v>22</v>
@@ -17024,7 +17189,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -17033,13 +17198,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -17067,7 +17232,7 @@
         <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -17081,7 +17246,7 @@
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
@@ -17101,7 +17266,7 @@
         <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -17115,7 +17280,7 @@
         <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -17129,7 +17294,7 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -17157,12 +17322,12 @@
         <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
@@ -17174,7 +17339,7 @@
         <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -17185,12 +17350,12 @@
         <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -17213,13 +17378,13 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17239,12 +17404,12 @@
         <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -17272,7 +17437,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B24" t="s">
         <v>39</v>
@@ -17295,7 +17460,7 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>24</v>
@@ -17315,7 +17480,7 @@
         <v>23</v>
       </c>
       <c r="F26" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17363,7 +17528,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>24</v>
@@ -17383,7 +17548,7 @@
         <v>24</v>
       </c>
       <c r="F32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -17391,13 +17556,13 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F33" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -17425,7 +17590,7 @@
         <v>33</v>
       </c>
       <c r="D36" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>24</v>
@@ -17439,13 +17604,13 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
+        <v>517</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" t="s">
         <v>518</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F37" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -17467,13 +17632,13 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -17492,7 +17657,7 @@
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B42" t="s">
         <v>46</v>
@@ -17521,7 +17686,7 @@
         <v>32</v>
       </c>
       <c r="D44" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>24</v>
@@ -17535,7 +17700,7 @@
         <v>33</v>
       </c>
       <c r="D45" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>24</v>
@@ -17569,7 +17734,7 @@
         <v>24</v>
       </c>
       <c r="F47" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -17577,7 +17742,7 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>23</v>
@@ -17588,7 +17753,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B50" t="s">
         <v>46</v>
@@ -17597,13 +17762,13 @@
         <v>33</v>
       </c>
       <c r="D50" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F50" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -17617,7 +17782,7 @@
         <v>24</v>
       </c>
       <c r="F51" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -17645,12 +17810,12 @@
         <v>23</v>
       </c>
       <c r="F53" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B55" t="s">
         <v>22</v>
@@ -17659,13 +17824,13 @@
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F55" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -17687,7 +17852,7 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>24</v>
@@ -17721,12 +17886,12 @@
         <v>24</v>
       </c>
       <c r="F59" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B61" t="s">
         <v>22</v>
@@ -17741,7 +17906,7 @@
         <v>24</v>
       </c>
       <c r="F61" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -17763,13 +17928,13 @@
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F63" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -17777,18 +17942,18 @@
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F64" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B66" t="s">
         <v>22</v>
@@ -17797,7 +17962,7 @@
         <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>24</v>
@@ -17845,7 +18010,7 @@
         <v>24</v>
       </c>
       <c r="F69" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -17859,13 +18024,13 @@
         <v>32</v>
       </c>
       <c r="D71" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F71" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -17873,7 +18038,7 @@
         <v>33</v>
       </c>
       <c r="D72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>24</v>
@@ -17887,7 +18052,7 @@
         <v>4</v>
       </c>
       <c r="D73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>24</v>
@@ -17907,12 +18072,12 @@
         <v>23</v>
       </c>
       <c r="F74" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B76" t="s">
         <v>22</v>
@@ -17921,7 +18086,7 @@
         <v>4</v>
       </c>
       <c r="D76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>23</v>
@@ -17966,7 +18131,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B81" t="s">
         <v>22</v>
@@ -17986,7 +18151,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B83" t="s">
         <v>22</v>
@@ -18085,7 +18250,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>23</v>
@@ -18096,7 +18261,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -18131,7 +18296,7 @@
         <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -18139,13 +18304,13 @@
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -18173,7 +18338,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>23</v>
@@ -18184,35 +18349,35 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -18227,7 +18392,7 @@
         <v>24</v>
       </c>
       <c r="F16" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -18241,7 +18406,7 @@
         <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -18249,7 +18414,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>23</v>
@@ -18260,7 +18425,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
@@ -18289,7 +18454,7 @@
         <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -18317,7 +18482,7 @@
         <v>24</v>
       </c>
       <c r="F23" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -18331,12 +18496,12 @@
         <v>24</v>
       </c>
       <c r="F24" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
@@ -18345,13 +18510,13 @@
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F26" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -18359,7 +18524,7 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>24</v>
@@ -18393,7 +18558,7 @@
         <v>23</v>
       </c>
       <c r="F29" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -18413,7 +18578,7 @@
         <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -18427,12 +18592,12 @@
         <v>23</v>
       </c>
       <c r="F32" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B34" t="s">
         <v>39</v>
@@ -18441,7 +18606,7 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>24</v>
@@ -18469,13 +18634,13 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F36" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -18483,7 +18648,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>24</v>
@@ -18503,12 +18668,12 @@
         <v>23</v>
       </c>
       <c r="F38" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B40" t="s">
         <v>39</v>
@@ -18520,7 +18685,7 @@
         <v>24</v>
       </c>
       <c r="F40" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -18536,7 +18701,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B43" t="s">
         <v>39</v>
@@ -18545,13 +18710,13 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
+        <v>554</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" t="s">
         <v>555</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F43" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -18565,7 +18730,7 @@
         <v>24</v>
       </c>
       <c r="F44" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -18593,13 +18758,13 @@
         <v>33</v>
       </c>
       <c r="D47" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F47" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -18613,7 +18778,7 @@
         <v>23</v>
       </c>
       <c r="F48" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -18633,7 +18798,7 @@
         <v>24</v>
       </c>
       <c r="F50" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -18641,13 +18806,13 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F51" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -18661,13 +18826,13 @@
         <v>32</v>
       </c>
       <c r="D53" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F53" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -18689,18 +18854,18 @@
         <v>4</v>
       </c>
       <c r="D55" t="s">
+        <v>559</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F55" t="s">
         <v>560</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F55" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B57" t="s">
         <v>46</v>
@@ -18709,7 +18874,7 @@
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>24</v>
@@ -18723,13 +18888,13 @@
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F58" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -18749,7 +18914,7 @@
         <v>24</v>
       </c>
       <c r="F60" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -18763,7 +18928,7 @@
         <v>24</v>
       </c>
       <c r="F61" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -18771,7 +18936,7 @@
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>24</v>
@@ -18805,12 +18970,12 @@
         <v>23</v>
       </c>
       <c r="F64" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B66" t="s">
         <v>22</v>
@@ -18819,7 +18984,7 @@
         <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>24</v>
@@ -18833,18 +18998,18 @@
         <v>2</v>
       </c>
       <c r="D67" t="s">
+        <v>567</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F67" t="s">
         <v>568</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F67" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B69" t="s">
         <v>22</v>
@@ -18853,7 +19018,7 @@
         <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>24</v>
@@ -18867,7 +19032,7 @@
         <v>3</v>
       </c>
       <c r="D70" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>24</v>
@@ -18887,12 +19052,12 @@
         <v>23</v>
       </c>
       <c r="F71" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B73" t="s">
         <v>22</v>
@@ -18907,7 +19072,7 @@
         <v>24</v>
       </c>
       <c r="F73" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -18926,7 +19091,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B76" t="s">
         <v>22</v>
@@ -18935,7 +19100,7 @@
         <v>4</v>
       </c>
       <c r="D76" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>24</v>
@@ -18949,13 +19114,13 @@
         <v>3</v>
       </c>
       <c r="D77" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F77" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -18963,13 +19128,13 @@
         <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F78" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -19011,13 +19176,13 @@
         <v>32</v>
       </c>
       <c r="D82" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F82" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -19025,7 +19190,7 @@
         <v>33</v>
       </c>
       <c r="D83" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>24</v>
@@ -19039,7 +19204,7 @@
         <v>4</v>
       </c>
       <c r="D84" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>23</v>
@@ -19050,7 +19215,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B86" t="s">
         <v>22</v>
@@ -19073,7 +19238,7 @@
         <v>3</v>
       </c>
       <c r="D87" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>24</v>
@@ -19107,7 +19272,7 @@
         <v>24</v>
       </c>
       <c r="F89" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -19115,13 +19280,13 @@
         <v>58</v>
       </c>
       <c r="D90" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F90" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -19141,7 +19306,7 @@
         <v>24</v>
       </c>
       <c r="F92" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -19155,7 +19320,7 @@
         <v>24</v>
       </c>
       <c r="F93" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -19169,7 +19334,7 @@
         <v>24</v>
       </c>
       <c r="F94" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -19183,12 +19348,12 @@
         <v>23</v>
       </c>
       <c r="F95" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B97" t="s">
         <v>22</v>
@@ -19197,13 +19362,13 @@
         <v>75</v>
       </c>
       <c r="D97" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F97" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -19211,7 +19376,7 @@
         <v>75</v>
       </c>
       <c r="D98" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>23</v>
@@ -19298,7 +19463,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -19355,18 +19520,18 @@
         <v>32</v>
       </c>
       <c r="D6" t="s">
+        <v>581</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
         <v>582</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
@@ -19381,7 +19546,7 @@
         <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -19395,7 +19560,7 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -19414,7 +19579,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
@@ -19429,12 +19594,12 @@
         <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
@@ -19443,7 +19608,7 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>24</v>
@@ -19463,7 +19628,7 @@
         <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -19491,7 +19656,7 @@
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>24</v>
@@ -19505,7 +19670,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>24</v>
@@ -19525,7 +19690,7 @@
         <v>24</v>
       </c>
       <c r="F20" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -19544,7 +19709,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
@@ -19561,7 +19726,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>24</v>
@@ -19572,7 +19737,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B26" t="s">
         <v>39</v>
@@ -19581,7 +19746,7 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>23</v>
@@ -19607,7 +19772,7 @@
         <v>24</v>
       </c>
       <c r="F28" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -19621,7 +19786,7 @@
         <v>24</v>
       </c>
       <c r="F29" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -19643,13 +19808,13 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -19663,7 +19828,7 @@
         <v>23</v>
       </c>
       <c r="F32" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -19683,7 +19848,7 @@
         <v>23</v>
       </c>
       <c r="F34" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -19731,12 +19896,12 @@
         <v>23</v>
       </c>
       <c r="F38" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B40" t="s">
         <v>46</v>
@@ -19751,7 +19916,7 @@
         <v>24</v>
       </c>
       <c r="F40" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -19779,7 +19944,7 @@
         <v>91</v>
       </c>
       <c r="F42" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -19793,7 +19958,7 @@
         <v>32</v>
       </c>
       <c r="D44" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>24</v>
@@ -19827,7 +19992,7 @@
         <v>24</v>
       </c>
       <c r="F46" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -19869,7 +20034,7 @@
         <v>24</v>
       </c>
       <c r="F49" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -19877,7 +20042,7 @@
         <v>58</v>
       </c>
       <c r="D50" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>24</v>
@@ -19888,7 +20053,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B52" t="s">
         <v>22</v>
@@ -19897,7 +20062,7 @@
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>24</v>
@@ -19911,18 +20076,18 @@
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F53" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B55" t="s">
         <v>22</v>
@@ -19937,12 +20102,12 @@
         <v>23</v>
       </c>
       <c r="F55" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B57" t="s">
         <v>22</v>
@@ -19951,7 +20116,7 @@
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>24</v>
@@ -20013,7 +20178,7 @@
         <v>32</v>
       </c>
       <c r="D62" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>24</v>
@@ -20027,7 +20192,7 @@
         <v>33</v>
       </c>
       <c r="D63" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>24</v>
@@ -20041,7 +20206,7 @@
         <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>23</v>
@@ -20052,7 +20217,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B66" t="s">
         <v>22</v>
@@ -20061,7 +20226,7 @@
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>24</v>
@@ -20081,7 +20246,7 @@
         <v>24</v>
       </c>
       <c r="F67" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -20117,7 +20282,7 @@
         <v>58</v>
       </c>
       <c r="D70" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>24</v>
@@ -20171,7 +20336,7 @@
         <v>24</v>
       </c>
       <c r="F74" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -20199,12 +20364,12 @@
         <v>23</v>
       </c>
       <c r="F76" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B78" t="s">
         <v>22</v>
@@ -20252,19 +20417,19 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B82" t="s">
         <v>22</v>
       </c>
       <c r="D82" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F82" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">

--- a/Tennis/WTA Tour/Petra Kvitová.xlsx
+++ b/Tennis/WTA Tour/Petra Kvitová.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6017" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{407B74D0-ADF3-426F-9002-B51228EE0D49}"/>
+  <xr:revisionPtr revIDLastSave="6083" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4E9DE29-6B64-4EC0-B189-5FE75982BA04}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2006" sheetId="12" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4138" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4198" uniqueCount="826">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2482,6 +2482,54 @@
   </si>
   <si>
     <t>Harriet Dart (GREAT BRITAIN)</t>
+  </si>
+  <si>
+    <t>2-6 6-4 6-2</t>
+  </si>
+  <si>
+    <t>Ana Bogdan (ROMANIA)</t>
+  </si>
+  <si>
+    <t>Paula Badosa (SPAIN)</t>
+  </si>
+  <si>
+    <t>7-5 7-6(4)</t>
+  </si>
+  <si>
+    <t>CANADIAN OPEN</t>
+  </si>
+  <si>
+    <t>Alison Riske (USA)</t>
+  </si>
+  <si>
+    <t>Caroline Garcia (FRANCE)</t>
+  </si>
+  <si>
+    <t>6-7(2) 7-6(3) 6-3</t>
+  </si>
+  <si>
+    <t>6-1 4-6 6-0</t>
+  </si>
+  <si>
+    <t>Ajla Tomljanović (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>6-7(8) 6-4 6-3</t>
+  </si>
+  <si>
+    <t>Erika Andreeva (RUSSIA)</t>
+  </si>
+  <si>
+    <t>7-6(3) 6-0</t>
+  </si>
+  <si>
+    <t>Anhelina Kalinina (UKRAINE)</t>
+  </si>
+  <si>
+    <t>5-7 6-3 7-6(12-10)</t>
+  </si>
+  <si>
+    <t>Jessica Pegula (USA)</t>
   </si>
 </sst>
 </file>
@@ -2570,17 +2618,15 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -2829,7 +2875,7 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2979,7 +3025,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3539,7 +3585,7 @@
                   <c:v>0.44827586206896552</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.13333333333333333</c:v>
+                  <c:v>0.30434782608695654</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5628,7 +5674,7 @@
       <c r="E22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="9" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5723,7 +5769,7 @@
       <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6579,7 +6625,7 @@
   <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C85" sqref="C85:F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7698,8 +7744,8 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7733,22 +7779,22 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" t="s">
         <v>657</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -7758,13 +7804,13 @@
       <c r="C3" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" t="s">
         <v>406</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" t="s">
         <v>658</v>
       </c>
     </row>
@@ -7859,16 +7905,16 @@
       <c r="B11" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" t="s">
         <v>662</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" t="s">
         <v>61</v>
       </c>
     </row>
@@ -8213,8 +8259,8 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8248,10 +8294,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>496</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
@@ -9301,8 +9347,8 @@
   </sheetPr>
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9336,10 +9382,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
@@ -9374,8 +9420,6 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="6"/>
-      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -10194,7 +10238,7 @@
   </sheetPr>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -10229,10 +10273,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
@@ -10675,8 +10719,8 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10710,10 +10754,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>245</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
@@ -11473,10 +11517,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E38" activeCellId="7" sqref="E4 E9 E12:E13 E16 E19 E22:E24 E33 E38:E42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11510,10 +11554,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>784</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
@@ -11997,6 +12041,212 @@
       </c>
       <c r="D44" t="s">
         <v>761</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" t="s">
+        <v>811</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>812</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>814</v>
+      </c>
+      <c r="B48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" t="s">
+        <v>815</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>772</v>
+      </c>
+      <c r="B50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" t="s">
+        <v>740</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
+        <v>168</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>787</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>819</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>199</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F54" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" t="s">
+        <v>816</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" t="s">
+        <v>821</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F57" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" t="s">
+        <v>823</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" t="s">
+        <v>231</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" t="s">
+        <v>825</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F60" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -12012,8 +12262,8 @@
   </sheetPr>
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12062,11 +12312,11 @@
       <c r="E2">
         <v>3</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <f t="shared" ref="F2:F18" si="0">(D2-E2)/D2</f>
         <v>0.8</v>
       </c>
-      <c r="T2" s="10"/>
+      <c r="T2" s="8"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -12084,11 +12334,11 @@
       <c r="E3">
         <v>11</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <f t="shared" si="0"/>
         <v>0.71052631578947367</v>
       </c>
-      <c r="T3" s="10"/>
+      <c r="T3" s="8"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -12106,11 +12356,11 @@
       <c r="E4">
         <v>21</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <f t="shared" si="0"/>
         <v>0.43243243243243246</v>
       </c>
-      <c r="T4" s="10"/>
+      <c r="T4" s="8"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -12128,11 +12378,11 @@
       <c r="E5">
         <v>21</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <f t="shared" si="0"/>
         <v>8.6956521739130432E-2</v>
       </c>
-      <c r="T5" s="10"/>
+      <c r="T5" s="8"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -12150,7 +12400,7 @@
       <c r="E6">
         <v>24</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
@@ -12171,7 +12421,7 @@
       <c r="E7">
         <v>13</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <f t="shared" si="0"/>
         <v>0.78333333333333333</v>
       </c>
@@ -12192,7 +12442,7 @@
       <c r="E8">
         <v>17</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <f t="shared" si="0"/>
         <v>0.63043478260869568</v>
       </c>
@@ -12213,7 +12463,7 @@
       <c r="E9">
         <v>23</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <f t="shared" si="0"/>
         <v>0.5490196078431373</v>
       </c>
@@ -12234,7 +12484,7 @@
       <c r="E10">
         <v>16</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <f t="shared" si="0"/>
         <v>0.62790697674418605</v>
       </c>
@@ -12255,7 +12505,7 @@
       <c r="E11">
         <v>17</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <f t="shared" si="0"/>
         <v>0.55263157894736847</v>
       </c>
@@ -12276,7 +12526,7 @@
       <c r="E12">
         <v>21</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <f t="shared" si="0"/>
         <v>0.54347826086956519</v>
       </c>
@@ -12297,7 +12547,7 @@
       <c r="E13">
         <v>10</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <f t="shared" si="0"/>
         <v>0.44444444444444442</v>
       </c>
@@ -12318,7 +12568,7 @@
       <c r="E14">
         <v>17</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <f t="shared" si="0"/>
         <v>0.63829787234042556</v>
       </c>
@@ -12339,7 +12589,7 @@
       <c r="E15">
         <v>15</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <f t="shared" si="0"/>
         <v>0.60526315789473684</v>
       </c>
@@ -12360,7 +12610,7 @@
       <c r="E16">
         <v>6</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
@@ -12381,7 +12631,7 @@
       <c r="E17">
         <v>16</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <f t="shared" si="0"/>
         <v>0.44827586206896552</v>
       </c>
@@ -12391,70 +12641,70 @@
         <v>2022</v>
       </c>
       <c r="B18">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>13</v>
-      </c>
-      <c r="F18" s="9">
+        <v>16</v>
+      </c>
+      <c r="F18" s="8">
         <f t="shared" si="0"/>
-        <v>0.13333333333333333</v>
+        <v>0.30434782608695654</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <f>SUM(B2:B18)</f>
-        <v>307</v>
-      </c>
-      <c r="C19" s="7">
+        <v>311</v>
+      </c>
+      <c r="C19" s="6">
         <f>SUM(C2:C18)</f>
         <v>29</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <f>SUM(D2:D18)</f>
-        <v>589</v>
-      </c>
-      <c r="E19" s="7">
+        <v>597</v>
+      </c>
+      <c r="E19" s="6">
         <f>SUM(E2:E18)</f>
-        <v>264</v>
-      </c>
-      <c r="F19" s="8">
+        <v>267</v>
+      </c>
+      <c r="F19" s="7">
         <f>(D19-E19)/D19</f>
-        <v>0.55178268251273344</v>
+        <v>0.55276381909547734</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <f>AVERAGE(B2:B18)</f>
-        <v>18.058823529411764</v>
-      </c>
-      <c r="C20" s="7">
+        <v>18.294117647058822</v>
+      </c>
+      <c r="C20" s="6">
         <f>AVERAGE(C2:C18)</f>
         <v>1.7058823529411764</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <f>AVERAGE(D2:D18)</f>
-        <v>34.647058823529413</v>
-      </c>
-      <c r="E20" s="7">
+        <v>35.117647058823529</v>
+      </c>
+      <c r="E20" s="6">
         <f>AVERAGE(E2:E18)</f>
-        <v>15.529411764705882</v>
-      </c>
-      <c r="F20" s="8">
+        <v>15.705882352941176</v>
+      </c>
+      <c r="F20" s="7">
         <f>(D20-E20)/D20</f>
-        <v>0.55178268251273344</v>
+        <v>0.55276381909547745</v>
       </c>
     </row>
   </sheetData>
@@ -12538,7 +12788,7 @@
       <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -12566,7 +12816,7 @@
       <c r="E4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -12594,7 +12844,7 @@
       <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="9" t="s">
         <v>45</v>
       </c>
     </row>
@@ -12876,7 +13126,7 @@
       <c r="E29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="9" t="s">
         <v>79</v>
       </c>
     </row>
@@ -13074,7 +13324,7 @@
       <c r="E46" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F46" s="11" t="s">
+      <c r="F46" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -13176,7 +13426,7 @@
       <c r="E55" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F55" s="11" t="s">
+      <c r="F55" s="9" t="s">
         <v>35</v>
       </c>
     </row>
@@ -14297,8 +14547,8 @@
   </sheetPr>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62:F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15101,7 +15351,7 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
@@ -15970,7 +16220,7 @@
   </sheetPr>
   <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
@@ -17153,7 +17403,7 @@
   </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
@@ -17251,7 +17501,7 @@
       <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -17451,7 +17701,7 @@
       <c r="E24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="9" t="s">
         <v>43</v>
       </c>
     </row>
@@ -18191,8 +18441,8 @@
   </sheetPr>
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18439,7 +18689,7 @@
       <c r="E20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -18467,7 +18717,7 @@
       <c r="E22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -18529,7 +18779,7 @@
       <c r="E27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="9" t="s">
         <v>123</v>
       </c>
     </row>
@@ -18543,7 +18793,7 @@
       <c r="E28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -19147,7 +19397,7 @@
       <c r="E79" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F79" s="11" t="s">
+      <c r="F79" s="9" t="s">
         <v>67</v>
       </c>
     </row>
@@ -19195,7 +19445,7 @@
       <c r="E83" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F83" s="11" t="s">
+      <c r="F83" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -19427,8 +19677,8 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57:F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19929,7 +20179,7 @@
       <c r="E41" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F41" s="11" t="s">
+      <c r="F41" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -19977,7 +20227,7 @@
       <c r="E45" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F45" s="11" t="s">
+      <c r="F45" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -20019,7 +20269,7 @@
       <c r="E48" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F48" s="11" t="s">
+      <c r="F48" s="9" t="s">
         <v>59</v>
       </c>
     </row>
@@ -20183,7 +20433,7 @@
       <c r="E62" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F62" s="11" t="s">
+      <c r="F62" s="9" t="s">
         <v>45</v>
       </c>
     </row>

--- a/Tennis/WTA Tour/Petra Kvitová.xlsx
+++ b/Tennis/WTA Tour/Petra Kvitová.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6083" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4E9DE29-6B64-4EC0-B189-5FE75982BA04}"/>
+  <xr:revisionPtr revIDLastSave="6111" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A5E4FAF-E09C-4AA0-8944-8EF07EF9B4CE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="15" activeTab="19" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2006" sheetId="12" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <sheet name="2021" sheetId="28" r:id="rId16"/>
     <sheet name="2022" sheetId="31" r:id="rId17"/>
     <sheet name="YTD Stats" sheetId="1" r:id="rId18"/>
-    <sheet name="YTD Wins-Losses" sheetId="32" r:id="rId19"/>
+    <sheet name="Wins-Losses" sheetId="32" r:id="rId19"/>
     <sheet name="Winning Percentile Range" sheetId="33" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4198" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4222" uniqueCount="831">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2530,6 +2530,21 @@
   </si>
   <si>
     <t>Jessica Pegula (USA)</t>
+  </si>
+  <si>
+    <t>Bernarda Pera (USA)</t>
+  </si>
+  <si>
+    <t>Elena Rybakina (KAZAKHSTAN)</t>
+  </si>
+  <si>
+    <t>GUADALAJARA OPEN</t>
+  </si>
+  <si>
+    <t>Bianca Andreescu (CANADA)</t>
+  </si>
+  <si>
+    <t>3-6 6-2 6-0</t>
   </si>
 </sst>
 </file>
@@ -2692,7 +2707,7 @@
               <a:rPr lang="en-US" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t> (CZECH REPUBLIC): YTD Wins-Losses</a:t>
+              <a:t> (CZECH REPUBLIC): Wins-Losses</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1" i="0">
               <a:effectLst/>
@@ -2875,7 +2890,7 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3025,7 +3040,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3466,7 +3481,6 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="1"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -3585,7 +3599,7 @@
                   <c:v>0.44827586206896552</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.30434782608695654</c:v>
+                  <c:v>0.29629629629629628</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5000,7 +5014,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{49AB58A6-3BDB-4339-8866-D1B56A3CD7EB}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5072,6 +5086,10 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11517,10 +11535,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E66" activeCellId="13" sqref="E4 E9 E12:E13 E16 E19 E22:E24 E33 E38:E42 E44:E45 E50:E54 E57 E59 E62:E63 E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12249,6 +12267,88 @@
         <v>37</v>
       </c>
     </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>778</v>
+      </c>
+      <c r="B62" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>826</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F62" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" t="s">
+        <v>812</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>827</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F64" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>828</v>
+      </c>
+      <c r="B66" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66" t="s">
+        <v>826</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" t="s">
+        <v>829</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F67" t="s">
+        <v>830</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -12263,7 +12363,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12641,20 +12741,20 @@
         <v>2022</v>
       </c>
       <c r="B18">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E18">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F18" s="8">
         <f t="shared" si="0"/>
-        <v>0.30434782608695654</v>
+        <v>0.29629629629629628</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -12663,7 +12763,7 @@
       </c>
       <c r="B19" s="6">
         <f>SUM(B2:B18)</f>
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C19" s="6">
         <f>SUM(C2:C18)</f>
@@ -12671,15 +12771,15 @@
       </c>
       <c r="D19" s="6">
         <f>SUM(D2:D18)</f>
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="E19" s="6">
         <f>SUM(E2:E18)</f>
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F19" s="7">
         <f>(D19-E19)/D19</f>
-        <v>0.55276381909547734</v>
+        <v>0.55074875207986684</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -12688,7 +12788,7 @@
       </c>
       <c r="B20" s="6">
         <f>AVERAGE(B2:B18)</f>
-        <v>18.294117647058822</v>
+        <v>18.411764705882351</v>
       </c>
       <c r="C20" s="6">
         <f>AVERAGE(C2:C18)</f>
@@ -12696,15 +12796,15 @@
       </c>
       <c r="D20" s="6">
         <f>AVERAGE(D2:D18)</f>
-        <v>35.117647058823529</v>
+        <v>35.352941176470587</v>
       </c>
       <c r="E20" s="6">
         <f>AVERAGE(E2:E18)</f>
-        <v>15.705882352941176</v>
+        <v>15.882352941176471</v>
       </c>
       <c r="F20" s="7">
         <f>(D20-E20)/D20</f>
-        <v>0.55276381909547745</v>
+        <v>0.55074875207986684</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Petra Kvitová.xlsx
+++ b/Tennis/WTA Tour/Petra Kvitová.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6111" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A5E4FAF-E09C-4AA0-8944-8EF07EF9B4CE}"/>
+  <xr:revisionPtr revIDLastSave="6185" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DEA337E-AC5E-4379-9DE3-25C528E58411}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="15" activeTab="19" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2006" sheetId="12" r:id="rId1"/>
@@ -30,9 +30,10 @@
     <sheet name="2020" sheetId="27" r:id="rId15"/>
     <sheet name="2021" sheetId="28" r:id="rId16"/>
     <sheet name="2022" sheetId="31" r:id="rId17"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId18"/>
-    <sheet name="Wins-Losses" sheetId="32" r:id="rId19"/>
-    <sheet name="Winning Percentile Range" sheetId="33" r:id="rId20"/>
+    <sheet name="2023" sheetId="34" r:id="rId18"/>
+    <sheet name="YTD Stats" sheetId="1" r:id="rId19"/>
+    <sheet name="Wins-Losses" sheetId="36" r:id="rId20"/>
+    <sheet name="Winning Percentile Range" sheetId="37" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4222" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4252" uniqueCount="835">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2545,6 +2546,18 @@
   </si>
   <si>
     <t>3-6 6-2 6-0</t>
+  </si>
+  <si>
+    <t>ADELAIDE INTERNATIONAL 2</t>
+  </si>
+  <si>
+    <t>Qinwen Zheng (CHINA)</t>
+  </si>
+  <si>
+    <t>Daria Kasatkina (RUSSIA)</t>
+  </si>
+  <si>
+    <t>7-6(6) RETIRED</t>
   </si>
 </sst>
 </file>
@@ -2633,7 +2646,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
@@ -2644,6 +2657,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2701,17 +2715,8 @@
               <a:rPr lang="en-US" b="1" i="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Petra Kvitová</a:t>
+              <a:t>Petra Kvitová (CZECH REPUBLIC): Wins-Losses</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t> (CZECH REPUBLIC): Wins-Losses</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1" i="0">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2777,10 +2782,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$18</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2006</c:v>
                 </c:pt>
@@ -2832,15 +2837,18 @@
                 <c:pt idx="16">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$18</c:f>
+              <c:f>'YTD Stats'!$D$2:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
                 </c:pt>
@@ -2892,12 +2900,15 @@
                 <c:pt idx="16">
                   <c:v>27</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6B8A-46BE-B21E-341CEE8013F6}"/>
+              <c16:uniqueId val="{00000000-6685-4004-9615-9FEE3CE30499}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2927,10 +2938,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$18</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2006</c:v>
                 </c:pt>
@@ -2982,15 +2993,18 @@
                 <c:pt idx="16">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$18</c:f>
+              <c:f>'YTD Stats'!$E$2:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -3042,12 +3056,15 @@
                 <c:pt idx="16">
                   <c:v>19</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6B8A-46BE-B21E-341CEE8013F6}"/>
+              <c16:uniqueId val="{00000001-6685-4004-9615-9FEE3CE30499}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3061,11 +3078,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1712370031"/>
-        <c:axId val="1712365039"/>
+        <c:axId val="1058600896"/>
+        <c:axId val="1058602144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1712370031"/>
+        <c:axId val="1058600896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3163,7 +3180,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1712365039"/>
+        <c:crossAx val="1058602144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3171,7 +3188,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1712365039"/>
+        <c:axId val="1058602144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3277,7 +3294,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1712370031"/>
+        <c:crossAx val="1058600896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3386,12 +3403,18 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+              <a:rPr lang="en-US" b="1" i="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Petra Kvitová (CZECH REPUBLIC): Winning Percentile Range</a:t>
+              <a:t>Petra Kvitová (CZECH REPUBLIC):</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1100">
+            <a:r>
+              <a:rPr lang="en-US" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> Winning Percentile Range</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1" i="0">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
@@ -3486,10 +3509,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$18</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2006</c:v>
                 </c:pt>
@@ -3541,15 +3564,18 @@
                 <c:pt idx="16">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$18</c:f>
+              <c:f>'YTD Stats'!$F$2:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0.8</c:v>
                 </c:pt>
@@ -3601,13 +3627,16 @@
                 <c:pt idx="16">
                   <c:v>0.29629629629629628</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A23A-4FC1-8134-FC2C980D2127}"/>
+              <c16:uniqueId val="{00000000-6DC7-4D3F-8B04-3C3439A45D9F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3621,11 +3650,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1712384175"/>
-        <c:axId val="1712380015"/>
+        <c:axId val="1050654016"/>
+        <c:axId val="1050654848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1712384175"/>
+        <c:axId val="1050654016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3723,7 +3752,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1712380015"/>
+        <c:crossAx val="1050654848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3731,7 +3760,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1712380015"/>
+        <c:axId val="1050654848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3837,7 +3866,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1712384175"/>
+        <c:crossAx val="1050654016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4999,7 +5028,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{FB5FD3AE-BD83-40D8-88EA-754C36BEA7D1}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{EBE9F738-3A3C-44FD-8CB1-BA770F5340BC}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5011,14 +5040,13 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{49AB58A6-3BDB-4339-8866-D1B56A3CD7EB}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{1A7001B0-8781-4F13-98F1-619178942E33}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
@@ -5026,13 +5054,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8570360" cy="5830584"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AE20507-A875-478A-B485-A8660EB38204}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBC190DB-042A-BF60-8B33-79A12FF9057B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5059,13 +5087,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8657422" cy="6279614"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1CF6FC4-986E-48DA-A0F4-F56EACFEDE41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2142B916-2EC9-9E97-F4EE-8A4CA8247D44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5086,10 +5114,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5398,17 +5422,17 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -5428,7 +5452,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>253</v>
       </c>
@@ -5448,7 +5472,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>8</v>
       </c>
@@ -5462,7 +5486,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -5476,7 +5500,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>4</v>
       </c>
@@ -5490,7 +5514,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>258</v>
       </c>
@@ -5510,7 +5534,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -5524,7 +5548,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -5538,7 +5562,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>264</v>
       </c>
@@ -5558,7 +5582,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -5572,7 +5596,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -5586,7 +5610,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -5600,7 +5624,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>58</v>
       </c>
@@ -5614,7 +5638,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>270</v>
       </c>
@@ -5634,7 +5658,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>272</v>
       </c>
@@ -5654,7 +5678,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -5668,7 +5692,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -5682,7 +5706,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>0</v>
       </c>
@@ -5696,7 +5720,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>58</v>
       </c>
@@ -5727,17 +5751,17 @@
       <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -5757,7 +5781,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>604</v>
       </c>
@@ -5777,7 +5801,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -5791,7 +5815,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -5805,7 +5829,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -5819,7 +5843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>496</v>
       </c>
@@ -5839,7 +5863,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -5853,7 +5877,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>0</v>
       </c>
@@ -5867,7 +5891,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>58</v>
       </c>
@@ -5881,7 +5905,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -5901,7 +5925,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>33</v>
       </c>
@@ -5915,7 +5939,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -5929,7 +5953,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>248</v>
       </c>
@@ -5949,7 +5973,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -5963,7 +5987,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>538</v>
       </c>
@@ -5983,7 +6007,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -5997,7 +6021,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>251</v>
       </c>
@@ -6014,7 +6038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>342</v>
       </c>
@@ -6025,7 +6049,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>509</v>
       </c>
@@ -6045,7 +6069,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>154</v>
       </c>
@@ -6065,7 +6089,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -6079,7 +6103,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -6093,7 +6117,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -6107,7 +6131,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -6121,7 +6145,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>58</v>
       </c>
@@ -6135,7 +6159,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -6155,7 +6179,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -6169,7 +6193,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -6183,7 +6207,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -6203,7 +6227,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>33</v>
       </c>
@@ -6217,7 +6241,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -6231,7 +6255,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -6245,7 +6269,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -6265,7 +6289,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>33</v>
       </c>
@@ -6279,7 +6303,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -6293,7 +6317,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>767</v>
       </c>
@@ -6313,7 +6337,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>772</v>
       </c>
@@ -6333,7 +6357,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>455</v>
       </c>
@@ -6353,7 +6377,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -6367,7 +6391,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>0</v>
       </c>
@@ -6381,7 +6405,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>58</v>
       </c>
@@ -6395,7 +6419,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -6415,7 +6439,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>33</v>
       </c>
@@ -6429,7 +6453,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>4</v>
       </c>
@@ -6443,7 +6467,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -6457,7 +6481,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -6471,7 +6495,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>250</v>
       </c>
@@ -6491,7 +6515,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -6505,7 +6529,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>98</v>
       </c>
@@ -6525,7 +6549,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>247</v>
       </c>
@@ -6545,7 +6569,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>75</v>
       </c>
@@ -6559,7 +6583,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>75</v>
       </c>
@@ -6573,7 +6597,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>0</v>
       </c>
@@ -6587,7 +6611,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>58</v>
       </c>
@@ -6601,7 +6625,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>251</v>
       </c>
@@ -6618,7 +6642,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D74" t="s">
         <v>765</v>
       </c>
@@ -6646,17 +6670,17 @@
       <selection activeCell="C85" sqref="C85:F88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -6676,7 +6700,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>604</v>
       </c>
@@ -6696,7 +6720,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -6716,7 +6740,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>33</v>
       </c>
@@ -6730,7 +6754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>248</v>
       </c>
@@ -6750,7 +6774,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>538</v>
       </c>
@@ -6770,7 +6794,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -6784,7 +6808,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>783</v>
       </c>
@@ -6804,7 +6828,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -6818,7 +6842,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -6832,7 +6856,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -6846,7 +6870,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>155</v>
       </c>
@@ -6866,7 +6890,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -6880,7 +6904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>509</v>
       </c>
@@ -6900,7 +6924,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -6914,7 +6938,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -6928,7 +6952,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -6942,7 +6966,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>154</v>
       </c>
@@ -6962,7 +6986,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -6976,7 +7000,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -6990,7 +7014,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -7010,7 +7034,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -7030,7 +7054,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>33</v>
       </c>
@@ -7044,7 +7068,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -7058,7 +7082,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>366</v>
       </c>
@@ -7078,7 +7102,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -7092,7 +7116,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>480</v>
       </c>
@@ -7112,7 +7136,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -7126,7 +7150,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -7146,7 +7170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>33</v>
       </c>
@@ -7160,7 +7184,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>767</v>
       </c>
@@ -7180,7 +7204,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -7194,7 +7218,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -7208,7 +7232,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>249</v>
       </c>
@@ -7228,7 +7252,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>33</v>
       </c>
@@ -7242,7 +7266,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -7256,7 +7280,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -7270,7 +7294,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -7284,7 +7308,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>0</v>
       </c>
@@ -7298,7 +7322,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>455</v>
       </c>
@@ -7318,7 +7342,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -7332,7 +7356,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -7346,7 +7370,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>0</v>
       </c>
@@ -7360,7 +7384,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>54</v>
       </c>
@@ -7380,7 +7404,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>33</v>
       </c>
@@ -7394,7 +7418,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -7408,7 +7432,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -7422,7 +7446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>456</v>
       </c>
@@ -7442,7 +7466,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -7456,7 +7480,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>250</v>
       </c>
@@ -7476,7 +7500,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>4</v>
       </c>
@@ -7490,7 +7514,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>3</v>
       </c>
@@ -7504,7 +7528,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>2</v>
       </c>
@@ -7518,7 +7542,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>0</v>
       </c>
@@ -7532,7 +7556,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>58</v>
       </c>
@@ -7546,7 +7570,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>98</v>
       </c>
@@ -7566,7 +7590,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -7580,7 +7604,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -7594,7 +7618,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>431</v>
       </c>
@@ -7614,7 +7638,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>3</v>
       </c>
@@ -7628,7 +7652,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>2</v>
       </c>
@@ -7642,7 +7666,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>0</v>
       </c>
@@ -7656,7 +7680,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>58</v>
       </c>
@@ -7670,7 +7694,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>655</v>
       </c>
@@ -7690,7 +7714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>75</v>
       </c>
@@ -7704,7 +7728,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>0</v>
       </c>
@@ -7718,7 +7742,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>58</v>
       </c>
@@ -7732,7 +7756,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>251</v>
       </c>
@@ -7766,17 +7790,17 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -7796,7 +7820,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -7816,7 +7840,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
@@ -7832,7 +7856,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -7840,7 +7864,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>366</v>
       </c>
@@ -7860,7 +7884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -7874,7 +7898,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -7888,7 +7912,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -7902,7 +7926,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>58</v>
       </c>
@@ -7916,7 +7940,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -7936,7 +7960,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>33</v>
       </c>
@@ -7950,7 +7974,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>125</v>
       </c>
@@ -7970,7 +7994,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -7984,7 +8008,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>767</v>
       </c>
@@ -8004,7 +8028,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -8018,7 +8042,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>772</v>
       </c>
@@ -8038,7 +8062,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -8052,7 +8076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>455</v>
       </c>
@@ -8072,7 +8096,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -8092,7 +8116,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>33</v>
       </c>
@@ -8106,7 +8130,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -8120,7 +8144,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -8134,7 +8158,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -8148,7 +8172,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>250</v>
       </c>
@@ -8168,7 +8192,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>98</v>
       </c>
@@ -8188,7 +8212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -8202,7 +8226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -8216,7 +8240,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -8230,7 +8254,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -8244,7 +8268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>670</v>
       </c>
@@ -8281,17 +8305,17 @@
       <selection activeCell="C37" sqref="C37:F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="29" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="29" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -8311,7 +8335,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>496</v>
       </c>
@@ -8331,7 +8355,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
@@ -8347,10 +8371,10 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -8370,7 +8394,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>766</v>
       </c>
@@ -8390,7 +8414,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -8404,7 +8428,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -8418,7 +8442,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>0</v>
       </c>
@@ -8432,7 +8456,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>58</v>
       </c>
@@ -8446,7 +8470,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>251</v>
       </c>
@@ -8463,7 +8487,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>676</v>
       </c>
@@ -8474,7 +8498,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>538</v>
       </c>
@@ -8494,7 +8518,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -8508,7 +8532,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -8522,7 +8546,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -8536,7 +8560,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>0</v>
       </c>
@@ -8550,7 +8574,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>58</v>
       </c>
@@ -8564,7 +8588,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>783</v>
       </c>
@@ -8584,7 +8608,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -8598,7 +8622,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>155</v>
       </c>
@@ -8618,7 +8642,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -8632,7 +8656,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -8646,7 +8670,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>246</v>
       </c>
@@ -8666,7 +8690,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>251</v>
       </c>
@@ -8683,7 +8707,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>142</v>
       </c>
@@ -8694,7 +8718,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>509</v>
       </c>
@@ -8714,7 +8738,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>295</v>
       </c>
@@ -8734,7 +8758,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -8748,7 +8772,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -8762,7 +8786,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -8776,7 +8800,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>58</v>
       </c>
@@ -8790,7 +8814,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>154</v>
       </c>
@@ -8810,7 +8834,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -8824,7 +8848,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -8838,7 +8862,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -8852,7 +8876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>0</v>
       </c>
@@ -8866,7 +8890,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>58</v>
       </c>
@@ -8880,7 +8904,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -8900,7 +8924,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>33</v>
       </c>
@@ -8914,7 +8938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -8928,7 +8952,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>366</v>
       </c>
@@ -8948,7 +8972,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -8962,7 +8986,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -8976,7 +9000,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -8990,7 +9014,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>58</v>
       </c>
@@ -9004,7 +9028,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>480</v>
       </c>
@@ -9024,7 +9048,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -9038,7 +9062,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>48</v>
       </c>
@@ -9058,7 +9082,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>767</v>
       </c>
@@ -9078,7 +9102,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -9092,7 +9116,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>772</v>
       </c>
@@ -9112,7 +9136,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -9126,7 +9150,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -9140,7 +9164,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>0</v>
       </c>
@@ -9154,7 +9178,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>455</v>
       </c>
@@ -9174,7 +9198,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>3</v>
       </c>
@@ -9188,7 +9212,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>2</v>
       </c>
@@ -9202,7 +9226,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>54</v>
       </c>
@@ -9222,7 +9246,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>33</v>
       </c>
@@ -9236,7 +9260,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>4</v>
       </c>
@@ -9250,7 +9274,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>250</v>
       </c>
@@ -9270,7 +9294,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>3</v>
       </c>
@@ -9284,7 +9308,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -9304,7 +9328,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>247</v>
       </c>
@@ -9324,7 +9348,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>75</v>
       </c>
@@ -9338,7 +9362,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>75</v>
       </c>
@@ -9369,17 +9393,17 @@
       <selection activeCell="C11" sqref="C11:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -9399,7 +9423,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -9419,7 +9443,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
@@ -9435,11 +9459,11 @@
         <v>541</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>496</v>
       </c>
@@ -9459,7 +9483,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -9473,7 +9497,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -9487,7 +9511,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -9501,7 +9525,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>58</v>
       </c>
@@ -9515,7 +9539,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -9535,7 +9559,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>33</v>
       </c>
@@ -9549,7 +9573,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -9563,7 +9587,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -9577,7 +9601,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -9591,7 +9615,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -9605,7 +9629,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>58</v>
       </c>
@@ -9619,7 +9643,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>674</v>
       </c>
@@ -9639,7 +9663,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -9653,7 +9677,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>248</v>
       </c>
@@ -9673,7 +9697,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -9687,7 +9711,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -9701,7 +9725,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -9715,7 +9739,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>58</v>
       </c>
@@ -9729,7 +9753,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>783</v>
       </c>
@@ -9749,7 +9773,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>155</v>
       </c>
@@ -9769,7 +9793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -9783,7 +9807,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -9797,7 +9821,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -9811,7 +9835,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>509</v>
       </c>
@@ -9831,7 +9855,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -9845,7 +9869,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -9859,7 +9883,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>58</v>
       </c>
@@ -9873,7 +9897,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>154</v>
       </c>
@@ -9893,7 +9917,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -9907,7 +9931,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>3</v>
       </c>
@@ -9921,7 +9945,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>2</v>
       </c>
@@ -9935,7 +9959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -9955,7 +9979,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -9969,7 +9993,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -9989,7 +10013,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>33</v>
       </c>
@@ -10003,7 +10027,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -10017,7 +10041,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -10031,7 +10055,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>772</v>
       </c>
@@ -10051,7 +10075,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -10071,7 +10095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>33</v>
       </c>
@@ -10085,7 +10109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>250</v>
       </c>
@@ -10105,7 +10129,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -10119,7 +10143,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -10133,7 +10157,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -10147,7 +10171,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>98</v>
       </c>
@@ -10167,7 +10191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -10181,7 +10205,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>2</v>
       </c>
@@ -10195,7 +10219,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>247</v>
       </c>
@@ -10215,7 +10239,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>75</v>
       </c>
@@ -10229,7 +10253,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>75</v>
       </c>
@@ -10260,17 +10284,17 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -10290,7 +10314,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -10310,7 +10334,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
@@ -10326,7 +10350,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
@@ -10342,7 +10366,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
@@ -10358,7 +10382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -10366,7 +10390,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -10386,7 +10410,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>33</v>
       </c>
@@ -10400,7 +10424,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -10414,7 +10438,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -10428,7 +10452,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -10442,7 +10466,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>674</v>
       </c>
@@ -10462,7 +10486,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -10476,7 +10500,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>538</v>
       </c>
@@ -10496,7 +10520,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -10510,7 +10534,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -10524,7 +10548,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -10538,7 +10562,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>58</v>
       </c>
@@ -10552,7 +10576,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>772</v>
       </c>
@@ -10572,7 +10596,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -10592,7 +10616,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>33</v>
       </c>
@@ -10606,7 +10630,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -10620,7 +10644,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -10634,7 +10658,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -10654,7 +10678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>33</v>
       </c>
@@ -10668,7 +10692,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -10682,7 +10706,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -10696,7 +10720,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -10710,7 +10734,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>0</v>
       </c>
@@ -10741,17 +10765,17 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -10771,7 +10795,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>245</v>
       </c>
@@ -10791,7 +10815,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -10805,7 +10829,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -10825,7 +10849,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>33</v>
       </c>
@@ -10839,7 +10863,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>538</v>
       </c>
@@ -10859,7 +10883,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -10873,7 +10897,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>0</v>
       </c>
@@ -10887,7 +10911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>58</v>
       </c>
@@ -10901,7 +10925,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>248</v>
       </c>
@@ -10921,7 +10945,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>155</v>
       </c>
@@ -10941,7 +10965,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -10955,7 +10979,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -10969,7 +10993,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>246</v>
       </c>
@@ -10989,7 +11013,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -11003,7 +11027,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>509</v>
       </c>
@@ -11023,7 +11047,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -11037,7 +11061,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -11051,7 +11075,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>154</v>
       </c>
@@ -11071,7 +11095,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -11085,7 +11109,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -11099,7 +11123,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -11113,7 +11137,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -11133,7 +11157,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -11147,7 +11171,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -11167,7 +11191,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>33</v>
       </c>
@@ -11181,7 +11205,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>754</v>
       </c>
@@ -11201,7 +11225,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -11215,7 +11239,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -11229,7 +11253,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -11243,7 +11267,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -11263,7 +11287,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>249</v>
       </c>
@@ -11283,7 +11307,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -11297,7 +11321,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>767</v>
       </c>
@@ -11317,7 +11341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>4</v>
       </c>
@@ -11331,7 +11355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>772</v>
       </c>
@@ -11351,7 +11375,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -11365,7 +11389,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -11379,7 +11403,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -11393,7 +11417,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -11413,7 +11437,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>33</v>
       </c>
@@ -11427,7 +11451,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>4</v>
       </c>
@@ -11441,7 +11465,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>778</v>
       </c>
@@ -11461,7 +11485,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -11475,7 +11499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -11489,7 +11513,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>783</v>
       </c>
@@ -11509,7 +11533,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>4</v>
       </c>
@@ -11537,21 +11561,21 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E66" activeCellId="13" sqref="E4 E9 E12:E13 E16 E19 E22:E24 E33 E38:E42 E44:E45 E50:E54 E57 E59 E62:E63 E66"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62:C64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -11571,7 +11595,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>784</v>
       </c>
@@ -11591,7 +11615,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>496</v>
       </c>
@@ -11611,7 +11635,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -11625,7 +11649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -11645,7 +11669,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>766</v>
       </c>
@@ -11665,7 +11689,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -11679,7 +11703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>248</v>
       </c>
@@ -11699,7 +11723,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>3</v>
       </c>
@@ -11713,7 +11737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -11727,7 +11751,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>538</v>
       </c>
@@ -11747,7 +11771,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -11761,7 +11785,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>783</v>
       </c>
@@ -11781,7 +11805,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -11795,7 +11819,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>155</v>
       </c>
@@ -11815,7 +11839,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -11829,7 +11853,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -11843,7 +11867,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -11857,7 +11881,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>798</v>
       </c>
@@ -11877,7 +11901,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>509</v>
       </c>
@@ -11897,7 +11921,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>154</v>
       </c>
@@ -11917,7 +11941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -11937,7 +11961,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>33</v>
       </c>
@@ -11951,7 +11975,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>366</v>
       </c>
@@ -11971,7 +11995,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>480</v>
       </c>
@@ -11991,7 +12015,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -12005,7 +12029,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>2</v>
       </c>
@@ -12019,7 +12043,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>0</v>
       </c>
@@ -12033,7 +12057,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>58</v>
       </c>
@@ -12047,7 +12071,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -12067,7 +12091,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>33</v>
       </c>
@@ -12081,7 +12105,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -12095,7 +12119,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>814</v>
       </c>
@@ -12115,7 +12139,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>772</v>
       </c>
@@ -12135,7 +12159,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -12149,7 +12173,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -12163,7 +12187,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -12177,7 +12201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>0</v>
       </c>
@@ -12191,7 +12215,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>58</v>
       </c>
@@ -12205,7 +12229,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -12225,7 +12249,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>33</v>
       </c>
@@ -12239,7 +12263,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>4</v>
       </c>
@@ -12253,7 +12277,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>3</v>
       </c>
@@ -12267,7 +12291,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>778</v>
       </c>
@@ -12287,7 +12311,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -12301,7 +12325,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -12315,7 +12339,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>828</v>
       </c>
@@ -12335,7 +12359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>4</v>
       </c>
@@ -12356,27 +12380,159 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D1F6C4-9240-4C93-BBBA-69677AE0E65D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>831</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>827</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="10"/>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>832</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>833</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>724</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>823</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A19 F1:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>237</v>
       </c>
@@ -12396,7 +12552,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2006</v>
       </c>
@@ -12413,12 +12569,12 @@
         <v>3</v>
       </c>
       <c r="F2" s="8">
-        <f t="shared" ref="F2:F18" si="0">(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F19" si="0">(D2-E2)/D2</f>
         <v>0.8</v>
       </c>
       <c r="T2" s="8"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2007</v>
       </c>
@@ -12440,7 +12596,7 @@
       </c>
       <c r="T3" s="8"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2008</v>
       </c>
@@ -12462,7 +12618,7 @@
       </c>
       <c r="T4" s="8"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2009</v>
       </c>
@@ -12484,7 +12640,7 @@
       </c>
       <c r="T5" s="8"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2010</v>
       </c>
@@ -12505,7 +12661,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2011</v>
       </c>
@@ -12526,7 +12682,7 @@
         <v>0.78333333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2012</v>
       </c>
@@ -12547,7 +12703,7 @@
         <v>0.63043478260869568</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2013</v>
       </c>
@@ -12568,7 +12724,7 @@
         <v>0.5490196078431373</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2014</v>
       </c>
@@ -12589,7 +12745,7 @@
         <v>0.62790697674418605</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2015</v>
       </c>
@@ -12610,7 +12766,7 @@
         <v>0.55263157894736847</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2016</v>
       </c>
@@ -12631,7 +12787,7 @@
         <v>0.54347826086956519</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2017</v>
       </c>
@@ -12652,7 +12808,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2018</v>
       </c>
@@ -12673,7 +12829,7 @@
         <v>0.63829787234042556</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2019</v>
       </c>
@@ -12694,7 +12850,7 @@
         <v>0.60526315789473684</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2020</v>
       </c>
@@ -12715,7 +12871,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2021</v>
       </c>
@@ -12736,7 +12892,7 @@
         <v>0.44827586206896552</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2022</v>
       </c>
@@ -12757,58 +12913,79 @@
         <v>0.29629629629629628</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2023</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="6">
-        <f>SUM(B2:B18)</f>
-        <v>313</v>
-      </c>
-      <c r="C19" s="6">
-        <f>SUM(C2:C18)</f>
+      <c r="B20" s="6">
+        <f>SUM(B2:B19)</f>
+        <v>315</v>
+      </c>
+      <c r="C20" s="6">
+        <f>SUM(C2:C19)</f>
         <v>29</v>
       </c>
-      <c r="D19" s="6">
-        <f>SUM(D2:D18)</f>
-        <v>601</v>
-      </c>
-      <c r="E19" s="6">
-        <f>SUM(E2:E18)</f>
-        <v>270</v>
-      </c>
-      <c r="F19" s="7">
-        <f>(D19-E19)/D19</f>
-        <v>0.55074875207986684</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="B20" s="6">
-        <f>AVERAGE(B2:B18)</f>
-        <v>18.411764705882351</v>
-      </c>
-      <c r="C20" s="6">
-        <f>AVERAGE(C2:C18)</f>
-        <v>1.7058823529411764</v>
-      </c>
       <c r="D20" s="6">
-        <f>AVERAGE(D2:D18)</f>
-        <v>35.352941176470587</v>
+        <f>SUM(D2:D19)</f>
+        <v>604</v>
       </c>
       <c r="E20" s="6">
-        <f>AVERAGE(E2:E18)</f>
-        <v>15.882352941176471</v>
+        <f>SUM(E2:E19)</f>
+        <v>272</v>
       </c>
       <c r="F20" s="7">
         <f>(D20-E20)/D20</f>
-        <v>0.55074875207986684</v>
+        <v>0.54966887417218546</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B21" s="6">
+        <f>AVERAGE(B2:B19)</f>
+        <v>17.5</v>
+      </c>
+      <c r="C21" s="6">
+        <f>AVERAGE(C2:C19)</f>
+        <v>1.6111111111111112</v>
+      </c>
+      <c r="D21" s="6">
+        <f>AVERAGE(D2:D19)</f>
+        <v>33.555555555555557</v>
+      </c>
+      <c r="E21" s="6">
+        <f>AVERAGE(E2:E19)</f>
+        <v>15.111111111111111</v>
+      </c>
+      <c r="F21" s="7">
+        <f>(D21-E21)/D21</f>
+        <v>0.54966887417218546</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F18">
+  <conditionalFormatting sqref="F2:F19">
     <cfRule type="iconSet" priority="4">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -12817,7 +12994,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F18">
+  <conditionalFormatting sqref="F2:F19">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -12842,17 +13019,17 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -12872,7 +13049,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>280</v>
       </c>
@@ -12892,7 +13069,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -12906,7 +13083,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -12920,7 +13097,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -12934,7 +13111,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>58</v>
       </c>
@@ -12948,7 +13125,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>286</v>
       </c>
@@ -12968,7 +13145,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>8</v>
       </c>
@@ -12982,7 +13159,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -12996,7 +13173,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -13010,7 +13187,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -13024,7 +13201,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -13038,7 +13215,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>58</v>
       </c>
@@ -13052,7 +13229,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>293</v>
       </c>
@@ -13072,7 +13249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>295</v>
       </c>
@@ -13092,7 +13269,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>8</v>
       </c>
@@ -13106,7 +13283,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>299</v>
       </c>
@@ -13126,7 +13303,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -13140,7 +13317,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -13154,7 +13331,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>304</v>
       </c>
@@ -13174,7 +13351,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>8</v>
       </c>
@@ -13188,7 +13365,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>7</v>
       </c>
@@ -13202,7 +13379,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -13216,7 +13393,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -13230,7 +13407,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -13244,7 +13421,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -13258,7 +13435,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>58</v>
       </c>
@@ -13272,7 +13449,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>314</v>
       </c>
@@ -13292,7 +13469,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -13312,7 +13489,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>8</v>
       </c>
@@ -13326,7 +13503,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>319</v>
       </c>
@@ -13346,7 +13523,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -13360,7 +13537,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>321</v>
       </c>
@@ -13380,7 +13557,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>324</v>
       </c>
@@ -13400,7 +13577,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -13414,7 +13591,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -13428,7 +13605,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>0</v>
       </c>
@@ -13442,7 +13619,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>58</v>
       </c>
@@ -13456,7 +13633,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>330</v>
       </c>
@@ -13476,7 +13653,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>333</v>
       </c>
@@ -13496,7 +13673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>335</v>
       </c>
@@ -13516,7 +13693,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -13530,7 +13707,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -13544,7 +13721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -13558,7 +13735,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>58</v>
       </c>
@@ -13572,7 +13749,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>272</v>
       </c>
@@ -13592,7 +13769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -13606,7 +13783,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -13620,7 +13797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>0</v>
       </c>
@@ -13634,7 +13811,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>58</v>
       </c>
@@ -13665,17 +13842,17 @@
       <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -13695,7 +13872,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -13715,7 +13892,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>131</v>
       </c>
@@ -13735,7 +13912,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>8</v>
       </c>
@@ -13749,7 +13926,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>7</v>
       </c>
@@ -13763,7 +13940,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -13777,7 +13954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -13791,7 +13968,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>344</v>
       </c>
@@ -13811,7 +13988,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>347</v>
       </c>
@@ -13831,7 +14008,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>8</v>
       </c>
@@ -13845,7 +14022,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>7</v>
       </c>
@@ -13859,7 +14036,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -13873,7 +14050,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -13887,7 +14064,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>155</v>
       </c>
@@ -13907,7 +14084,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>8</v>
       </c>
@@ -13921,7 +14098,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>32</v>
       </c>
@@ -13935,7 +14112,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>354</v>
       </c>
@@ -13955,7 +14132,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>357</v>
       </c>
@@ -13975,7 +14152,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -13989,7 +14166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -14003,7 +14180,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>0</v>
       </c>
@@ -14017,7 +14194,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>58</v>
       </c>
@@ -14031,7 +14208,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>251</v>
       </c>
@@ -14048,7 +14225,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>360</v>
       </c>
@@ -14059,7 +14236,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>295</v>
       </c>
@@ -14079,7 +14256,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>361</v>
       </c>
@@ -14099,7 +14276,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -14113,7 +14290,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -14133,7 +14310,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>33</v>
       </c>
@@ -14147,7 +14324,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -14161,7 +14338,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -14175,7 +14352,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>366</v>
       </c>
@@ -14195,7 +14372,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -14215,7 +14392,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>371</v>
       </c>
@@ -14235,7 +14412,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -14249,7 +14426,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -14263,7 +14440,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>373</v>
       </c>
@@ -14283,7 +14460,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -14297,7 +14474,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>767</v>
       </c>
@@ -14317,7 +14494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -14331,7 +14508,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -14351,7 +14528,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>380</v>
       </c>
@@ -14371,7 +14548,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>3</v>
       </c>
@@ -14385,7 +14562,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>2</v>
       </c>
@@ -14399,7 +14576,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>382</v>
       </c>
@@ -14419,7 +14596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>383</v>
       </c>
@@ -14439,7 +14616,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>8</v>
       </c>
@@ -14453,7 +14630,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>7</v>
       </c>
@@ -14467,7 +14644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>4</v>
       </c>
@@ -14481,7 +14658,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -14495,7 +14672,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -14509,7 +14686,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>389</v>
       </c>
@@ -14529,7 +14706,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>8</v>
       </c>
@@ -14543,7 +14720,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>7</v>
       </c>
@@ -14557,7 +14734,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>4</v>
       </c>
@@ -14571,7 +14748,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -14585,7 +14762,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>395</v>
       </c>
@@ -14605,7 +14782,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>3</v>
       </c>
@@ -14619,7 +14796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>2</v>
       </c>
@@ -14651,17 +14828,17 @@
       <selection activeCell="C62" sqref="C62:F66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -14681,7 +14858,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -14701,7 +14878,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>398</v>
       </c>
@@ -14721,7 +14898,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -14735,7 +14912,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -14749,7 +14926,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -14763,7 +14940,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>58</v>
       </c>
@@ -14777,7 +14954,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -14797,7 +14974,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>251</v>
       </c>
@@ -14814,7 +14991,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>138</v>
       </c>
@@ -14825,7 +15002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>131</v>
       </c>
@@ -14845,7 +15022,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>248</v>
       </c>
@@ -14865,7 +15042,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>783</v>
       </c>
@@ -14885,7 +15062,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>33</v>
       </c>
@@ -14899,7 +15076,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -14913,7 +15090,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>155</v>
       </c>
@@ -14933,7 +15110,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>404</v>
       </c>
@@ -14953,7 +15130,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>251</v>
       </c>
@@ -14970,7 +15147,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>406</v>
       </c>
@@ -14981,7 +15158,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>408</v>
       </c>
@@ -15001,7 +15178,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>154</v>
       </c>
@@ -15021,7 +15198,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -15035,7 +15212,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -15055,7 +15232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>412</v>
       </c>
@@ -15075,7 +15252,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -15089,7 +15266,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>295</v>
       </c>
@@ -15109,7 +15286,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -15123,7 +15300,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>415</v>
       </c>
@@ -15143,7 +15320,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -15157,7 +15334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>193</v>
       </c>
@@ -15177,7 +15354,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>192</v>
       </c>
@@ -15197,7 +15374,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>8</v>
       </c>
@@ -15211,7 +15388,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>419</v>
       </c>
@@ -15231,7 +15408,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -15251,7 +15428,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>33</v>
       </c>
@@ -15265,7 +15442,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -15279,7 +15456,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -15293,7 +15470,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>426</v>
       </c>
@@ -15313,7 +15490,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -15327,7 +15504,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -15341,7 +15518,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>389</v>
       </c>
@@ -15361,7 +15538,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -15375,7 +15552,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -15389,7 +15566,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>0</v>
       </c>
@@ -15403,7 +15580,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>58</v>
       </c>
@@ -15417,7 +15594,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>431</v>
       </c>
@@ -15455,17 +15632,17 @@
       <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -15485,7 +15662,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>398</v>
       </c>
@@ -15505,7 +15682,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>8</v>
       </c>
@@ -15519,7 +15696,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -15533,7 +15710,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -15553,7 +15730,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>33</v>
       </c>
@@ -15567,7 +15744,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>251</v>
       </c>
@@ -15584,7 +15761,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>208</v>
       </c>
@@ -15595,7 +15772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>436</v>
       </c>
@@ -15615,7 +15792,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>3</v>
       </c>
@@ -15629,7 +15806,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -15643,7 +15820,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>0</v>
       </c>
@@ -15657,7 +15834,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>783</v>
       </c>
@@ -15677,7 +15854,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>33</v>
       </c>
@@ -15691,7 +15868,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>155</v>
       </c>
@@ -15711,7 +15888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>33</v>
       </c>
@@ -15725,7 +15902,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>404</v>
       </c>
@@ -15745,7 +15922,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>251</v>
       </c>
@@ -15762,7 +15939,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -15782,7 +15959,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -15796,7 +15973,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>154</v>
       </c>
@@ -15816,7 +15993,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>8</v>
       </c>
@@ -15830,7 +16007,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>33</v>
       </c>
@@ -15844,7 +16021,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -15864,7 +16041,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>444</v>
       </c>
@@ -15884,7 +16061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -15904,7 +16081,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>33</v>
       </c>
@@ -15918,7 +16095,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -15932,7 +16109,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -15946,7 +16123,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -15960,7 +16137,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>0</v>
       </c>
@@ -15974,7 +16151,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>415</v>
       </c>
@@ -15994,7 +16171,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>448</v>
       </c>
@@ -16014,7 +16191,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>451</v>
       </c>
@@ -16034,7 +16211,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>767</v>
       </c>
@@ -16054,7 +16231,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>455</v>
       </c>
@@ -16074,7 +16251,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -16094,7 +16271,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>33</v>
       </c>
@@ -16108,7 +16285,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>4</v>
       </c>
@@ -16122,7 +16299,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>456</v>
       </c>
@@ -16142,7 +16319,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>98</v>
       </c>
@@ -16162,7 +16339,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -16176,7 +16353,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -16190,7 +16367,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>389</v>
       </c>
@@ -16210,7 +16387,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -16224,7 +16401,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>382</v>
       </c>
@@ -16244,7 +16421,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>333</v>
       </c>
@@ -16264,7 +16441,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>3</v>
       </c>
@@ -16278,7 +16455,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>2</v>
       </c>
@@ -16292,7 +16469,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>0</v>
       </c>
@@ -16324,17 +16501,17 @@
       <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -16354,7 +16531,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -16374,7 +16551,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -16388,7 +16565,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -16402,7 +16579,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -16416,7 +16593,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>58</v>
       </c>
@@ -16430,7 +16607,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -16450,7 +16627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -16464,7 +16641,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -16478,7 +16655,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -16492,7 +16669,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -16506,7 +16683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>251</v>
       </c>
@@ -16523,7 +16700,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>144</v>
       </c>
@@ -16534,7 +16711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>131</v>
       </c>
@@ -16554,7 +16731,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -16568,7 +16745,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -16582,7 +16759,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>0</v>
       </c>
@@ -16596,7 +16773,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>58</v>
       </c>
@@ -16610,7 +16787,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>248</v>
       </c>
@@ -16630,7 +16807,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>783</v>
       </c>
@@ -16650,7 +16827,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>471</v>
       </c>
@@ -16670,7 +16847,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>155</v>
       </c>
@@ -16690,7 +16867,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -16704,7 +16881,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>251</v>
       </c>
@@ -16721,7 +16898,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>186</v>
       </c>
@@ -16732,7 +16909,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>154</v>
       </c>
@@ -16752,7 +16929,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -16766,7 +16943,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -16780,7 +16957,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -16794,7 +16971,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>0</v>
       </c>
@@ -16808,7 +16985,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>58</v>
       </c>
@@ -16822,7 +16999,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>477</v>
       </c>
@@ -16842,7 +17019,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -16856,7 +17033,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>2</v>
       </c>
@@ -16870,7 +17047,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>0</v>
       </c>
@@ -16884,7 +17061,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>58</v>
       </c>
@@ -16898,7 +17075,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -16918,7 +17095,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>33</v>
       </c>
@@ -16932,7 +17109,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -16946,7 +17123,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -16960,7 +17137,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>480</v>
       </c>
@@ -16980,7 +17157,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -16994,7 +17171,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -17008,7 +17185,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>0</v>
       </c>
@@ -17022,7 +17199,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>58</v>
       </c>
@@ -17036,7 +17213,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>48</v>
       </c>
@@ -17056,7 +17233,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>33</v>
       </c>
@@ -17070,7 +17247,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>4</v>
       </c>
@@ -17084,7 +17261,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>3</v>
       </c>
@@ -17098,7 +17275,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>2</v>
       </c>
@@ -17112,7 +17289,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>0</v>
       </c>
@@ -17126,7 +17303,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>58</v>
       </c>
@@ -17140,7 +17317,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>767</v>
       </c>
@@ -17160,7 +17337,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -17174,7 +17351,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>772</v>
       </c>
@@ -17194,7 +17371,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>3</v>
       </c>
@@ -17208,7 +17385,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>54</v>
       </c>
@@ -17228,7 +17405,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>456</v>
       </c>
@@ -17248,7 +17425,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -17262,7 +17439,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -17276,7 +17453,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -17290,7 +17467,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -17310,7 +17487,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>389</v>
       </c>
@@ -17330,7 +17507,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>3</v>
       </c>
@@ -17344,7 +17521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>2</v>
       </c>
@@ -17358,7 +17535,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>0</v>
       </c>
@@ -17372,7 +17549,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>58</v>
       </c>
@@ -17386,7 +17563,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>247</v>
       </c>
@@ -17406,7 +17583,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>75</v>
       </c>
@@ -17420,7 +17597,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>75</v>
       </c>
@@ -17434,7 +17611,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>0</v>
       </c>
@@ -17448,7 +17625,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>58</v>
       </c>
@@ -17462,7 +17639,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>251</v>
       </c>
@@ -17479,7 +17656,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D95" t="s">
         <v>94</v>
       </c>
@@ -17507,17 +17684,17 @@
       <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -17537,7 +17714,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>496</v>
       </c>
@@ -17557,7 +17734,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -17571,7 +17748,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -17585,7 +17762,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -17605,7 +17782,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>33</v>
       </c>
@@ -17619,7 +17796,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -17633,7 +17810,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -17647,7 +17824,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -17661,7 +17838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -17675,7 +17852,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>251</v>
       </c>
@@ -17692,7 +17869,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>147</v>
       </c>
@@ -17703,7 +17880,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>783</v>
       </c>
@@ -17723,7 +17900,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -17737,7 +17914,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>155</v>
       </c>
@@ -17757,7 +17934,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>251</v>
       </c>
@@ -17774,7 +17951,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>82</v>
       </c>
@@ -17785,7 +17962,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>509</v>
       </c>
@@ -17805,7 +17982,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -17819,7 +17996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -17833,7 +18010,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>154</v>
       </c>
@@ -17853,7 +18030,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -17867,7 +18044,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -17887,7 +18064,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -17901,7 +18078,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -17915,7 +18092,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -17935,7 +18112,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>33</v>
       </c>
@@ -17949,7 +18126,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>4</v>
       </c>
@@ -17963,7 +18140,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -17977,7 +18154,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -17991,7 +18168,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -18005,7 +18182,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>480</v>
       </c>
@@ -18025,7 +18202,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -18045,7 +18222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>33</v>
       </c>
@@ -18059,7 +18236,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -18073,7 +18250,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -18087,7 +18264,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>2</v>
       </c>
@@ -18101,7 +18278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>249</v>
       </c>
@@ -18121,7 +18298,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -18135,7 +18312,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -18149,7 +18326,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -18163,7 +18340,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>767</v>
       </c>
@@ -18183,7 +18360,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -18197,7 +18374,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -18211,7 +18388,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>0</v>
       </c>
@@ -18225,7 +18402,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>58</v>
       </c>
@@ -18239,7 +18416,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>772</v>
       </c>
@@ -18259,7 +18436,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>3</v>
       </c>
@@ -18273,7 +18450,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>2</v>
       </c>
@@ -18287,7 +18464,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>0</v>
       </c>
@@ -18301,7 +18478,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>455</v>
       </c>
@@ -18321,7 +18498,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>2</v>
       </c>
@@ -18335,7 +18512,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>0</v>
       </c>
@@ -18349,7 +18526,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>58</v>
       </c>
@@ -18363,7 +18540,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>54</v>
       </c>
@@ -18383,7 +18560,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>33</v>
       </c>
@@ -18397,7 +18574,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>4</v>
       </c>
@@ -18411,7 +18588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>3</v>
       </c>
@@ -18425,7 +18602,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>456</v>
       </c>
@@ -18445,7 +18622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>98</v>
       </c>
@@ -18465,7 +18642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>4</v>
       </c>
@@ -18479,7 +18656,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>247</v>
       </c>
@@ -18499,7 +18676,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>251</v>
       </c>
@@ -18516,7 +18693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
         <v>97</v>
       </c>
@@ -18545,17 +18722,17 @@
       <selection activeCell="C34" sqref="C34:F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -18575,7 +18752,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -18595,7 +18772,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -18609,7 +18786,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>496</v>
       </c>
@@ -18629,7 +18806,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -18649,7 +18826,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>33</v>
       </c>
@@ -18663,7 +18840,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>131</v>
       </c>
@@ -18683,7 +18860,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -18697,7 +18874,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>251</v>
       </c>
@@ -18714,7 +18891,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>535</v>
       </c>
@@ -18725,7 +18902,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>538</v>
       </c>
@@ -18745,7 +18922,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -18759,7 +18936,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -18773,7 +18950,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>248</v>
       </c>
@@ -18793,7 +18970,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -18807,7 +18984,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -18821,7 +18998,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -18835,7 +19012,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>58</v>
       </c>
@@ -18849,7 +19026,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>783</v>
       </c>
@@ -18869,7 +19046,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -18883,7 +19060,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -18897,7 +19074,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -18911,7 +19088,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>155</v>
       </c>
@@ -18931,7 +19108,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -18945,7 +19122,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>548</v>
       </c>
@@ -18965,7 +19142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -18979,7 +19156,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -18993,7 +19170,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -19007,7 +19184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>58</v>
       </c>
@@ -19021,7 +19198,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>251</v>
       </c>
@@ -19038,7 +19215,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
         <v>158</v>
       </c>
@@ -19049,7 +19226,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>509</v>
       </c>
@@ -19069,7 +19246,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -19083,7 +19260,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -19097,7 +19274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>154</v>
       </c>
@@ -19117,7 +19294,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>4</v>
       </c>
@@ -19131,7 +19308,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>38</v>
       </c>
@@ -19151,7 +19328,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -19165,7 +19342,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>44</v>
       </c>
@@ -19185,7 +19362,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>33</v>
       </c>
@@ -19199,7 +19376,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -19213,7 +19390,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>480</v>
       </c>
@@ -19233,7 +19410,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -19247,7 +19424,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>48</v>
       </c>
@@ -19267,7 +19444,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>33</v>
       </c>
@@ -19281,7 +19458,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -19295,7 +19472,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -19309,7 +19486,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -19323,7 +19500,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>566</v>
       </c>
@@ -19343,7 +19520,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>2</v>
       </c>
@@ -19357,7 +19534,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>767</v>
       </c>
@@ -19377,7 +19554,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>3</v>
       </c>
@@ -19391,7 +19568,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>2</v>
       </c>
@@ -19405,7 +19582,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>772</v>
       </c>
@@ -19425,7 +19602,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>3</v>
       </c>
@@ -19439,7 +19616,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>455</v>
       </c>
@@ -19459,7 +19636,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>3</v>
       </c>
@@ -19473,7 +19650,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>2</v>
       </c>
@@ -19487,7 +19664,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>0</v>
       </c>
@@ -19501,7 +19678,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>58</v>
       </c>
@@ -19515,7 +19692,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>54</v>
       </c>
@@ -19535,7 +19712,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>33</v>
       </c>
@@ -19549,7 +19726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>4</v>
       </c>
@@ -19563,7 +19740,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>456</v>
       </c>
@@ -19583,7 +19760,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>3</v>
       </c>
@@ -19597,7 +19774,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>2</v>
       </c>
@@ -19611,7 +19788,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>0</v>
       </c>
@@ -19625,7 +19802,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>58</v>
       </c>
@@ -19639,7 +19816,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -19659,7 +19836,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>3</v>
       </c>
@@ -19673,7 +19850,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>2</v>
       </c>
@@ -19687,7 +19864,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>0</v>
       </c>
@@ -19701,7 +19878,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>247</v>
       </c>
@@ -19721,7 +19898,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>75</v>
       </c>
@@ -19735,7 +19912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>75</v>
       </c>
@@ -19749,7 +19926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>0</v>
       </c>
@@ -19781,17 +19958,17 @@
       <selection activeCell="C57" sqref="C57:F60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -19811,7 +19988,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>496</v>
       </c>
@@ -19831,7 +20008,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -19845,7 +20022,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -19859,7 +20036,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -19879,7 +20056,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>538</v>
       </c>
@@ -19899,7 +20076,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -19913,7 +20090,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -19927,7 +20104,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>248</v>
       </c>
@@ -19947,7 +20124,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>783</v>
       </c>
@@ -19967,7 +20144,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -19981,7 +20158,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -19995,7 +20172,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>155</v>
       </c>
@@ -20015,7 +20192,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -20029,7 +20206,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -20043,7 +20220,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -20057,7 +20234,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>251</v>
       </c>
@@ -20074,7 +20251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>591</v>
       </c>
@@ -20085,7 +20262,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>509</v>
       </c>
@@ -20105,7 +20282,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>154</v>
       </c>
@@ -20125,7 +20302,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -20139,7 +20316,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -20153,7 +20330,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -20167,7 +20344,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>0</v>
       </c>
@@ -20181,7 +20358,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -20201,7 +20378,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -20221,7 +20398,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>33</v>
       </c>
@@ -20235,7 +20412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>4</v>
       </c>
@@ -20249,7 +20426,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>480</v>
       </c>
@@ -20269,7 +20446,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -20283,7 +20460,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -20297,7 +20474,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -20317,7 +20494,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>33</v>
       </c>
@@ -20331,7 +20508,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -20345,7 +20522,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -20359,7 +20536,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>2</v>
       </c>
@@ -20373,7 +20550,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>0</v>
       </c>
@@ -20387,7 +20564,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>58</v>
       </c>
@@ -20401,7 +20578,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>767</v>
       </c>
@@ -20421,7 +20598,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -20435,7 +20612,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>772</v>
       </c>
@@ -20455,7 +20632,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>455</v>
       </c>
@@ -20475,7 +20652,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>2</v>
       </c>
@@ -20489,7 +20666,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -20503,7 +20680,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>58</v>
       </c>
@@ -20517,7 +20694,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>54</v>
       </c>
@@ -20537,7 +20714,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>33</v>
       </c>
@@ -20551,7 +20728,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>4</v>
       </c>
@@ -20565,7 +20742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>250</v>
       </c>
@@ -20585,7 +20762,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -20599,7 +20776,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -20613,7 +20790,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>0</v>
       </c>
@@ -20627,7 +20804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>58</v>
       </c>
@@ -20641,7 +20818,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>98</v>
       </c>
@@ -20661,7 +20838,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -20675,7 +20852,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -20689,7 +20866,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -20703,7 +20880,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>58</v>
       </c>
@@ -20717,7 +20894,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>247</v>
       </c>
@@ -20737,7 +20914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>75</v>
       </c>
@@ -20751,7 +20928,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>75</v>
       </c>
@@ -20765,7 +20942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>251</v>
       </c>
@@ -20782,7 +20959,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D83" t="s">
         <v>208</v>
       </c>

--- a/Tennis/WTA Tour/Petra Kvitová.xlsx
+++ b/Tennis/WTA Tour/Petra Kvitová.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6185" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DEA337E-AC5E-4379-9DE3-25C528E58411}"/>
+  <xr:revisionPtr revIDLastSave="6215" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E906B9B4-42F0-4B97-B61C-AFFBBA57F777}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="5604" yWindow="3708" windowWidth="17280" windowHeight="8880" firstSheet="15" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2006" sheetId="12" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4252" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4276" uniqueCount="840">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2558,6 +2558,21 @@
   </si>
   <si>
     <t>7-6(6) RETIRED</t>
+  </si>
+  <si>
+    <t>QATAR OPEN</t>
+  </si>
+  <si>
+    <t>Coco Gauff (USA)</t>
+  </si>
+  <si>
+    <t>Martina Trevisan (ITALY)</t>
+  </si>
+  <si>
+    <t>Yulia Putintseva (KAZAKHSTAN)</t>
+  </si>
+  <si>
+    <t>Barbora Krejčíková (CZECH REPUBLIC)</t>
   </si>
 </sst>
 </file>
@@ -2901,7 +2916,7 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3057,7 +3072,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5116,6 +5131,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -11561,8 +11580,8 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62:C64"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12384,18 +12403,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E12" activeCellId="3" sqref="E2:E3 E6 E9 E12:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -12503,6 +12522,88 @@
       </c>
       <c r="F7" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>835</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>667</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>836</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>837</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>838</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>839</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -12519,7 +12620,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A19 F1:F19"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12918,16 +13019,16 @@
         <v>2023</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" si="0"/>
@@ -12940,7 +13041,7 @@
       </c>
       <c r="B20" s="6">
         <f>SUM(B2:B19)</f>
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C20" s="6">
         <f>SUM(C2:C19)</f>
@@ -12948,15 +13049,15 @@
       </c>
       <c r="D20" s="6">
         <f>SUM(D2:D19)</f>
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="E20" s="6">
         <f>SUM(E2:E19)</f>
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F20" s="7">
         <f>(D20-E20)/D20</f>
-        <v>0.54966887417218546</v>
+        <v>0.54859967051070835</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -12965,7 +13066,7 @@
       </c>
       <c r="B21" s="6">
         <f>AVERAGE(B2:B19)</f>
-        <v>17.5</v>
+        <v>17.611111111111111</v>
       </c>
       <c r="C21" s="6">
         <f>AVERAGE(C2:C19)</f>
@@ -12973,15 +13074,15 @@
       </c>
       <c r="D21" s="6">
         <f>AVERAGE(D2:D19)</f>
-        <v>33.555555555555557</v>
+        <v>33.722222222222221</v>
       </c>
       <c r="E21" s="6">
         <f>AVERAGE(E2:E19)</f>
-        <v>15.111111111111111</v>
+        <v>15.222222222222221</v>
       </c>
       <c r="F21" s="7">
         <f>(D21-E21)/D21</f>
-        <v>0.54966887417218546</v>
+        <v>0.54859967051070846</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Petra Kvitová.xlsx
+++ b/Tennis/WTA Tour/Petra Kvitová.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6215" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E906B9B4-42F0-4B97-B61C-AFFBBA57F777}"/>
+  <xr:revisionPtr revIDLastSave="6256" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7721F4B-AB34-4F93-9C9F-039E54790987}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5604" yWindow="3708" windowWidth="17280" windowHeight="8880" firstSheet="15" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2006" sheetId="12" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4276" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4314" uniqueCount="846">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2077,9 +2077,6 @@
     <t>6-3 4-6 10-8</t>
   </si>
   <si>
-    <t>St. PETERSBURG LADIES TROPHY</t>
-  </si>
-  <si>
     <t>Elena Vesnina (RUSSIA)</t>
   </si>
   <si>
@@ -2573,6 +2570,27 @@
   </si>
   <si>
     <t>Barbora Krejčíková (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>Elizabeth Mandlik (USA)</t>
+  </si>
+  <si>
+    <t>0-6 6-0 6-4</t>
+  </si>
+  <si>
+    <t>6-2 3-6 7-6(11)</t>
+  </si>
+  <si>
+    <t>Linda Nosková (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>Varvara Gracheva (RUSSIA)</t>
+  </si>
+  <si>
+    <t>7-5 7-6(5)</t>
+  </si>
+  <si>
+    <t>Ekaterina Alexandrova (RUSSIA)</t>
   </si>
 </sst>
 </file>
@@ -2916,7 +2934,7 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3072,7 +3090,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3643,7 +3661,7 @@
                   <c:v>0.29629629629629628</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.44444444444444442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6338,7 +6356,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B47" t="s">
         <v>22</v>
@@ -6358,7 +6376,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B49" t="s">
         <v>22</v>
@@ -6525,7 +6543,7 @@
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>24</v>
@@ -6663,7 +6681,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D74" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>24</v>
@@ -6829,7 +6847,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
@@ -6914,7 +6932,7 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>23</v>
@@ -7024,7 +7042,7 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>23</v>
@@ -7194,7 +7212,7 @@
         <v>33</v>
       </c>
       <c r="D42" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>23</v>
@@ -7205,7 +7223,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B44" t="s">
         <v>22</v>
@@ -7366,7 +7384,7 @@
         <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>24</v>
@@ -7380,7 +7398,7 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>24</v>
@@ -8029,7 +8047,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
@@ -8063,7 +8081,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
@@ -8320,7 +8338,7 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C37" sqref="C37:F41"/>
     </sheetView>
   </sheetViews>
@@ -8415,7 +8433,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -8424,7 +8442,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
@@ -8508,7 +8526,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>24</v>
@@ -8576,7 +8594,7 @@
         <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -8590,7 +8608,7 @@
         <v>24</v>
       </c>
       <c r="F20" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -8609,7 +8627,7 @@
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
@@ -8618,13 +8636,13 @@
         <v>33</v>
       </c>
       <c r="D23" t="s">
+        <v>678</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" t="s">
         <v>679</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -8652,13 +8670,13 @@
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F26" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -8782,7 +8800,7 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>24</v>
@@ -8816,7 +8834,7 @@
         <v>24</v>
       </c>
       <c r="F40" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -8824,7 +8842,7 @@
         <v>58</v>
       </c>
       <c r="D41" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>24</v>
@@ -8864,7 +8882,7 @@
         <v>24</v>
       </c>
       <c r="F44" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -8878,7 +8896,7 @@
         <v>24</v>
       </c>
       <c r="F45" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -8886,7 +8904,7 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>24</v>
@@ -8934,13 +8952,13 @@
         <v>32</v>
       </c>
       <c r="D50" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F50" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -8948,7 +8966,7 @@
         <v>33</v>
       </c>
       <c r="D51" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>24</v>
@@ -8968,7 +8986,7 @@
         <v>23</v>
       </c>
       <c r="F52" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -8996,7 +9014,7 @@
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>24</v>
@@ -9024,7 +9042,7 @@
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>24</v>
@@ -9078,7 +9096,7 @@
         <v>91</v>
       </c>
       <c r="F61" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -9092,7 +9110,7 @@
         <v>32</v>
       </c>
       <c r="D63" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>23</v>
@@ -9103,7 +9121,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B65" t="s">
         <v>22</v>
@@ -9137,7 +9155,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B68" t="s">
         <v>22</v>
@@ -9174,13 +9192,13 @@
         <v>2</v>
       </c>
       <c r="D70" t="s">
+        <v>693</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F70" t="s">
         <v>694</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F70" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -9214,7 +9232,7 @@
         <v>24</v>
       </c>
       <c r="F73" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -9228,7 +9246,7 @@
         <v>24</v>
       </c>
       <c r="F74" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -9242,7 +9260,7 @@
         <v>23</v>
       </c>
       <c r="F75" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -9284,7 +9302,7 @@
         <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>23</v>
@@ -9318,7 +9336,7 @@
         <v>3</v>
       </c>
       <c r="D82" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>23</v>
@@ -9338,7 +9356,7 @@
         <v>33</v>
       </c>
       <c r="D84" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>23</v>
@@ -9378,7 +9396,7 @@
         <v>23</v>
       </c>
       <c r="F87" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -9408,8 +9426,8 @@
   </sheetPr>
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:F17"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9453,13 +9471,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
+        <v>699</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
         <v>700</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -9493,7 +9511,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
@@ -9507,13 +9525,13 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -9535,7 +9553,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>24</v>
@@ -9555,7 +9573,7 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -9639,7 +9657,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>24</v>
@@ -9659,12 +9677,12 @@
         <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>674</v>
+        <v>765</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -9713,7 +9731,7 @@
         <v>24</v>
       </c>
       <c r="F22" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -9721,13 +9739,13 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F23" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -9735,7 +9753,7 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>24</v>
@@ -9749,7 +9767,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>24</v>
@@ -9774,7 +9792,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
@@ -9803,7 +9821,7 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>24</v>
@@ -9851,7 +9869,7 @@
         <v>23</v>
       </c>
       <c r="F33" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -9865,7 +9883,7 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>24</v>
@@ -9899,7 +9917,7 @@
         <v>24</v>
       </c>
       <c r="F37" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -9989,7 +10007,7 @@
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>24</v>
@@ -10003,13 +10021,13 @@
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F46" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -10023,7 +10041,7 @@
         <v>32</v>
       </c>
       <c r="D48" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>24</v>
@@ -10076,7 +10094,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B53" t="s">
         <v>22</v>
@@ -10085,7 +10103,7 @@
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>23</v>
@@ -10105,7 +10123,7 @@
         <v>32</v>
       </c>
       <c r="D55" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>24</v>
@@ -10167,7 +10185,7 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>24</v>
@@ -10269,7 +10287,7 @@
         <v>24</v>
       </c>
       <c r="F68" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -10283,7 +10301,7 @@
         <v>23</v>
       </c>
       <c r="F69" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -10300,7 +10318,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10344,7 +10362,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
@@ -10360,7 +10378,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
@@ -10376,7 +10394,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
@@ -10434,7 +10452,7 @@
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>24</v>
@@ -10448,7 +10466,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>24</v>
@@ -10462,7 +10480,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>24</v>
@@ -10482,12 +10500,12 @@
         <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>674</v>
+        <v>765</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
@@ -10496,13 +10514,13 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
+        <v>723</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>724</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -10510,13 +10528,13 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F14" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -10550,7 +10568,7 @@
         <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -10558,13 +10576,13 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -10586,7 +10604,7 @@
         <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>23</v>
@@ -10597,7 +10615,7 @@
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -10612,7 +10630,7 @@
         <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10640,7 +10658,7 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>24</v>
@@ -10654,7 +10672,7 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>24</v>
@@ -10668,13 +10686,13 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
+        <v>730</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" t="s">
         <v>731</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -10688,7 +10706,7 @@
         <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>24</v>
@@ -10702,7 +10720,7 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>24</v>
@@ -10716,7 +10734,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>24</v>
@@ -10780,8 +10798,8 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10839,13 +10857,13 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
+        <v>735</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
         <v>736</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10859,7 +10877,7 @@
         <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
@@ -10879,7 +10897,7 @@
         <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -10893,7 +10911,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>24</v>
@@ -10913,7 +10931,7 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -10921,7 +10939,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>24</v>
@@ -10955,13 +10973,13 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
+        <v>739</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
         <v>740</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -11009,7 +11027,7 @@
         <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -11023,7 +11041,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>24</v>
@@ -11057,7 +11075,7 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>24</v>
@@ -11071,13 +11089,13 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F23" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -11091,7 +11109,7 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -11111,7 +11129,7 @@
         <v>24</v>
       </c>
       <c r="F26" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -11125,7 +11143,7 @@
         <v>24</v>
       </c>
       <c r="F27" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -11133,7 +11151,7 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>24</v>
@@ -11153,7 +11171,7 @@
         <v>23</v>
       </c>
       <c r="F29" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -11173,7 +11191,7 @@
         <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -11201,13 +11219,13 @@
         <v>32</v>
       </c>
       <c r="D34" t="s">
+        <v>750</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" t="s">
         <v>751</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F34" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -11221,12 +11239,12 @@
         <v>91</v>
       </c>
       <c r="F35" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B37" t="s">
         <v>46</v>
@@ -11235,7 +11253,7 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>24</v>
@@ -11249,13 +11267,13 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
+        <v>755</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" t="s">
         <v>756</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F38" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -11263,13 +11281,13 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F39" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -11283,7 +11301,7 @@
         <v>23</v>
       </c>
       <c r="F40" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -11297,7 +11315,7 @@
         <v>32</v>
       </c>
       <c r="D42" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>23</v>
@@ -11317,7 +11335,7 @@
         <v>33</v>
       </c>
       <c r="D44" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>24</v>
@@ -11331,18 +11349,18 @@
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F45" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B47" t="s">
         <v>22</v>
@@ -11351,7 +11369,7 @@
         <v>33</v>
       </c>
       <c r="D47" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>24</v>
@@ -11365,7 +11383,7 @@
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>23</v>
@@ -11376,7 +11394,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B50" t="s">
         <v>22</v>
@@ -11399,7 +11417,7 @@
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>24</v>
@@ -11413,7 +11431,7 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>24</v>
@@ -11433,7 +11451,7 @@
         <v>23</v>
       </c>
       <c r="F53" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -11447,7 +11465,7 @@
         <v>32</v>
       </c>
       <c r="D55" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>24</v>
@@ -11475,7 +11493,7 @@
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>23</v>
@@ -11486,7 +11504,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B59" t="s">
         <v>22</v>
@@ -11495,13 +11513,13 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
+        <v>778</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59" t="s">
         <v>779</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F59" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -11509,7 +11527,7 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>24</v>
@@ -11523,7 +11541,7 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>23</v>
@@ -11534,7 +11552,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B63" t="s">
         <v>22</v>
@@ -11543,7 +11561,7 @@
         <v>33</v>
       </c>
       <c r="D63" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>24</v>
@@ -11580,8 +11598,8 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11616,22 +11634,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>783</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>784</v>
       </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>785</v>
-      </c>
       <c r="E2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11645,13 +11663,13 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -11659,7 +11677,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>23</v>
@@ -11690,7 +11708,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -11699,7 +11717,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>24</v>
@@ -11733,7 +11751,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>24</v>
@@ -11747,7 +11765,7 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>24</v>
@@ -11767,7 +11785,7 @@
         <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -11795,18 +11813,18 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
+        <v>789</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
         <v>790</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -11815,13 +11833,13 @@
         <v>33</v>
       </c>
       <c r="D19" t="s">
+        <v>791</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
         <v>792</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -11829,7 +11847,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>23</v>
@@ -11849,13 +11867,13 @@
         <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F22" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -11863,7 +11881,7 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>24</v>
@@ -11877,13 +11895,13 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F24" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -11891,7 +11909,7 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>23</v>
@@ -11902,7 +11920,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B27" t="s">
         <v>39</v>
@@ -11911,13 +11929,13 @@
         <v>33</v>
       </c>
       <c r="D27" t="s">
+        <v>798</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" t="s">
         <v>799</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -11937,7 +11955,7 @@
         <v>23</v>
       </c>
       <c r="F29" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -11951,7 +11969,7 @@
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>23</v>
@@ -11971,13 +11989,13 @@
         <v>32</v>
       </c>
       <c r="D33" t="s">
+        <v>801</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" t="s">
         <v>802</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -11985,7 +12003,7 @@
         <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>23</v>
@@ -12005,7 +12023,7 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>23</v>
@@ -12031,7 +12049,7 @@
         <v>24</v>
       </c>
       <c r="F38" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -12039,13 +12057,13 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F39" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -12053,7 +12071,7 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>24</v>
@@ -12067,13 +12085,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F41" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -12101,13 +12119,13 @@
         <v>32</v>
       </c>
       <c r="D44" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F44" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -12115,7 +12133,7 @@
         <v>33</v>
       </c>
       <c r="D45" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>24</v>
@@ -12129,18 +12147,18 @@
         <v>4</v>
       </c>
       <c r="D46" t="s">
+        <v>811</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" t="s">
         <v>812</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F46" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B48" t="s">
         <v>22</v>
@@ -12149,7 +12167,7 @@
         <v>33</v>
       </c>
       <c r="D48" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>23</v>
@@ -12160,7 +12178,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B50" t="s">
         <v>22</v>
@@ -12169,13 +12187,13 @@
         <v>33</v>
       </c>
       <c r="D50" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F50" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -12197,13 +12215,13 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F52" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -12211,7 +12229,7 @@
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>24</v>
@@ -12231,7 +12249,7 @@
         <v>24</v>
       </c>
       <c r="F54" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -12239,7 +12257,7 @@
         <v>58</v>
       </c>
       <c r="D55" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>23</v>
@@ -12259,13 +12277,13 @@
         <v>32</v>
       </c>
       <c r="D57" t="s">
+        <v>820</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F57" t="s">
         <v>821</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F57" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -12273,13 +12291,13 @@
         <v>33</v>
       </c>
       <c r="D58" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F58" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -12293,7 +12311,7 @@
         <v>24</v>
       </c>
       <c r="F59" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -12301,7 +12319,7 @@
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>23</v>
@@ -12312,7 +12330,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B62" t="s">
         <v>22</v>
@@ -12321,7 +12339,7 @@
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>24</v>
@@ -12335,7 +12353,7 @@
         <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>24</v>
@@ -12349,18 +12367,18 @@
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F64" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B66" t="s">
         <v>22</v>
@@ -12369,7 +12387,7 @@
         <v>33</v>
       </c>
       <c r="D66" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>24</v>
@@ -12383,13 +12401,13 @@
         <v>4</v>
       </c>
       <c r="D67" t="s">
+        <v>828</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F67" t="s">
         <v>829</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F67" t="s">
-        <v>830</v>
       </c>
     </row>
   </sheetData>
@@ -12403,10 +12421,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" activeCellId="3" sqref="E2:E3 E6 E9 E12:E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12441,7 +12459,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -12450,7 +12468,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
@@ -12465,13 +12483,13 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -12480,7 +12498,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>23</v>
@@ -12500,7 +12518,7 @@
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
@@ -12515,7 +12533,7 @@
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>23</v>
@@ -12526,7 +12544,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -12549,7 +12567,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>23</v>
@@ -12569,7 +12587,7 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>24</v>
@@ -12583,7 +12601,7 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>24</v>
@@ -12597,13 +12615,145 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>782</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>839</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>236</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>824</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>773</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>842</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>589</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>843</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>845</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -12619,7 +12769,7 @@
   </sheetPr>
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -13019,20 +13169,20 @@
         <v>2023</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -13041,7 +13191,7 @@
       </c>
       <c r="B20" s="6">
         <f>SUM(B2:B19)</f>
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C20" s="6">
         <f>SUM(C2:C19)</f>
@@ -13049,24 +13199,24 @@
       </c>
       <c r="D20" s="6">
         <f>SUM(D2:D19)</f>
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="E20" s="6">
         <f>SUM(E2:E19)</f>
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F20" s="7">
         <f>(D20-E20)/D20</f>
-        <v>0.54859967051070835</v>
+        <v>0.54918032786885251</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B21" s="6">
         <f>AVERAGE(B2:B19)</f>
-        <v>17.611111111111111</v>
+        <v>17.666666666666668</v>
       </c>
       <c r="C21" s="6">
         <f>AVERAGE(C2:C19)</f>
@@ -13074,29 +13224,27 @@
       </c>
       <c r="D21" s="6">
         <f>AVERAGE(D2:D19)</f>
-        <v>33.722222222222221</v>
+        <v>33.888888888888886</v>
       </c>
       <c r="E21" s="6">
         <f>AVERAGE(E2:E19)</f>
-        <v>15.222222222222221</v>
+        <v>15.277777777777779</v>
       </c>
       <c r="F21" s="7">
         <f>(D21-E21)/D21</f>
-        <v>0.54859967051070846</v>
+        <v>0.5491803278688524</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F19">
-    <cfRule type="iconSet" priority="4">
+    <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
         <cfvo type="percent" val="67"/>
       </iconSet>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F19">
-    <cfRule type="iconSet" priority="1">
+    <cfRule type="iconSet" priority="4">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -14577,7 +14725,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B54" t="s">
         <v>22</v>
@@ -14902,7 +15050,7 @@
         <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>23</v>
@@ -15018,7 +15166,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
@@ -15145,7 +15293,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -15937,7 +16085,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
@@ -16314,7 +16462,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B51" t="s">
         <v>22</v>
@@ -16685,7 +16833,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
@@ -16910,7 +17058,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
@@ -16973,7 +17121,7 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>23</v>
@@ -17263,7 +17411,7 @@
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>24</v>
@@ -17420,7 +17568,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B67" t="s">
         <v>22</v>
@@ -17454,7 +17602,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B70" t="s">
         <v>22</v>
@@ -17983,7 +18131,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -18006,7 +18154,7 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>23</v>
@@ -18156,7 +18304,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>24</v>
@@ -18443,7 +18591,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B55" t="s">
         <v>22</v>
@@ -18519,7 +18667,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B61" t="s">
         <v>22</v>
@@ -18556,7 +18704,7 @@
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>24</v>
@@ -18878,7 +19026,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>23</v>
@@ -19129,7 +19277,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
@@ -19556,7 +19704,7 @@
         <v>24</v>
       </c>
       <c r="F61" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -19564,7 +19712,7 @@
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>24</v>
@@ -19637,7 +19785,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B69" t="s">
         <v>22</v>
@@ -19646,7 +19794,7 @@
         <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>24</v>
@@ -19685,7 +19833,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B73" t="s">
         <v>22</v>
@@ -19756,7 +19904,7 @@
         <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>24</v>
@@ -20227,7 +20375,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
@@ -20442,7 +20590,7 @@
         <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -20572,7 +20720,7 @@
         <v>91</v>
       </c>
       <c r="F42" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -20670,7 +20818,7 @@
         <v>58</v>
       </c>
       <c r="D50" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>24</v>
@@ -20681,7 +20829,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B52" t="s">
         <v>22</v>
@@ -20704,7 +20852,7 @@
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>23</v>
@@ -20715,7 +20863,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B55" t="s">
         <v>22</v>
@@ -20744,7 +20892,7 @@
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>24</v>
@@ -20910,7 +21058,7 @@
         <v>58</v>
       </c>
       <c r="D70" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>24</v>

--- a/Tennis/WTA Tour/Petra Kvitová.xlsx
+++ b/Tennis/WTA Tour/Petra Kvitová.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6256" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7721F4B-AB34-4F93-9C9F-039E54790987}"/>
+  <xr:revisionPtr revIDLastSave="6265" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9854A71A-4939-462F-9C16-482FAF50744A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2006" sheetId="12" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4314" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4320" uniqueCount="847">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2591,6 +2591,9 @@
   </si>
   <si>
     <t>Ekaterina Alexandrova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>7-6(14) 6-2</t>
   </si>
 </sst>
 </file>
@@ -2934,7 +2937,7 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3661,7 +3664,7 @@
                   <c:v>0.29629629629629628</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.44444444444444442</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11599,7 +11602,7 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12421,10 +12424,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" activeCellId="5" sqref="A2 A6 A9 A12 A16 A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12755,6 +12758,26 @@
       <c r="D25" t="s">
         <v>168</v>
       </c>
+      <c r="E25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" t="s">
+        <v>826</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" t="s">
+        <v>846</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12769,8 +12792,8 @@
   </sheetPr>
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13169,20 +13192,20 @@
         <v>2023</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>5</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -13191,15 +13214,15 @@
       </c>
       <c r="B20" s="6">
         <f>SUM(B2:B19)</f>
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C20" s="6">
         <f>SUM(C2:C19)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20" s="6">
         <f>SUM(D2:D19)</f>
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="E20" s="6">
         <f>SUM(E2:E19)</f>
@@ -13207,7 +13230,7 @@
       </c>
       <c r="F20" s="7">
         <f>(D20-E20)/D20</f>
-        <v>0.54918032786885251</v>
+        <v>0.5535714285714286</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -13216,15 +13239,15 @@
       </c>
       <c r="B21" s="6">
         <f>AVERAGE(B2:B19)</f>
-        <v>17.666666666666668</v>
+        <v>17.722222222222221</v>
       </c>
       <c r="C21" s="6">
         <f>AVERAGE(C2:C19)</f>
-        <v>1.6111111111111112</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="D21" s="6">
         <f>AVERAGE(D2:D19)</f>
-        <v>33.888888888888886</v>
+        <v>34.222222222222221</v>
       </c>
       <c r="E21" s="6">
         <f>AVERAGE(E2:E19)</f>
@@ -13232,7 +13255,7 @@
       </c>
       <c r="F21" s="7">
         <f>(D21-E21)/D21</f>
-        <v>0.5491803278688524</v>
+        <v>0.55357142857142849</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Petra Kvitová.xlsx
+++ b/Tennis/WTA Tour/Petra Kvitová.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6309" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AB764C0-D0DC-45F7-94A2-1AB3297FE114}"/>
+  <xr:revisionPtr revIDLastSave="6317" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A75DC08F-1F8C-424B-ABC9-92CC5A1EE491}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4326" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4332" uniqueCount="848">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2594,6 +2594,9 @@
   </si>
   <si>
     <t>7-6(9) 6-1</t>
+  </si>
+  <si>
+    <t>Elisabetta Cocciaretto (ITALY)</t>
   </si>
 </sst>
 </file>
@@ -3093,7 +3096,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3664,7 +3667,7 @@
                   <c:v>0.29629629629629628</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.6</c:v>
+                  <c:v>0.53333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12420,10 +12423,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E28" activeCellId="5" sqref="E4 E7 E10 E14 E19 E28"/>
+      <selection activeCell="A30" activeCellId="7" sqref="A2 A6 A9 A12 A16 A21 A28 A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12793,6 +12796,26 @@
       </c>
       <c r="F28" t="s">
         <v>846</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>847</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -13208,7 +13231,7 @@
         <v>2023</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -13217,11 +13240,11 @@
         <v>15</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.53333333333333333</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -13230,7 +13253,7 @@
       </c>
       <c r="B20" s="6">
         <f>SUM(B2:B19)</f>
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C20" s="6">
         <f>SUM(C2:C19)</f>
@@ -13242,11 +13265,11 @@
       </c>
       <c r="E20" s="6">
         <f>SUM(E2:E19)</f>
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F20" s="7">
         <f>(D20-E20)/D20</f>
-        <v>0.55194805194805197</v>
+        <v>0.55032467532467533</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -13255,7 +13278,7 @@
       </c>
       <c r="B21" s="6">
         <f>AVERAGE(B2:B19)</f>
-        <v>17.777777777777779</v>
+        <v>17.833333333333332</v>
       </c>
       <c r="C21" s="6">
         <f>AVERAGE(C2:C19)</f>
@@ -13267,11 +13290,11 @@
       </c>
       <c r="E21" s="6">
         <f>AVERAGE(E2:E19)</f>
-        <v>15.333333333333334</v>
+        <v>15.388888888888889</v>
       </c>
       <c r="F21" s="7">
         <f>(D21-E21)/D21</f>
-        <v>0.55194805194805185</v>
+        <v>0.55032467532467533</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Petra Kvitová.xlsx
+++ b/Tennis/WTA Tour/Petra Kvitová.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6317" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A75DC08F-1F8C-424B-ABC9-92CC5A1EE491}"/>
+  <xr:revisionPtr revIDLastSave="6338" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{571FD9EE-F457-4569-B8B4-83B4A3E4FC09}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4332" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4354" uniqueCount="851">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2597,6 +2597,15 @@
   </si>
   <si>
     <t>Elisabetta Cocciaretto (ITALY)</t>
+  </si>
+  <si>
+    <t>BERLIN OPEN</t>
+  </si>
+  <si>
+    <t>Nadia Podoroska (ARGENTINA)</t>
+  </si>
+  <si>
+    <t>6-2 7-6(6)</t>
   </si>
 </sst>
 </file>
@@ -2940,7 +2949,7 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3667,7 +3676,7 @@
                   <c:v>0.29629629629629628</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.53333333333333333</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9428,7 +9437,7 @@
   </sheetPr>
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -10319,7 +10328,7 @@
   </sheetPr>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -10800,7 +10809,7 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
@@ -11600,8 +11609,8 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12423,10 +12432,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A30" activeCellId="7" sqref="A2 A6 A9 A12 A16 A21 A28 A30"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E32" activeCellId="6" sqref="E2:E3 E6 E9 E12:E13 E16:E18 E21:E26 E32:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12818,6 +12827,82 @@
         <v>61</v>
       </c>
     </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>848</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>194</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>849</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>812</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>842</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" t="s">
+        <v>586</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" t="s">
+        <v>850</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -12832,7 +12917,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13231,20 +13316,20 @@
         <v>2023</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E19">
         <v>7</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" si="0"/>
-        <v>0.53333333333333333</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -13253,15 +13338,15 @@
       </c>
       <c r="B20" s="6">
         <f>SUM(B2:B19)</f>
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C20" s="6">
         <f>SUM(C2:C19)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D20" s="6">
         <f>SUM(D2:D19)</f>
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="E20" s="6">
         <f>SUM(E2:E19)</f>
@@ -13269,7 +13354,7 @@
       </c>
       <c r="F20" s="7">
         <f>(D20-E20)/D20</f>
-        <v>0.55032467532467533</v>
+        <v>0.55394524959742353</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -13278,15 +13363,15 @@
       </c>
       <c r="B21" s="6">
         <f>AVERAGE(B2:B19)</f>
-        <v>17.833333333333332</v>
+        <v>17.888888888888889</v>
       </c>
       <c r="C21" s="6">
         <f>AVERAGE(C2:C19)</f>
-        <v>1.6666666666666667</v>
+        <v>1.7222222222222223</v>
       </c>
       <c r="D21" s="6">
         <f>AVERAGE(D2:D19)</f>
-        <v>34.222222222222221</v>
+        <v>34.5</v>
       </c>
       <c r="E21" s="6">
         <f>AVERAGE(E2:E19)</f>
@@ -13294,7 +13379,7 @@
       </c>
       <c r="F21" s="7">
         <f>(D21-E21)/D21</f>
-        <v>0.55032467532467533</v>
+        <v>0.55394524959742353</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Petra Kvitová.xlsx
+++ b/Tennis/WTA Tour/Petra Kvitová.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="6338" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{571FD9EE-F457-4569-B8B4-83B4A3E4FC09}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2006" sheetId="12" r:id="rId1"/>
@@ -5164,6 +5164,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -12434,8 +12438,8 @@
   </sheetPr>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E32" activeCellId="6" sqref="E2:E3 E6 E9 E12:E13 E16:E18 E21:E26 E32:E36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12916,7 +12920,7 @@
   </sheetPr>
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Petra Kvitová.xlsx
+++ b/Tennis/WTA Tour/Petra Kvitová.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Soumya-Website/Tennis/WTA Tour/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6313" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D211443D-64A8-43FF-8168-5C4F9569B788}"/>
+  <xr:revisionPtr revIDLastSave="6338" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{571FD9EE-F457-4569-B8B4-83B4A3E4FC09}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4330" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4354" uniqueCount="851">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2594,6 +2594,18 @@
   </si>
   <si>
     <t>7-6(9) 6-1</t>
+  </si>
+  <si>
+    <t>Elisabetta Cocciaretto (ITALY)</t>
+  </si>
+  <si>
+    <t>BERLIN OPEN</t>
+  </si>
+  <si>
+    <t>Nadia Podoroska (ARGENTINA)</t>
+  </si>
+  <si>
+    <t>6-2 7-6(6)</t>
   </si>
 </sst>
 </file>
@@ -2937,7 +2949,7 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3093,7 +3105,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3664,7 +3676,7 @@
                   <c:v>0.29629629629629628</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.6</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5152,6 +5164,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9425,7 +9441,7 @@
   </sheetPr>
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -10316,7 +10332,7 @@
   </sheetPr>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -10797,7 +10813,7 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
@@ -11597,8 +11613,8 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12420,10 +12436,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12805,8 +12821,90 @@
       <c r="C30" t="s">
         <v>32</v>
       </c>
+      <c r="D30" t="s">
+        <v>847</v>
+      </c>
       <c r="E30" s="3" t="s">
         <v>23</v>
+      </c>
+      <c r="F30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>848</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>194</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>849</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>812</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>842</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" t="s">
+        <v>586</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" t="s">
+        <v>850</v>
       </c>
     </row>
   </sheetData>
@@ -12823,7 +12921,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13222,20 +13320,20 @@
         <v>2023</v>
       </c>
       <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+      <c r="E19">
         <v>7</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>15</v>
-      </c>
-      <c r="E19">
-        <v>6</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -13244,23 +13342,23 @@
       </c>
       <c r="B20" s="6">
         <f>SUM(B2:B19)</f>
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C20" s="6">
         <f>SUM(C2:C19)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D20" s="6">
         <f>SUM(D2:D19)</f>
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="E20" s="6">
         <f>SUM(E2:E19)</f>
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F20" s="7">
         <f>(D20-E20)/D20</f>
-        <v>0.55194805194805197</v>
+        <v>0.55394524959742353</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -13269,23 +13367,23 @@
       </c>
       <c r="B21" s="6">
         <f>AVERAGE(B2:B19)</f>
-        <v>17.777777777777779</v>
+        <v>17.888888888888889</v>
       </c>
       <c r="C21" s="6">
         <f>AVERAGE(C2:C19)</f>
-        <v>1.6666666666666667</v>
+        <v>1.7222222222222223</v>
       </c>
       <c r="D21" s="6">
         <f>AVERAGE(D2:D19)</f>
-        <v>34.222222222222221</v>
+        <v>34.5</v>
       </c>
       <c r="E21" s="6">
         <f>AVERAGE(E2:E19)</f>
-        <v>15.333333333333334</v>
+        <v>15.388888888888889</v>
       </c>
       <c r="F21" s="7">
         <f>(D21-E21)/D21</f>
-        <v>0.55194805194805185</v>
+        <v>0.55394524959742353</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Petra Kvitová.xlsx
+++ b/Tennis/WTA Tour/Petra Kvitová.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6338" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{571FD9EE-F457-4569-B8B4-83B4A3E4FC09}"/>
+  <xr:revisionPtr revIDLastSave="6354" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C1305FA-CFB0-463E-BC6A-5BDC7FB9AAD1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="3864" yWindow="3360" windowWidth="17280" windowHeight="8880" firstSheet="7" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2006" sheetId="12" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4354" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4372" uniqueCount="853">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2606,6 +2606,12 @@
   </si>
   <si>
     <t>6-2 7-6(6)</t>
+  </si>
+  <si>
+    <t>Natalija Kostić (SERBIA)</t>
+  </si>
+  <si>
+    <t>6-4 6-7(5) 6-1</t>
   </si>
 </sst>
 </file>
@@ -2949,7 +2955,7 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3105,7 +3111,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3676,7 +3682,7 @@
                   <c:v>0.29629629629629628</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.65</c:v>
+                  <c:v>0.65217391304347827</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11614,7 +11620,7 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="E22" sqref="E22:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12436,10 +12442,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:F36"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E41" activeCellId="7" sqref="E4 E7 E10 E14 E19 E28 E30 E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12851,7 +12857,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -12865,7 +12871,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -12879,7 +12885,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -12893,7 +12899,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>58</v>
       </c>
@@ -12905,6 +12911,68 @@
       </c>
       <c r="F36" t="s">
         <v>850</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" t="s">
+        <v>757</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" t="s">
+        <v>788</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>851</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>783</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -12920,8 +12988,8 @@
   </sheetPr>
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13320,20 +13388,20 @@
         <v>2023</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" si="0"/>
-        <v>0.65</v>
+        <v>0.65217391304347827</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -13342,7 +13410,7 @@
       </c>
       <c r="B20" s="6">
         <f>SUM(B2:B19)</f>
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C20" s="6">
         <f>SUM(C2:C19)</f>
@@ -13350,15 +13418,15 @@
       </c>
       <c r="D20" s="6">
         <f>SUM(D2:D19)</f>
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="E20" s="6">
         <f>SUM(E2:E19)</f>
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F20" s="7">
         <f>(D20-E20)/D20</f>
-        <v>0.55394524959742353</v>
+        <v>0.55448717948717952</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -13367,7 +13435,7 @@
       </c>
       <c r="B21" s="6">
         <f>AVERAGE(B2:B19)</f>
-        <v>17.888888888888889</v>
+        <v>17.944444444444443</v>
       </c>
       <c r="C21" s="6">
         <f>AVERAGE(C2:C19)</f>
@@ -13375,15 +13443,15 @@
       </c>
       <c r="D21" s="6">
         <f>AVERAGE(D2:D19)</f>
-        <v>34.5</v>
+        <v>34.666666666666664</v>
       </c>
       <c r="E21" s="6">
         <f>AVERAGE(E2:E19)</f>
-        <v>15.388888888888889</v>
+        <v>15.444444444444445</v>
       </c>
       <c r="F21" s="7">
         <f>(D21-E21)/D21</f>
-        <v>0.55394524959742353</v>
+        <v>0.55448717948717952</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Petra Kvitová.xlsx
+++ b/Tennis/WTA Tour/Petra Kvitová.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6354" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C1305FA-CFB0-463E-BC6A-5BDC7FB9AAD1}"/>
+  <xr:revisionPtr revIDLastSave="6365" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{926D45F2-3E36-480A-A3EA-D6B940366966}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3864" yWindow="3360" windowWidth="17280" windowHeight="8880" firstSheet="7" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="19" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2006" sheetId="12" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4372" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4382" uniqueCount="855">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2612,6 +2612,12 @@
   </si>
   <si>
     <t>6-4 6-7(5) 6-1</t>
+  </si>
+  <si>
+    <t>6-2 5-7 6-0</t>
+  </si>
+  <si>
+    <t>6-7(3) 6-3 6-1</t>
   </si>
 </sst>
 </file>
@@ -2955,7 +2961,7 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3111,7 +3117,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3682,7 +3688,7 @@
                   <c:v>0.29629629629629628</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.65217391304347827</c:v>
+                  <c:v>0.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5085,7 +5091,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{EBE9F738-3A3C-44FD-8CB1-BA770F5340BC}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5108,7 +5114,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8570360" cy="5830584"/>
+    <xdr:ext cx="8564880" cy="5821680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -12442,10 +12448,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E41" activeCellId="7" sqref="E4 E7 E10 E14 E19 E28 E30 E41"/>
+      <selection activeCell="E44" activeCellId="8" sqref="E4 E7 E10 E14 E19 E28 E30 E41 E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12975,6 +12981,40 @@
         <v>79</v>
       </c>
     </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>810</v>
+      </c>
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>765</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>219</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" t="s">
+        <v>854</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -12988,7 +13028,7 @@
   </sheetPr>
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -13388,20 +13428,20 @@
         <v>2023</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" si="0"/>
-        <v>0.65217391304347827</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -13410,7 +13450,7 @@
       </c>
       <c r="B20" s="6">
         <f>SUM(B2:B19)</f>
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C20" s="6">
         <f>SUM(C2:C19)</f>
@@ -13418,15 +13458,15 @@
       </c>
       <c r="D20" s="6">
         <f>SUM(D2:D19)</f>
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E20" s="6">
         <f>SUM(E2:E19)</f>
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F20" s="7">
         <f>(D20-E20)/D20</f>
-        <v>0.55448717948717952</v>
+        <v>0.55359999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -13435,7 +13475,7 @@
       </c>
       <c r="B21" s="6">
         <f>AVERAGE(B2:B19)</f>
-        <v>17.944444444444443</v>
+        <v>18</v>
       </c>
       <c r="C21" s="6">
         <f>AVERAGE(C2:C19)</f>
@@ -13443,15 +13483,15 @@
       </c>
       <c r="D21" s="6">
         <f>AVERAGE(D2:D19)</f>
-        <v>34.666666666666664</v>
+        <v>34.722222222222221</v>
       </c>
       <c r="E21" s="6">
         <f>AVERAGE(E2:E19)</f>
-        <v>15.444444444444445</v>
+        <v>15.5</v>
       </c>
       <c r="F21" s="7">
         <f>(D21-E21)/D21</f>
-        <v>0.55448717948717952</v>
+        <v>0.55359999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Petra Kvitová.xlsx
+++ b/Tennis/WTA Tour/Petra Kvitová.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6365" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{926D45F2-3E36-480A-A3EA-D6B940366966}"/>
+  <xr:revisionPtr revIDLastSave="6376" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{795CD1BF-3CA1-4A2B-A410-57677434EC41}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="19" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2006" sheetId="12" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4382" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4392" uniqueCount="856">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2618,6 +2618,9 @@
   </si>
   <si>
     <t>6-7(3) 6-3 6-1</t>
+  </si>
+  <si>
+    <t>Anna Blinkova (RUSSIA)</t>
   </si>
 </sst>
 </file>
@@ -2961,7 +2964,7 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3117,7 +3120,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3688,7 +3691,7 @@
                   <c:v>0.29629629629629628</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.625</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5091,7 +5094,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{EBE9F738-3A3C-44FD-8CB1-BA770F5340BC}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -11625,8 +11628,8 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:E25"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50:C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12448,10 +12451,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E44" activeCellId="8" sqref="E4 E7 E10 E14 E19 E28 E30 E41 E44"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E46" activeCellId="9" sqref="E2:E3 E6 E9 E12:E13 E16:E18 E21:E26 E32:E36 E38:E40 E43 E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13015,6 +13018,40 @@
         <v>854</v>
       </c>
     </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>768</v>
+      </c>
+      <c r="B46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" t="s">
+        <v>855</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>839</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -13028,7 +13065,7 @@
   </sheetPr>
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -13428,20 +13465,20 @@
         <v>2023</v>
       </c>
       <c r="B19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" si="0"/>
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -13450,7 +13487,7 @@
       </c>
       <c r="B20" s="6">
         <f>SUM(B2:B19)</f>
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C20" s="6">
         <f>SUM(C2:C19)</f>
@@ -13458,15 +13495,15 @@
       </c>
       <c r="D20" s="6">
         <f>SUM(D2:D19)</f>
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E20" s="6">
         <f>SUM(E2:E19)</f>
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F20" s="7">
         <f>(D20-E20)/D20</f>
-        <v>0.55359999999999998</v>
+        <v>0.55271565495207664</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -13475,7 +13512,7 @@
       </c>
       <c r="B21" s="6">
         <f>AVERAGE(B2:B19)</f>
-        <v>18</v>
+        <v>18.055555555555557</v>
       </c>
       <c r="C21" s="6">
         <f>AVERAGE(C2:C19)</f>
@@ -13483,15 +13520,15 @@
       </c>
       <c r="D21" s="6">
         <f>AVERAGE(D2:D19)</f>
-        <v>34.722222222222221</v>
+        <v>34.777777777777779</v>
       </c>
       <c r="E21" s="6">
         <f>AVERAGE(E2:E19)</f>
-        <v>15.5</v>
+        <v>15.555555555555555</v>
       </c>
       <c r="F21" s="7">
         <f>(D21-E21)/D21</f>
-        <v>0.55359999999999998</v>
+        <v>0.55271565495207664</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Petra Kvitová.xlsx
+++ b/Tennis/WTA Tour/Petra Kvitová.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6376" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{795CD1BF-3CA1-4A2B-A410-57677434EC41}"/>
+  <xr:revisionPtr revIDLastSave="6387" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F7A44C4-6579-4BC0-8EE4-35B1C4BD23BD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4392" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4402" uniqueCount="858">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2621,6 +2621,12 @@
   </si>
   <si>
     <t>Anna Blinkova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Cristina Bucșa (SPAIN)</t>
+  </si>
+  <si>
+    <t>Caroline Wozniacki (DENMARK)</t>
   </si>
 </sst>
 </file>
@@ -2964,7 +2970,7 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3120,7 +3126,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3691,7 +3697,7 @@
                   <c:v>0.29629629629629628</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.6</c:v>
+                  <c:v>0.57692307692307687</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12451,10 +12457,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E46" activeCellId="9" sqref="E2:E3 E6 E9 E12:E13 E16:E18 E21:E26 E32:E36 E38:E40 E43 E46"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A49" activeCellId="12" sqref="A2 A6 A9 A12 A16 A21 A28 A30 A32 A38 A43 A46 A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13050,6 +13056,40 @@
       </c>
       <c r="F47" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" t="s">
+        <v>856</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" t="s">
+        <v>857</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F50" t="s">
+        <v>841</v>
       </c>
     </row>
   </sheetData>
@@ -13465,20 +13505,20 @@
         <v>2023</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.57692307692307687</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -13487,7 +13527,7 @@
       </c>
       <c r="B20" s="6">
         <f>SUM(B2:B19)</f>
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C20" s="6">
         <f>SUM(C2:C19)</f>
@@ -13495,15 +13535,15 @@
       </c>
       <c r="D20" s="6">
         <f>SUM(D2:D19)</f>
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E20" s="6">
         <f>SUM(E2:E19)</f>
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F20" s="7">
         <f>(D20-E20)/D20</f>
-        <v>0.55271565495207664</v>
+        <v>0.55183413078149923</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -13512,7 +13552,7 @@
       </c>
       <c r="B21" s="6">
         <f>AVERAGE(B2:B19)</f>
-        <v>18.055555555555557</v>
+        <v>18.111111111111111</v>
       </c>
       <c r="C21" s="6">
         <f>AVERAGE(C2:C19)</f>
@@ -13520,15 +13560,15 @@
       </c>
       <c r="D21" s="6">
         <f>AVERAGE(D2:D19)</f>
-        <v>34.777777777777779</v>
+        <v>34.833333333333336</v>
       </c>
       <c r="E21" s="6">
         <f>AVERAGE(E2:E19)</f>
-        <v>15.555555555555555</v>
+        <v>15.611111111111111</v>
       </c>
       <c r="F21" s="7">
         <f>(D21-E21)/D21</f>
-        <v>0.55271565495207664</v>
+        <v>0.55183413078149923</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Petra Kvitová.xlsx
+++ b/Tennis/WTA Tour/Petra Kvitová.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6387" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F7A44C4-6579-4BC0-8EE4-35B1C4BD23BD}"/>
+  <xr:revisionPtr revIDLastSave="6402" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32012CF5-4DB4-409F-A61E-F56D47415493}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
     <sheet name="2021" sheetId="28" r:id="rId16"/>
     <sheet name="2022" sheetId="31" r:id="rId17"/>
     <sheet name="2023" sheetId="34" r:id="rId18"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId19"/>
+    <sheet name="Stats" sheetId="1" r:id="rId19"/>
     <sheet name="Wins-Losses" sheetId="36" r:id="rId20"/>
     <sheet name="Winning Percentile Range" sheetId="37" r:id="rId21"/>
   </sheets>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4402" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4416" uniqueCount="862">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2627,6 +2627,18 @@
   </si>
   <si>
     <t>Caroline Wozniacki (DENMARK)</t>
+  </si>
+  <si>
+    <t>NINGBO OPEN</t>
+  </si>
+  <si>
+    <t>Anna-Lena Friedsam (GERMANY)</t>
+  </si>
+  <si>
+    <t>Diana Shnaider (RUSSIA)</t>
+  </si>
+  <si>
+    <t>6-1 4-6 6-3</t>
   </si>
 </sst>
 </file>
@@ -2830,7 +2842,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$D$1</c:f>
+              <c:f>Stats!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2851,7 +2863,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$19</c:f>
+              <c:f>Stats!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -2914,7 +2926,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$19</c:f>
+              <c:f>Stats!$D$2:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -2970,7 +2982,7 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2986,7 +2998,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$E$1</c:f>
+              <c:f>Stats!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3007,7 +3019,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$19</c:f>
+              <c:f>Stats!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -3070,7 +3082,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$19</c:f>
+              <c:f>Stats!$E$2:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -3126,7 +3138,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3529,7 +3541,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$F$1</c:f>
+              <c:f>Stats!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3578,7 +3590,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$19</c:f>
+              <c:f>Stats!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -3641,7 +3653,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$19</c:f>
+              <c:f>Stats!$F$2:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="18"/>
@@ -3697,7 +3709,7 @@
                   <c:v>0.29629629629629628</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.57692307692307687</c:v>
+                  <c:v>0.55555555555555558</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12457,10 +12469,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A49" activeCellId="12" sqref="A2 A6 A9 A12 A16 A21 A28 A30 A32 A38 A43 A46 A49"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E52" activeCellId="11" sqref="E2:E3 E6 E9 E12:E13 E16:E18 E21:E26 E32:E36 E38:E40 E43 E46 E49 E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13090,6 +13102,54 @@
       </c>
       <c r="F50" t="s">
         <v>841</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>858</v>
+      </c>
+      <c r="B52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" t="s">
+        <v>859</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>834</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>860</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54" t="s">
+        <v>861</v>
       </c>
     </row>
   </sheetData>
@@ -13505,20 +13565,20 @@
         <v>2023</v>
       </c>
       <c r="B19">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" si="0"/>
-        <v>0.57692307692307687</v>
+        <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -13527,7 +13587,7 @@
       </c>
       <c r="B20" s="6">
         <f>SUM(B2:B19)</f>
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C20" s="6">
         <f>SUM(C2:C19)</f>
@@ -13535,15 +13595,15 @@
       </c>
       <c r="D20" s="6">
         <f>SUM(D2:D19)</f>
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E20" s="6">
         <f>SUM(E2:E19)</f>
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F20" s="7">
         <f>(D20-E20)/D20</f>
-        <v>0.55183413078149923</v>
+        <v>0.55095541401273884</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -13552,7 +13612,7 @@
       </c>
       <c r="B21" s="6">
         <f>AVERAGE(B2:B19)</f>
-        <v>18.111111111111111</v>
+        <v>18.166666666666668</v>
       </c>
       <c r="C21" s="6">
         <f>AVERAGE(C2:C19)</f>
@@ -13560,15 +13620,15 @@
       </c>
       <c r="D21" s="6">
         <f>AVERAGE(D2:D19)</f>
-        <v>34.833333333333336</v>
+        <v>34.888888888888886</v>
       </c>
       <c r="E21" s="6">
         <f>AVERAGE(E2:E19)</f>
-        <v>15.611111111111111</v>
+        <v>15.666666666666666</v>
       </c>
       <c r="F21" s="7">
         <f>(D21-E21)/D21</f>
-        <v>0.55183413078149923</v>
+        <v>0.55095541401273884</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Petra Kvitová.xlsx
+++ b/Tennis/WTA Tour/Petra Kvitová.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6402" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32012CF5-4DB4-409F-A61E-F56D47415493}"/>
+  <xr:revisionPtr revIDLastSave="6414" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEF44278-264F-4D9A-BD6A-0B89DBBFD8B6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4416" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4426" uniqueCount="865">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2639,6 +2639,15 @@
   </si>
   <si>
     <t>6-1 4-6 6-3</t>
+  </si>
+  <si>
+    <t>Wang Xiyu (CHINA)</t>
+  </si>
+  <si>
+    <t>6-7(6) 7-5 6-3</t>
+  </si>
+  <si>
+    <t>Liudmila Samsonova (RUSSIA)</t>
   </si>
 </sst>
 </file>
@@ -2982,7 +2991,7 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3138,7 +3147,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3709,7 +3718,7 @@
                   <c:v>0.29629629629629628</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.55555555555555558</c:v>
+                  <c:v>0.5357142857142857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12469,10 +12478,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E52" activeCellId="11" sqref="E2:E3 E6 E9 E12:E13 E16:E18 E21:E26 E32:E36 E38:E40 E43 E46 E49 E52"/>
+      <selection activeCell="E57" activeCellId="12" sqref="E4 E7 E10 E14 E19 E28 E30 E41 E44 E47 E50 E54 E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13150,6 +13159,40 @@
       </c>
       <c r="F54" t="s">
         <v>861</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>98</v>
+      </c>
+      <c r="B56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" t="s">
+        <v>862</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" t="s">
+        <v>864</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F57" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -13565,20 +13608,20 @@
         <v>2023</v>
       </c>
       <c r="B19">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" si="0"/>
-        <v>0.55555555555555558</v>
+        <v>0.5357142857142857</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -13587,7 +13630,7 @@
       </c>
       <c r="B20" s="6">
         <f>SUM(B2:B19)</f>
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C20" s="6">
         <f>SUM(C2:C19)</f>
@@ -13595,15 +13638,15 @@
       </c>
       <c r="D20" s="6">
         <f>SUM(D2:D19)</f>
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E20" s="6">
         <f>SUM(E2:E19)</f>
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F20" s="7">
         <f>(D20-E20)/D20</f>
-        <v>0.55095541401273884</v>
+        <v>0.55007949125596189</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -13612,7 +13655,7 @@
       </c>
       <c r="B21" s="6">
         <f>AVERAGE(B2:B19)</f>
-        <v>18.166666666666668</v>
+        <v>18.222222222222221</v>
       </c>
       <c r="C21" s="6">
         <f>AVERAGE(C2:C19)</f>
@@ -13620,15 +13663,15 @@
       </c>
       <c r="D21" s="6">
         <f>AVERAGE(D2:D19)</f>
-        <v>34.888888888888886</v>
+        <v>34.944444444444443</v>
       </c>
       <c r="E21" s="6">
         <f>AVERAGE(E2:E19)</f>
-        <v>15.666666666666666</v>
+        <v>15.722222222222221</v>
       </c>
       <c r="F21" s="7">
         <f>(D21-E21)/D21</f>
-        <v>0.55095541401273884</v>
+        <v>0.55007949125596189</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Petra Kvitová.xlsx
+++ b/Tennis/WTA Tour/Petra Kvitová.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6414" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEF44278-264F-4D9A-BD6A-0B89DBBFD8B6}"/>
+  <xr:revisionPtr revIDLastSave="6415" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BF174A6-B95D-4347-83AF-FD44EA716908}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="8" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2006" sheetId="12" r:id="rId1"/>
@@ -5121,7 +5121,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{EBE9F738-3A3C-44FD-8CB1-BA770F5340BC}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5133,7 +5133,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{1A7001B0-8781-4F13-98F1-619178942E33}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5512,21 +5512,21 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -5546,7 +5546,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>250</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>8</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>4</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>255</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>261</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>58</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>267</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>269</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>0</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>58</v>
       </c>
@@ -5841,21 +5841,21 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>601</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>493</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>0</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>58</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>33</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>245</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>535</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>248</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>339</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>506</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>844</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>58</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>33</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>33</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>810</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>768</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>452</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>0</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>58</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>33</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>4</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>247</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>98</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>244</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>75</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>75</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>0</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>58</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>248</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
         <v>761</v>
       </c>
@@ -6760,21 +6760,21 @@
   </sheetPr>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>601</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>33</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>245</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>845</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>779</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>154</v>
       </c>
@@ -6984,7 +6984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>506</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -7032,7 +7032,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -7046,7 +7046,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>844</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -7094,7 +7094,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>33</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>363</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>477</v>
       </c>
@@ -7230,7 +7230,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>33</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>810</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -7326,7 +7326,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>246</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>33</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -7374,7 +7374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>0</v>
       </c>
@@ -7416,7 +7416,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>452</v>
       </c>
@@ -7436,7 +7436,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -7450,7 +7450,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -7464,7 +7464,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>0</v>
       </c>
@@ -7478,7 +7478,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>54</v>
       </c>
@@ -7498,7 +7498,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>33</v>
       </c>
@@ -7512,7 +7512,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -7540,7 +7540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>453</v>
       </c>
@@ -7560,7 +7560,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>247</v>
       </c>
@@ -7594,7 +7594,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>4</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>3</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>2</v>
       </c>
@@ -7636,7 +7636,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>0</v>
       </c>
@@ -7650,7 +7650,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>58</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>98</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -7698,7 +7698,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>428</v>
       </c>
@@ -7732,7 +7732,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>3</v>
       </c>
@@ -7746,7 +7746,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>2</v>
       </c>
@@ -7760,7 +7760,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>0</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>58</v>
       </c>
@@ -7788,7 +7788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>652</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>75</v>
       </c>
@@ -7822,7 +7822,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>0</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>58</v>
       </c>
@@ -7850,7 +7850,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>248</v>
       </c>
@@ -7880,21 +7880,21 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
@@ -7950,7 +7950,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -7958,7 +7958,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>363</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -8006,7 +8006,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -8020,7 +8020,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>58</v>
       </c>
@@ -8034,7 +8034,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -8054,7 +8054,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>33</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>125</v>
       </c>
@@ -8088,7 +8088,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>810</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -8136,7 +8136,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>768</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>452</v>
       </c>
@@ -8190,7 +8190,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>33</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -8238,7 +8238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -8266,7 +8266,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>247</v>
       </c>
@@ -8286,7 +8286,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>98</v>
       </c>
@@ -8306,7 +8306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -8320,7 +8320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -8334,7 +8334,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -8362,7 +8362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>667</v>
       </c>
@@ -8395,21 +8395,21 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A60" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>493</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
@@ -8465,10 +8465,10 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>762</v>
       </c>
@@ -8508,7 +8508,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -8522,7 +8522,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>0</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>58</v>
       </c>
@@ -8564,7 +8564,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>248</v>
       </c>
@@ -8581,7 +8581,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>672</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>845</v>
       </c>
@@ -8612,7 +8612,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -8626,7 +8626,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -8640,7 +8640,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -8654,7 +8654,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>0</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>58</v>
       </c>
@@ -8682,7 +8682,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>779</v>
       </c>
@@ -8702,7 +8702,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>154</v>
       </c>
@@ -8736,7 +8736,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -8750,7 +8750,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -8764,7 +8764,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>243</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>248</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>142</v>
       </c>
@@ -8812,7 +8812,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>506</v>
       </c>
@@ -8832,7 +8832,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>292</v>
       </c>
@@ -8852,7 +8852,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -8866,7 +8866,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>58</v>
       </c>
@@ -8908,7 +8908,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>844</v>
       </c>
@@ -8928,7 +8928,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -8942,7 +8942,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -8956,7 +8956,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -8970,7 +8970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>0</v>
       </c>
@@ -8984,7 +8984,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>58</v>
       </c>
@@ -8998,7 +8998,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -9018,7 +9018,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>33</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -9046,7 +9046,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>363</v>
       </c>
@@ -9066,7 +9066,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -9094,7 +9094,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -9108,7 +9108,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>58</v>
       </c>
@@ -9122,7 +9122,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>477</v>
       </c>
@@ -9142,7 +9142,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -9156,7 +9156,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>48</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>810</v>
       </c>
@@ -9196,7 +9196,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -9210,7 +9210,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>768</v>
       </c>
@@ -9230,7 +9230,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -9244,7 +9244,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -9258,7 +9258,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>0</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>452</v>
       </c>
@@ -9292,7 +9292,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>3</v>
       </c>
@@ -9306,7 +9306,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>2</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>54</v>
       </c>
@@ -9340,7 +9340,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>33</v>
       </c>
@@ -9354,7 +9354,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>4</v>
       </c>
@@ -9368,7 +9368,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>247</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>3</v>
       </c>
@@ -9402,7 +9402,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>244</v>
       </c>
@@ -9442,7 +9442,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>75</v>
       </c>
@@ -9456,7 +9456,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>75</v>
       </c>
@@ -9483,21 +9483,21 @@
   </sheetPr>
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
@@ -9553,11 +9553,11 @@
         <v>538</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>493</v>
       </c>
@@ -9577,7 +9577,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -9591,7 +9591,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -9605,7 +9605,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -9619,7 +9619,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>58</v>
       </c>
@@ -9633,7 +9633,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -9653,7 +9653,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>33</v>
       </c>
@@ -9667,7 +9667,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -9681,7 +9681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -9695,7 +9695,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -9709,7 +9709,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -9723,7 +9723,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>58</v>
       </c>
@@ -9737,7 +9737,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>762</v>
       </c>
@@ -9757,7 +9757,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -9771,7 +9771,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>245</v>
       </c>
@@ -9791,7 +9791,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -9819,7 +9819,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>58</v>
       </c>
@@ -9847,7 +9847,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>779</v>
       </c>
@@ -9867,7 +9867,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>154</v>
       </c>
@@ -9887,7 +9887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -9901,7 +9901,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -9915,7 +9915,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>506</v>
       </c>
@@ -9949,7 +9949,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -9963,7 +9963,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>58</v>
       </c>
@@ -9991,7 +9991,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>844</v>
       </c>
@@ -10011,7 +10011,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -10025,7 +10025,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>3</v>
       </c>
@@ -10039,7 +10039,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>2</v>
       </c>
@@ -10053,7 +10053,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -10073,7 +10073,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -10087,7 +10087,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -10107,7 +10107,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>33</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -10135,7 +10135,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -10149,7 +10149,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>768</v>
       </c>
@@ -10169,7 +10169,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -10189,7 +10189,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>33</v>
       </c>
@@ -10203,7 +10203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>247</v>
       </c>
@@ -10223,7 +10223,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -10237,7 +10237,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -10251,7 +10251,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -10265,7 +10265,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>98</v>
       </c>
@@ -10285,7 +10285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -10299,7 +10299,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>2</v>
       </c>
@@ -10313,7 +10313,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>244</v>
       </c>
@@ -10333,7 +10333,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>75</v>
       </c>
@@ -10347,7 +10347,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>75</v>
       </c>
@@ -10374,21 +10374,21 @@
   </sheetPr>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -10408,7 +10408,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -10428,7 +10428,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
@@ -10444,7 +10444,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
@@ -10460,7 +10460,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
@@ -10476,7 +10476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -10484,7 +10484,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -10504,7 +10504,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>33</v>
       </c>
@@ -10518,7 +10518,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -10532,7 +10532,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -10546,7 +10546,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -10560,7 +10560,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>762</v>
       </c>
@@ -10580,7 +10580,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -10594,7 +10594,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>845</v>
       </c>
@@ -10614,7 +10614,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -10628,7 +10628,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -10642,7 +10642,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -10656,7 +10656,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>58</v>
       </c>
@@ -10670,7 +10670,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>768</v>
       </c>
@@ -10690,7 +10690,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -10710,7 +10710,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>33</v>
       </c>
@@ -10724,7 +10724,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -10738,7 +10738,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -10752,7 +10752,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -10772,7 +10772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>33</v>
       </c>
@@ -10786,7 +10786,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -10800,7 +10800,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -10814,7 +10814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -10828,7 +10828,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>0</v>
       </c>
@@ -10855,21 +10855,21 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -10889,7 +10889,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>242</v>
       </c>
@@ -10909,7 +10909,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -10923,7 +10923,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -10943,7 +10943,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>33</v>
       </c>
@@ -10957,7 +10957,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>535</v>
       </c>
@@ -10977,7 +10977,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -10991,7 +10991,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>0</v>
       </c>
@@ -11005,7 +11005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>58</v>
       </c>
@@ -11019,7 +11019,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>245</v>
       </c>
@@ -11039,7 +11039,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>154</v>
       </c>
@@ -11059,7 +11059,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -11073,7 +11073,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -11087,7 +11087,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>794</v>
       </c>
@@ -11107,7 +11107,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -11121,7 +11121,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>506</v>
       </c>
@@ -11141,7 +11141,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -11155,7 +11155,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -11169,7 +11169,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>844</v>
       </c>
@@ -11189,7 +11189,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -11203,7 +11203,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -11217,7 +11217,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -11231,7 +11231,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -11251,7 +11251,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -11265,7 +11265,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -11285,7 +11285,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>33</v>
       </c>
@@ -11299,7 +11299,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>750</v>
       </c>
@@ -11319,7 +11319,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -11333,7 +11333,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -11347,7 +11347,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -11361,7 +11361,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -11381,7 +11381,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>246</v>
       </c>
@@ -11401,7 +11401,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -11415,7 +11415,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>810</v>
       </c>
@@ -11435,7 +11435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>4</v>
       </c>
@@ -11449,7 +11449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>768</v>
       </c>
@@ -11469,7 +11469,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -11483,7 +11483,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -11497,7 +11497,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -11511,7 +11511,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -11531,7 +11531,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>33</v>
       </c>
@@ -11545,7 +11545,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>4</v>
       </c>
@@ -11559,7 +11559,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>774</v>
       </c>
@@ -11579,7 +11579,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -11593,7 +11593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -11607,7 +11607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>779</v>
       </c>
@@ -11627,7 +11627,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>4</v>
       </c>
@@ -11655,21 +11655,21 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50:C51"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -11689,7 +11689,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>780</v>
       </c>
@@ -11709,7 +11709,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>493</v>
       </c>
@@ -11729,7 +11729,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -11743,7 +11743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -11763,7 +11763,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>762</v>
       </c>
@@ -11783,7 +11783,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -11797,7 +11797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>245</v>
       </c>
@@ -11817,7 +11817,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>3</v>
       </c>
@@ -11831,7 +11831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -11845,7 +11845,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>535</v>
       </c>
@@ -11865,7 +11865,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -11879,7 +11879,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>779</v>
       </c>
@@ -11899,7 +11899,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -11913,7 +11913,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>154</v>
       </c>
@@ -11933,7 +11933,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -11947,7 +11947,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -11961,7 +11961,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -11975,7 +11975,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>794</v>
       </c>
@@ -11995,7 +11995,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>506</v>
       </c>
@@ -12015,7 +12015,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>844</v>
       </c>
@@ -12035,7 +12035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -12055,7 +12055,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>33</v>
       </c>
@@ -12069,7 +12069,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>363</v>
       </c>
@@ -12089,7 +12089,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>477</v>
       </c>
@@ -12109,7 +12109,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -12123,7 +12123,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>2</v>
       </c>
@@ -12137,7 +12137,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>0</v>
       </c>
@@ -12151,7 +12151,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>58</v>
       </c>
@@ -12165,7 +12165,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -12185,7 +12185,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>33</v>
       </c>
@@ -12199,7 +12199,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -12213,7 +12213,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>810</v>
       </c>
@@ -12233,7 +12233,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>768</v>
       </c>
@@ -12253,7 +12253,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -12267,7 +12267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -12281,7 +12281,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -12295,7 +12295,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>0</v>
       </c>
@@ -12309,7 +12309,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>58</v>
       </c>
@@ -12323,7 +12323,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -12343,7 +12343,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>33</v>
       </c>
@@ -12357,7 +12357,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>4</v>
       </c>
@@ -12371,7 +12371,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>3</v>
       </c>
@@ -12385,7 +12385,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>774</v>
       </c>
@@ -12405,7 +12405,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -12419,7 +12419,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -12433,7 +12433,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>824</v>
       </c>
@@ -12453,7 +12453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>4</v>
       </c>
@@ -12480,21 +12480,21 @@
   </sheetPr>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E57" activeCellId="12" sqref="E4 E7 E10 E14 E19 E28 E30 E41 E44 E47 E50 E54 E57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -12514,7 +12514,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>827</v>
       </c>
@@ -12534,7 +12534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="C3" t="s">
         <v>3</v>
@@ -12549,7 +12549,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="C4" t="s">
         <v>2</v>
@@ -12564,7 +12564,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>31</v>
       </c>
@@ -12584,7 +12584,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="C7" t="s">
         <v>33</v>
@@ -12599,7 +12599,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>831</v>
       </c>
@@ -12619,7 +12619,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -12633,7 +12633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>245</v>
       </c>
@@ -12653,7 +12653,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -12667,7 +12667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -12681,7 +12681,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>779</v>
       </c>
@@ -12701,7 +12701,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -12715,7 +12715,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -12729,7 +12729,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -12743,7 +12743,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>154</v>
       </c>
@@ -12763,7 +12763,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -12777,7 +12777,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -12791,7 +12791,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -12805,7 +12805,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -12819,7 +12819,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>58</v>
       </c>
@@ -12833,7 +12833,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>844</v>
       </c>
@@ -12853,7 +12853,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -12873,7 +12873,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>848</v>
       </c>
@@ -12893,7 +12893,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -12907,7 +12907,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -12921,7 +12921,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -12935,7 +12935,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>58</v>
       </c>
@@ -12949,7 +12949,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -12969,7 +12969,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>33</v>
       </c>
@@ -12983,7 +12983,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -12997,7 +12997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -13011,7 +13011,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>810</v>
       </c>
@@ -13031,7 +13031,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -13045,7 +13045,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>768</v>
       </c>
@@ -13065,7 +13065,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>4</v>
       </c>
@@ -13079,7 +13079,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -13099,7 +13099,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>33</v>
       </c>
@@ -13113,7 +13113,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>858</v>
       </c>
@@ -13133,7 +13133,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -13147,7 +13147,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -13161,7 +13161,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>98</v>
       </c>
@@ -13181,7 +13181,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>4</v>
       </c>
@@ -13209,20 +13209,20 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>234</v>
       </c>
@@ -13242,7 +13242,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2006</v>
       </c>
@@ -13264,7 +13264,7 @@
       </c>
       <c r="T2" s="8"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2007</v>
       </c>
@@ -13286,7 +13286,7 @@
       </c>
       <c r="T3" s="8"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2008</v>
       </c>
@@ -13308,7 +13308,7 @@
       </c>
       <c r="T4" s="8"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2009</v>
       </c>
@@ -13330,7 +13330,7 @@
       </c>
       <c r="T5" s="8"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2010</v>
       </c>
@@ -13351,7 +13351,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2011</v>
       </c>
@@ -13372,7 +13372,7 @@
         <v>0.78333333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2012</v>
       </c>
@@ -13393,7 +13393,7 @@
         <v>0.63043478260869568</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2013</v>
       </c>
@@ -13414,7 +13414,7 @@
         <v>0.5490196078431373</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2014</v>
       </c>
@@ -13435,7 +13435,7 @@
         <v>0.62790697674418605</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2015</v>
       </c>
@@ -13456,7 +13456,7 @@
         <v>0.55263157894736847</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2016</v>
       </c>
@@ -13477,7 +13477,7 @@
         <v>0.54347826086956519</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2017</v>
       </c>
@@ -13498,7 +13498,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2018</v>
       </c>
@@ -13519,7 +13519,7 @@
         <v>0.63829787234042556</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2019</v>
       </c>
@@ -13540,7 +13540,7 @@
         <v>0.60526315789473684</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2020</v>
       </c>
@@ -13561,7 +13561,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2021</v>
       </c>
@@ -13582,7 +13582,7 @@
         <v>0.44827586206896552</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2022</v>
       </c>
@@ -13603,7 +13603,7 @@
         <v>0.29629629629629628</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2023</v>
       </c>
@@ -13624,7 +13624,7 @@
         <v>0.5357142857142857</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>81</v>
       </c>
@@ -13649,7 +13649,7 @@
         <v>0.55007949125596189</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>766</v>
       </c>
@@ -13703,21 +13703,21 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A52" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -13737,7 +13737,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>277</v>
       </c>
@@ -13757,7 +13757,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -13771,7 +13771,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -13785,7 +13785,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -13799,7 +13799,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>58</v>
       </c>
@@ -13813,7 +13813,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>283</v>
       </c>
@@ -13833,7 +13833,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>8</v>
       </c>
@@ -13847,7 +13847,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -13861,7 +13861,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -13875,7 +13875,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -13889,7 +13889,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -13903,7 +13903,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>58</v>
       </c>
@@ -13917,7 +13917,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>290</v>
       </c>
@@ -13937,7 +13937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>292</v>
       </c>
@@ -13957,7 +13957,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>8</v>
       </c>
@@ -13971,7 +13971,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>296</v>
       </c>
@@ -13991,7 +13991,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -14005,7 +14005,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -14019,7 +14019,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>301</v>
       </c>
@@ -14039,7 +14039,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>8</v>
       </c>
@@ -14053,7 +14053,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>7</v>
       </c>
@@ -14067,7 +14067,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -14081,7 +14081,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -14095,7 +14095,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -14109,7 +14109,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -14123,7 +14123,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>58</v>
       </c>
@@ -14137,7 +14137,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>311</v>
       </c>
@@ -14157,7 +14157,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -14177,7 +14177,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>8</v>
       </c>
@@ -14191,7 +14191,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>316</v>
       </c>
@@ -14211,7 +14211,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -14225,7 +14225,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>318</v>
       </c>
@@ -14245,7 +14245,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>321</v>
       </c>
@@ -14265,7 +14265,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -14279,7 +14279,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -14293,7 +14293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>0</v>
       </c>
@@ -14307,7 +14307,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>58</v>
       </c>
@@ -14321,7 +14321,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>327</v>
       </c>
@@ -14341,7 +14341,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>330</v>
       </c>
@@ -14361,7 +14361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>332</v>
       </c>
@@ -14381,7 +14381,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -14395,7 +14395,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -14409,7 +14409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -14423,7 +14423,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>58</v>
       </c>
@@ -14437,7 +14437,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>269</v>
       </c>
@@ -14457,7 +14457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -14471,7 +14471,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -14485,7 +14485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>0</v>
       </c>
@@ -14499,7 +14499,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>58</v>
       </c>
@@ -14526,21 +14526,21 @@
   </sheetPr>
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -14560,7 +14560,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -14580,7 +14580,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>131</v>
       </c>
@@ -14600,7 +14600,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>8</v>
       </c>
@@ -14614,7 +14614,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>7</v>
       </c>
@@ -14628,7 +14628,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -14642,7 +14642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -14656,7 +14656,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>341</v>
       </c>
@@ -14676,7 +14676,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>344</v>
       </c>
@@ -14696,7 +14696,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>8</v>
       </c>
@@ -14710,7 +14710,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>7</v>
       </c>
@@ -14724,7 +14724,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -14738,7 +14738,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -14752,7 +14752,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>154</v>
       </c>
@@ -14772,7 +14772,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>8</v>
       </c>
@@ -14786,7 +14786,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>32</v>
       </c>
@@ -14800,7 +14800,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>351</v>
       </c>
@@ -14820,7 +14820,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>354</v>
       </c>
@@ -14840,7 +14840,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -14854,7 +14854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -14868,7 +14868,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>0</v>
       </c>
@@ -14882,7 +14882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>58</v>
       </c>
@@ -14896,7 +14896,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>248</v>
       </c>
@@ -14913,7 +14913,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>357</v>
       </c>
@@ -14924,7 +14924,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>292</v>
       </c>
@@ -14944,7 +14944,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>358</v>
       </c>
@@ -14964,7 +14964,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -14978,7 +14978,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -14998,7 +14998,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>33</v>
       </c>
@@ -15012,7 +15012,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -15026,7 +15026,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -15040,7 +15040,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>363</v>
       </c>
@@ -15060,7 +15060,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -15080,7 +15080,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>368</v>
       </c>
@@ -15100,7 +15100,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -15114,7 +15114,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -15128,7 +15128,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>370</v>
       </c>
@@ -15148,7 +15148,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -15162,7 +15162,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>810</v>
       </c>
@@ -15182,7 +15182,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -15196,7 +15196,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -15216,7 +15216,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>377</v>
       </c>
@@ -15236,7 +15236,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>3</v>
       </c>
@@ -15250,7 +15250,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>2</v>
       </c>
@@ -15264,7 +15264,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>379</v>
       </c>
@@ -15284,7 +15284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>380</v>
       </c>
@@ -15304,7 +15304,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>8</v>
       </c>
@@ -15318,7 +15318,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>7</v>
       </c>
@@ -15332,7 +15332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>4</v>
       </c>
@@ -15346,7 +15346,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -15360,7 +15360,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -15374,7 +15374,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>386</v>
       </c>
@@ -15394,7 +15394,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>8</v>
       </c>
@@ -15408,7 +15408,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>7</v>
       </c>
@@ -15422,7 +15422,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>4</v>
       </c>
@@ -15436,7 +15436,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -15450,7 +15450,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>392</v>
       </c>
@@ -15470,7 +15470,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>3</v>
       </c>
@@ -15484,7 +15484,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>2</v>
       </c>
@@ -15512,21 +15512,21 @@
   </sheetPr>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -15546,7 +15546,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -15566,7 +15566,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>395</v>
       </c>
@@ -15586,7 +15586,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -15600,7 +15600,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -15614,7 +15614,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -15628,7 +15628,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>58</v>
       </c>
@@ -15642,7 +15642,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -15662,7 +15662,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>248</v>
       </c>
@@ -15679,7 +15679,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>138</v>
       </c>
@@ -15690,7 +15690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>131</v>
       </c>
@@ -15710,7 +15710,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>245</v>
       </c>
@@ -15730,7 +15730,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>779</v>
       </c>
@@ -15750,7 +15750,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>33</v>
       </c>
@@ -15764,7 +15764,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -15778,7 +15778,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>154</v>
       </c>
@@ -15798,7 +15798,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>401</v>
       </c>
@@ -15818,7 +15818,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>248</v>
       </c>
@@ -15835,7 +15835,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>403</v>
       </c>
@@ -15846,7 +15846,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>405</v>
       </c>
@@ -15866,7 +15866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>844</v>
       </c>
@@ -15886,7 +15886,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -15900,7 +15900,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -15920,7 +15920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>409</v>
       </c>
@@ -15940,7 +15940,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -15954,7 +15954,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>292</v>
       </c>
@@ -15974,7 +15974,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -15988,7 +15988,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>412</v>
       </c>
@@ -16008,7 +16008,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -16022,7 +16022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>768</v>
       </c>
@@ -16042,7 +16042,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>810</v>
       </c>
@@ -16062,7 +16062,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>8</v>
       </c>
@@ -16076,7 +16076,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>416</v>
       </c>
@@ -16096,7 +16096,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -16116,7 +16116,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>33</v>
       </c>
@@ -16130,7 +16130,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -16144,7 +16144,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -16158,7 +16158,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>423</v>
       </c>
@@ -16178,7 +16178,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -16192,7 +16192,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -16206,7 +16206,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>386</v>
       </c>
@@ -16226,7 +16226,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -16240,7 +16240,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -16254,7 +16254,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>0</v>
       </c>
@@ -16268,7 +16268,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>58</v>
       </c>
@@ -16282,7 +16282,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>428</v>
       </c>
@@ -16316,21 +16316,21 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A54" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -16350,7 +16350,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>395</v>
       </c>
@@ -16370,7 +16370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>8</v>
       </c>
@@ -16384,7 +16384,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -16398,7 +16398,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -16418,7 +16418,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>33</v>
       </c>
@@ -16432,7 +16432,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>248</v>
       </c>
@@ -16449,7 +16449,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>205</v>
       </c>
@@ -16460,7 +16460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>433</v>
       </c>
@@ -16480,7 +16480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>3</v>
       </c>
@@ -16494,7 +16494,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -16508,7 +16508,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>0</v>
       </c>
@@ -16522,7 +16522,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>779</v>
       </c>
@@ -16542,7 +16542,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>33</v>
       </c>
@@ -16556,7 +16556,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>154</v>
       </c>
@@ -16576,7 +16576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>33</v>
       </c>
@@ -16590,7 +16590,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>401</v>
       </c>
@@ -16610,7 +16610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>248</v>
       </c>
@@ -16627,7 +16627,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -16647,7 +16647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -16661,7 +16661,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>844</v>
       </c>
@@ -16681,7 +16681,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>8</v>
       </c>
@@ -16695,7 +16695,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>33</v>
       </c>
@@ -16709,7 +16709,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -16729,7 +16729,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>441</v>
       </c>
@@ -16749,7 +16749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -16769,7 +16769,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>33</v>
       </c>
@@ -16783,7 +16783,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -16797,7 +16797,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -16811,7 +16811,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -16825,7 +16825,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>0</v>
       </c>
@@ -16839,7 +16839,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>412</v>
       </c>
@@ -16859,7 +16859,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>445</v>
       </c>
@@ -16879,7 +16879,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>448</v>
       </c>
@@ -16899,7 +16899,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>810</v>
       </c>
@@ -16919,7 +16919,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>452</v>
       </c>
@@ -16939,7 +16939,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -16959,7 +16959,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>33</v>
       </c>
@@ -16973,7 +16973,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>4</v>
       </c>
@@ -16987,7 +16987,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>453</v>
       </c>
@@ -17007,7 +17007,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>98</v>
       </c>
@@ -17027,7 +17027,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -17041,7 +17041,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -17055,7 +17055,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>386</v>
       </c>
@@ -17075,7 +17075,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -17089,7 +17089,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>379</v>
       </c>
@@ -17109,7 +17109,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>330</v>
       </c>
@@ -17129,7 +17129,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>3</v>
       </c>
@@ -17143,7 +17143,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>2</v>
       </c>
@@ -17157,7 +17157,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>0</v>
       </c>
@@ -17185,21 +17185,21 @@
   </sheetPr>
   <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -17219,7 +17219,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -17239,7 +17239,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -17253,7 +17253,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -17267,7 +17267,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -17281,7 +17281,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>58</v>
       </c>
@@ -17295,7 +17295,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -17315,7 +17315,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -17329,7 +17329,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -17343,7 +17343,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -17357,7 +17357,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -17371,7 +17371,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>248</v>
       </c>
@@ -17388,7 +17388,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>144</v>
       </c>
@@ -17399,7 +17399,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>131</v>
       </c>
@@ -17419,7 +17419,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -17433,7 +17433,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -17447,7 +17447,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>0</v>
       </c>
@@ -17461,7 +17461,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>58</v>
       </c>
@@ -17475,7 +17475,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>245</v>
       </c>
@@ -17495,7 +17495,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>779</v>
       </c>
@@ -17515,7 +17515,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>468</v>
       </c>
@@ -17535,7 +17535,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>154</v>
       </c>
@@ -17555,7 +17555,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -17569,7 +17569,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>248</v>
       </c>
@@ -17586,7 +17586,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>185</v>
       </c>
@@ -17597,7 +17597,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>844</v>
       </c>
@@ -17617,7 +17617,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -17631,7 +17631,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -17645,7 +17645,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -17659,7 +17659,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>0</v>
       </c>
@@ -17673,7 +17673,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>58</v>
       </c>
@@ -17687,7 +17687,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>474</v>
       </c>
@@ -17707,7 +17707,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -17721,7 +17721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>2</v>
       </c>
@@ -17735,7 +17735,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>0</v>
       </c>
@@ -17749,7 +17749,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>58</v>
       </c>
@@ -17763,7 +17763,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -17783,7 +17783,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>33</v>
       </c>
@@ -17797,7 +17797,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -17811,7 +17811,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -17825,7 +17825,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>477</v>
       </c>
@@ -17845,7 +17845,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -17859,7 +17859,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -17873,7 +17873,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>0</v>
       </c>
@@ -17887,7 +17887,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>58</v>
       </c>
@@ -17901,7 +17901,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>48</v>
       </c>
@@ -17921,7 +17921,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>33</v>
       </c>
@@ -17935,7 +17935,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>4</v>
       </c>
@@ -17949,7 +17949,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>3</v>
       </c>
@@ -17963,7 +17963,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>2</v>
       </c>
@@ -17977,7 +17977,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>0</v>
       </c>
@@ -17991,7 +17991,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>58</v>
       </c>
@@ -18005,7 +18005,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>810</v>
       </c>
@@ -18025,7 +18025,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -18039,7 +18039,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>768</v>
       </c>
@@ -18059,7 +18059,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>3</v>
       </c>
@@ -18073,7 +18073,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>54</v>
       </c>
@@ -18093,7 +18093,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>453</v>
       </c>
@@ -18113,7 +18113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -18127,7 +18127,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -18141,7 +18141,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -18155,7 +18155,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -18175,7 +18175,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>386</v>
       </c>
@@ -18195,7 +18195,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>3</v>
       </c>
@@ -18209,7 +18209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>2</v>
       </c>
@@ -18223,7 +18223,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>0</v>
       </c>
@@ -18237,7 +18237,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>58</v>
       </c>
@@ -18251,7 +18251,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>244</v>
       </c>
@@ -18271,7 +18271,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>75</v>
       </c>
@@ -18285,7 +18285,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>75</v>
       </c>
@@ -18299,7 +18299,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>0</v>
       </c>
@@ -18313,7 +18313,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>58</v>
       </c>
@@ -18327,7 +18327,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>248</v>
       </c>
@@ -18344,7 +18344,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
         <v>94</v>
       </c>
@@ -18368,21 +18368,21 @@
   </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -18402,7 +18402,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>493</v>
       </c>
@@ -18422,7 +18422,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -18436,7 +18436,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -18450,7 +18450,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -18470,7 +18470,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>33</v>
       </c>
@@ -18484,7 +18484,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -18498,7 +18498,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -18512,7 +18512,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -18526,7 +18526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -18540,7 +18540,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>248</v>
       </c>
@@ -18557,7 +18557,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>147</v>
       </c>
@@ -18568,7 +18568,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>779</v>
       </c>
@@ -18588,7 +18588,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -18602,7 +18602,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>154</v>
       </c>
@@ -18622,7 +18622,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>248</v>
       </c>
@@ -18639,7 +18639,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>82</v>
       </c>
@@ -18650,7 +18650,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>506</v>
       </c>
@@ -18670,7 +18670,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -18684,7 +18684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -18698,7 +18698,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>844</v>
       </c>
@@ -18718,7 +18718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -18732,7 +18732,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -18752,7 +18752,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -18766,7 +18766,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -18780,7 +18780,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -18800,7 +18800,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>33</v>
       </c>
@@ -18814,7 +18814,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>4</v>
       </c>
@@ -18828,7 +18828,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -18842,7 +18842,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -18856,7 +18856,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -18870,7 +18870,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>477</v>
       </c>
@@ -18890,7 +18890,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -18910,7 +18910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>33</v>
       </c>
@@ -18924,7 +18924,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -18938,7 +18938,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -18952,7 +18952,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>2</v>
       </c>
@@ -18966,7 +18966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>246</v>
       </c>
@@ -18986,7 +18986,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -19000,7 +19000,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -19014,7 +19014,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -19028,7 +19028,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>810</v>
       </c>
@@ -19048,7 +19048,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -19062,7 +19062,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -19076,7 +19076,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>0</v>
       </c>
@@ -19090,7 +19090,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>58</v>
       </c>
@@ -19104,7 +19104,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>768</v>
       </c>
@@ -19124,7 +19124,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>3</v>
       </c>
@@ -19138,7 +19138,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>2</v>
       </c>
@@ -19152,7 +19152,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>0</v>
       </c>
@@ -19166,7 +19166,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>452</v>
       </c>
@@ -19186,7 +19186,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>2</v>
       </c>
@@ -19200,7 +19200,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>0</v>
       </c>
@@ -19214,7 +19214,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>58</v>
       </c>
@@ -19228,7 +19228,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>54</v>
       </c>
@@ -19248,7 +19248,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>33</v>
       </c>
@@ -19262,7 +19262,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>4</v>
       </c>
@@ -19276,7 +19276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>3</v>
       </c>
@@ -19290,7 +19290,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>453</v>
       </c>
@@ -19310,7 +19310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>98</v>
       </c>
@@ -19330,7 +19330,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>4</v>
       </c>
@@ -19344,7 +19344,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>244</v>
       </c>
@@ -19364,7 +19364,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>248</v>
       </c>
@@ -19381,7 +19381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
         <v>97</v>
       </c>
@@ -19406,21 +19406,21 @@
   </sheetPr>
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -19440,7 +19440,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -19460,7 +19460,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -19474,7 +19474,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>493</v>
       </c>
@@ -19494,7 +19494,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -19514,7 +19514,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>33</v>
       </c>
@@ -19528,7 +19528,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>131</v>
       </c>
@@ -19548,7 +19548,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -19562,7 +19562,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>248</v>
       </c>
@@ -19579,7 +19579,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>532</v>
       </c>
@@ -19590,7 +19590,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>845</v>
       </c>
@@ -19610,7 +19610,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -19624,7 +19624,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -19638,7 +19638,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>245</v>
       </c>
@@ -19658,7 +19658,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -19672,7 +19672,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -19686,7 +19686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -19700,7 +19700,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>58</v>
       </c>
@@ -19714,7 +19714,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>779</v>
       </c>
@@ -19734,7 +19734,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -19748,7 +19748,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -19762,7 +19762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -19776,7 +19776,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>154</v>
       </c>
@@ -19796,7 +19796,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -19810,7 +19810,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>545</v>
       </c>
@@ -19830,7 +19830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -19844,7 +19844,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -19858,7 +19858,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -19872,7 +19872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>58</v>
       </c>
@@ -19886,7 +19886,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>248</v>
       </c>
@@ -19903,7 +19903,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>157</v>
       </c>
@@ -19914,7 +19914,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>506</v>
       </c>
@@ -19934,7 +19934,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -19948,7 +19948,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -19962,7 +19962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>844</v>
       </c>
@@ -19982,7 +19982,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>4</v>
       </c>
@@ -19996,7 +19996,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>38</v>
       </c>
@@ -20016,7 +20016,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -20030,7 +20030,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>44</v>
       </c>
@@ -20050,7 +20050,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>33</v>
       </c>
@@ -20064,7 +20064,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -20078,7 +20078,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>477</v>
       </c>
@@ -20098,7 +20098,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -20112,7 +20112,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>48</v>
       </c>
@@ -20132,7 +20132,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>33</v>
       </c>
@@ -20146,7 +20146,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -20160,7 +20160,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -20174,7 +20174,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -20188,7 +20188,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>563</v>
       </c>
@@ -20208,7 +20208,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>2</v>
       </c>
@@ -20222,7 +20222,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>763</v>
       </c>
@@ -20242,7 +20242,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>3</v>
       </c>
@@ -20256,7 +20256,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>2</v>
       </c>
@@ -20270,7 +20270,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>768</v>
       </c>
@@ -20290,7 +20290,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>3</v>
       </c>
@@ -20304,7 +20304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>452</v>
       </c>
@@ -20324,7 +20324,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>3</v>
       </c>
@@ -20338,7 +20338,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>2</v>
       </c>
@@ -20352,7 +20352,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>0</v>
       </c>
@@ -20366,7 +20366,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>58</v>
       </c>
@@ -20380,7 +20380,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>54</v>
       </c>
@@ -20400,7 +20400,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>33</v>
       </c>
@@ -20414,7 +20414,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>4</v>
       </c>
@@ -20428,7 +20428,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>453</v>
       </c>
@@ -20448,7 +20448,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>3</v>
       </c>
@@ -20462,7 +20462,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>2</v>
       </c>
@@ -20476,7 +20476,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>0</v>
       </c>
@@ -20490,7 +20490,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>58</v>
       </c>
@@ -20504,7 +20504,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -20524,7 +20524,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>3</v>
       </c>
@@ -20538,7 +20538,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>2</v>
       </c>
@@ -20552,7 +20552,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>0</v>
       </c>
@@ -20566,7 +20566,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>244</v>
       </c>
@@ -20586,7 +20586,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>75</v>
       </c>
@@ -20600,7 +20600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>75</v>
       </c>
@@ -20614,7 +20614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>0</v>
       </c>
@@ -20642,21 +20642,21 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -20676,7 +20676,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>493</v>
       </c>
@@ -20696,7 +20696,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -20710,7 +20710,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -20724,7 +20724,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -20744,7 +20744,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>845</v>
       </c>
@@ -20764,7 +20764,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -20778,7 +20778,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -20792,7 +20792,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>245</v>
       </c>
@@ -20812,7 +20812,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>779</v>
       </c>
@@ -20832,7 +20832,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -20846,7 +20846,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -20860,7 +20860,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>154</v>
       </c>
@@ -20880,7 +20880,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -20894,7 +20894,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -20908,7 +20908,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -20922,7 +20922,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>248</v>
       </c>
@@ -20939,7 +20939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>588</v>
       </c>
@@ -20950,7 +20950,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>506</v>
       </c>
@@ -20970,7 +20970,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>844</v>
       </c>
@@ -20990,7 +20990,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -21004,7 +21004,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -21018,7 +21018,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -21032,7 +21032,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>0</v>
       </c>
@@ -21046,7 +21046,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -21066,7 +21066,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -21086,7 +21086,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>33</v>
       </c>
@@ -21100,7 +21100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>4</v>
       </c>
@@ -21114,7 +21114,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>477</v>
       </c>
@@ -21134,7 +21134,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -21148,7 +21148,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -21162,7 +21162,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -21182,7 +21182,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>33</v>
       </c>
@@ -21196,7 +21196,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -21210,7 +21210,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -21224,7 +21224,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>2</v>
       </c>
@@ -21238,7 +21238,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>0</v>
       </c>
@@ -21252,7 +21252,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>58</v>
       </c>
@@ -21266,7 +21266,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>810</v>
       </c>
@@ -21286,7 +21286,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -21300,7 +21300,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>768</v>
       </c>
@@ -21320,7 +21320,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>452</v>
       </c>
@@ -21340,7 +21340,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>2</v>
       </c>
@@ -21354,7 +21354,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -21368,7 +21368,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>58</v>
       </c>
@@ -21382,7 +21382,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>54</v>
       </c>
@@ -21402,7 +21402,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>33</v>
       </c>
@@ -21416,7 +21416,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>4</v>
       </c>
@@ -21430,7 +21430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>247</v>
       </c>
@@ -21450,7 +21450,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -21464,7 +21464,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -21478,7 +21478,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>0</v>
       </c>
@@ -21492,7 +21492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>58</v>
       </c>
@@ -21506,7 +21506,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>98</v>
       </c>
@@ -21526,7 +21526,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -21540,7 +21540,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -21554,7 +21554,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -21568,7 +21568,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>58</v>
       </c>
@@ -21582,7 +21582,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>244</v>
       </c>
@@ -21602,7 +21602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>75</v>
       </c>
@@ -21616,7 +21616,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>75</v>
       </c>
@@ -21630,7 +21630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>248</v>
       </c>
@@ -21647,7 +21647,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
         <v>205</v>
       </c>

--- a/Tennis/WTA Tour/Petra Kvitová.xlsx
+++ b/Tennis/WTA Tour/Petra Kvitová.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6415" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BF174A6-B95D-4347-83AF-FD44EA716908}"/>
+  <xr:revisionPtr revIDLastSave="6416" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{563CA927-48C2-4B10-BB4A-FF2C41DAEDC3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="8" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2006" sheetId="12" r:id="rId1"/>
@@ -5206,10 +5206,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5513,20 +5509,20 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -5546,7 +5542,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>250</v>
       </c>
@@ -5566,7 +5562,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>8</v>
       </c>
@@ -5580,7 +5576,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -5594,7 +5590,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>4</v>
       </c>
@@ -5608,7 +5604,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>255</v>
       </c>
@@ -5628,7 +5624,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -5642,7 +5638,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -5656,7 +5652,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>261</v>
       </c>
@@ -5676,7 +5672,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -5690,7 +5686,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -5704,7 +5700,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -5718,7 +5714,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>58</v>
       </c>
@@ -5732,7 +5728,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>267</v>
       </c>
@@ -5752,7 +5748,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>269</v>
       </c>
@@ -5772,7 +5768,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -5786,7 +5782,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -5800,7 +5796,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>0</v>
       </c>
@@ -5814,7 +5810,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>58</v>
       </c>
@@ -5842,20 +5838,20 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -5875,7 +5871,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>601</v>
       </c>
@@ -5895,7 +5891,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -5909,7 +5905,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -5923,7 +5919,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -5937,7 +5933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>493</v>
       </c>
@@ -5957,7 +5953,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -5971,7 +5967,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>0</v>
       </c>
@@ -5985,7 +5981,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>58</v>
       </c>
@@ -5999,7 +5995,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -6019,7 +6015,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>33</v>
       </c>
@@ -6033,7 +6029,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -6047,7 +6043,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>245</v>
       </c>
@@ -6067,7 +6063,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -6081,7 +6077,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>535</v>
       </c>
@@ -6101,7 +6097,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -6115,7 +6111,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>248</v>
       </c>
@@ -6132,7 +6128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>339</v>
       </c>
@@ -6143,7 +6139,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>506</v>
       </c>
@@ -6163,7 +6159,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>844</v>
       </c>
@@ -6183,7 +6179,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -6197,7 +6193,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -6211,7 +6207,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -6225,7 +6221,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -6239,7 +6235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>58</v>
       </c>
@@ -6253,7 +6249,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -6273,7 +6269,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -6287,7 +6283,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -6301,7 +6297,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -6321,7 +6317,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>33</v>
       </c>
@@ -6335,7 +6331,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -6349,7 +6345,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -6363,7 +6359,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -6383,7 +6379,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>33</v>
       </c>
@@ -6397,7 +6393,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -6411,7 +6407,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>810</v>
       </c>
@@ -6431,7 +6427,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>768</v>
       </c>
@@ -6451,7 +6447,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>452</v>
       </c>
@@ -6471,7 +6467,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -6485,7 +6481,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>0</v>
       </c>
@@ -6499,7 +6495,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>58</v>
       </c>
@@ -6513,7 +6509,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -6533,7 +6529,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>33</v>
       </c>
@@ -6547,7 +6543,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>4</v>
       </c>
@@ -6561,7 +6557,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -6575,7 +6571,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -6589,7 +6585,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>247</v>
       </c>
@@ -6609,7 +6605,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -6623,7 +6619,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>98</v>
       </c>
@@ -6643,7 +6639,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>244</v>
       </c>
@@ -6663,7 +6659,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>75</v>
       </c>
@@ -6677,7 +6673,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>75</v>
       </c>
@@ -6691,7 +6687,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>0</v>
       </c>
@@ -6705,7 +6701,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>58</v>
       </c>
@@ -6719,7 +6715,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>248</v>
       </c>
@@ -6736,7 +6732,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D74" t="s">
         <v>761</v>
       </c>
@@ -6761,20 +6757,20 @@
   <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -6794,7 +6790,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>601</v>
       </c>
@@ -6814,7 +6810,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -6834,7 +6830,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>33</v>
       </c>
@@ -6848,7 +6844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>245</v>
       </c>
@@ -6868,7 +6864,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>845</v>
       </c>
@@ -6888,7 +6884,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -6902,7 +6898,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>779</v>
       </c>
@@ -6922,7 +6918,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -6936,7 +6932,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -6950,7 +6946,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -6964,7 +6960,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>154</v>
       </c>
@@ -6984,7 +6980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -6998,7 +6994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>506</v>
       </c>
@@ -7018,7 +7014,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -7032,7 +7028,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -7046,7 +7042,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -7060,7 +7056,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>844</v>
       </c>
@@ -7080,7 +7076,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -7094,7 +7090,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -7108,7 +7104,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -7128,7 +7124,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -7148,7 +7144,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>33</v>
       </c>
@@ -7162,7 +7158,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -7176,7 +7172,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>363</v>
       </c>
@@ -7196,7 +7192,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -7210,7 +7206,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>477</v>
       </c>
@@ -7230,7 +7226,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -7244,7 +7240,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -7264,7 +7260,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>33</v>
       </c>
@@ -7278,7 +7274,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>810</v>
       </c>
@@ -7298,7 +7294,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -7312,7 +7308,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -7326,7 +7322,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>246</v>
       </c>
@@ -7346,7 +7342,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>33</v>
       </c>
@@ -7360,7 +7356,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -7374,7 +7370,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -7388,7 +7384,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -7402,7 +7398,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>0</v>
       </c>
@@ -7416,7 +7412,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>452</v>
       </c>
@@ -7436,7 +7432,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -7450,7 +7446,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -7464,7 +7460,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>0</v>
       </c>
@@ -7478,7 +7474,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>54</v>
       </c>
@@ -7498,7 +7494,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>33</v>
       </c>
@@ -7512,7 +7508,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -7526,7 +7522,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -7540,7 +7536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>453</v>
       </c>
@@ -7560,7 +7556,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -7574,7 +7570,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>247</v>
       </c>
@@ -7594,7 +7590,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>4</v>
       </c>
@@ -7608,7 +7604,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>3</v>
       </c>
@@ -7622,7 +7618,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>2</v>
       </c>
@@ -7636,7 +7632,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>0</v>
       </c>
@@ -7650,7 +7646,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>58</v>
       </c>
@@ -7664,7 +7660,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>98</v>
       </c>
@@ -7684,7 +7680,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -7698,7 +7694,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -7712,7 +7708,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>428</v>
       </c>
@@ -7732,7 +7728,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>3</v>
       </c>
@@ -7746,7 +7742,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>2</v>
       </c>
@@ -7760,7 +7756,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>0</v>
       </c>
@@ -7774,7 +7770,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>58</v>
       </c>
@@ -7788,7 +7784,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>652</v>
       </c>
@@ -7808,7 +7804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>75</v>
       </c>
@@ -7822,7 +7818,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>0</v>
       </c>
@@ -7836,7 +7832,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>58</v>
       </c>
@@ -7850,7 +7846,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>248</v>
       </c>
@@ -7881,20 +7877,20 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -7914,7 +7910,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -7934,7 +7930,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
@@ -7950,7 +7946,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -7958,7 +7954,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>363</v>
       </c>
@@ -7978,7 +7974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -7992,7 +7988,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -8006,7 +8002,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -8020,7 +8016,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>58</v>
       </c>
@@ -8034,7 +8030,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -8054,7 +8050,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>33</v>
       </c>
@@ -8068,7 +8064,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>125</v>
       </c>
@@ -8088,7 +8084,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -8102,7 +8098,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>810</v>
       </c>
@@ -8122,7 +8118,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -8136,7 +8132,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>768</v>
       </c>
@@ -8156,7 +8152,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -8170,7 +8166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>452</v>
       </c>
@@ -8190,7 +8186,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -8210,7 +8206,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>33</v>
       </c>
@@ -8224,7 +8220,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -8238,7 +8234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -8252,7 +8248,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -8266,7 +8262,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>247</v>
       </c>
@@ -8286,7 +8282,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>98</v>
       </c>
@@ -8306,7 +8302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -8320,7 +8316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -8334,7 +8330,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -8348,7 +8344,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -8362,7 +8358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>667</v>
       </c>
@@ -8396,20 +8392,20 @@
   <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -8429,7 +8425,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>493</v>
       </c>
@@ -8449,7 +8445,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
@@ -8465,10 +8461,10 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -8488,7 +8484,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>762</v>
       </c>
@@ -8508,7 +8504,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -8522,7 +8518,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -8536,7 +8532,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>0</v>
       </c>
@@ -8550,7 +8546,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>58</v>
       </c>
@@ -8564,7 +8560,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>248</v>
       </c>
@@ -8581,7 +8577,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>672</v>
       </c>
@@ -8592,7 +8588,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>845</v>
       </c>
@@ -8612,7 +8608,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -8626,7 +8622,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -8640,7 +8636,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -8654,7 +8650,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>0</v>
       </c>
@@ -8668,7 +8664,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>58</v>
       </c>
@@ -8682,7 +8678,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>779</v>
       </c>
@@ -8702,7 +8698,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -8716,7 +8712,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>154</v>
       </c>
@@ -8736,7 +8732,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -8750,7 +8746,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -8764,7 +8760,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>243</v>
       </c>
@@ -8784,7 +8780,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>248</v>
       </c>
@@ -8801,7 +8797,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>142</v>
       </c>
@@ -8812,7 +8808,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>506</v>
       </c>
@@ -8832,7 +8828,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>292</v>
       </c>
@@ -8852,7 +8848,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -8866,7 +8862,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -8880,7 +8876,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -8894,7 +8890,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>58</v>
       </c>
@@ -8908,7 +8904,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>844</v>
       </c>
@@ -8928,7 +8924,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -8942,7 +8938,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -8956,7 +8952,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -8970,7 +8966,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>0</v>
       </c>
@@ -8984,7 +8980,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>58</v>
       </c>
@@ -8998,7 +8994,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -9018,7 +9014,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>33</v>
       </c>
@@ -9032,7 +9028,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -9046,7 +9042,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>363</v>
       </c>
@@ -9066,7 +9062,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -9080,7 +9076,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -9094,7 +9090,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -9108,7 +9104,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>58</v>
       </c>
@@ -9122,7 +9118,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>477</v>
       </c>
@@ -9142,7 +9138,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -9156,7 +9152,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>48</v>
       </c>
@@ -9176,7 +9172,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>810</v>
       </c>
@@ -9196,7 +9192,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -9210,7 +9206,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>768</v>
       </c>
@@ -9230,7 +9226,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -9244,7 +9240,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -9258,7 +9254,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>0</v>
       </c>
@@ -9272,7 +9268,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>452</v>
       </c>
@@ -9292,7 +9288,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>3</v>
       </c>
@@ -9306,7 +9302,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>2</v>
       </c>
@@ -9320,7 +9316,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>54</v>
       </c>
@@ -9340,7 +9336,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>33</v>
       </c>
@@ -9354,7 +9350,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>4</v>
       </c>
@@ -9368,7 +9364,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>247</v>
       </c>
@@ -9388,7 +9384,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>3</v>
       </c>
@@ -9402,7 +9398,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -9422,7 +9418,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>244</v>
       </c>
@@ -9442,7 +9438,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>75</v>
       </c>
@@ -9456,7 +9452,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>75</v>
       </c>
@@ -9484,20 +9480,20 @@
   <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -9517,7 +9513,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -9537,7 +9533,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
@@ -9553,11 +9549,11 @@
         <v>538</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>493</v>
       </c>
@@ -9577,7 +9573,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -9591,7 +9587,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -9605,7 +9601,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -9619,7 +9615,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>58</v>
       </c>
@@ -9633,7 +9629,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -9653,7 +9649,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>33</v>
       </c>
@@ -9667,7 +9663,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -9681,7 +9677,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -9695,7 +9691,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -9709,7 +9705,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -9723,7 +9719,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>58</v>
       </c>
@@ -9737,7 +9733,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>762</v>
       </c>
@@ -9757,7 +9753,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -9771,7 +9767,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>245</v>
       </c>
@@ -9791,7 +9787,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -9805,7 +9801,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -9819,7 +9815,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -9833,7 +9829,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>58</v>
       </c>
@@ -9847,7 +9843,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>779</v>
       </c>
@@ -9867,7 +9863,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>154</v>
       </c>
@@ -9887,7 +9883,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -9901,7 +9897,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -9915,7 +9911,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -9929,7 +9925,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>506</v>
       </c>
@@ -9949,7 +9945,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -9963,7 +9959,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -9977,7 +9973,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>58</v>
       </c>
@@ -9991,7 +9987,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>844</v>
       </c>
@@ -10011,7 +10007,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -10025,7 +10021,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>3</v>
       </c>
@@ -10039,7 +10035,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>2</v>
       </c>
@@ -10053,7 +10049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -10073,7 +10069,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -10087,7 +10083,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -10107,7 +10103,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>33</v>
       </c>
@@ -10121,7 +10117,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -10135,7 +10131,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -10149,7 +10145,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>768</v>
       </c>
@@ -10169,7 +10165,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -10189,7 +10185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>33</v>
       </c>
@@ -10203,7 +10199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>247</v>
       </c>
@@ -10223,7 +10219,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -10237,7 +10233,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -10251,7 +10247,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -10265,7 +10261,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>98</v>
       </c>
@@ -10285,7 +10281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -10299,7 +10295,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>2</v>
       </c>
@@ -10313,7 +10309,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>244</v>
       </c>
@@ -10333,7 +10329,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>75</v>
       </c>
@@ -10347,7 +10343,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>75</v>
       </c>
@@ -10375,20 +10371,20 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -10408,7 +10404,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -10428,7 +10424,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
@@ -10444,7 +10440,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
@@ -10460,7 +10456,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
@@ -10476,7 +10472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -10484,7 +10480,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -10504,7 +10500,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>33</v>
       </c>
@@ -10518,7 +10514,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -10532,7 +10528,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -10546,7 +10542,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -10560,7 +10556,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>762</v>
       </c>
@@ -10580,7 +10576,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -10594,7 +10590,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>845</v>
       </c>
@@ -10614,7 +10610,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -10628,7 +10624,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -10642,7 +10638,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -10656,7 +10652,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>58</v>
       </c>
@@ -10670,7 +10666,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>768</v>
       </c>
@@ -10690,7 +10686,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -10710,7 +10706,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>33</v>
       </c>
@@ -10724,7 +10720,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -10738,7 +10734,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -10752,7 +10748,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -10772,7 +10768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>33</v>
       </c>
@@ -10786,7 +10782,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -10800,7 +10796,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -10814,7 +10810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -10828,7 +10824,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>0</v>
       </c>
@@ -10856,20 +10852,20 @@
   <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -10889,7 +10885,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>242</v>
       </c>
@@ -10909,7 +10905,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -10923,7 +10919,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -10943,7 +10939,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>33</v>
       </c>
@@ -10957,7 +10953,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>535</v>
       </c>
@@ -10977,7 +10973,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -10991,7 +10987,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>0</v>
       </c>
@@ -11005,7 +11001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>58</v>
       </c>
@@ -11019,7 +11015,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>245</v>
       </c>
@@ -11039,7 +11035,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>154</v>
       </c>
@@ -11059,7 +11055,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -11073,7 +11069,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -11087,7 +11083,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>794</v>
       </c>
@@ -11107,7 +11103,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -11121,7 +11117,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>506</v>
       </c>
@@ -11141,7 +11137,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -11155,7 +11151,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -11169,7 +11165,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>844</v>
       </c>
@@ -11189,7 +11185,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -11203,7 +11199,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -11217,7 +11213,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -11231,7 +11227,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -11251,7 +11247,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -11265,7 +11261,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -11285,7 +11281,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>33</v>
       </c>
@@ -11299,7 +11295,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>750</v>
       </c>
@@ -11319,7 +11315,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -11333,7 +11329,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -11347,7 +11343,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -11361,7 +11357,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -11381,7 +11377,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>246</v>
       </c>
@@ -11401,7 +11397,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -11415,7 +11411,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>810</v>
       </c>
@@ -11435,7 +11431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>4</v>
       </c>
@@ -11449,7 +11445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>768</v>
       </c>
@@ -11469,7 +11465,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -11483,7 +11479,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -11497,7 +11493,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -11511,7 +11507,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -11531,7 +11527,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>33</v>
       </c>
@@ -11545,7 +11541,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>4</v>
       </c>
@@ -11559,7 +11555,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>774</v>
       </c>
@@ -11579,7 +11575,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -11593,7 +11589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -11607,7 +11603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>779</v>
       </c>
@@ -11627,7 +11623,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>4</v>
       </c>
@@ -11656,20 +11652,20 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -11689,7 +11685,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>780</v>
       </c>
@@ -11709,7 +11705,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>493</v>
       </c>
@@ -11729,7 +11725,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -11743,7 +11739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -11763,7 +11759,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>762</v>
       </c>
@@ -11783,7 +11779,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -11797,7 +11793,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>245</v>
       </c>
@@ -11817,7 +11813,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>3</v>
       </c>
@@ -11831,7 +11827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -11845,7 +11841,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>535</v>
       </c>
@@ -11865,7 +11861,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -11879,7 +11875,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>779</v>
       </c>
@@ -11899,7 +11895,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -11913,7 +11909,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>154</v>
       </c>
@@ -11933,7 +11929,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -11947,7 +11943,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -11961,7 +11957,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -11975,7 +11971,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>794</v>
       </c>
@@ -11995,7 +11991,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>506</v>
       </c>
@@ -12015,7 +12011,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>844</v>
       </c>
@@ -12035,7 +12031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -12055,7 +12051,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>33</v>
       </c>
@@ -12069,7 +12065,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>363</v>
       </c>
@@ -12089,7 +12085,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>477</v>
       </c>
@@ -12109,7 +12105,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -12123,7 +12119,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>2</v>
       </c>
@@ -12137,7 +12133,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>0</v>
       </c>
@@ -12151,7 +12147,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>58</v>
       </c>
@@ -12165,7 +12161,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -12185,7 +12181,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>33</v>
       </c>
@@ -12199,7 +12195,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -12213,7 +12209,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>810</v>
       </c>
@@ -12233,7 +12229,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>768</v>
       </c>
@@ -12253,7 +12249,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -12267,7 +12263,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -12281,7 +12277,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -12295,7 +12291,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>0</v>
       </c>
@@ -12309,7 +12305,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>58</v>
       </c>
@@ -12323,7 +12319,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -12343,7 +12339,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>33</v>
       </c>
@@ -12357,7 +12353,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>4</v>
       </c>
@@ -12371,7 +12367,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>3</v>
       </c>
@@ -12385,7 +12381,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>774</v>
       </c>
@@ -12405,7 +12401,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -12419,7 +12415,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -12433,7 +12429,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>824</v>
       </c>
@@ -12453,7 +12449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>4</v>
       </c>
@@ -12480,21 +12476,21 @@
   </sheetPr>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -12514,7 +12510,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>827</v>
       </c>
@@ -12534,7 +12530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="C3" t="s">
         <v>3</v>
@@ -12549,7 +12545,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="C4" t="s">
         <v>2</v>
@@ -12564,7 +12560,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>31</v>
       </c>
@@ -12584,7 +12580,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="C7" t="s">
         <v>33</v>
@@ -12599,7 +12595,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>831</v>
       </c>
@@ -12619,7 +12615,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -12633,7 +12629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>245</v>
       </c>
@@ -12653,7 +12649,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -12667,7 +12663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -12681,7 +12677,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>779</v>
       </c>
@@ -12701,7 +12697,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -12715,7 +12711,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -12729,7 +12725,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -12743,7 +12739,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>154</v>
       </c>
@@ -12763,7 +12759,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -12777,7 +12773,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -12791,7 +12787,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -12805,7 +12801,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -12819,7 +12815,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>58</v>
       </c>
@@ -12833,7 +12829,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>844</v>
       </c>
@@ -12853,7 +12849,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -12873,7 +12869,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>848</v>
       </c>
@@ -12893,7 +12889,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -12907,7 +12903,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -12921,7 +12917,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -12935,7 +12931,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>58</v>
       </c>
@@ -12949,7 +12945,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -12969,7 +12965,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>33</v>
       </c>
@@ -12983,7 +12979,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -12997,7 +12993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -13011,7 +13007,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>810</v>
       </c>
@@ -13031,7 +13027,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -13045,7 +13041,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>768</v>
       </c>
@@ -13065,7 +13061,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>4</v>
       </c>
@@ -13079,7 +13075,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -13099,7 +13095,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>33</v>
       </c>
@@ -13113,7 +13109,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>858</v>
       </c>
@@ -13133,7 +13129,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -13147,7 +13143,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -13161,7 +13157,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>98</v>
       </c>
@@ -13181,7 +13177,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>4</v>
       </c>
@@ -13209,20 +13205,20 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>234</v>
       </c>
@@ -13242,7 +13238,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2006</v>
       </c>
@@ -13264,7 +13260,7 @@
       </c>
       <c r="T2" s="8"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2007</v>
       </c>
@@ -13286,7 +13282,7 @@
       </c>
       <c r="T3" s="8"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2008</v>
       </c>
@@ -13308,7 +13304,7 @@
       </c>
       <c r="T4" s="8"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2009</v>
       </c>
@@ -13330,7 +13326,7 @@
       </c>
       <c r="T5" s="8"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2010</v>
       </c>
@@ -13351,7 +13347,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2011</v>
       </c>
@@ -13372,7 +13368,7 @@
         <v>0.78333333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2012</v>
       </c>
@@ -13393,7 +13389,7 @@
         <v>0.63043478260869568</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2013</v>
       </c>
@@ -13414,7 +13410,7 @@
         <v>0.5490196078431373</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2014</v>
       </c>
@@ -13435,7 +13431,7 @@
         <v>0.62790697674418605</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2015</v>
       </c>
@@ -13456,7 +13452,7 @@
         <v>0.55263157894736847</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2016</v>
       </c>
@@ -13477,7 +13473,7 @@
         <v>0.54347826086956519</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2017</v>
       </c>
@@ -13498,7 +13494,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2018</v>
       </c>
@@ -13519,7 +13515,7 @@
         <v>0.63829787234042556</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2019</v>
       </c>
@@ -13540,7 +13536,7 @@
         <v>0.60526315789473684</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2020</v>
       </c>
@@ -13561,7 +13557,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2021</v>
       </c>
@@ -13582,7 +13578,7 @@
         <v>0.44827586206896552</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2022</v>
       </c>
@@ -13603,7 +13599,7 @@
         <v>0.29629629629629628</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2023</v>
       </c>
@@ -13624,7 +13620,7 @@
         <v>0.5357142857142857</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>81</v>
       </c>
@@ -13649,7 +13645,7 @@
         <v>0.55007949125596189</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>766</v>
       </c>
@@ -13704,20 +13700,20 @@
   <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -13737,7 +13733,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>277</v>
       </c>
@@ -13757,7 +13753,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -13771,7 +13767,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -13785,7 +13781,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -13799,7 +13795,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>58</v>
       </c>
@@ -13813,7 +13809,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>283</v>
       </c>
@@ -13833,7 +13829,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>8</v>
       </c>
@@ -13847,7 +13843,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -13861,7 +13857,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -13875,7 +13871,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -13889,7 +13885,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -13903,7 +13899,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>58</v>
       </c>
@@ -13917,7 +13913,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>290</v>
       </c>
@@ -13937,7 +13933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>292</v>
       </c>
@@ -13957,7 +13953,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>8</v>
       </c>
@@ -13971,7 +13967,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>296</v>
       </c>
@@ -13991,7 +13987,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -14005,7 +14001,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -14019,7 +14015,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>301</v>
       </c>
@@ -14039,7 +14035,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>8</v>
       </c>
@@ -14053,7 +14049,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>7</v>
       </c>
@@ -14067,7 +14063,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -14081,7 +14077,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -14095,7 +14091,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -14109,7 +14105,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -14123,7 +14119,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>58</v>
       </c>
@@ -14137,7 +14133,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>311</v>
       </c>
@@ -14157,7 +14153,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -14177,7 +14173,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>8</v>
       </c>
@@ -14191,7 +14187,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>316</v>
       </c>
@@ -14211,7 +14207,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -14225,7 +14221,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>318</v>
       </c>
@@ -14245,7 +14241,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>321</v>
       </c>
@@ -14265,7 +14261,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -14279,7 +14275,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -14293,7 +14289,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>0</v>
       </c>
@@ -14307,7 +14303,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>58</v>
       </c>
@@ -14321,7 +14317,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>327</v>
       </c>
@@ -14341,7 +14337,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>330</v>
       </c>
@@ -14361,7 +14357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>332</v>
       </c>
@@ -14381,7 +14377,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -14395,7 +14391,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -14409,7 +14405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -14423,7 +14419,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>58</v>
       </c>
@@ -14437,7 +14433,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>269</v>
       </c>
@@ -14457,7 +14453,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -14471,7 +14467,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -14485,7 +14481,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>0</v>
       </c>
@@ -14499,7 +14495,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>58</v>
       </c>
@@ -14527,20 +14523,20 @@
   <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -14560,7 +14556,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -14580,7 +14576,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>131</v>
       </c>
@@ -14600,7 +14596,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>8</v>
       </c>
@@ -14614,7 +14610,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>7</v>
       </c>
@@ -14628,7 +14624,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -14642,7 +14638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -14656,7 +14652,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>341</v>
       </c>
@@ -14676,7 +14672,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>344</v>
       </c>
@@ -14696,7 +14692,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>8</v>
       </c>
@@ -14710,7 +14706,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>7</v>
       </c>
@@ -14724,7 +14720,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -14738,7 +14734,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -14752,7 +14748,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>154</v>
       </c>
@@ -14772,7 +14768,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>8</v>
       </c>
@@ -14786,7 +14782,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>32</v>
       </c>
@@ -14800,7 +14796,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>351</v>
       </c>
@@ -14820,7 +14816,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>354</v>
       </c>
@@ -14840,7 +14836,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -14854,7 +14850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -14868,7 +14864,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>0</v>
       </c>
@@ -14882,7 +14878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>58</v>
       </c>
@@ -14896,7 +14892,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>248</v>
       </c>
@@ -14913,7 +14909,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>357</v>
       </c>
@@ -14924,7 +14920,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>292</v>
       </c>
@@ -14944,7 +14940,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>358</v>
       </c>
@@ -14964,7 +14960,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -14978,7 +14974,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -14998,7 +14994,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>33</v>
       </c>
@@ -15012,7 +15008,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -15026,7 +15022,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -15040,7 +15036,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>363</v>
       </c>
@@ -15060,7 +15056,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -15080,7 +15076,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>368</v>
       </c>
@@ -15100,7 +15096,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -15114,7 +15110,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -15128,7 +15124,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>370</v>
       </c>
@@ -15148,7 +15144,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -15162,7 +15158,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>810</v>
       </c>
@@ -15182,7 +15178,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -15196,7 +15192,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -15216,7 +15212,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>377</v>
       </c>
@@ -15236,7 +15232,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>3</v>
       </c>
@@ -15250,7 +15246,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>2</v>
       </c>
@@ -15264,7 +15260,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>379</v>
       </c>
@@ -15284,7 +15280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>380</v>
       </c>
@@ -15304,7 +15300,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>8</v>
       </c>
@@ -15318,7 +15314,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>7</v>
       </c>
@@ -15332,7 +15328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>4</v>
       </c>
@@ -15346,7 +15342,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -15360,7 +15356,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -15374,7 +15370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>386</v>
       </c>
@@ -15394,7 +15390,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>8</v>
       </c>
@@ -15408,7 +15404,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>7</v>
       </c>
@@ -15422,7 +15418,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>4</v>
       </c>
@@ -15436,7 +15432,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -15450,7 +15446,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>392</v>
       </c>
@@ -15470,7 +15466,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>3</v>
       </c>
@@ -15484,7 +15480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>2</v>
       </c>
@@ -15513,20 +15509,20 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -15546,7 +15542,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -15566,7 +15562,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>395</v>
       </c>
@@ -15586,7 +15582,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -15600,7 +15596,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -15614,7 +15610,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -15628,7 +15624,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>58</v>
       </c>
@@ -15642,7 +15638,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -15662,7 +15658,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>248</v>
       </c>
@@ -15679,7 +15675,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>138</v>
       </c>
@@ -15690,7 +15686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>131</v>
       </c>
@@ -15710,7 +15706,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>245</v>
       </c>
@@ -15730,7 +15726,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>779</v>
       </c>
@@ -15750,7 +15746,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>33</v>
       </c>
@@ -15764,7 +15760,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -15778,7 +15774,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>154</v>
       </c>
@@ -15798,7 +15794,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>401</v>
       </c>
@@ -15818,7 +15814,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>248</v>
       </c>
@@ -15835,7 +15831,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>403</v>
       </c>
@@ -15846,7 +15842,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>405</v>
       </c>
@@ -15866,7 +15862,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>844</v>
       </c>
@@ -15886,7 +15882,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -15900,7 +15896,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -15920,7 +15916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>409</v>
       </c>
@@ -15940,7 +15936,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -15954,7 +15950,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>292</v>
       </c>
@@ -15974,7 +15970,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -15988,7 +15984,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>412</v>
       </c>
@@ -16008,7 +16004,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -16022,7 +16018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>768</v>
       </c>
@@ -16042,7 +16038,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>810</v>
       </c>
@@ -16062,7 +16058,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>8</v>
       </c>
@@ -16076,7 +16072,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>416</v>
       </c>
@@ -16096,7 +16092,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -16116,7 +16112,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>33</v>
       </c>
@@ -16130,7 +16126,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -16144,7 +16140,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -16158,7 +16154,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>423</v>
       </c>
@@ -16178,7 +16174,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -16192,7 +16188,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -16206,7 +16202,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>386</v>
       </c>
@@ -16226,7 +16222,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -16240,7 +16236,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -16254,7 +16250,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>0</v>
       </c>
@@ -16268,7 +16264,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>58</v>
       </c>
@@ -16282,7 +16278,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>428</v>
       </c>
@@ -16317,20 +16313,20 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -16350,7 +16346,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>395</v>
       </c>
@@ -16370,7 +16366,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>8</v>
       </c>
@@ -16384,7 +16380,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -16398,7 +16394,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -16418,7 +16414,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>33</v>
       </c>
@@ -16432,7 +16428,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>248</v>
       </c>
@@ -16449,7 +16445,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>205</v>
       </c>
@@ -16460,7 +16456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>433</v>
       </c>
@@ -16480,7 +16476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>3</v>
       </c>
@@ -16494,7 +16490,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -16508,7 +16504,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>0</v>
       </c>
@@ -16522,7 +16518,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>779</v>
       </c>
@@ -16542,7 +16538,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>33</v>
       </c>
@@ -16556,7 +16552,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>154</v>
       </c>
@@ -16576,7 +16572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>33</v>
       </c>
@@ -16590,7 +16586,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>401</v>
       </c>
@@ -16610,7 +16606,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>248</v>
       </c>
@@ -16627,7 +16623,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -16647,7 +16643,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -16661,7 +16657,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>844</v>
       </c>
@@ -16681,7 +16677,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>8</v>
       </c>
@@ -16695,7 +16691,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>33</v>
       </c>
@@ -16709,7 +16705,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -16729,7 +16725,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>441</v>
       </c>
@@ -16749,7 +16745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -16769,7 +16765,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>33</v>
       </c>
@@ -16783,7 +16779,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -16797,7 +16793,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -16811,7 +16807,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -16825,7 +16821,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>0</v>
       </c>
@@ -16839,7 +16835,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>412</v>
       </c>
@@ -16859,7 +16855,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>445</v>
       </c>
@@ -16879,7 +16875,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>448</v>
       </c>
@@ -16899,7 +16895,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>810</v>
       </c>
@@ -16919,7 +16915,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>452</v>
       </c>
@@ -16939,7 +16935,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -16959,7 +16955,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>33</v>
       </c>
@@ -16973,7 +16969,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>4</v>
       </c>
@@ -16987,7 +16983,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>453</v>
       </c>
@@ -17007,7 +17003,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>98</v>
       </c>
@@ -17027,7 +17023,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -17041,7 +17037,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -17055,7 +17051,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>386</v>
       </c>
@@ -17075,7 +17071,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -17089,7 +17085,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>379</v>
       </c>
@@ -17109,7 +17105,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>330</v>
       </c>
@@ -17129,7 +17125,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>3</v>
       </c>
@@ -17143,7 +17139,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>2</v>
       </c>
@@ -17157,7 +17153,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>0</v>
       </c>
@@ -17186,20 +17182,20 @@
   <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -17219,7 +17215,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -17239,7 +17235,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -17253,7 +17249,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -17267,7 +17263,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -17281,7 +17277,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>58</v>
       </c>
@@ -17295,7 +17291,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -17315,7 +17311,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -17329,7 +17325,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -17343,7 +17339,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -17357,7 +17353,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -17371,7 +17367,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>248</v>
       </c>
@@ -17388,7 +17384,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>144</v>
       </c>
@@ -17399,7 +17395,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>131</v>
       </c>
@@ -17419,7 +17415,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -17433,7 +17429,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -17447,7 +17443,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>0</v>
       </c>
@@ -17461,7 +17457,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>58</v>
       </c>
@@ -17475,7 +17471,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>245</v>
       </c>
@@ -17495,7 +17491,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>779</v>
       </c>
@@ -17515,7 +17511,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>468</v>
       </c>
@@ -17535,7 +17531,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>154</v>
       </c>
@@ -17555,7 +17551,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -17569,7 +17565,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>248</v>
       </c>
@@ -17586,7 +17582,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>185</v>
       </c>
@@ -17597,7 +17593,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>844</v>
       </c>
@@ -17617,7 +17613,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -17631,7 +17627,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -17645,7 +17641,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -17659,7 +17655,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>0</v>
       </c>
@@ -17673,7 +17669,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>58</v>
       </c>
@@ -17687,7 +17683,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>474</v>
       </c>
@@ -17707,7 +17703,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -17721,7 +17717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>2</v>
       </c>
@@ -17735,7 +17731,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>0</v>
       </c>
@@ -17749,7 +17745,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>58</v>
       </c>
@@ -17763,7 +17759,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -17783,7 +17779,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>33</v>
       </c>
@@ -17797,7 +17793,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -17811,7 +17807,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -17825,7 +17821,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>477</v>
       </c>
@@ -17845,7 +17841,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -17859,7 +17855,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -17873,7 +17869,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>0</v>
       </c>
@@ -17887,7 +17883,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>58</v>
       </c>
@@ -17901,7 +17897,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>48</v>
       </c>
@@ -17921,7 +17917,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>33</v>
       </c>
@@ -17935,7 +17931,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>4</v>
       </c>
@@ -17949,7 +17945,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>3</v>
       </c>
@@ -17963,7 +17959,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>2</v>
       </c>
@@ -17977,7 +17973,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>0</v>
       </c>
@@ -17991,7 +17987,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>58</v>
       </c>
@@ -18005,7 +18001,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>810</v>
       </c>
@@ -18025,7 +18021,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -18039,7 +18035,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>768</v>
       </c>
@@ -18059,7 +18055,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>3</v>
       </c>
@@ -18073,7 +18069,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>54</v>
       </c>
@@ -18093,7 +18089,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>453</v>
       </c>
@@ -18113,7 +18109,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -18127,7 +18123,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -18141,7 +18137,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -18155,7 +18151,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -18175,7 +18171,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>386</v>
       </c>
@@ -18195,7 +18191,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>3</v>
       </c>
@@ -18209,7 +18205,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>2</v>
       </c>
@@ -18223,7 +18219,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>0</v>
       </c>
@@ -18237,7 +18233,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>58</v>
       </c>
@@ -18251,7 +18247,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>244</v>
       </c>
@@ -18271,7 +18267,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>75</v>
       </c>
@@ -18285,7 +18281,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>75</v>
       </c>
@@ -18299,7 +18295,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>0</v>
       </c>
@@ -18313,7 +18309,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>58</v>
       </c>
@@ -18327,7 +18323,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>248</v>
       </c>
@@ -18344,7 +18340,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D95" t="s">
         <v>94</v>
       </c>
@@ -18369,20 +18365,20 @@
   <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -18402,7 +18398,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>493</v>
       </c>
@@ -18422,7 +18418,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -18436,7 +18432,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -18450,7 +18446,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -18470,7 +18466,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>33</v>
       </c>
@@ -18484,7 +18480,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -18498,7 +18494,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -18512,7 +18508,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -18526,7 +18522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -18540,7 +18536,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>248</v>
       </c>
@@ -18557,7 +18553,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>147</v>
       </c>
@@ -18568,7 +18564,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>779</v>
       </c>
@@ -18588,7 +18584,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -18602,7 +18598,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>154</v>
       </c>
@@ -18622,7 +18618,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>248</v>
       </c>
@@ -18639,7 +18635,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>82</v>
       </c>
@@ -18650,7 +18646,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>506</v>
       </c>
@@ -18670,7 +18666,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -18684,7 +18680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -18698,7 +18694,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>844</v>
       </c>
@@ -18718,7 +18714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -18732,7 +18728,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -18752,7 +18748,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -18766,7 +18762,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -18780,7 +18776,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -18800,7 +18796,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>33</v>
       </c>
@@ -18814,7 +18810,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>4</v>
       </c>
@@ -18828,7 +18824,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -18842,7 +18838,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -18856,7 +18852,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -18870,7 +18866,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>477</v>
       </c>
@@ -18890,7 +18886,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -18910,7 +18906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>33</v>
       </c>
@@ -18924,7 +18920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -18938,7 +18934,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -18952,7 +18948,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>2</v>
       </c>
@@ -18966,7 +18962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>246</v>
       </c>
@@ -18986,7 +18982,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -19000,7 +18996,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -19014,7 +19010,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -19028,7 +19024,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>810</v>
       </c>
@@ -19048,7 +19044,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -19062,7 +19058,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -19076,7 +19072,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>0</v>
       </c>
@@ -19090,7 +19086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>58</v>
       </c>
@@ -19104,7 +19100,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>768</v>
       </c>
@@ -19124,7 +19120,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>3</v>
       </c>
@@ -19138,7 +19134,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>2</v>
       </c>
@@ -19152,7 +19148,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>0</v>
       </c>
@@ -19166,7 +19162,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>452</v>
       </c>
@@ -19186,7 +19182,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>2</v>
       </c>
@@ -19200,7 +19196,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>0</v>
       </c>
@@ -19214,7 +19210,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>58</v>
       </c>
@@ -19228,7 +19224,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>54</v>
       </c>
@@ -19248,7 +19244,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>33</v>
       </c>
@@ -19262,7 +19258,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>4</v>
       </c>
@@ -19276,7 +19272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>3</v>
       </c>
@@ -19290,7 +19286,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>453</v>
       </c>
@@ -19310,7 +19306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>98</v>
       </c>
@@ -19330,7 +19326,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>4</v>
       </c>
@@ -19344,7 +19340,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>244</v>
       </c>
@@ -19364,7 +19360,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>248</v>
       </c>
@@ -19381,7 +19377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
         <v>97</v>
       </c>
@@ -19407,20 +19403,20 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -19440,7 +19436,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -19460,7 +19456,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -19474,7 +19470,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>493</v>
       </c>
@@ -19494,7 +19490,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -19514,7 +19510,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>33</v>
       </c>
@@ -19528,7 +19524,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>131</v>
       </c>
@@ -19548,7 +19544,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -19562,7 +19558,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>248</v>
       </c>
@@ -19579,7 +19575,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>532</v>
       </c>
@@ -19590,7 +19586,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>845</v>
       </c>
@@ -19610,7 +19606,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -19624,7 +19620,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -19638,7 +19634,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>245</v>
       </c>
@@ -19658,7 +19654,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -19672,7 +19668,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -19686,7 +19682,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -19700,7 +19696,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>58</v>
       </c>
@@ -19714,7 +19710,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>779</v>
       </c>
@@ -19734,7 +19730,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -19748,7 +19744,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -19762,7 +19758,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -19776,7 +19772,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>154</v>
       </c>
@@ -19796,7 +19792,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -19810,7 +19806,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>545</v>
       </c>
@@ -19830,7 +19826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -19844,7 +19840,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -19858,7 +19854,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -19872,7 +19868,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>58</v>
       </c>
@@ -19886,7 +19882,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>248</v>
       </c>
@@ -19903,7 +19899,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
         <v>157</v>
       </c>
@@ -19914,7 +19910,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>506</v>
       </c>
@@ -19934,7 +19930,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -19948,7 +19944,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -19962,7 +19958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>844</v>
       </c>
@@ -19982,7 +19978,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>4</v>
       </c>
@@ -19996,7 +19992,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>38</v>
       </c>
@@ -20016,7 +20012,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -20030,7 +20026,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>44</v>
       </c>
@@ -20050,7 +20046,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>33</v>
       </c>
@@ -20064,7 +20060,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -20078,7 +20074,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>477</v>
       </c>
@@ -20098,7 +20094,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -20112,7 +20108,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>48</v>
       </c>
@@ -20132,7 +20128,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>33</v>
       </c>
@@ -20146,7 +20142,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -20160,7 +20156,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -20174,7 +20170,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -20188,7 +20184,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>563</v>
       </c>
@@ -20208,7 +20204,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>2</v>
       </c>
@@ -20222,7 +20218,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>763</v>
       </c>
@@ -20242,7 +20238,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>3</v>
       </c>
@@ -20256,7 +20252,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>2</v>
       </c>
@@ -20270,7 +20266,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>768</v>
       </c>
@@ -20290,7 +20286,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>3</v>
       </c>
@@ -20304,7 +20300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>452</v>
       </c>
@@ -20324,7 +20320,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>3</v>
       </c>
@@ -20338,7 +20334,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>2</v>
       </c>
@@ -20352,7 +20348,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>0</v>
       </c>
@@ -20366,7 +20362,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>58</v>
       </c>
@@ -20380,7 +20376,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>54</v>
       </c>
@@ -20400,7 +20396,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>33</v>
       </c>
@@ -20414,7 +20410,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>4</v>
       </c>
@@ -20428,7 +20424,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>453</v>
       </c>
@@ -20448,7 +20444,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>3</v>
       </c>
@@ -20462,7 +20458,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>2</v>
       </c>
@@ -20476,7 +20472,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>0</v>
       </c>
@@ -20490,7 +20486,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>58</v>
       </c>
@@ -20504,7 +20500,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -20524,7 +20520,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>3</v>
       </c>
@@ -20538,7 +20534,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>2</v>
       </c>
@@ -20552,7 +20548,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>0</v>
       </c>
@@ -20566,7 +20562,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>244</v>
       </c>
@@ -20586,7 +20582,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>75</v>
       </c>
@@ -20600,7 +20596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>75</v>
       </c>
@@ -20614,7 +20610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>0</v>
       </c>
@@ -20643,20 +20639,20 @@
   <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -20676,7 +20672,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>493</v>
       </c>
@@ -20696,7 +20692,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -20710,7 +20706,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -20724,7 +20720,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -20744,7 +20740,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>845</v>
       </c>
@@ -20764,7 +20760,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -20778,7 +20774,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -20792,7 +20788,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>245</v>
       </c>
@@ -20812,7 +20808,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>779</v>
       </c>
@@ -20832,7 +20828,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -20846,7 +20842,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -20860,7 +20856,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>154</v>
       </c>
@@ -20880,7 +20876,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -20894,7 +20890,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -20908,7 +20904,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -20922,7 +20918,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>248</v>
       </c>
@@ -20939,7 +20935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>588</v>
       </c>
@@ -20950,7 +20946,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>506</v>
       </c>
@@ -20970,7 +20966,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>844</v>
       </c>
@@ -20990,7 +20986,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -21004,7 +21000,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -21018,7 +21014,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -21032,7 +21028,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>0</v>
       </c>
@@ -21046,7 +21042,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -21066,7 +21062,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -21086,7 +21082,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>33</v>
       </c>
@@ -21100,7 +21096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>4</v>
       </c>
@@ -21114,7 +21110,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>477</v>
       </c>
@@ -21134,7 +21130,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -21148,7 +21144,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -21162,7 +21158,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -21182,7 +21178,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>33</v>
       </c>
@@ -21196,7 +21192,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -21210,7 +21206,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -21224,7 +21220,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>2</v>
       </c>
@@ -21238,7 +21234,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>0</v>
       </c>
@@ -21252,7 +21248,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>58</v>
       </c>
@@ -21266,7 +21262,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>810</v>
       </c>
@@ -21286,7 +21282,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -21300,7 +21296,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>768</v>
       </c>
@@ -21320,7 +21316,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>452</v>
       </c>
@@ -21340,7 +21336,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>2</v>
       </c>
@@ -21354,7 +21350,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -21368,7 +21364,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>58</v>
       </c>
@@ -21382,7 +21378,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>54</v>
       </c>
@@ -21402,7 +21398,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>33</v>
       </c>
@@ -21416,7 +21412,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>4</v>
       </c>
@@ -21430,7 +21426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>247</v>
       </c>
@@ -21450,7 +21446,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -21464,7 +21460,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -21478,7 +21474,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>0</v>
       </c>
@@ -21492,7 +21488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>58</v>
       </c>
@@ -21506,7 +21502,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>98</v>
       </c>
@@ -21526,7 +21522,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -21540,7 +21536,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -21554,7 +21550,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -21568,7 +21564,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>58</v>
       </c>
@@ -21582,7 +21578,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>244</v>
       </c>
@@ -21602,7 +21598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>75</v>
       </c>
@@ -21616,7 +21612,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>75</v>
       </c>
@@ -21630,7 +21626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>248</v>
       </c>
@@ -21647,7 +21643,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D83" t="s">
         <v>205</v>
       </c>

--- a/Tennis/WTA Tour/Petra Kvitová.xlsx
+++ b/Tennis/WTA Tour/Petra Kvitová.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6416" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{563CA927-48C2-4B10-BB4A-FF2C41DAEDC3}"/>
+  <xr:revisionPtr revIDLastSave="6418" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BB4A0A0-4D5F-4729-826A-FF57A7372E6B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -5206,6 +5206,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5509,7 +5513,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5838,7 +5842,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6757,7 +6761,7 @@
   <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7877,7 +7881,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8392,7 +8396,7 @@
   <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9480,7 +9484,7 @@
   <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10371,7 +10375,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10852,7 +10856,7 @@
   <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11652,7 +11656,7 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12476,8 +12480,8 @@
   </sheetPr>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13205,7 +13209,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13700,7 +13704,7 @@
   <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14523,7 +14527,7 @@
   <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15509,7 +15513,7 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16313,7 +16317,7 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17182,7 +17186,7 @@
   <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18365,7 +18369,7 @@
   <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19403,7 +19407,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20639,7 +20643,7 @@
   <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/WTA Tour/Petra Kvitová.xlsx
+++ b/Tennis/WTA Tour/Petra Kvitová.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6418" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BB4A0A0-4D5F-4729-826A-FF57A7372E6B}"/>
+  <xr:revisionPtr revIDLastSave="6419" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7DC80CF-B19D-47E0-97C0-B613B49E6C7D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="8" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2006" sheetId="12" r:id="rId1"/>
@@ -5516,17 +5516,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -5546,7 +5546,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>250</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>8</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>4</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>255</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>261</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>58</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>267</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>269</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>0</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>58</v>
       </c>
@@ -5845,17 +5845,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>601</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>493</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>0</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>58</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>33</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>245</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>535</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>248</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>339</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>506</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>844</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>58</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>33</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>33</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>810</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>768</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>452</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>0</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>58</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>33</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>4</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>247</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>98</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>244</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>75</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>75</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>0</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>58</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>248</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
         <v>761</v>
       </c>
@@ -6764,17 +6764,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>601</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>33</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>245</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>845</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>779</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>154</v>
       </c>
@@ -6984,7 +6984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>506</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -7032,7 +7032,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -7046,7 +7046,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>844</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -7094,7 +7094,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>33</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>363</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>477</v>
       </c>
@@ -7230,7 +7230,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>33</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>810</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -7326,7 +7326,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>246</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>33</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -7374,7 +7374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>0</v>
       </c>
@@ -7416,7 +7416,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>452</v>
       </c>
@@ -7436,7 +7436,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -7450,7 +7450,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -7464,7 +7464,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>0</v>
       </c>
@@ -7478,7 +7478,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>54</v>
       </c>
@@ -7498,7 +7498,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>33</v>
       </c>
@@ -7512,7 +7512,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -7540,7 +7540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>453</v>
       </c>
@@ -7560,7 +7560,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>247</v>
       </c>
@@ -7594,7 +7594,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>4</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>3</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>2</v>
       </c>
@@ -7636,7 +7636,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>0</v>
       </c>
@@ -7650,7 +7650,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>58</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>98</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -7698,7 +7698,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>428</v>
       </c>
@@ -7732,7 +7732,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>3</v>
       </c>
@@ -7746,7 +7746,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>2</v>
       </c>
@@ -7760,7 +7760,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>0</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>58</v>
       </c>
@@ -7788,7 +7788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>652</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>75</v>
       </c>
@@ -7822,7 +7822,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>0</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>58</v>
       </c>
@@ -7850,7 +7850,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>248</v>
       </c>
@@ -7884,17 +7884,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
@@ -7950,7 +7950,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -7958,7 +7958,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>363</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -8006,7 +8006,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -8020,7 +8020,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>58</v>
       </c>
@@ -8034,7 +8034,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -8054,7 +8054,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>33</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>125</v>
       </c>
@@ -8088,7 +8088,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>810</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -8136,7 +8136,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>768</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>452</v>
       </c>
@@ -8190,7 +8190,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>33</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -8238,7 +8238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -8266,7 +8266,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>247</v>
       </c>
@@ -8286,7 +8286,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>98</v>
       </c>
@@ -8306,7 +8306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -8320,7 +8320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -8334,7 +8334,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -8362,7 +8362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>667</v>
       </c>
@@ -8399,17 +8399,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>493</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
@@ -8465,10 +8465,10 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>762</v>
       </c>
@@ -8508,7 +8508,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -8522,7 +8522,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>0</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>58</v>
       </c>
@@ -8564,7 +8564,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>248</v>
       </c>
@@ -8581,7 +8581,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>672</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>845</v>
       </c>
@@ -8612,7 +8612,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -8626,7 +8626,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -8640,7 +8640,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -8654,7 +8654,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>0</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>58</v>
       </c>
@@ -8682,7 +8682,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>779</v>
       </c>
@@ -8702,7 +8702,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>154</v>
       </c>
@@ -8736,7 +8736,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -8750,7 +8750,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -8764,7 +8764,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>243</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>248</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>142</v>
       </c>
@@ -8812,7 +8812,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>506</v>
       </c>
@@ -8832,7 +8832,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>292</v>
       </c>
@@ -8852,7 +8852,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -8866,7 +8866,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>58</v>
       </c>
@@ -8908,7 +8908,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>844</v>
       </c>
@@ -8928,7 +8928,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -8942,7 +8942,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -8956,7 +8956,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -8970,7 +8970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>0</v>
       </c>
@@ -8984,7 +8984,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>58</v>
       </c>
@@ -8998,7 +8998,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -9018,7 +9018,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>33</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -9046,7 +9046,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>363</v>
       </c>
@@ -9066,7 +9066,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -9094,7 +9094,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -9108,7 +9108,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>58</v>
       </c>
@@ -9122,7 +9122,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>477</v>
       </c>
@@ -9142,7 +9142,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -9156,7 +9156,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>48</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>810</v>
       </c>
@@ -9196,7 +9196,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -9210,7 +9210,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>768</v>
       </c>
@@ -9230,7 +9230,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -9244,7 +9244,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -9258,7 +9258,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>0</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>452</v>
       </c>
@@ -9292,7 +9292,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>3</v>
       </c>
@@ -9306,7 +9306,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>2</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>54</v>
       </c>
@@ -9340,7 +9340,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>33</v>
       </c>
@@ -9354,7 +9354,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>4</v>
       </c>
@@ -9368,7 +9368,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>247</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>3</v>
       </c>
@@ -9402,7 +9402,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>244</v>
       </c>
@@ -9442,7 +9442,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>75</v>
       </c>
@@ -9456,7 +9456,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>75</v>
       </c>
@@ -9487,17 +9487,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
@@ -9553,11 +9553,11 @@
         <v>538</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>493</v>
       </c>
@@ -9577,7 +9577,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -9591,7 +9591,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -9605,7 +9605,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -9619,7 +9619,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>58</v>
       </c>
@@ -9633,7 +9633,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -9653,7 +9653,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>33</v>
       </c>
@@ -9667,7 +9667,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -9681,7 +9681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -9695,7 +9695,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -9709,7 +9709,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -9723,7 +9723,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>58</v>
       </c>
@@ -9737,7 +9737,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>762</v>
       </c>
@@ -9757,7 +9757,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -9771,7 +9771,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>245</v>
       </c>
@@ -9791,7 +9791,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -9819,7 +9819,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>58</v>
       </c>
@@ -9847,7 +9847,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>779</v>
       </c>
@@ -9867,7 +9867,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>154</v>
       </c>
@@ -9887,7 +9887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -9901,7 +9901,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -9915,7 +9915,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>506</v>
       </c>
@@ -9949,7 +9949,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -9963,7 +9963,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>58</v>
       </c>
@@ -9991,7 +9991,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>844</v>
       </c>
@@ -10011,7 +10011,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -10025,7 +10025,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>3</v>
       </c>
@@ -10039,7 +10039,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>2</v>
       </c>
@@ -10053,7 +10053,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -10073,7 +10073,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -10087,7 +10087,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -10107,7 +10107,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>33</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -10135,7 +10135,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -10149,7 +10149,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>768</v>
       </c>
@@ -10169,7 +10169,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -10189,7 +10189,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>33</v>
       </c>
@@ -10203,7 +10203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>247</v>
       </c>
@@ -10223,7 +10223,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -10237,7 +10237,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -10251,7 +10251,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -10265,7 +10265,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>98</v>
       </c>
@@ -10285,7 +10285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -10299,7 +10299,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>2</v>
       </c>
@@ -10313,7 +10313,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>244</v>
       </c>
@@ -10333,7 +10333,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>75</v>
       </c>
@@ -10347,7 +10347,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>75</v>
       </c>
@@ -10378,17 +10378,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -10408,7 +10408,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -10428,7 +10428,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
@@ -10444,7 +10444,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
@@ -10460,7 +10460,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
@@ -10476,7 +10476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -10484,7 +10484,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -10504,7 +10504,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>33</v>
       </c>
@@ -10518,7 +10518,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -10532,7 +10532,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -10546,7 +10546,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -10560,7 +10560,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>762</v>
       </c>
@@ -10580,7 +10580,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -10594,7 +10594,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>845</v>
       </c>
@@ -10614,7 +10614,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -10628,7 +10628,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -10642,7 +10642,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -10656,7 +10656,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>58</v>
       </c>
@@ -10670,7 +10670,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>768</v>
       </c>
@@ -10690,7 +10690,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -10710,7 +10710,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>33</v>
       </c>
@@ -10724,7 +10724,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -10738,7 +10738,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -10752,7 +10752,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -10772,7 +10772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>33</v>
       </c>
@@ -10786,7 +10786,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -10800,7 +10800,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -10814,7 +10814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -10828,7 +10828,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>0</v>
       </c>
@@ -10859,17 +10859,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -10889,7 +10889,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>242</v>
       </c>
@@ -10909,7 +10909,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -10923,7 +10923,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -10943,7 +10943,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>33</v>
       </c>
@@ -10957,7 +10957,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>535</v>
       </c>
@@ -10977,7 +10977,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -10991,7 +10991,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>0</v>
       </c>
@@ -11005,7 +11005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>58</v>
       </c>
@@ -11019,7 +11019,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>245</v>
       </c>
@@ -11039,7 +11039,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>154</v>
       </c>
@@ -11059,7 +11059,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -11073,7 +11073,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -11087,7 +11087,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>794</v>
       </c>
@@ -11107,7 +11107,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -11121,7 +11121,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>506</v>
       </c>
@@ -11141,7 +11141,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -11155,7 +11155,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -11169,7 +11169,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>844</v>
       </c>
@@ -11189,7 +11189,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -11203,7 +11203,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -11217,7 +11217,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -11231,7 +11231,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -11251,7 +11251,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -11265,7 +11265,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -11285,7 +11285,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>33</v>
       </c>
@@ -11299,7 +11299,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>750</v>
       </c>
@@ -11319,7 +11319,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -11333,7 +11333,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -11347,7 +11347,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -11361,7 +11361,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -11381,7 +11381,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>246</v>
       </c>
@@ -11401,7 +11401,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -11415,7 +11415,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>810</v>
       </c>
@@ -11435,7 +11435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>4</v>
       </c>
@@ -11449,7 +11449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>768</v>
       </c>
@@ -11469,7 +11469,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -11483,7 +11483,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -11497,7 +11497,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -11511,7 +11511,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -11531,7 +11531,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>33</v>
       </c>
@@ -11545,7 +11545,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>4</v>
       </c>
@@ -11559,7 +11559,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>774</v>
       </c>
@@ -11579,7 +11579,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -11593,7 +11593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -11607,7 +11607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>779</v>
       </c>
@@ -11627,7 +11627,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>4</v>
       </c>
@@ -11659,17 +11659,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -11689,7 +11689,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>780</v>
       </c>
@@ -11709,7 +11709,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>493</v>
       </c>
@@ -11729,7 +11729,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -11743,7 +11743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -11763,7 +11763,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>762</v>
       </c>
@@ -11783,7 +11783,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -11797,7 +11797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>245</v>
       </c>
@@ -11817,7 +11817,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>3</v>
       </c>
@@ -11831,7 +11831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -11845,7 +11845,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>535</v>
       </c>
@@ -11865,7 +11865,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -11879,7 +11879,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>779</v>
       </c>
@@ -11899,7 +11899,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -11913,7 +11913,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>154</v>
       </c>
@@ -11933,7 +11933,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -11947,7 +11947,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -11961,7 +11961,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -11975,7 +11975,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>794</v>
       </c>
@@ -11995,7 +11995,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>506</v>
       </c>
@@ -12015,7 +12015,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>844</v>
       </c>
@@ -12035,7 +12035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -12055,7 +12055,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>33</v>
       </c>
@@ -12069,7 +12069,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>363</v>
       </c>
@@ -12089,7 +12089,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>477</v>
       </c>
@@ -12109,7 +12109,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -12123,7 +12123,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>2</v>
       </c>
@@ -12137,7 +12137,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>0</v>
       </c>
@@ -12151,7 +12151,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>58</v>
       </c>
@@ -12165,7 +12165,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -12185,7 +12185,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>33</v>
       </c>
@@ -12199,7 +12199,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -12213,7 +12213,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>810</v>
       </c>
@@ -12233,7 +12233,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>768</v>
       </c>
@@ -12253,7 +12253,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -12267,7 +12267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -12281,7 +12281,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -12295,7 +12295,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>0</v>
       </c>
@@ -12309,7 +12309,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>58</v>
       </c>
@@ -12323,7 +12323,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -12343,7 +12343,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>33</v>
       </c>
@@ -12357,7 +12357,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>4</v>
       </c>
@@ -12371,7 +12371,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>3</v>
       </c>
@@ -12385,7 +12385,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>774</v>
       </c>
@@ -12405,7 +12405,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -12419,7 +12419,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -12433,7 +12433,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>824</v>
       </c>
@@ -12453,7 +12453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>4</v>
       </c>
@@ -12484,17 +12484,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -12514,7 +12514,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>827</v>
       </c>
@@ -12534,7 +12534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="C3" t="s">
         <v>3</v>
@@ -12549,7 +12549,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="C4" t="s">
         <v>2</v>
@@ -12564,7 +12564,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>31</v>
       </c>
@@ -12584,7 +12584,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="C7" t="s">
         <v>33</v>
@@ -12599,7 +12599,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>831</v>
       </c>
@@ -12619,7 +12619,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -12633,7 +12633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>245</v>
       </c>
@@ -12653,7 +12653,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -12667,7 +12667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -12681,7 +12681,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>779</v>
       </c>
@@ -12701,7 +12701,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -12715,7 +12715,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -12729,7 +12729,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -12743,7 +12743,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>154</v>
       </c>
@@ -12763,7 +12763,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -12777,7 +12777,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -12791,7 +12791,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -12805,7 +12805,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -12819,7 +12819,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>58</v>
       </c>
@@ -12833,7 +12833,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>844</v>
       </c>
@@ -12853,7 +12853,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -12873,7 +12873,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>848</v>
       </c>
@@ -12893,7 +12893,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -12907,7 +12907,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -12921,7 +12921,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -12935,7 +12935,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>58</v>
       </c>
@@ -12949,7 +12949,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -12969,7 +12969,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>33</v>
       </c>
@@ -12983,7 +12983,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -12997,7 +12997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -13011,7 +13011,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>810</v>
       </c>
@@ -13031,7 +13031,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -13045,7 +13045,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>768</v>
       </c>
@@ -13065,7 +13065,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>4</v>
       </c>
@@ -13079,7 +13079,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -13099,7 +13099,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>33</v>
       </c>
@@ -13113,7 +13113,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>858</v>
       </c>
@@ -13133,7 +13133,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -13147,7 +13147,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -13161,7 +13161,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>98</v>
       </c>
@@ -13181,7 +13181,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>4</v>
       </c>
@@ -13212,17 +13212,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>234</v>
       </c>
@@ -13242,7 +13242,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2006</v>
       </c>
@@ -13264,7 +13264,7 @@
       </c>
       <c r="T2" s="8"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2007</v>
       </c>
@@ -13286,7 +13286,7 @@
       </c>
       <c r="T3" s="8"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2008</v>
       </c>
@@ -13308,7 +13308,7 @@
       </c>
       <c r="T4" s="8"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2009</v>
       </c>
@@ -13330,7 +13330,7 @@
       </c>
       <c r="T5" s="8"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2010</v>
       </c>
@@ -13351,7 +13351,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2011</v>
       </c>
@@ -13372,7 +13372,7 @@
         <v>0.78333333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2012</v>
       </c>
@@ -13393,7 +13393,7 @@
         <v>0.63043478260869568</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2013</v>
       </c>
@@ -13414,7 +13414,7 @@
         <v>0.5490196078431373</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2014</v>
       </c>
@@ -13435,7 +13435,7 @@
         <v>0.62790697674418605</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2015</v>
       </c>
@@ -13456,7 +13456,7 @@
         <v>0.55263157894736847</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2016</v>
       </c>
@@ -13477,7 +13477,7 @@
         <v>0.54347826086956519</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2017</v>
       </c>
@@ -13498,7 +13498,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2018</v>
       </c>
@@ -13519,7 +13519,7 @@
         <v>0.63829787234042556</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2019</v>
       </c>
@@ -13540,7 +13540,7 @@
         <v>0.60526315789473684</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2020</v>
       </c>
@@ -13561,7 +13561,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2021</v>
       </c>
@@ -13582,7 +13582,7 @@
         <v>0.44827586206896552</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2022</v>
       </c>
@@ -13603,7 +13603,7 @@
         <v>0.29629629629629628</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2023</v>
       </c>
@@ -13624,7 +13624,7 @@
         <v>0.5357142857142857</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>81</v>
       </c>
@@ -13649,7 +13649,7 @@
         <v>0.55007949125596189</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>766</v>
       </c>
@@ -13707,17 +13707,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -13737,7 +13737,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>277</v>
       </c>
@@ -13757,7 +13757,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -13771,7 +13771,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -13785,7 +13785,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -13799,7 +13799,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>58</v>
       </c>
@@ -13813,7 +13813,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>283</v>
       </c>
@@ -13833,7 +13833,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>8</v>
       </c>
@@ -13847,7 +13847,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -13861,7 +13861,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -13875,7 +13875,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -13889,7 +13889,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -13903,7 +13903,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>58</v>
       </c>
@@ -13917,7 +13917,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>290</v>
       </c>
@@ -13937,7 +13937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>292</v>
       </c>
@@ -13957,7 +13957,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>8</v>
       </c>
@@ -13971,7 +13971,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>296</v>
       </c>
@@ -13991,7 +13991,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -14005,7 +14005,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -14019,7 +14019,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>301</v>
       </c>
@@ -14039,7 +14039,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>8</v>
       </c>
@@ -14053,7 +14053,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>7</v>
       </c>
@@ -14067,7 +14067,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -14081,7 +14081,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -14095,7 +14095,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -14109,7 +14109,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -14123,7 +14123,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>58</v>
       </c>
@@ -14137,7 +14137,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>311</v>
       </c>
@@ -14157,7 +14157,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -14177,7 +14177,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>8</v>
       </c>
@@ -14191,7 +14191,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>316</v>
       </c>
@@ -14211,7 +14211,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -14225,7 +14225,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>318</v>
       </c>
@@ -14245,7 +14245,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>321</v>
       </c>
@@ -14265,7 +14265,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -14279,7 +14279,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -14293,7 +14293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>0</v>
       </c>
@@ -14307,7 +14307,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>58</v>
       </c>
@@ -14321,7 +14321,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>327</v>
       </c>
@@ -14341,7 +14341,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>330</v>
       </c>
@@ -14361,7 +14361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>332</v>
       </c>
@@ -14381,7 +14381,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -14395,7 +14395,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -14409,7 +14409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -14423,7 +14423,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>58</v>
       </c>
@@ -14437,7 +14437,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>269</v>
       </c>
@@ -14457,7 +14457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -14471,7 +14471,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -14485,7 +14485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>0</v>
       </c>
@@ -14499,7 +14499,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>58</v>
       </c>
@@ -14530,17 +14530,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -14560,7 +14560,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -14580,7 +14580,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>131</v>
       </c>
@@ -14600,7 +14600,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>8</v>
       </c>
@@ -14614,7 +14614,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>7</v>
       </c>
@@ -14628,7 +14628,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -14642,7 +14642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -14656,7 +14656,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>341</v>
       </c>
@@ -14676,7 +14676,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>344</v>
       </c>
@@ -14696,7 +14696,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>8</v>
       </c>
@@ -14710,7 +14710,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>7</v>
       </c>
@@ -14724,7 +14724,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -14738,7 +14738,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -14752,7 +14752,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>154</v>
       </c>
@@ -14772,7 +14772,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>8</v>
       </c>
@@ -14786,7 +14786,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>32</v>
       </c>
@@ -14800,7 +14800,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>351</v>
       </c>
@@ -14820,7 +14820,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>354</v>
       </c>
@@ -14840,7 +14840,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -14854,7 +14854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -14868,7 +14868,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>0</v>
       </c>
@@ -14882,7 +14882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>58</v>
       </c>
@@ -14896,7 +14896,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>248</v>
       </c>
@@ -14913,7 +14913,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>357</v>
       </c>
@@ -14924,7 +14924,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>292</v>
       </c>
@@ -14944,7 +14944,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>358</v>
       </c>
@@ -14964,7 +14964,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -14978,7 +14978,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -14998,7 +14998,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>33</v>
       </c>
@@ -15012,7 +15012,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -15026,7 +15026,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -15040,7 +15040,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>363</v>
       </c>
@@ -15060,7 +15060,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -15080,7 +15080,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>368</v>
       </c>
@@ -15100,7 +15100,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -15114,7 +15114,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -15128,7 +15128,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>370</v>
       </c>
@@ -15148,7 +15148,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -15162,7 +15162,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>810</v>
       </c>
@@ -15182,7 +15182,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -15196,7 +15196,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -15216,7 +15216,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>377</v>
       </c>
@@ -15236,7 +15236,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>3</v>
       </c>
@@ -15250,7 +15250,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>2</v>
       </c>
@@ -15264,7 +15264,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>379</v>
       </c>
@@ -15284,7 +15284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>380</v>
       </c>
@@ -15304,7 +15304,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>8</v>
       </c>
@@ -15318,7 +15318,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>7</v>
       </c>
@@ -15332,7 +15332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>4</v>
       </c>
@@ -15346,7 +15346,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -15360,7 +15360,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -15374,7 +15374,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>386</v>
       </c>
@@ -15394,7 +15394,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>8</v>
       </c>
@@ -15408,7 +15408,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>7</v>
       </c>
@@ -15422,7 +15422,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>4</v>
       </c>
@@ -15436,7 +15436,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -15450,7 +15450,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>392</v>
       </c>
@@ -15470,7 +15470,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>3</v>
       </c>
@@ -15484,7 +15484,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>2</v>
       </c>
@@ -15516,17 +15516,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -15546,7 +15546,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -15566,7 +15566,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>395</v>
       </c>
@@ -15586,7 +15586,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -15600,7 +15600,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -15614,7 +15614,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -15628,7 +15628,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>58</v>
       </c>
@@ -15642,7 +15642,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -15662,7 +15662,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>248</v>
       </c>
@@ -15679,7 +15679,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>138</v>
       </c>
@@ -15690,7 +15690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>131</v>
       </c>
@@ -15710,7 +15710,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>245</v>
       </c>
@@ -15730,7 +15730,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>779</v>
       </c>
@@ -15750,7 +15750,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>33</v>
       </c>
@@ -15764,7 +15764,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -15778,7 +15778,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>154</v>
       </c>
@@ -15798,7 +15798,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>401</v>
       </c>
@@ -15818,7 +15818,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>248</v>
       </c>
@@ -15835,7 +15835,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>403</v>
       </c>
@@ -15846,7 +15846,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>405</v>
       </c>
@@ -15866,7 +15866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>844</v>
       </c>
@@ -15886,7 +15886,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -15900,7 +15900,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -15920,7 +15920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>409</v>
       </c>
@@ -15940,7 +15940,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -15954,7 +15954,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>292</v>
       </c>
@@ -15974,7 +15974,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -15988,7 +15988,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>412</v>
       </c>
@@ -16008,7 +16008,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -16022,7 +16022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>768</v>
       </c>
@@ -16042,7 +16042,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>810</v>
       </c>
@@ -16062,7 +16062,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>8</v>
       </c>
@@ -16076,7 +16076,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>416</v>
       </c>
@@ -16096,7 +16096,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -16116,7 +16116,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>33</v>
       </c>
@@ -16130,7 +16130,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -16144,7 +16144,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -16158,7 +16158,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>423</v>
       </c>
@@ -16178,7 +16178,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -16192,7 +16192,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -16206,7 +16206,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>386</v>
       </c>
@@ -16226,7 +16226,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -16240,7 +16240,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -16254,7 +16254,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>0</v>
       </c>
@@ -16268,7 +16268,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>58</v>
       </c>
@@ -16282,7 +16282,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>428</v>
       </c>
@@ -16320,17 +16320,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -16350,7 +16350,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>395</v>
       </c>
@@ -16370,7 +16370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>8</v>
       </c>
@@ -16384,7 +16384,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -16398,7 +16398,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -16418,7 +16418,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>33</v>
       </c>
@@ -16432,7 +16432,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>248</v>
       </c>
@@ -16449,7 +16449,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>205</v>
       </c>
@@ -16460,7 +16460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>433</v>
       </c>
@@ -16480,7 +16480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>3</v>
       </c>
@@ -16494,7 +16494,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -16508,7 +16508,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>0</v>
       </c>
@@ -16522,7 +16522,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>779</v>
       </c>
@@ -16542,7 +16542,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>33</v>
       </c>
@@ -16556,7 +16556,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>154</v>
       </c>
@@ -16576,7 +16576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>33</v>
       </c>
@@ -16590,7 +16590,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>401</v>
       </c>
@@ -16610,7 +16610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>248</v>
       </c>
@@ -16627,7 +16627,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -16647,7 +16647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -16661,7 +16661,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>844</v>
       </c>
@@ -16681,7 +16681,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>8</v>
       </c>
@@ -16695,7 +16695,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>33</v>
       </c>
@@ -16709,7 +16709,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -16729,7 +16729,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>441</v>
       </c>
@@ -16749,7 +16749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -16769,7 +16769,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>33</v>
       </c>
@@ -16783,7 +16783,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -16797,7 +16797,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -16811,7 +16811,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -16825,7 +16825,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>0</v>
       </c>
@@ -16839,7 +16839,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>412</v>
       </c>
@@ -16859,7 +16859,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>445</v>
       </c>
@@ -16879,7 +16879,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>448</v>
       </c>
@@ -16899,7 +16899,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>810</v>
       </c>
@@ -16919,7 +16919,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>452</v>
       </c>
@@ -16939,7 +16939,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -16959,7 +16959,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>33</v>
       </c>
@@ -16973,7 +16973,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>4</v>
       </c>
@@ -16987,7 +16987,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>453</v>
       </c>
@@ -17007,7 +17007,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>98</v>
       </c>
@@ -17027,7 +17027,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -17041,7 +17041,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -17055,7 +17055,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>386</v>
       </c>
@@ -17075,7 +17075,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -17089,7 +17089,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>379</v>
       </c>
@@ -17109,7 +17109,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>330</v>
       </c>
@@ -17129,7 +17129,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>3</v>
       </c>
@@ -17143,7 +17143,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>2</v>
       </c>
@@ -17157,7 +17157,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>0</v>
       </c>
@@ -17189,17 +17189,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -17219,7 +17219,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -17239,7 +17239,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -17253,7 +17253,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -17267,7 +17267,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -17281,7 +17281,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>58</v>
       </c>
@@ -17295,7 +17295,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -17315,7 +17315,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -17329,7 +17329,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -17343,7 +17343,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -17357,7 +17357,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -17371,7 +17371,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>248</v>
       </c>
@@ -17388,7 +17388,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>144</v>
       </c>
@@ -17399,7 +17399,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>131</v>
       </c>
@@ -17419,7 +17419,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -17433,7 +17433,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -17447,7 +17447,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>0</v>
       </c>
@@ -17461,7 +17461,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>58</v>
       </c>
@@ -17475,7 +17475,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>245</v>
       </c>
@@ -17495,7 +17495,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>779</v>
       </c>
@@ -17515,7 +17515,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>468</v>
       </c>
@@ -17535,7 +17535,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>154</v>
       </c>
@@ -17555,7 +17555,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -17569,7 +17569,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>248</v>
       </c>
@@ -17586,7 +17586,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>185</v>
       </c>
@@ -17597,7 +17597,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>844</v>
       </c>
@@ -17617,7 +17617,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -17631,7 +17631,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -17645,7 +17645,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -17659,7 +17659,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>0</v>
       </c>
@@ -17673,7 +17673,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>58</v>
       </c>
@@ -17687,7 +17687,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>474</v>
       </c>
@@ -17707,7 +17707,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -17721,7 +17721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>2</v>
       </c>
@@ -17735,7 +17735,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>0</v>
       </c>
@@ -17749,7 +17749,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>58</v>
       </c>
@@ -17763,7 +17763,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -17783,7 +17783,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>33</v>
       </c>
@@ -17797,7 +17797,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -17811,7 +17811,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -17825,7 +17825,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>477</v>
       </c>
@@ -17845,7 +17845,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -17859,7 +17859,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -17873,7 +17873,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>0</v>
       </c>
@@ -17887,7 +17887,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>58</v>
       </c>
@@ -17901,7 +17901,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>48</v>
       </c>
@@ -17921,7 +17921,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>33</v>
       </c>
@@ -17935,7 +17935,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>4</v>
       </c>
@@ -17949,7 +17949,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>3</v>
       </c>
@@ -17963,7 +17963,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>2</v>
       </c>
@@ -17977,7 +17977,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>0</v>
       </c>
@@ -17991,7 +17991,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>58</v>
       </c>
@@ -18005,7 +18005,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>810</v>
       </c>
@@ -18025,7 +18025,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -18039,7 +18039,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>768</v>
       </c>
@@ -18059,7 +18059,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>3</v>
       </c>
@@ -18073,7 +18073,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>54</v>
       </c>
@@ -18093,7 +18093,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>453</v>
       </c>
@@ -18113,7 +18113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -18127,7 +18127,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -18141,7 +18141,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -18155,7 +18155,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -18175,7 +18175,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>386</v>
       </c>
@@ -18195,7 +18195,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>3</v>
       </c>
@@ -18209,7 +18209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>2</v>
       </c>
@@ -18223,7 +18223,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>0</v>
       </c>
@@ -18237,7 +18237,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>58</v>
       </c>
@@ -18251,7 +18251,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>244</v>
       </c>
@@ -18271,7 +18271,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>75</v>
       </c>
@@ -18285,7 +18285,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>75</v>
       </c>
@@ -18299,7 +18299,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>0</v>
       </c>
@@ -18313,7 +18313,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>58</v>
       </c>
@@ -18327,7 +18327,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>248</v>
       </c>
@@ -18344,7 +18344,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
         <v>94</v>
       </c>
@@ -18372,17 +18372,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -18402,7 +18402,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>493</v>
       </c>
@@ -18422,7 +18422,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -18436,7 +18436,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -18450,7 +18450,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -18470,7 +18470,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>33</v>
       </c>
@@ -18484,7 +18484,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -18498,7 +18498,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -18512,7 +18512,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -18526,7 +18526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -18540,7 +18540,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>248</v>
       </c>
@@ -18557,7 +18557,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>147</v>
       </c>
@@ -18568,7 +18568,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>779</v>
       </c>
@@ -18588,7 +18588,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -18602,7 +18602,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>154</v>
       </c>
@@ -18622,7 +18622,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>248</v>
       </c>
@@ -18639,7 +18639,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>82</v>
       </c>
@@ -18650,7 +18650,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>506</v>
       </c>
@@ -18670,7 +18670,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -18684,7 +18684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -18698,7 +18698,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>844</v>
       </c>
@@ -18718,7 +18718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -18732,7 +18732,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -18752,7 +18752,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -18766,7 +18766,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -18780,7 +18780,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -18800,7 +18800,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>33</v>
       </c>
@@ -18814,7 +18814,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>4</v>
       </c>
@@ -18828,7 +18828,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -18842,7 +18842,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -18856,7 +18856,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -18870,7 +18870,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>477</v>
       </c>
@@ -18890,7 +18890,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -18910,7 +18910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>33</v>
       </c>
@@ -18924,7 +18924,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -18938,7 +18938,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -18952,7 +18952,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>2</v>
       </c>
@@ -18966,7 +18966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>246</v>
       </c>
@@ -18986,7 +18986,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -19000,7 +19000,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -19014,7 +19014,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -19028,7 +19028,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>810</v>
       </c>
@@ -19048,7 +19048,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -19062,7 +19062,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -19076,7 +19076,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>0</v>
       </c>
@@ -19090,7 +19090,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>58</v>
       </c>
@@ -19104,7 +19104,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>768</v>
       </c>
@@ -19124,7 +19124,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>3</v>
       </c>
@@ -19138,7 +19138,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>2</v>
       </c>
@@ -19152,7 +19152,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>0</v>
       </c>
@@ -19166,7 +19166,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>452</v>
       </c>
@@ -19186,7 +19186,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>2</v>
       </c>
@@ -19200,7 +19200,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>0</v>
       </c>
@@ -19214,7 +19214,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>58</v>
       </c>
@@ -19228,7 +19228,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>54</v>
       </c>
@@ -19248,7 +19248,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>33</v>
       </c>
@@ -19262,7 +19262,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>4</v>
       </c>
@@ -19276,7 +19276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>3</v>
       </c>
@@ -19290,7 +19290,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>453</v>
       </c>
@@ -19310,7 +19310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>98</v>
       </c>
@@ -19330,7 +19330,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>4</v>
       </c>
@@ -19344,7 +19344,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>244</v>
       </c>
@@ -19364,7 +19364,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>248</v>
       </c>
@@ -19381,7 +19381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
         <v>97</v>
       </c>
@@ -19410,17 +19410,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -19440,7 +19440,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -19460,7 +19460,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -19474,7 +19474,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>493</v>
       </c>
@@ -19494,7 +19494,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -19514,7 +19514,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>33</v>
       </c>
@@ -19528,7 +19528,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>131</v>
       </c>
@@ -19548,7 +19548,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -19562,7 +19562,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>248</v>
       </c>
@@ -19579,7 +19579,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>532</v>
       </c>
@@ -19590,7 +19590,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>845</v>
       </c>
@@ -19610,7 +19610,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -19624,7 +19624,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -19638,7 +19638,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>245</v>
       </c>
@@ -19658,7 +19658,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -19672,7 +19672,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -19686,7 +19686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -19700,7 +19700,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>58</v>
       </c>
@@ -19714,7 +19714,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>779</v>
       </c>
@@ -19734,7 +19734,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -19748,7 +19748,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -19762,7 +19762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -19776,7 +19776,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>154</v>
       </c>
@@ -19796,7 +19796,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -19810,7 +19810,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>545</v>
       </c>
@@ -19830,7 +19830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -19844,7 +19844,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -19858,7 +19858,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -19872,7 +19872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>58</v>
       </c>
@@ -19886,7 +19886,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>248</v>
       </c>
@@ -19903,7 +19903,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>157</v>
       </c>
@@ -19914,7 +19914,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>506</v>
       </c>
@@ -19934,7 +19934,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -19948,7 +19948,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -19962,7 +19962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>844</v>
       </c>
@@ -19982,7 +19982,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>4</v>
       </c>
@@ -19996,7 +19996,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>38</v>
       </c>
@@ -20016,7 +20016,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -20030,7 +20030,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>44</v>
       </c>
@@ -20050,7 +20050,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>33</v>
       </c>
@@ -20064,7 +20064,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -20078,7 +20078,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>477</v>
       </c>
@@ -20098,7 +20098,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -20112,7 +20112,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>48</v>
       </c>
@@ -20132,7 +20132,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>33</v>
       </c>
@@ -20146,7 +20146,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -20160,7 +20160,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -20174,7 +20174,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -20188,7 +20188,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>563</v>
       </c>
@@ -20208,7 +20208,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>2</v>
       </c>
@@ -20222,7 +20222,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>763</v>
       </c>
@@ -20242,7 +20242,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>3</v>
       </c>
@@ -20256,7 +20256,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>2</v>
       </c>
@@ -20270,7 +20270,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>768</v>
       </c>
@@ -20290,7 +20290,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>3</v>
       </c>
@@ -20304,7 +20304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>452</v>
       </c>
@@ -20324,7 +20324,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>3</v>
       </c>
@@ -20338,7 +20338,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>2</v>
       </c>
@@ -20352,7 +20352,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>0</v>
       </c>
@@ -20366,7 +20366,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>58</v>
       </c>
@@ -20380,7 +20380,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>54</v>
       </c>
@@ -20400,7 +20400,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>33</v>
       </c>
@@ -20414,7 +20414,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>4</v>
       </c>
@@ -20428,7 +20428,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>453</v>
       </c>
@@ -20448,7 +20448,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>3</v>
       </c>
@@ -20462,7 +20462,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>2</v>
       </c>
@@ -20476,7 +20476,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>0</v>
       </c>
@@ -20490,7 +20490,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>58</v>
       </c>
@@ -20504,7 +20504,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -20524,7 +20524,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>3</v>
       </c>
@@ -20538,7 +20538,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>2</v>
       </c>
@@ -20552,7 +20552,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>0</v>
       </c>
@@ -20566,7 +20566,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>244</v>
       </c>
@@ -20586,7 +20586,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>75</v>
       </c>
@@ -20600,7 +20600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>75</v>
       </c>
@@ -20614,7 +20614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>0</v>
       </c>
@@ -20646,17 +20646,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -20676,7 +20676,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>493</v>
       </c>
@@ -20696,7 +20696,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -20710,7 +20710,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -20724,7 +20724,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -20744,7 +20744,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>845</v>
       </c>
@@ -20764,7 +20764,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -20778,7 +20778,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -20792,7 +20792,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>245</v>
       </c>
@@ -20812,7 +20812,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>779</v>
       </c>
@@ -20832,7 +20832,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -20846,7 +20846,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -20860,7 +20860,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>154</v>
       </c>
@@ -20880,7 +20880,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -20894,7 +20894,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -20908,7 +20908,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -20922,7 +20922,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>248</v>
       </c>
@@ -20939,7 +20939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>588</v>
       </c>
@@ -20950,7 +20950,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>506</v>
       </c>
@@ -20970,7 +20970,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>844</v>
       </c>
@@ -20990,7 +20990,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -21004,7 +21004,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -21018,7 +21018,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -21032,7 +21032,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>0</v>
       </c>
@@ -21046,7 +21046,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -21066,7 +21066,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -21086,7 +21086,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>33</v>
       </c>
@@ -21100,7 +21100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>4</v>
       </c>
@@ -21114,7 +21114,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>477</v>
       </c>
@@ -21134,7 +21134,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -21148,7 +21148,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -21162,7 +21162,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -21182,7 +21182,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>33</v>
       </c>
@@ -21196,7 +21196,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -21210,7 +21210,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -21224,7 +21224,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>2</v>
       </c>
@@ -21238,7 +21238,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>0</v>
       </c>
@@ -21252,7 +21252,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>58</v>
       </c>
@@ -21266,7 +21266,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>810</v>
       </c>
@@ -21286,7 +21286,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -21300,7 +21300,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>768</v>
       </c>
@@ -21320,7 +21320,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>452</v>
       </c>
@@ -21340,7 +21340,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>2</v>
       </c>
@@ -21354,7 +21354,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -21368,7 +21368,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>58</v>
       </c>
@@ -21382,7 +21382,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>54</v>
       </c>
@@ -21402,7 +21402,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>33</v>
       </c>
@@ -21416,7 +21416,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>4</v>
       </c>
@@ -21430,7 +21430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>247</v>
       </c>
@@ -21450,7 +21450,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -21464,7 +21464,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -21478,7 +21478,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>0</v>
       </c>
@@ -21492,7 +21492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>58</v>
       </c>
@@ -21506,7 +21506,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>98</v>
       </c>
@@ -21526,7 +21526,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -21540,7 +21540,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -21554,7 +21554,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -21568,7 +21568,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>58</v>
       </c>
@@ -21582,7 +21582,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>244</v>
       </c>
@@ -21602,7 +21602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>75</v>
       </c>
@@ -21616,7 +21616,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>75</v>
       </c>
@@ -21630,7 +21630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>248</v>
       </c>
@@ -21647,7 +21647,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
         <v>205</v>
       </c>

--- a/Tennis/WTA Tour/Petra Kvitová.xlsx
+++ b/Tennis/WTA Tour/Petra Kvitová.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6419" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7DC80CF-B19D-47E0-97C0-B613B49E6C7D}"/>
+  <xr:revisionPtr revIDLastSave="6420" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10A2CF1B-2C7F-4FBB-AD3F-C0A77A10563B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="8" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" firstSheet="8" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2006" sheetId="12" r:id="rId1"/>
@@ -5516,17 +5516,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -5546,7 +5546,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>250</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>8</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>4</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>255</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>261</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>58</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>267</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>269</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>0</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>58</v>
       </c>
@@ -5845,17 +5845,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>601</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>493</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>0</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>58</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>33</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>245</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>535</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>248</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>339</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>506</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>844</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>58</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>33</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>33</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>810</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>768</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>452</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>0</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>58</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>33</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>4</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>247</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>98</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>244</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>75</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>75</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>0</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>58</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>248</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D74" t="s">
         <v>761</v>
       </c>
@@ -6764,17 +6764,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>601</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>33</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>245</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>845</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>779</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>154</v>
       </c>
@@ -6984,7 +6984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>506</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -7032,7 +7032,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -7046,7 +7046,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>844</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -7094,7 +7094,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>33</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>363</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>477</v>
       </c>
@@ -7230,7 +7230,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>33</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>810</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -7326,7 +7326,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>246</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>33</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -7374,7 +7374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>0</v>
       </c>
@@ -7416,7 +7416,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>452</v>
       </c>
@@ -7436,7 +7436,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -7450,7 +7450,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -7464,7 +7464,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>0</v>
       </c>
@@ -7478,7 +7478,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>54</v>
       </c>
@@ -7498,7 +7498,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>33</v>
       </c>
@@ -7512,7 +7512,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -7540,7 +7540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>453</v>
       </c>
@@ -7560,7 +7560,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>247</v>
       </c>
@@ -7594,7 +7594,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>4</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>3</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>2</v>
       </c>
@@ -7636,7 +7636,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>0</v>
       </c>
@@ -7650,7 +7650,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>58</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>98</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -7698,7 +7698,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>428</v>
       </c>
@@ -7732,7 +7732,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>3</v>
       </c>
@@ -7746,7 +7746,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>2</v>
       </c>
@@ -7760,7 +7760,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>0</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>58</v>
       </c>
@@ -7788,7 +7788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>652</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>75</v>
       </c>
@@ -7822,7 +7822,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>0</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>58</v>
       </c>
@@ -7850,7 +7850,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>248</v>
       </c>
@@ -7884,17 +7884,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
@@ -7950,7 +7950,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -7958,7 +7958,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>363</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -8006,7 +8006,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -8020,7 +8020,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>58</v>
       </c>
@@ -8034,7 +8034,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -8054,7 +8054,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>33</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>125</v>
       </c>
@@ -8088,7 +8088,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>810</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -8136,7 +8136,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>768</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>452</v>
       </c>
@@ -8190,7 +8190,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>33</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -8238,7 +8238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -8266,7 +8266,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>247</v>
       </c>
@@ -8286,7 +8286,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>98</v>
       </c>
@@ -8306,7 +8306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -8320,7 +8320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -8334,7 +8334,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -8362,7 +8362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>667</v>
       </c>
@@ -8399,17 +8399,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>493</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
@@ -8465,10 +8465,10 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>762</v>
       </c>
@@ -8508,7 +8508,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -8522,7 +8522,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>0</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>58</v>
       </c>
@@ -8564,7 +8564,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>248</v>
       </c>
@@ -8581,7 +8581,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>672</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>845</v>
       </c>
@@ -8612,7 +8612,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -8626,7 +8626,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -8640,7 +8640,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -8654,7 +8654,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>0</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>58</v>
       </c>
@@ -8682,7 +8682,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>779</v>
       </c>
@@ -8702,7 +8702,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>154</v>
       </c>
@@ -8736,7 +8736,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -8750,7 +8750,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -8764,7 +8764,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>243</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>248</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>142</v>
       </c>
@@ -8812,7 +8812,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>506</v>
       </c>
@@ -8832,7 +8832,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>292</v>
       </c>
@@ -8852,7 +8852,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -8866,7 +8866,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>58</v>
       </c>
@@ -8908,7 +8908,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>844</v>
       </c>
@@ -8928,7 +8928,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -8942,7 +8942,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -8956,7 +8956,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -8970,7 +8970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>0</v>
       </c>
@@ -8984,7 +8984,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>58</v>
       </c>
@@ -8998,7 +8998,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -9018,7 +9018,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>33</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -9046,7 +9046,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>363</v>
       </c>
@@ -9066,7 +9066,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -9094,7 +9094,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -9108,7 +9108,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>58</v>
       </c>
@@ -9122,7 +9122,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>477</v>
       </c>
@@ -9142,7 +9142,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -9156,7 +9156,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>48</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>810</v>
       </c>
@@ -9196,7 +9196,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -9210,7 +9210,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>768</v>
       </c>
@@ -9230,7 +9230,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -9244,7 +9244,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -9258,7 +9258,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>0</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>452</v>
       </c>
@@ -9292,7 +9292,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>3</v>
       </c>
@@ -9306,7 +9306,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>2</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>54</v>
       </c>
@@ -9340,7 +9340,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>33</v>
       </c>
@@ -9354,7 +9354,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>4</v>
       </c>
@@ -9368,7 +9368,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>247</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>3</v>
       </c>
@@ -9402,7 +9402,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>244</v>
       </c>
@@ -9442,7 +9442,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>75</v>
       </c>
@@ -9456,7 +9456,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>75</v>
       </c>
@@ -9487,17 +9487,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
@@ -9553,11 +9553,11 @@
         <v>538</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>493</v>
       </c>
@@ -9577,7 +9577,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -9591,7 +9591,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -9605,7 +9605,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -9619,7 +9619,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>58</v>
       </c>
@@ -9633,7 +9633,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -9653,7 +9653,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>33</v>
       </c>
@@ -9667,7 +9667,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -9681,7 +9681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -9695,7 +9695,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -9709,7 +9709,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -9723,7 +9723,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>58</v>
       </c>
@@ -9737,7 +9737,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>762</v>
       </c>
@@ -9757,7 +9757,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -9771,7 +9771,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>245</v>
       </c>
@@ -9791,7 +9791,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -9819,7 +9819,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>58</v>
       </c>
@@ -9847,7 +9847,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>779</v>
       </c>
@@ -9867,7 +9867,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>154</v>
       </c>
@@ -9887,7 +9887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -9901,7 +9901,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -9915,7 +9915,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>506</v>
       </c>
@@ -9949,7 +9949,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -9963,7 +9963,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>58</v>
       </c>
@@ -9991,7 +9991,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>844</v>
       </c>
@@ -10011,7 +10011,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -10025,7 +10025,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>3</v>
       </c>
@@ -10039,7 +10039,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>2</v>
       </c>
@@ -10053,7 +10053,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -10073,7 +10073,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -10087,7 +10087,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -10107,7 +10107,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>33</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -10135,7 +10135,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -10149,7 +10149,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>768</v>
       </c>
@@ -10169,7 +10169,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -10189,7 +10189,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>33</v>
       </c>
@@ -10203,7 +10203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>247</v>
       </c>
@@ -10223,7 +10223,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -10237,7 +10237,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -10251,7 +10251,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -10265,7 +10265,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>98</v>
       </c>
@@ -10285,7 +10285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -10299,7 +10299,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>2</v>
       </c>
@@ -10313,7 +10313,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>244</v>
       </c>
@@ -10333,7 +10333,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>75</v>
       </c>
@@ -10347,7 +10347,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>75</v>
       </c>
@@ -10378,17 +10378,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -10408,7 +10408,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -10428,7 +10428,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
@@ -10444,7 +10444,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
@@ -10460,7 +10460,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
@@ -10476,7 +10476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -10484,7 +10484,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -10504,7 +10504,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>33</v>
       </c>
@@ -10518,7 +10518,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -10532,7 +10532,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -10546,7 +10546,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -10560,7 +10560,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>762</v>
       </c>
@@ -10580,7 +10580,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -10594,7 +10594,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>845</v>
       </c>
@@ -10614,7 +10614,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -10628,7 +10628,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -10642,7 +10642,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -10656,7 +10656,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>58</v>
       </c>
@@ -10670,7 +10670,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>768</v>
       </c>
@@ -10690,7 +10690,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -10710,7 +10710,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>33</v>
       </c>
@@ -10724,7 +10724,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -10738,7 +10738,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -10752,7 +10752,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -10772,7 +10772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>33</v>
       </c>
@@ -10786,7 +10786,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -10800,7 +10800,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -10814,7 +10814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -10828,7 +10828,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>0</v>
       </c>
@@ -10859,17 +10859,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -10889,7 +10889,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>242</v>
       </c>
@@ -10909,7 +10909,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -10923,7 +10923,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -10943,7 +10943,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>33</v>
       </c>
@@ -10957,7 +10957,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>535</v>
       </c>
@@ -10977,7 +10977,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -10991,7 +10991,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>0</v>
       </c>
@@ -11005,7 +11005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>58</v>
       </c>
@@ -11019,7 +11019,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>245</v>
       </c>
@@ -11039,7 +11039,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>154</v>
       </c>
@@ -11059,7 +11059,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -11073,7 +11073,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -11087,7 +11087,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>794</v>
       </c>
@@ -11107,7 +11107,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -11121,7 +11121,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>506</v>
       </c>
@@ -11141,7 +11141,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -11155,7 +11155,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -11169,7 +11169,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>844</v>
       </c>
@@ -11189,7 +11189,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -11203,7 +11203,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -11217,7 +11217,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -11231,7 +11231,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -11251,7 +11251,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -11265,7 +11265,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -11285,7 +11285,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>33</v>
       </c>
@@ -11299,7 +11299,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>750</v>
       </c>
@@ -11319,7 +11319,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -11333,7 +11333,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -11347,7 +11347,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -11361,7 +11361,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -11381,7 +11381,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>246</v>
       </c>
@@ -11401,7 +11401,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -11415,7 +11415,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>810</v>
       </c>
@@ -11435,7 +11435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>4</v>
       </c>
@@ -11449,7 +11449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>768</v>
       </c>
@@ -11469,7 +11469,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -11483,7 +11483,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -11497,7 +11497,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -11511,7 +11511,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -11531,7 +11531,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>33</v>
       </c>
@@ -11545,7 +11545,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>4</v>
       </c>
@@ -11559,7 +11559,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>774</v>
       </c>
@@ -11579,7 +11579,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -11593,7 +11593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -11607,7 +11607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>779</v>
       </c>
@@ -11627,7 +11627,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>4</v>
       </c>
@@ -11659,17 +11659,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -11689,7 +11689,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>780</v>
       </c>
@@ -11709,7 +11709,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>493</v>
       </c>
@@ -11729,7 +11729,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -11743,7 +11743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -11763,7 +11763,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>762</v>
       </c>
@@ -11783,7 +11783,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -11797,7 +11797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>245</v>
       </c>
@@ -11817,7 +11817,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>3</v>
       </c>
@@ -11831,7 +11831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -11845,7 +11845,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>535</v>
       </c>
@@ -11865,7 +11865,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -11879,7 +11879,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>779</v>
       </c>
@@ -11899,7 +11899,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -11913,7 +11913,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>154</v>
       </c>
@@ -11933,7 +11933,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -11947,7 +11947,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -11961,7 +11961,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -11975,7 +11975,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>794</v>
       </c>
@@ -11995,7 +11995,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>506</v>
       </c>
@@ -12015,7 +12015,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>844</v>
       </c>
@@ -12035,7 +12035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -12055,7 +12055,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>33</v>
       </c>
@@ -12069,7 +12069,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>363</v>
       </c>
@@ -12089,7 +12089,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>477</v>
       </c>
@@ -12109,7 +12109,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -12123,7 +12123,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>2</v>
       </c>
@@ -12137,7 +12137,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>0</v>
       </c>
@@ -12151,7 +12151,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>58</v>
       </c>
@@ -12165,7 +12165,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -12185,7 +12185,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>33</v>
       </c>
@@ -12199,7 +12199,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -12213,7 +12213,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>810</v>
       </c>
@@ -12233,7 +12233,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>768</v>
       </c>
@@ -12253,7 +12253,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -12267,7 +12267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -12281,7 +12281,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -12295,7 +12295,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>0</v>
       </c>
@@ -12309,7 +12309,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>58</v>
       </c>
@@ -12323,7 +12323,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -12343,7 +12343,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>33</v>
       </c>
@@ -12357,7 +12357,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>4</v>
       </c>
@@ -12371,7 +12371,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>3</v>
       </c>
@@ -12385,7 +12385,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>774</v>
       </c>
@@ -12405,7 +12405,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -12419,7 +12419,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -12433,7 +12433,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>824</v>
       </c>
@@ -12453,7 +12453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>4</v>
       </c>
@@ -12484,17 +12484,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -12514,7 +12514,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>827</v>
       </c>
@@ -12534,7 +12534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="C3" t="s">
         <v>3</v>
@@ -12549,7 +12549,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="C4" t="s">
         <v>2</v>
@@ -12564,7 +12564,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>31</v>
       </c>
@@ -12584,7 +12584,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="C7" t="s">
         <v>33</v>
@@ -12599,7 +12599,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>831</v>
       </c>
@@ -12619,7 +12619,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -12633,7 +12633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>245</v>
       </c>
@@ -12653,7 +12653,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -12667,7 +12667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -12681,7 +12681,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>779</v>
       </c>
@@ -12701,7 +12701,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -12715,7 +12715,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -12729,7 +12729,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -12743,7 +12743,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>154</v>
       </c>
@@ -12763,7 +12763,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -12777,7 +12777,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -12791,7 +12791,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -12805,7 +12805,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -12819,7 +12819,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>58</v>
       </c>
@@ -12833,7 +12833,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>844</v>
       </c>
@@ -12853,7 +12853,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -12873,7 +12873,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>848</v>
       </c>
@@ -12893,7 +12893,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -12907,7 +12907,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -12921,7 +12921,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -12935,7 +12935,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>58</v>
       </c>
@@ -12949,7 +12949,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -12969,7 +12969,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>33</v>
       </c>
@@ -12983,7 +12983,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -12997,7 +12997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -13011,7 +13011,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>810</v>
       </c>
@@ -13031,7 +13031,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -13045,7 +13045,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>768</v>
       </c>
@@ -13065,7 +13065,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>4</v>
       </c>
@@ -13079,7 +13079,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -13099,7 +13099,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>33</v>
       </c>
@@ -13113,7 +13113,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>858</v>
       </c>
@@ -13133,7 +13133,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -13147,7 +13147,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -13161,7 +13161,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>98</v>
       </c>
@@ -13181,7 +13181,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>4</v>
       </c>
@@ -13212,17 +13212,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>234</v>
       </c>
@@ -13242,7 +13242,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2006</v>
       </c>
@@ -13264,7 +13264,7 @@
       </c>
       <c r="T2" s="8"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2007</v>
       </c>
@@ -13286,7 +13286,7 @@
       </c>
       <c r="T3" s="8"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2008</v>
       </c>
@@ -13308,7 +13308,7 @@
       </c>
       <c r="T4" s="8"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2009</v>
       </c>
@@ -13330,7 +13330,7 @@
       </c>
       <c r="T5" s="8"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2010</v>
       </c>
@@ -13351,7 +13351,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2011</v>
       </c>
@@ -13372,7 +13372,7 @@
         <v>0.78333333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2012</v>
       </c>
@@ -13393,7 +13393,7 @@
         <v>0.63043478260869568</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2013</v>
       </c>
@@ -13414,7 +13414,7 @@
         <v>0.5490196078431373</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2014</v>
       </c>
@@ -13435,7 +13435,7 @@
         <v>0.62790697674418605</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2015</v>
       </c>
@@ -13456,7 +13456,7 @@
         <v>0.55263157894736847</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2016</v>
       </c>
@@ -13477,7 +13477,7 @@
         <v>0.54347826086956519</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2017</v>
       </c>
@@ -13498,7 +13498,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2018</v>
       </c>
@@ -13519,7 +13519,7 @@
         <v>0.63829787234042556</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2019</v>
       </c>
@@ -13540,7 +13540,7 @@
         <v>0.60526315789473684</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2020</v>
       </c>
@@ -13561,7 +13561,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2021</v>
       </c>
@@ -13582,7 +13582,7 @@
         <v>0.44827586206896552</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2022</v>
       </c>
@@ -13603,7 +13603,7 @@
         <v>0.29629629629629628</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2023</v>
       </c>
@@ -13624,7 +13624,7 @@
         <v>0.5357142857142857</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>81</v>
       </c>
@@ -13649,7 +13649,7 @@
         <v>0.55007949125596189</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>766</v>
       </c>
@@ -13707,17 +13707,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -13737,7 +13737,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>277</v>
       </c>
@@ -13757,7 +13757,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -13771,7 +13771,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -13785,7 +13785,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -13799,7 +13799,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>58</v>
       </c>
@@ -13813,7 +13813,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>283</v>
       </c>
@@ -13833,7 +13833,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>8</v>
       </c>
@@ -13847,7 +13847,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -13861,7 +13861,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -13875,7 +13875,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -13889,7 +13889,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -13903,7 +13903,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>58</v>
       </c>
@@ -13917,7 +13917,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>290</v>
       </c>
@@ -13937,7 +13937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>292</v>
       </c>
@@ -13957,7 +13957,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>8</v>
       </c>
@@ -13971,7 +13971,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>296</v>
       </c>
@@ -13991,7 +13991,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -14005,7 +14005,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -14019,7 +14019,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>301</v>
       </c>
@@ -14039,7 +14039,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>8</v>
       </c>
@@ -14053,7 +14053,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>7</v>
       </c>
@@ -14067,7 +14067,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -14081,7 +14081,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -14095,7 +14095,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -14109,7 +14109,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -14123,7 +14123,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>58</v>
       </c>
@@ -14137,7 +14137,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>311</v>
       </c>
@@ -14157,7 +14157,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -14177,7 +14177,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>8</v>
       </c>
@@ -14191,7 +14191,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>316</v>
       </c>
@@ -14211,7 +14211,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -14225,7 +14225,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>318</v>
       </c>
@@ -14245,7 +14245,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>321</v>
       </c>
@@ -14265,7 +14265,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -14279,7 +14279,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -14293,7 +14293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>0</v>
       </c>
@@ -14307,7 +14307,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>58</v>
       </c>
@@ -14321,7 +14321,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>327</v>
       </c>
@@ -14341,7 +14341,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>330</v>
       </c>
@@ -14361,7 +14361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>332</v>
       </c>
@@ -14381,7 +14381,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -14395,7 +14395,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -14409,7 +14409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -14423,7 +14423,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>58</v>
       </c>
@@ -14437,7 +14437,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>269</v>
       </c>
@@ -14457,7 +14457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -14471,7 +14471,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -14485,7 +14485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>0</v>
       </c>
@@ -14499,7 +14499,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>58</v>
       </c>
@@ -14530,17 +14530,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -14560,7 +14560,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -14580,7 +14580,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>131</v>
       </c>
@@ -14600,7 +14600,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>8</v>
       </c>
@@ -14614,7 +14614,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>7</v>
       </c>
@@ -14628,7 +14628,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -14642,7 +14642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -14656,7 +14656,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>341</v>
       </c>
@@ -14676,7 +14676,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>344</v>
       </c>
@@ -14696,7 +14696,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>8</v>
       </c>
@@ -14710,7 +14710,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>7</v>
       </c>
@@ -14724,7 +14724,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -14738,7 +14738,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -14752,7 +14752,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>154</v>
       </c>
@@ -14772,7 +14772,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>8</v>
       </c>
@@ -14786,7 +14786,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>32</v>
       </c>
@@ -14800,7 +14800,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>351</v>
       </c>
@@ -14820,7 +14820,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>354</v>
       </c>
@@ -14840,7 +14840,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -14854,7 +14854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -14868,7 +14868,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>0</v>
       </c>
@@ -14882,7 +14882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>58</v>
       </c>
@@ -14896,7 +14896,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>248</v>
       </c>
@@ -14913,7 +14913,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>357</v>
       </c>
@@ -14924,7 +14924,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>292</v>
       </c>
@@ -14944,7 +14944,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>358</v>
       </c>
@@ -14964,7 +14964,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -14978,7 +14978,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -14998,7 +14998,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>33</v>
       </c>
@@ -15012,7 +15012,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -15026,7 +15026,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -15040,7 +15040,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>363</v>
       </c>
@@ -15060,7 +15060,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -15080,7 +15080,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>368</v>
       </c>
@@ -15100,7 +15100,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -15114,7 +15114,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -15128,7 +15128,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>370</v>
       </c>
@@ -15148,7 +15148,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -15162,7 +15162,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>810</v>
       </c>
@@ -15182,7 +15182,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -15196,7 +15196,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -15216,7 +15216,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>377</v>
       </c>
@@ -15236,7 +15236,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>3</v>
       </c>
@@ -15250,7 +15250,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>2</v>
       </c>
@@ -15264,7 +15264,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>379</v>
       </c>
@@ -15284,7 +15284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>380</v>
       </c>
@@ -15304,7 +15304,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>8</v>
       </c>
@@ -15318,7 +15318,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>7</v>
       </c>
@@ -15332,7 +15332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>4</v>
       </c>
@@ -15346,7 +15346,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -15360,7 +15360,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -15374,7 +15374,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>386</v>
       </c>
@@ -15394,7 +15394,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>8</v>
       </c>
@@ -15408,7 +15408,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>7</v>
       </c>
@@ -15422,7 +15422,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>4</v>
       </c>
@@ -15436,7 +15436,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -15450,7 +15450,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>392</v>
       </c>
@@ -15470,7 +15470,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>3</v>
       </c>
@@ -15484,7 +15484,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>2</v>
       </c>
@@ -15516,17 +15516,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -15546,7 +15546,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -15566,7 +15566,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>395</v>
       </c>
@@ -15586,7 +15586,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -15600,7 +15600,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -15614,7 +15614,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -15628,7 +15628,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>58</v>
       </c>
@@ -15642,7 +15642,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -15662,7 +15662,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>248</v>
       </c>
@@ -15679,7 +15679,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>138</v>
       </c>
@@ -15690,7 +15690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>131</v>
       </c>
@@ -15710,7 +15710,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>245</v>
       </c>
@@ -15730,7 +15730,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>779</v>
       </c>
@@ -15750,7 +15750,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>33</v>
       </c>
@@ -15764,7 +15764,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -15778,7 +15778,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>154</v>
       </c>
@@ -15798,7 +15798,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>401</v>
       </c>
@@ -15818,7 +15818,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>248</v>
       </c>
@@ -15835,7 +15835,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>403</v>
       </c>
@@ -15846,7 +15846,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>405</v>
       </c>
@@ -15866,7 +15866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>844</v>
       </c>
@@ -15886,7 +15886,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -15900,7 +15900,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -15920,7 +15920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>409</v>
       </c>
@@ -15940,7 +15940,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -15954,7 +15954,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>292</v>
       </c>
@@ -15974,7 +15974,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -15988,7 +15988,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>412</v>
       </c>
@@ -16008,7 +16008,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -16022,7 +16022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>768</v>
       </c>
@@ -16042,7 +16042,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>810</v>
       </c>
@@ -16062,7 +16062,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>8</v>
       </c>
@@ -16076,7 +16076,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>416</v>
       </c>
@@ -16096,7 +16096,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -16116,7 +16116,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>33</v>
       </c>
@@ -16130,7 +16130,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -16144,7 +16144,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -16158,7 +16158,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>423</v>
       </c>
@@ -16178,7 +16178,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -16192,7 +16192,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -16206,7 +16206,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>386</v>
       </c>
@@ -16226,7 +16226,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -16240,7 +16240,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -16254,7 +16254,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>0</v>
       </c>
@@ -16268,7 +16268,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>58</v>
       </c>
@@ -16282,7 +16282,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>428</v>
       </c>
@@ -16320,17 +16320,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -16350,7 +16350,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>395</v>
       </c>
@@ -16370,7 +16370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>8</v>
       </c>
@@ -16384,7 +16384,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -16398,7 +16398,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -16418,7 +16418,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>33</v>
       </c>
@@ -16432,7 +16432,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>248</v>
       </c>
@@ -16449,7 +16449,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>205</v>
       </c>
@@ -16460,7 +16460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>433</v>
       </c>
@@ -16480,7 +16480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>3</v>
       </c>
@@ -16494,7 +16494,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -16508,7 +16508,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>0</v>
       </c>
@@ -16522,7 +16522,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>779</v>
       </c>
@@ -16542,7 +16542,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>33</v>
       </c>
@@ -16556,7 +16556,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>154</v>
       </c>
@@ -16576,7 +16576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>33</v>
       </c>
@@ -16590,7 +16590,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>401</v>
       </c>
@@ -16610,7 +16610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>248</v>
       </c>
@@ -16627,7 +16627,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -16647,7 +16647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -16661,7 +16661,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>844</v>
       </c>
@@ -16681,7 +16681,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>8</v>
       </c>
@@ -16695,7 +16695,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>33</v>
       </c>
@@ -16709,7 +16709,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -16729,7 +16729,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>441</v>
       </c>
@@ -16749,7 +16749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -16769,7 +16769,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>33</v>
       </c>
@@ -16783,7 +16783,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -16797,7 +16797,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -16811,7 +16811,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -16825,7 +16825,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>0</v>
       </c>
@@ -16839,7 +16839,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>412</v>
       </c>
@@ -16859,7 +16859,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>445</v>
       </c>
@@ -16879,7 +16879,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>448</v>
       </c>
@@ -16899,7 +16899,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>810</v>
       </c>
@@ -16919,7 +16919,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>452</v>
       </c>
@@ -16939,7 +16939,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -16959,7 +16959,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>33</v>
       </c>
@@ -16973,7 +16973,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>4</v>
       </c>
@@ -16987,7 +16987,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>453</v>
       </c>
@@ -17007,7 +17007,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>98</v>
       </c>
@@ -17027,7 +17027,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -17041,7 +17041,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -17055,7 +17055,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>386</v>
       </c>
@@ -17075,7 +17075,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -17089,7 +17089,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>379</v>
       </c>
@@ -17109,7 +17109,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>330</v>
       </c>
@@ -17129,7 +17129,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>3</v>
       </c>
@@ -17143,7 +17143,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>2</v>
       </c>
@@ -17157,7 +17157,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>0</v>
       </c>
@@ -17189,17 +17189,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -17219,7 +17219,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -17239,7 +17239,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -17253,7 +17253,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -17267,7 +17267,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -17281,7 +17281,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>58</v>
       </c>
@@ -17295,7 +17295,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -17315,7 +17315,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -17329,7 +17329,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -17343,7 +17343,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -17357,7 +17357,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -17371,7 +17371,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>248</v>
       </c>
@@ -17388,7 +17388,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>144</v>
       </c>
@@ -17399,7 +17399,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>131</v>
       </c>
@@ -17419,7 +17419,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -17433,7 +17433,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -17447,7 +17447,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>0</v>
       </c>
@@ -17461,7 +17461,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>58</v>
       </c>
@@ -17475,7 +17475,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>245</v>
       </c>
@@ -17495,7 +17495,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>779</v>
       </c>
@@ -17515,7 +17515,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>468</v>
       </c>
@@ -17535,7 +17535,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>154</v>
       </c>
@@ -17555,7 +17555,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -17569,7 +17569,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>248</v>
       </c>
@@ -17586,7 +17586,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>185</v>
       </c>
@@ -17597,7 +17597,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>844</v>
       </c>
@@ -17617,7 +17617,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -17631,7 +17631,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -17645,7 +17645,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -17659,7 +17659,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>0</v>
       </c>
@@ -17673,7 +17673,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>58</v>
       </c>
@@ -17687,7 +17687,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>474</v>
       </c>
@@ -17707,7 +17707,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -17721,7 +17721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>2</v>
       </c>
@@ -17735,7 +17735,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>0</v>
       </c>
@@ -17749,7 +17749,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>58</v>
       </c>
@@ -17763,7 +17763,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -17783,7 +17783,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>33</v>
       </c>
@@ -17797,7 +17797,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -17811,7 +17811,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -17825,7 +17825,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>477</v>
       </c>
@@ -17845,7 +17845,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -17859,7 +17859,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -17873,7 +17873,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>0</v>
       </c>
@@ -17887,7 +17887,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>58</v>
       </c>
@@ -17901,7 +17901,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>48</v>
       </c>
@@ -17921,7 +17921,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>33</v>
       </c>
@@ -17935,7 +17935,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>4</v>
       </c>
@@ -17949,7 +17949,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>3</v>
       </c>
@@ -17963,7 +17963,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>2</v>
       </c>
@@ -17977,7 +17977,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>0</v>
       </c>
@@ -17991,7 +17991,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>58</v>
       </c>
@@ -18005,7 +18005,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>810</v>
       </c>
@@ -18025,7 +18025,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -18039,7 +18039,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>768</v>
       </c>
@@ -18059,7 +18059,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>3</v>
       </c>
@@ -18073,7 +18073,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>54</v>
       </c>
@@ -18093,7 +18093,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>453</v>
       </c>
@@ -18113,7 +18113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -18127,7 +18127,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -18141,7 +18141,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -18155,7 +18155,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -18175,7 +18175,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>386</v>
       </c>
@@ -18195,7 +18195,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>3</v>
       </c>
@@ -18209,7 +18209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>2</v>
       </c>
@@ -18223,7 +18223,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>0</v>
       </c>
@@ -18237,7 +18237,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>58</v>
       </c>
@@ -18251,7 +18251,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>244</v>
       </c>
@@ -18271,7 +18271,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>75</v>
       </c>
@@ -18285,7 +18285,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>75</v>
       </c>
@@ -18299,7 +18299,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>0</v>
       </c>
@@ -18313,7 +18313,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>58</v>
       </c>
@@ -18327,7 +18327,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>248</v>
       </c>
@@ -18344,7 +18344,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D95" t="s">
         <v>94</v>
       </c>
@@ -18372,17 +18372,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -18402,7 +18402,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>493</v>
       </c>
@@ -18422,7 +18422,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -18436,7 +18436,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -18450,7 +18450,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -18470,7 +18470,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>33</v>
       </c>
@@ -18484,7 +18484,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -18498,7 +18498,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -18512,7 +18512,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -18526,7 +18526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -18540,7 +18540,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>248</v>
       </c>
@@ -18557,7 +18557,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>147</v>
       </c>
@@ -18568,7 +18568,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>779</v>
       </c>
@@ -18588,7 +18588,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -18602,7 +18602,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>154</v>
       </c>
@@ -18622,7 +18622,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>248</v>
       </c>
@@ -18639,7 +18639,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>82</v>
       </c>
@@ -18650,7 +18650,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>506</v>
       </c>
@@ -18670,7 +18670,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -18684,7 +18684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -18698,7 +18698,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>844</v>
       </c>
@@ -18718,7 +18718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -18732,7 +18732,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -18752,7 +18752,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -18766,7 +18766,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -18780,7 +18780,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -18800,7 +18800,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>33</v>
       </c>
@@ -18814,7 +18814,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>4</v>
       </c>
@@ -18828,7 +18828,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -18842,7 +18842,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -18856,7 +18856,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -18870,7 +18870,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>477</v>
       </c>
@@ -18890,7 +18890,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -18910,7 +18910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>33</v>
       </c>
@@ -18924,7 +18924,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -18938,7 +18938,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -18952,7 +18952,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>2</v>
       </c>
@@ -18966,7 +18966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>246</v>
       </c>
@@ -18986,7 +18986,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -19000,7 +19000,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -19014,7 +19014,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -19028,7 +19028,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>810</v>
       </c>
@@ -19048,7 +19048,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -19062,7 +19062,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -19076,7 +19076,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>0</v>
       </c>
@@ -19090,7 +19090,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>58</v>
       </c>
@@ -19104,7 +19104,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>768</v>
       </c>
@@ -19124,7 +19124,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>3</v>
       </c>
@@ -19138,7 +19138,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>2</v>
       </c>
@@ -19152,7 +19152,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>0</v>
       </c>
@@ -19166,7 +19166,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>452</v>
       </c>
@@ -19186,7 +19186,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>2</v>
       </c>
@@ -19200,7 +19200,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>0</v>
       </c>
@@ -19214,7 +19214,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>58</v>
       </c>
@@ -19228,7 +19228,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>54</v>
       </c>
@@ -19248,7 +19248,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>33</v>
       </c>
@@ -19262,7 +19262,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>4</v>
       </c>
@@ -19276,7 +19276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>3</v>
       </c>
@@ -19290,7 +19290,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>453</v>
       </c>
@@ -19310,7 +19310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>98</v>
       </c>
@@ -19330,7 +19330,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>4</v>
       </c>
@@ -19344,7 +19344,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>244</v>
       </c>
@@ -19364,7 +19364,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>248</v>
       </c>
@@ -19381,7 +19381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
         <v>97</v>
       </c>
@@ -19410,17 +19410,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -19440,7 +19440,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -19460,7 +19460,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -19474,7 +19474,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>493</v>
       </c>
@@ -19494,7 +19494,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -19514,7 +19514,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>33</v>
       </c>
@@ -19528,7 +19528,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>131</v>
       </c>
@@ -19548,7 +19548,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -19562,7 +19562,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>248</v>
       </c>
@@ -19579,7 +19579,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>532</v>
       </c>
@@ -19590,7 +19590,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>845</v>
       </c>
@@ -19610,7 +19610,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -19624,7 +19624,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -19638,7 +19638,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>245</v>
       </c>
@@ -19658,7 +19658,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -19672,7 +19672,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -19686,7 +19686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -19700,7 +19700,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>58</v>
       </c>
@@ -19714,7 +19714,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>779</v>
       </c>
@@ -19734,7 +19734,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -19748,7 +19748,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -19762,7 +19762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -19776,7 +19776,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>154</v>
       </c>
@@ -19796,7 +19796,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -19810,7 +19810,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>545</v>
       </c>
@@ -19830,7 +19830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -19844,7 +19844,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -19858,7 +19858,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -19872,7 +19872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>58</v>
       </c>
@@ -19886,7 +19886,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>248</v>
       </c>
@@ -19903,7 +19903,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
         <v>157</v>
       </c>
@@ -19914,7 +19914,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>506</v>
       </c>
@@ -19934,7 +19934,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -19948,7 +19948,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -19962,7 +19962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>844</v>
       </c>
@@ -19982,7 +19982,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>4</v>
       </c>
@@ -19996,7 +19996,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>38</v>
       </c>
@@ -20016,7 +20016,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -20030,7 +20030,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>44</v>
       </c>
@@ -20050,7 +20050,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>33</v>
       </c>
@@ -20064,7 +20064,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -20078,7 +20078,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>477</v>
       </c>
@@ -20098,7 +20098,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -20112,7 +20112,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>48</v>
       </c>
@@ -20132,7 +20132,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>33</v>
       </c>
@@ -20146,7 +20146,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -20160,7 +20160,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -20174,7 +20174,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -20188,7 +20188,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>563</v>
       </c>
@@ -20208,7 +20208,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>2</v>
       </c>
@@ -20222,7 +20222,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>763</v>
       </c>
@@ -20242,7 +20242,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>3</v>
       </c>
@@ -20256,7 +20256,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>2</v>
       </c>
@@ -20270,7 +20270,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>768</v>
       </c>
@@ -20290,7 +20290,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>3</v>
       </c>
@@ -20304,7 +20304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>452</v>
       </c>
@@ -20324,7 +20324,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>3</v>
       </c>
@@ -20338,7 +20338,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>2</v>
       </c>
@@ -20352,7 +20352,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>0</v>
       </c>
@@ -20366,7 +20366,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>58</v>
       </c>
@@ -20380,7 +20380,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>54</v>
       </c>
@@ -20400,7 +20400,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>33</v>
       </c>
@@ -20414,7 +20414,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>4</v>
       </c>
@@ -20428,7 +20428,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>453</v>
       </c>
@@ -20448,7 +20448,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>3</v>
       </c>
@@ -20462,7 +20462,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>2</v>
       </c>
@@ -20476,7 +20476,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>0</v>
       </c>
@@ -20490,7 +20490,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>58</v>
       </c>
@@ -20504,7 +20504,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -20524,7 +20524,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>3</v>
       </c>
@@ -20538,7 +20538,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>2</v>
       </c>
@@ -20552,7 +20552,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>0</v>
       </c>
@@ -20566,7 +20566,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>244</v>
       </c>
@@ -20586,7 +20586,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>75</v>
       </c>
@@ -20600,7 +20600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>75</v>
       </c>
@@ -20614,7 +20614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>0</v>
       </c>
@@ -20646,17 +20646,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -20676,7 +20676,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>493</v>
       </c>
@@ -20696,7 +20696,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -20710,7 +20710,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -20724,7 +20724,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -20744,7 +20744,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>845</v>
       </c>
@@ -20764,7 +20764,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -20778,7 +20778,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -20792,7 +20792,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>245</v>
       </c>
@@ -20812,7 +20812,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>779</v>
       </c>
@@ -20832,7 +20832,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -20846,7 +20846,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -20860,7 +20860,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>154</v>
       </c>
@@ -20880,7 +20880,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -20894,7 +20894,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -20908,7 +20908,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -20922,7 +20922,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>248</v>
       </c>
@@ -20939,7 +20939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>588</v>
       </c>
@@ -20950,7 +20950,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>506</v>
       </c>
@@ -20970,7 +20970,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>844</v>
       </c>
@@ -20990,7 +20990,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -21004,7 +21004,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -21018,7 +21018,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -21032,7 +21032,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>0</v>
       </c>
@@ -21046,7 +21046,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -21066,7 +21066,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -21086,7 +21086,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>33</v>
       </c>
@@ -21100,7 +21100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>4</v>
       </c>
@@ -21114,7 +21114,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>477</v>
       </c>
@@ -21134,7 +21134,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -21148,7 +21148,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -21162,7 +21162,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -21182,7 +21182,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>33</v>
       </c>
@@ -21196,7 +21196,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -21210,7 +21210,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -21224,7 +21224,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>2</v>
       </c>
@@ -21238,7 +21238,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>0</v>
       </c>
@@ -21252,7 +21252,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>58</v>
       </c>
@@ -21266,7 +21266,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>810</v>
       </c>
@@ -21286,7 +21286,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -21300,7 +21300,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>768</v>
       </c>
@@ -21320,7 +21320,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>452</v>
       </c>
@@ -21340,7 +21340,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>2</v>
       </c>
@@ -21354,7 +21354,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -21368,7 +21368,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>58</v>
       </c>
@@ -21382,7 +21382,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>54</v>
       </c>
@@ -21402,7 +21402,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>33</v>
       </c>
@@ -21416,7 +21416,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>4</v>
       </c>
@@ -21430,7 +21430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>247</v>
       </c>
@@ -21450,7 +21450,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -21464,7 +21464,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -21478,7 +21478,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>0</v>
       </c>
@@ -21492,7 +21492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>58</v>
       </c>
@@ -21506,7 +21506,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>98</v>
       </c>
@@ -21526,7 +21526,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -21540,7 +21540,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -21554,7 +21554,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -21568,7 +21568,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>58</v>
       </c>
@@ -21582,7 +21582,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>244</v>
       </c>
@@ -21602,7 +21602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>75</v>
       </c>
@@ -21616,7 +21616,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>75</v>
       </c>
@@ -21630,7 +21630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>248</v>
       </c>
@@ -21647,7 +21647,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D83" t="s">
         <v>205</v>
       </c>

--- a/Tennis/WTA Tour/Petra Kvitová.xlsx
+++ b/Tennis/WTA Tour/Petra Kvitová.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6420" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10A2CF1B-2C7F-4FBB-AD3F-C0A77A10563B}"/>
+  <xr:revisionPtr revIDLastSave="6421" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDD1CCBD-6CFD-421D-9504-1EAF59159ED3}"/>
   <bookViews>
-    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" firstSheet="8" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="8" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2006" sheetId="12" r:id="rId1"/>
@@ -5516,17 +5516,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -5546,7 +5546,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>250</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>8</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>4</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>255</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>261</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>58</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>267</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>269</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>0</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>58</v>
       </c>
@@ -5845,17 +5845,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>601</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>493</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>0</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>58</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>33</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>245</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>535</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>248</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>339</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>506</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>844</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>58</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>33</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>33</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>810</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>768</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>452</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>0</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>58</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>33</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>4</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>247</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>98</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>244</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>75</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>75</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>0</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>58</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>248</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
         <v>761</v>
       </c>
@@ -6764,17 +6764,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>601</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>33</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>245</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>845</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>779</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>154</v>
       </c>
@@ -6984,7 +6984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>506</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -7032,7 +7032,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -7046,7 +7046,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>844</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -7094,7 +7094,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>33</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>363</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>477</v>
       </c>
@@ -7230,7 +7230,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>33</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>810</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -7326,7 +7326,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>246</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>33</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -7374,7 +7374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>0</v>
       </c>
@@ -7416,7 +7416,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>452</v>
       </c>
@@ -7436,7 +7436,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -7450,7 +7450,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -7464,7 +7464,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>0</v>
       </c>
@@ -7478,7 +7478,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>54</v>
       </c>
@@ -7498,7 +7498,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>33</v>
       </c>
@@ -7512,7 +7512,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -7540,7 +7540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>453</v>
       </c>
@@ -7560,7 +7560,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>247</v>
       </c>
@@ -7594,7 +7594,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>4</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>3</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>2</v>
       </c>
@@ -7636,7 +7636,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>0</v>
       </c>
@@ -7650,7 +7650,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>58</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>98</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -7698,7 +7698,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>428</v>
       </c>
@@ -7732,7 +7732,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>3</v>
       </c>
@@ -7746,7 +7746,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>2</v>
       </c>
@@ -7760,7 +7760,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>0</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>58</v>
       </c>
@@ -7788,7 +7788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>652</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>75</v>
       </c>
@@ -7822,7 +7822,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>0</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>58</v>
       </c>
@@ -7850,7 +7850,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>248</v>
       </c>
@@ -7884,17 +7884,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
@@ -7950,7 +7950,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -7958,7 +7958,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>363</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -8006,7 +8006,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -8020,7 +8020,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>58</v>
       </c>
@@ -8034,7 +8034,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -8054,7 +8054,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>33</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>125</v>
       </c>
@@ -8088,7 +8088,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>810</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -8136,7 +8136,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>768</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>452</v>
       </c>
@@ -8190,7 +8190,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>33</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -8238,7 +8238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -8266,7 +8266,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>247</v>
       </c>
@@ -8286,7 +8286,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>98</v>
       </c>
@@ -8306,7 +8306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -8320,7 +8320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -8334,7 +8334,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -8362,7 +8362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>667</v>
       </c>
@@ -8399,17 +8399,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>493</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
@@ -8465,10 +8465,10 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>762</v>
       </c>
@@ -8508,7 +8508,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -8522,7 +8522,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>0</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>58</v>
       </c>
@@ -8564,7 +8564,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>248</v>
       </c>
@@ -8581,7 +8581,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>672</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>845</v>
       </c>
@@ -8612,7 +8612,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -8626,7 +8626,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -8640,7 +8640,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -8654,7 +8654,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>0</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>58</v>
       </c>
@@ -8682,7 +8682,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>779</v>
       </c>
@@ -8702,7 +8702,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>154</v>
       </c>
@@ -8736,7 +8736,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -8750,7 +8750,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -8764,7 +8764,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>243</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>248</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>142</v>
       </c>
@@ -8812,7 +8812,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>506</v>
       </c>
@@ -8832,7 +8832,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>292</v>
       </c>
@@ -8852,7 +8852,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -8866,7 +8866,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>58</v>
       </c>
@@ -8908,7 +8908,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>844</v>
       </c>
@@ -8928,7 +8928,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -8942,7 +8942,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -8956,7 +8956,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -8970,7 +8970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>0</v>
       </c>
@@ -8984,7 +8984,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>58</v>
       </c>
@@ -8998,7 +8998,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -9018,7 +9018,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>33</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -9046,7 +9046,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>363</v>
       </c>
@@ -9066,7 +9066,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -9094,7 +9094,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -9108,7 +9108,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>58</v>
       </c>
@@ -9122,7 +9122,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>477</v>
       </c>
@@ -9142,7 +9142,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -9156,7 +9156,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>48</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>810</v>
       </c>
@@ -9196,7 +9196,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -9210,7 +9210,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>768</v>
       </c>
@@ -9230,7 +9230,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -9244,7 +9244,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -9258,7 +9258,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>0</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>452</v>
       </c>
@@ -9292,7 +9292,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>3</v>
       </c>
@@ -9306,7 +9306,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>2</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>54</v>
       </c>
@@ -9340,7 +9340,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>33</v>
       </c>
@@ -9354,7 +9354,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>4</v>
       </c>
@@ -9368,7 +9368,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>247</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>3</v>
       </c>
@@ -9402,7 +9402,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>244</v>
       </c>
@@ -9442,7 +9442,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>75</v>
       </c>
@@ -9456,7 +9456,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>75</v>
       </c>
@@ -9487,17 +9487,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
@@ -9553,11 +9553,11 @@
         <v>538</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>493</v>
       </c>
@@ -9577,7 +9577,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -9591,7 +9591,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -9605,7 +9605,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -9619,7 +9619,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>58</v>
       </c>
@@ -9633,7 +9633,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -9653,7 +9653,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>33</v>
       </c>
@@ -9667,7 +9667,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -9681,7 +9681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -9695,7 +9695,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -9709,7 +9709,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -9723,7 +9723,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>58</v>
       </c>
@@ -9737,7 +9737,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>762</v>
       </c>
@@ -9757,7 +9757,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -9771,7 +9771,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>245</v>
       </c>
@@ -9791,7 +9791,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -9819,7 +9819,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>58</v>
       </c>
@@ -9847,7 +9847,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>779</v>
       </c>
@@ -9867,7 +9867,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>154</v>
       </c>
@@ -9887,7 +9887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -9901,7 +9901,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -9915,7 +9915,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>506</v>
       </c>
@@ -9949,7 +9949,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -9963,7 +9963,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>58</v>
       </c>
@@ -9991,7 +9991,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>844</v>
       </c>
@@ -10011,7 +10011,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -10025,7 +10025,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>3</v>
       </c>
@@ -10039,7 +10039,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>2</v>
       </c>
@@ -10053,7 +10053,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -10073,7 +10073,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -10087,7 +10087,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -10107,7 +10107,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>33</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -10135,7 +10135,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -10149,7 +10149,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>768</v>
       </c>
@@ -10169,7 +10169,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -10189,7 +10189,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>33</v>
       </c>
@@ -10203,7 +10203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>247</v>
       </c>
@@ -10223,7 +10223,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -10237,7 +10237,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -10251,7 +10251,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -10265,7 +10265,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>98</v>
       </c>
@@ -10285,7 +10285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -10299,7 +10299,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>2</v>
       </c>
@@ -10313,7 +10313,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>244</v>
       </c>
@@ -10333,7 +10333,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>75</v>
       </c>
@@ -10347,7 +10347,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>75</v>
       </c>
@@ -10378,17 +10378,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -10408,7 +10408,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -10428,7 +10428,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
@@ -10444,7 +10444,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
@@ -10460,7 +10460,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
@@ -10476,7 +10476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -10484,7 +10484,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -10504,7 +10504,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>33</v>
       </c>
@@ -10518,7 +10518,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -10532,7 +10532,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -10546,7 +10546,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -10560,7 +10560,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>762</v>
       </c>
@@ -10580,7 +10580,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -10594,7 +10594,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>845</v>
       </c>
@@ -10614,7 +10614,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -10628,7 +10628,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -10642,7 +10642,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -10656,7 +10656,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>58</v>
       </c>
@@ -10670,7 +10670,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>768</v>
       </c>
@@ -10690,7 +10690,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -10710,7 +10710,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>33</v>
       </c>
@@ -10724,7 +10724,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -10738,7 +10738,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -10752,7 +10752,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -10772,7 +10772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>33</v>
       </c>
@@ -10786,7 +10786,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -10800,7 +10800,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -10814,7 +10814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -10828,7 +10828,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>0</v>
       </c>
@@ -10859,17 +10859,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -10889,7 +10889,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>242</v>
       </c>
@@ -10909,7 +10909,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -10923,7 +10923,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -10943,7 +10943,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>33</v>
       </c>
@@ -10957,7 +10957,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>535</v>
       </c>
@@ -10977,7 +10977,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -10991,7 +10991,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>0</v>
       </c>
@@ -11005,7 +11005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>58</v>
       </c>
@@ -11019,7 +11019,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>245</v>
       </c>
@@ -11039,7 +11039,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>154</v>
       </c>
@@ -11059,7 +11059,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -11073,7 +11073,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -11087,7 +11087,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>794</v>
       </c>
@@ -11107,7 +11107,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -11121,7 +11121,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>506</v>
       </c>
@@ -11141,7 +11141,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -11155,7 +11155,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -11169,7 +11169,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>844</v>
       </c>
@@ -11189,7 +11189,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -11203,7 +11203,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -11217,7 +11217,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -11231,7 +11231,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -11251,7 +11251,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -11265,7 +11265,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -11285,7 +11285,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>33</v>
       </c>
@@ -11299,7 +11299,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>750</v>
       </c>
@@ -11319,7 +11319,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -11333,7 +11333,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -11347,7 +11347,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -11361,7 +11361,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -11381,7 +11381,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>246</v>
       </c>
@@ -11401,7 +11401,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -11415,7 +11415,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>810</v>
       </c>
@@ -11435,7 +11435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>4</v>
       </c>
@@ -11449,7 +11449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>768</v>
       </c>
@@ -11469,7 +11469,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -11483,7 +11483,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -11497,7 +11497,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -11511,7 +11511,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -11531,7 +11531,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>33</v>
       </c>
@@ -11545,7 +11545,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>4</v>
       </c>
@@ -11559,7 +11559,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>774</v>
       </c>
@@ -11579,7 +11579,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -11593,7 +11593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -11607,7 +11607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>779</v>
       </c>
@@ -11627,7 +11627,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>4</v>
       </c>
@@ -11659,17 +11659,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -11689,7 +11689,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>780</v>
       </c>
@@ -11709,7 +11709,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>493</v>
       </c>
@@ -11729,7 +11729,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -11743,7 +11743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -11763,7 +11763,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>762</v>
       </c>
@@ -11783,7 +11783,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -11797,7 +11797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>245</v>
       </c>
@@ -11817,7 +11817,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>3</v>
       </c>
@@ -11831,7 +11831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -11845,7 +11845,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>535</v>
       </c>
@@ -11865,7 +11865,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -11879,7 +11879,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>779</v>
       </c>
@@ -11899,7 +11899,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -11913,7 +11913,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>154</v>
       </c>
@@ -11933,7 +11933,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -11947,7 +11947,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -11961,7 +11961,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -11975,7 +11975,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>794</v>
       </c>
@@ -11995,7 +11995,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>506</v>
       </c>
@@ -12015,7 +12015,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>844</v>
       </c>
@@ -12035,7 +12035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -12055,7 +12055,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>33</v>
       </c>
@@ -12069,7 +12069,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>363</v>
       </c>
@@ -12089,7 +12089,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>477</v>
       </c>
@@ -12109,7 +12109,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -12123,7 +12123,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>2</v>
       </c>
@@ -12137,7 +12137,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>0</v>
       </c>
@@ -12151,7 +12151,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>58</v>
       </c>
@@ -12165,7 +12165,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -12185,7 +12185,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>33</v>
       </c>
@@ -12199,7 +12199,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -12213,7 +12213,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>810</v>
       </c>
@@ -12233,7 +12233,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>768</v>
       </c>
@@ -12253,7 +12253,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -12267,7 +12267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -12281,7 +12281,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -12295,7 +12295,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>0</v>
       </c>
@@ -12309,7 +12309,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>58</v>
       </c>
@@ -12323,7 +12323,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -12343,7 +12343,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>33</v>
       </c>
@@ -12357,7 +12357,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>4</v>
       </c>
@@ -12371,7 +12371,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>3</v>
       </c>
@@ -12385,7 +12385,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>774</v>
       </c>
@@ -12405,7 +12405,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -12419,7 +12419,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -12433,7 +12433,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>824</v>
       </c>
@@ -12453,7 +12453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>4</v>
       </c>
@@ -12480,21 +12480,21 @@
   </sheetPr>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -12514,7 +12514,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>827</v>
       </c>
@@ -12534,7 +12534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="C3" t="s">
         <v>3</v>
@@ -12549,7 +12549,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="C4" t="s">
         <v>2</v>
@@ -12564,7 +12564,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>31</v>
       </c>
@@ -12584,7 +12584,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="C7" t="s">
         <v>33</v>
@@ -12599,7 +12599,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>831</v>
       </c>
@@ -12619,7 +12619,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -12633,7 +12633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>245</v>
       </c>
@@ -12653,7 +12653,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -12667,7 +12667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -12681,7 +12681,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>779</v>
       </c>
@@ -12701,7 +12701,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -12715,7 +12715,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -12729,7 +12729,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -12743,7 +12743,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>154</v>
       </c>
@@ -12763,7 +12763,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -12777,7 +12777,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -12791,7 +12791,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -12805,7 +12805,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -12819,7 +12819,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>58</v>
       </c>
@@ -12833,7 +12833,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>844</v>
       </c>
@@ -12853,7 +12853,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -12873,7 +12873,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>848</v>
       </c>
@@ -12893,7 +12893,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -12907,7 +12907,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -12921,7 +12921,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -12935,7 +12935,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>58</v>
       </c>
@@ -12949,7 +12949,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -12969,7 +12969,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>33</v>
       </c>
@@ -12983,7 +12983,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -12997,7 +12997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -13011,7 +13011,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>810</v>
       </c>
@@ -13031,7 +13031,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -13045,7 +13045,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>768</v>
       </c>
@@ -13065,7 +13065,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>4</v>
       </c>
@@ -13079,7 +13079,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -13099,7 +13099,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>33</v>
       </c>
@@ -13113,7 +13113,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>858</v>
       </c>
@@ -13133,7 +13133,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -13147,7 +13147,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -13161,7 +13161,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>98</v>
       </c>
@@ -13181,7 +13181,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>4</v>
       </c>
@@ -13212,17 +13212,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>234</v>
       </c>
@@ -13242,7 +13242,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2006</v>
       </c>
@@ -13264,7 +13264,7 @@
       </c>
       <c r="T2" s="8"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2007</v>
       </c>
@@ -13286,7 +13286,7 @@
       </c>
       <c r="T3" s="8"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2008</v>
       </c>
@@ -13308,7 +13308,7 @@
       </c>
       <c r="T4" s="8"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2009</v>
       </c>
@@ -13330,7 +13330,7 @@
       </c>
       <c r="T5" s="8"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2010</v>
       </c>
@@ -13351,7 +13351,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2011</v>
       </c>
@@ -13372,7 +13372,7 @@
         <v>0.78333333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2012</v>
       </c>
@@ -13393,7 +13393,7 @@
         <v>0.63043478260869568</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2013</v>
       </c>
@@ -13414,7 +13414,7 @@
         <v>0.5490196078431373</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2014</v>
       </c>
@@ -13435,7 +13435,7 @@
         <v>0.62790697674418605</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2015</v>
       </c>
@@ -13456,7 +13456,7 @@
         <v>0.55263157894736847</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2016</v>
       </c>
@@ -13477,7 +13477,7 @@
         <v>0.54347826086956519</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2017</v>
       </c>
@@ -13498,7 +13498,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2018</v>
       </c>
@@ -13519,7 +13519,7 @@
         <v>0.63829787234042556</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2019</v>
       </c>
@@ -13540,7 +13540,7 @@
         <v>0.60526315789473684</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2020</v>
       </c>
@@ -13561,7 +13561,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2021</v>
       </c>
@@ -13582,7 +13582,7 @@
         <v>0.44827586206896552</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2022</v>
       </c>
@@ -13603,7 +13603,7 @@
         <v>0.29629629629629628</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2023</v>
       </c>
@@ -13624,7 +13624,7 @@
         <v>0.5357142857142857</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>81</v>
       </c>
@@ -13649,7 +13649,7 @@
         <v>0.55007949125596189</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>766</v>
       </c>
@@ -13707,17 +13707,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -13737,7 +13737,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>277</v>
       </c>
@@ -13757,7 +13757,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -13771,7 +13771,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -13785,7 +13785,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -13799,7 +13799,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>58</v>
       </c>
@@ -13813,7 +13813,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>283</v>
       </c>
@@ -13833,7 +13833,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>8</v>
       </c>
@@ -13847,7 +13847,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -13861,7 +13861,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -13875,7 +13875,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -13889,7 +13889,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -13903,7 +13903,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>58</v>
       </c>
@@ -13917,7 +13917,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>290</v>
       </c>
@@ -13937,7 +13937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>292</v>
       </c>
@@ -13957,7 +13957,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>8</v>
       </c>
@@ -13971,7 +13971,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>296</v>
       </c>
@@ -13991,7 +13991,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -14005,7 +14005,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -14019,7 +14019,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>301</v>
       </c>
@@ -14039,7 +14039,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>8</v>
       </c>
@@ -14053,7 +14053,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>7</v>
       </c>
@@ -14067,7 +14067,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -14081,7 +14081,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -14095,7 +14095,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -14109,7 +14109,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -14123,7 +14123,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>58</v>
       </c>
@@ -14137,7 +14137,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>311</v>
       </c>
@@ -14157,7 +14157,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -14177,7 +14177,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>8</v>
       </c>
@@ -14191,7 +14191,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>316</v>
       </c>
@@ -14211,7 +14211,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -14225,7 +14225,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>318</v>
       </c>
@@ -14245,7 +14245,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>321</v>
       </c>
@@ -14265,7 +14265,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -14279,7 +14279,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -14293,7 +14293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>0</v>
       </c>
@@ -14307,7 +14307,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>58</v>
       </c>
@@ -14321,7 +14321,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>327</v>
       </c>
@@ -14341,7 +14341,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>330</v>
       </c>
@@ -14361,7 +14361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>332</v>
       </c>
@@ -14381,7 +14381,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -14395,7 +14395,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -14409,7 +14409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -14423,7 +14423,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>58</v>
       </c>
@@ -14437,7 +14437,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>269</v>
       </c>
@@ -14457,7 +14457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -14471,7 +14471,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -14485,7 +14485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>0</v>
       </c>
@@ -14499,7 +14499,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>58</v>
       </c>
@@ -14530,17 +14530,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -14560,7 +14560,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -14580,7 +14580,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>131</v>
       </c>
@@ -14600,7 +14600,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>8</v>
       </c>
@@ -14614,7 +14614,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>7</v>
       </c>
@@ -14628,7 +14628,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -14642,7 +14642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -14656,7 +14656,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>341</v>
       </c>
@@ -14676,7 +14676,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>344</v>
       </c>
@@ -14696,7 +14696,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>8</v>
       </c>
@@ -14710,7 +14710,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>7</v>
       </c>
@@ -14724,7 +14724,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -14738,7 +14738,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -14752,7 +14752,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>154</v>
       </c>
@@ -14772,7 +14772,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>8</v>
       </c>
@@ -14786,7 +14786,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>32</v>
       </c>
@@ -14800,7 +14800,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>351</v>
       </c>
@@ -14820,7 +14820,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>354</v>
       </c>
@@ -14840,7 +14840,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -14854,7 +14854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -14868,7 +14868,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>0</v>
       </c>
@@ -14882,7 +14882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>58</v>
       </c>
@@ -14896,7 +14896,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>248</v>
       </c>
@@ -14913,7 +14913,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>357</v>
       </c>
@@ -14924,7 +14924,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>292</v>
       </c>
@@ -14944,7 +14944,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>358</v>
       </c>
@@ -14964,7 +14964,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -14978,7 +14978,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -14998,7 +14998,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>33</v>
       </c>
@@ -15012,7 +15012,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -15026,7 +15026,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -15040,7 +15040,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>363</v>
       </c>
@@ -15060,7 +15060,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -15080,7 +15080,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>368</v>
       </c>
@@ -15100,7 +15100,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -15114,7 +15114,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -15128,7 +15128,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>370</v>
       </c>
@@ -15148,7 +15148,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -15162,7 +15162,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>810</v>
       </c>
@@ -15182,7 +15182,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -15196,7 +15196,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -15216,7 +15216,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>377</v>
       </c>
@@ -15236,7 +15236,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>3</v>
       </c>
@@ -15250,7 +15250,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>2</v>
       </c>
@@ -15264,7 +15264,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>379</v>
       </c>
@@ -15284,7 +15284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>380</v>
       </c>
@@ -15304,7 +15304,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>8</v>
       </c>
@@ -15318,7 +15318,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>7</v>
       </c>
@@ -15332,7 +15332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>4</v>
       </c>
@@ -15346,7 +15346,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -15360,7 +15360,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -15374,7 +15374,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>386</v>
       </c>
@@ -15394,7 +15394,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>8</v>
       </c>
@@ -15408,7 +15408,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>7</v>
       </c>
@@ -15422,7 +15422,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>4</v>
       </c>
@@ -15436,7 +15436,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -15450,7 +15450,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>392</v>
       </c>
@@ -15470,7 +15470,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>3</v>
       </c>
@@ -15484,7 +15484,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>2</v>
       </c>
@@ -15516,17 +15516,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -15546,7 +15546,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -15566,7 +15566,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>395</v>
       </c>
@@ -15586,7 +15586,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -15600,7 +15600,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -15614,7 +15614,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -15628,7 +15628,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>58</v>
       </c>
@@ -15642,7 +15642,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -15662,7 +15662,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>248</v>
       </c>
@@ -15679,7 +15679,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>138</v>
       </c>
@@ -15690,7 +15690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>131</v>
       </c>
@@ -15710,7 +15710,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>245</v>
       </c>
@@ -15730,7 +15730,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>779</v>
       </c>
@@ -15750,7 +15750,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>33</v>
       </c>
@@ -15764,7 +15764,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -15778,7 +15778,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>154</v>
       </c>
@@ -15798,7 +15798,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>401</v>
       </c>
@@ -15818,7 +15818,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>248</v>
       </c>
@@ -15835,7 +15835,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>403</v>
       </c>
@@ -15846,7 +15846,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>405</v>
       </c>
@@ -15866,7 +15866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>844</v>
       </c>
@@ -15886,7 +15886,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -15900,7 +15900,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -15920,7 +15920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>409</v>
       </c>
@@ -15940,7 +15940,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -15954,7 +15954,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>292</v>
       </c>
@@ -15974,7 +15974,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -15988,7 +15988,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>412</v>
       </c>
@@ -16008,7 +16008,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -16022,7 +16022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>768</v>
       </c>
@@ -16042,7 +16042,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>810</v>
       </c>
@@ -16062,7 +16062,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>8</v>
       </c>
@@ -16076,7 +16076,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>416</v>
       </c>
@@ -16096,7 +16096,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -16116,7 +16116,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>33</v>
       </c>
@@ -16130,7 +16130,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -16144,7 +16144,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -16158,7 +16158,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>423</v>
       </c>
@@ -16178,7 +16178,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -16192,7 +16192,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -16206,7 +16206,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>386</v>
       </c>
@@ -16226,7 +16226,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -16240,7 +16240,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -16254,7 +16254,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>0</v>
       </c>
@@ -16268,7 +16268,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>58</v>
       </c>
@@ -16282,7 +16282,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>428</v>
       </c>
@@ -16320,17 +16320,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -16350,7 +16350,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>395</v>
       </c>
@@ -16370,7 +16370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>8</v>
       </c>
@@ -16384,7 +16384,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -16398,7 +16398,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -16418,7 +16418,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>33</v>
       </c>
@@ -16432,7 +16432,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>248</v>
       </c>
@@ -16449,7 +16449,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>205</v>
       </c>
@@ -16460,7 +16460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>433</v>
       </c>
@@ -16480,7 +16480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>3</v>
       </c>
@@ -16494,7 +16494,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -16508,7 +16508,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>0</v>
       </c>
@@ -16522,7 +16522,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>779</v>
       </c>
@@ -16542,7 +16542,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>33</v>
       </c>
@@ -16556,7 +16556,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>154</v>
       </c>
@@ -16576,7 +16576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>33</v>
       </c>
@@ -16590,7 +16590,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>401</v>
       </c>
@@ -16610,7 +16610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>248</v>
       </c>
@@ -16627,7 +16627,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -16647,7 +16647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -16661,7 +16661,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>844</v>
       </c>
@@ -16681,7 +16681,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>8</v>
       </c>
@@ -16695,7 +16695,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>33</v>
       </c>
@@ -16709,7 +16709,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -16729,7 +16729,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>441</v>
       </c>
@@ -16749,7 +16749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -16769,7 +16769,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>33</v>
       </c>
@@ -16783,7 +16783,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -16797,7 +16797,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -16811,7 +16811,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -16825,7 +16825,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>0</v>
       </c>
@@ -16839,7 +16839,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>412</v>
       </c>
@@ -16859,7 +16859,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>445</v>
       </c>
@@ -16879,7 +16879,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>448</v>
       </c>
@@ -16899,7 +16899,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>810</v>
       </c>
@@ -16919,7 +16919,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>452</v>
       </c>
@@ -16939,7 +16939,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -16959,7 +16959,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>33</v>
       </c>
@@ -16973,7 +16973,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>4</v>
       </c>
@@ -16987,7 +16987,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>453</v>
       </c>
@@ -17007,7 +17007,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>98</v>
       </c>
@@ -17027,7 +17027,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -17041,7 +17041,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -17055,7 +17055,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>386</v>
       </c>
@@ -17075,7 +17075,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -17089,7 +17089,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>379</v>
       </c>
@@ -17109,7 +17109,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>330</v>
       </c>
@@ -17129,7 +17129,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>3</v>
       </c>
@@ -17143,7 +17143,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>2</v>
       </c>
@@ -17157,7 +17157,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>0</v>
       </c>
@@ -17189,17 +17189,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -17219,7 +17219,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -17239,7 +17239,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -17253,7 +17253,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -17267,7 +17267,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -17281,7 +17281,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>58</v>
       </c>
@@ -17295,7 +17295,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -17315,7 +17315,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -17329,7 +17329,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -17343,7 +17343,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -17357,7 +17357,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -17371,7 +17371,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>248</v>
       </c>
@@ -17388,7 +17388,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>144</v>
       </c>
@@ -17399,7 +17399,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>131</v>
       </c>
@@ -17419,7 +17419,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -17433,7 +17433,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -17447,7 +17447,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>0</v>
       </c>
@@ -17461,7 +17461,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>58</v>
       </c>
@@ -17475,7 +17475,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>245</v>
       </c>
@@ -17495,7 +17495,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>779</v>
       </c>
@@ -17515,7 +17515,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>468</v>
       </c>
@@ -17535,7 +17535,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>154</v>
       </c>
@@ -17555,7 +17555,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -17569,7 +17569,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>248</v>
       </c>
@@ -17586,7 +17586,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>185</v>
       </c>
@@ -17597,7 +17597,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>844</v>
       </c>
@@ -17617,7 +17617,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -17631,7 +17631,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -17645,7 +17645,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -17659,7 +17659,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>0</v>
       </c>
@@ -17673,7 +17673,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>58</v>
       </c>
@@ -17687,7 +17687,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>474</v>
       </c>
@@ -17707,7 +17707,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -17721,7 +17721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>2</v>
       </c>
@@ -17735,7 +17735,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>0</v>
       </c>
@@ -17749,7 +17749,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>58</v>
       </c>
@@ -17763,7 +17763,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -17783,7 +17783,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>33</v>
       </c>
@@ -17797,7 +17797,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -17811,7 +17811,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -17825,7 +17825,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>477</v>
       </c>
@@ -17845,7 +17845,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -17859,7 +17859,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -17873,7 +17873,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>0</v>
       </c>
@@ -17887,7 +17887,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>58</v>
       </c>
@@ -17901,7 +17901,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>48</v>
       </c>
@@ -17921,7 +17921,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>33</v>
       </c>
@@ -17935,7 +17935,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>4</v>
       </c>
@@ -17949,7 +17949,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>3</v>
       </c>
@@ -17963,7 +17963,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>2</v>
       </c>
@@ -17977,7 +17977,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>0</v>
       </c>
@@ -17991,7 +17991,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>58</v>
       </c>
@@ -18005,7 +18005,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>810</v>
       </c>
@@ -18025,7 +18025,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -18039,7 +18039,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>768</v>
       </c>
@@ -18059,7 +18059,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>3</v>
       </c>
@@ -18073,7 +18073,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>54</v>
       </c>
@@ -18093,7 +18093,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>453</v>
       </c>
@@ -18113,7 +18113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -18127,7 +18127,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -18141,7 +18141,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -18155,7 +18155,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -18175,7 +18175,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>386</v>
       </c>
@@ -18195,7 +18195,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>3</v>
       </c>
@@ -18209,7 +18209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>2</v>
       </c>
@@ -18223,7 +18223,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>0</v>
       </c>
@@ -18237,7 +18237,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>58</v>
       </c>
@@ -18251,7 +18251,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>244</v>
       </c>
@@ -18271,7 +18271,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>75</v>
       </c>
@@ -18285,7 +18285,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>75</v>
       </c>
@@ -18299,7 +18299,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>0</v>
       </c>
@@ -18313,7 +18313,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>58</v>
       </c>
@@ -18327,7 +18327,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>248</v>
       </c>
@@ -18344,7 +18344,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
         <v>94</v>
       </c>
@@ -18372,17 +18372,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -18402,7 +18402,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>493</v>
       </c>
@@ -18422,7 +18422,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -18436,7 +18436,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -18450,7 +18450,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -18470,7 +18470,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>33</v>
       </c>
@@ -18484,7 +18484,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -18498,7 +18498,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -18512,7 +18512,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -18526,7 +18526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -18540,7 +18540,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>248</v>
       </c>
@@ -18557,7 +18557,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>147</v>
       </c>
@@ -18568,7 +18568,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>779</v>
       </c>
@@ -18588,7 +18588,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -18602,7 +18602,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>154</v>
       </c>
@@ -18622,7 +18622,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>248</v>
       </c>
@@ -18639,7 +18639,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>82</v>
       </c>
@@ -18650,7 +18650,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>506</v>
       </c>
@@ -18670,7 +18670,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -18684,7 +18684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -18698,7 +18698,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>844</v>
       </c>
@@ -18718,7 +18718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -18732,7 +18732,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -18752,7 +18752,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -18766,7 +18766,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -18780,7 +18780,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -18800,7 +18800,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>33</v>
       </c>
@@ -18814,7 +18814,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>4</v>
       </c>
@@ -18828,7 +18828,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -18842,7 +18842,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -18856,7 +18856,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -18870,7 +18870,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>477</v>
       </c>
@@ -18890,7 +18890,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -18910,7 +18910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>33</v>
       </c>
@@ -18924,7 +18924,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -18938,7 +18938,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -18952,7 +18952,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>2</v>
       </c>
@@ -18966,7 +18966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>246</v>
       </c>
@@ -18986,7 +18986,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -19000,7 +19000,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -19014,7 +19014,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -19028,7 +19028,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>810</v>
       </c>
@@ -19048,7 +19048,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -19062,7 +19062,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -19076,7 +19076,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>0</v>
       </c>
@@ -19090,7 +19090,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>58</v>
       </c>
@@ -19104,7 +19104,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>768</v>
       </c>
@@ -19124,7 +19124,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>3</v>
       </c>
@@ -19138,7 +19138,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>2</v>
       </c>
@@ -19152,7 +19152,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>0</v>
       </c>
@@ -19166,7 +19166,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>452</v>
       </c>
@@ -19186,7 +19186,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>2</v>
       </c>
@@ -19200,7 +19200,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>0</v>
       </c>
@@ -19214,7 +19214,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>58</v>
       </c>
@@ -19228,7 +19228,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>54</v>
       </c>
@@ -19248,7 +19248,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>33</v>
       </c>
@@ -19262,7 +19262,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>4</v>
       </c>
@@ -19276,7 +19276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>3</v>
       </c>
@@ -19290,7 +19290,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>453</v>
       </c>
@@ -19310,7 +19310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>98</v>
       </c>
@@ -19330,7 +19330,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>4</v>
       </c>
@@ -19344,7 +19344,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>244</v>
       </c>
@@ -19364,7 +19364,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>248</v>
       </c>
@@ -19381,7 +19381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
         <v>97</v>
       </c>
@@ -19410,17 +19410,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -19440,7 +19440,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -19460,7 +19460,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -19474,7 +19474,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>493</v>
       </c>
@@ -19494,7 +19494,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -19514,7 +19514,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>33</v>
       </c>
@@ -19528,7 +19528,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>131</v>
       </c>
@@ -19548,7 +19548,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -19562,7 +19562,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>248</v>
       </c>
@@ -19579,7 +19579,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>532</v>
       </c>
@@ -19590,7 +19590,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>845</v>
       </c>
@@ -19610,7 +19610,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -19624,7 +19624,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -19638,7 +19638,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>245</v>
       </c>
@@ -19658,7 +19658,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -19672,7 +19672,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -19686,7 +19686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -19700,7 +19700,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>58</v>
       </c>
@@ -19714,7 +19714,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>779</v>
       </c>
@@ -19734,7 +19734,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -19748,7 +19748,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -19762,7 +19762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -19776,7 +19776,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>154</v>
       </c>
@@ -19796,7 +19796,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -19810,7 +19810,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>545</v>
       </c>
@@ -19830,7 +19830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -19844,7 +19844,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -19858,7 +19858,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -19872,7 +19872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>58</v>
       </c>
@@ -19886,7 +19886,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>248</v>
       </c>
@@ -19903,7 +19903,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>157</v>
       </c>
@@ -19914,7 +19914,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>506</v>
       </c>
@@ -19934,7 +19934,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -19948,7 +19948,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -19962,7 +19962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>844</v>
       </c>
@@ -19982,7 +19982,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>4</v>
       </c>
@@ -19996,7 +19996,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>38</v>
       </c>
@@ -20016,7 +20016,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -20030,7 +20030,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>44</v>
       </c>
@@ -20050,7 +20050,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>33</v>
       </c>
@@ -20064,7 +20064,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -20078,7 +20078,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>477</v>
       </c>
@@ -20098,7 +20098,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -20112,7 +20112,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>48</v>
       </c>
@@ -20132,7 +20132,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>33</v>
       </c>
@@ -20146,7 +20146,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -20160,7 +20160,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -20174,7 +20174,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -20188,7 +20188,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>563</v>
       </c>
@@ -20208,7 +20208,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>2</v>
       </c>
@@ -20222,7 +20222,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>763</v>
       </c>
@@ -20242,7 +20242,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>3</v>
       </c>
@@ -20256,7 +20256,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>2</v>
       </c>
@@ -20270,7 +20270,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>768</v>
       </c>
@@ -20290,7 +20290,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>3</v>
       </c>
@@ -20304,7 +20304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>452</v>
       </c>
@@ -20324,7 +20324,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>3</v>
       </c>
@@ -20338,7 +20338,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>2</v>
       </c>
@@ -20352,7 +20352,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>0</v>
       </c>
@@ -20366,7 +20366,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>58</v>
       </c>
@@ -20380,7 +20380,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>54</v>
       </c>
@@ -20400,7 +20400,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>33</v>
       </c>
@@ -20414,7 +20414,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>4</v>
       </c>
@@ -20428,7 +20428,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>453</v>
       </c>
@@ -20448,7 +20448,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>3</v>
       </c>
@@ -20462,7 +20462,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>2</v>
       </c>
@@ -20476,7 +20476,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>0</v>
       </c>
@@ -20490,7 +20490,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>58</v>
       </c>
@@ -20504,7 +20504,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -20524,7 +20524,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>3</v>
       </c>
@@ -20538,7 +20538,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>2</v>
       </c>
@@ -20552,7 +20552,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>0</v>
       </c>
@@ -20566,7 +20566,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>244</v>
       </c>
@@ -20586,7 +20586,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>75</v>
       </c>
@@ -20600,7 +20600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>75</v>
       </c>
@@ -20614,7 +20614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>0</v>
       </c>
@@ -20646,17 +20646,17 @@
       <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -20676,7 +20676,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>493</v>
       </c>
@@ -20696,7 +20696,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -20710,7 +20710,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -20724,7 +20724,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -20744,7 +20744,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>845</v>
       </c>
@@ -20764,7 +20764,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -20778,7 +20778,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -20792,7 +20792,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>245</v>
       </c>
@@ -20812,7 +20812,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>779</v>
       </c>
@@ -20832,7 +20832,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -20846,7 +20846,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -20860,7 +20860,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>154</v>
       </c>
@@ -20880,7 +20880,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -20894,7 +20894,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -20908,7 +20908,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -20922,7 +20922,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>248</v>
       </c>
@@ -20939,7 +20939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>588</v>
       </c>
@@ -20950,7 +20950,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>506</v>
       </c>
@@ -20970,7 +20970,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>844</v>
       </c>
@@ -20990,7 +20990,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -21004,7 +21004,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -21018,7 +21018,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -21032,7 +21032,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>0</v>
       </c>
@@ -21046,7 +21046,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -21066,7 +21066,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -21086,7 +21086,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>33</v>
       </c>
@@ -21100,7 +21100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>4</v>
       </c>
@@ -21114,7 +21114,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>477</v>
       </c>
@@ -21134,7 +21134,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -21148,7 +21148,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -21162,7 +21162,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -21182,7 +21182,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>33</v>
       </c>
@@ -21196,7 +21196,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -21210,7 +21210,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -21224,7 +21224,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>2</v>
       </c>
@@ -21238,7 +21238,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>0</v>
       </c>
@@ -21252,7 +21252,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>58</v>
       </c>
@@ -21266,7 +21266,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>810</v>
       </c>
@@ -21286,7 +21286,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -21300,7 +21300,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>768</v>
       </c>
@@ -21320,7 +21320,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>452</v>
       </c>
@@ -21340,7 +21340,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>2</v>
       </c>
@@ -21354,7 +21354,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -21368,7 +21368,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>58</v>
       </c>
@@ -21382,7 +21382,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>54</v>
       </c>
@@ -21402,7 +21402,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>33</v>
       </c>
@@ -21416,7 +21416,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>4</v>
       </c>
@@ -21430,7 +21430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>247</v>
       </c>
@@ -21450,7 +21450,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -21464,7 +21464,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -21478,7 +21478,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>0</v>
       </c>
@@ -21492,7 +21492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>58</v>
       </c>
@@ -21506,7 +21506,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>98</v>
       </c>
@@ -21526,7 +21526,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -21540,7 +21540,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -21554,7 +21554,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -21568,7 +21568,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>58</v>
       </c>
@@ -21582,7 +21582,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>244</v>
       </c>
@@ -21602,7 +21602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>75</v>
       </c>
@@ -21616,7 +21616,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>75</v>
       </c>
@@ -21630,7 +21630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>248</v>
       </c>
@@ -21647,7 +21647,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
         <v>205</v>
       </c>

--- a/Tennis/WTA Tour/Petra Kvitová.xlsx
+++ b/Tennis/WTA Tour/Petra Kvitová.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6430" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05449672-6AB4-469A-BEDB-39415CFC8FB9}"/>
+  <xr:revisionPtr revIDLastSave="6433" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71EDE465-62F7-47DC-96CC-5CCE0E37604D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="8" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15345" firstSheet="8" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2006" sheetId="12" r:id="rId1"/>
@@ -1657,9 +1657,6 @@
     <t>7-6(2) 6-3</t>
   </si>
   <si>
-    <t>QATAR TOTAL OPEN</t>
-  </si>
-  <si>
     <t>6-4 RETIRED</t>
   </si>
   <si>
@@ -2639,6 +2636,9 @@
   </si>
   <si>
     <t>Liudmila Samsonova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>DUBAI OPEN</t>
   </si>
 </sst>
 </file>
@@ -5504,7 +5504,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5833,7 +5833,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5868,7 +5868,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -5877,7 +5877,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
@@ -5891,7 +5891,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
@@ -5905,7 +5905,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
@@ -5959,7 +5959,7 @@
         <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -5987,7 +5987,7 @@
         <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -6001,7 +6001,7 @@
         <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>24</v>
@@ -6029,7 +6029,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>23</v>
@@ -6074,7 +6074,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>534</v>
+        <v>827</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -6089,7 +6089,7 @@
         <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -6103,7 +6103,7 @@
         <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -6156,7 +6156,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B27" t="s">
         <v>39</v>
@@ -6165,13 +6165,13 @@
         <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F27" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -6179,13 +6179,13 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F28" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -6207,7 +6207,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>24</v>
@@ -6255,13 +6255,13 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F34" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -6323,7 +6323,7 @@
         <v>24</v>
       </c>
       <c r="F39" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -6331,7 +6331,7 @@
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>24</v>
@@ -6351,7 +6351,7 @@
         <v>23</v>
       </c>
       <c r="F41" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -6379,7 +6379,7 @@
         <v>33</v>
       </c>
       <c r="D44" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>24</v>
@@ -6404,7 +6404,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B47" t="s">
         <v>22</v>
@@ -6424,7 +6424,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B49" t="s">
         <v>22</v>
@@ -6439,7 +6439,7 @@
         <v>23</v>
       </c>
       <c r="F49" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -6453,13 +6453,13 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F51" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -6501,7 +6501,7 @@
         <v>24</v>
       </c>
       <c r="F54" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -6515,7 +6515,7 @@
         <v>32</v>
       </c>
       <c r="D56" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>24</v>
@@ -6543,7 +6543,7 @@
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>24</v>
@@ -6577,7 +6577,7 @@
         <v>23</v>
       </c>
       <c r="F60" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -6591,13 +6591,13 @@
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F62" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -6693,7 +6693,7 @@
         <v>24</v>
       </c>
       <c r="F70" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -6729,13 +6729,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F74" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
   </sheetData>
@@ -6752,7 +6752,7 @@
   <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6787,7 +6787,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -6796,13 +6796,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
+        <v>622</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
         <v>623</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6816,7 +6816,7 @@
         <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
@@ -6830,7 +6830,7 @@
         <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>23</v>
@@ -6856,12 +6856,12 @@
         <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -6876,7 +6876,7 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -6890,12 +6890,12 @@
         <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
@@ -6904,13 +6904,13 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
+        <v>626</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
         <v>627</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6924,7 +6924,7 @@
         <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6938,7 +6938,7 @@
         <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -6966,7 +6966,7 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>24</v>
@@ -6980,7 +6980,7 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>23</v>
@@ -7000,7 +7000,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>24</v>
@@ -7014,13 +7014,13 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -7034,7 +7034,7 @@
         <v>24</v>
       </c>
       <c r="F22" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -7053,7 +7053,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B25" t="s">
         <v>39</v>
@@ -7062,7 +7062,7 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>24</v>
@@ -7090,7 +7090,7 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>23</v>
@@ -7130,7 +7130,7 @@
         <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>24</v>
@@ -7144,7 +7144,7 @@
         <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>24</v>
@@ -7164,7 +7164,7 @@
         <v>23</v>
       </c>
       <c r="F33" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -7218,7 +7218,7 @@
         <v>24</v>
       </c>
       <c r="F38" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -7232,7 +7232,7 @@
         <v>23</v>
       </c>
       <c r="F39" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -7260,18 +7260,18 @@
         <v>33</v>
       </c>
       <c r="D42" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F42" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B44" t="s">
         <v>22</v>
@@ -7280,7 +7280,7 @@
         <v>33</v>
       </c>
       <c r="D44" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>24</v>
@@ -7328,13 +7328,13 @@
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F48" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -7342,7 +7342,7 @@
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>24</v>
@@ -7356,7 +7356,7 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>24</v>
@@ -7404,7 +7404,7 @@
         <v>33</v>
       </c>
       <c r="D54" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>24</v>
@@ -7466,13 +7466,13 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F59" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -7520,7 +7520,7 @@
         <v>24</v>
       </c>
       <c r="F63" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -7576,7 +7576,7 @@
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>24</v>
@@ -7604,13 +7604,13 @@
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F70" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -7624,7 +7624,7 @@
         <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>24</v>
@@ -7644,7 +7644,7 @@
         <v>24</v>
       </c>
       <c r="F73" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -7666,7 +7666,7 @@
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>24</v>
@@ -7680,7 +7680,7 @@
         <v>58</v>
       </c>
       <c r="D76" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>23</v>
@@ -7691,7 +7691,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B78" t="s">
         <v>22</v>
@@ -7765,7 +7765,7 @@
         <v>23</v>
       </c>
       <c r="F83" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
   </sheetData>
@@ -7782,7 +7782,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7826,7 +7826,7 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
@@ -7848,7 +7848,7 @@
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -7870,7 +7870,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
@@ -7884,7 +7884,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
@@ -7904,7 +7904,7 @@
         <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7918,7 +7918,7 @@
         <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -7946,7 +7946,7 @@
         <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
@@ -7966,7 +7966,7 @@
         <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -8005,7 +8005,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
@@ -8020,7 +8020,7 @@
         <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -8034,12 +8034,12 @@
         <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
@@ -8048,13 +8048,13 @@
         <v>33</v>
       </c>
       <c r="D20" t="s">
+        <v>658</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" t="s">
         <v>659</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -8082,7 +8082,7 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>23</v>
@@ -8164,7 +8164,7 @@
         <v>23</v>
       </c>
       <c r="F29" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -8184,7 +8184,7 @@
         <v>23</v>
       </c>
       <c r="F31" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -8265,16 +8265,16 @@
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>663</v>
+      </c>
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
         <v>664</v>
-      </c>
-      <c r="B39" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" t="s">
-        <v>665</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>23</v>
@@ -8297,7 +8297,7 @@
   <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8347,7 +8347,7 @@
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -8357,7 +8357,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>23</v>
@@ -8386,12 +8386,12 @@
         <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -8400,7 +8400,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
@@ -8414,7 +8414,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>24</v>
@@ -8448,7 +8448,7 @@
         <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8484,7 +8484,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>24</v>
@@ -8495,7 +8495,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -8504,7 +8504,7 @@
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>24</v>
@@ -8552,7 +8552,7 @@
         <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -8566,7 +8566,7 @@
         <v>24</v>
       </c>
       <c r="F20" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -8585,7 +8585,7 @@
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
@@ -8594,13 +8594,13 @@
         <v>33</v>
       </c>
       <c r="D23" t="s">
+        <v>671</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" t="s">
         <v>672</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -8628,13 +8628,13 @@
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F26" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -8682,7 +8682,7 @@
         <v>23</v>
       </c>
       <c r="F30" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -8744,7 +8744,7 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>24</v>
@@ -8758,7 +8758,7 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>24</v>
@@ -8792,7 +8792,7 @@
         <v>24</v>
       </c>
       <c r="F40" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -8800,7 +8800,7 @@
         <v>58</v>
       </c>
       <c r="D41" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>24</v>
@@ -8811,7 +8811,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B43" t="s">
         <v>39</v>
@@ -8820,7 +8820,7 @@
         <v>33</v>
       </c>
       <c r="D43" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>24</v>
@@ -8834,13 +8834,13 @@
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F44" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -8848,13 +8848,13 @@
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F45" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -8862,7 +8862,7 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>24</v>
@@ -8910,13 +8910,13 @@
         <v>32</v>
       </c>
       <c r="D50" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F50" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -8924,7 +8924,7 @@
         <v>33</v>
       </c>
       <c r="D51" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>24</v>
@@ -8938,13 +8938,13 @@
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F52" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -8972,7 +8972,7 @@
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>24</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>24</v>
@@ -9020,7 +9020,7 @@
         <v>24</v>
       </c>
       <c r="F58" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -9054,7 +9054,7 @@
         <v>91</v>
       </c>
       <c r="F61" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -9068,7 +9068,7 @@
         <v>32</v>
       </c>
       <c r="D63" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>23</v>
@@ -9079,7 +9079,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B65" t="s">
         <v>22</v>
@@ -9088,7 +9088,7 @@
         <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>24</v>
@@ -9113,7 +9113,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B68" t="s">
         <v>22</v>
@@ -9150,13 +9150,13 @@
         <v>2</v>
       </c>
       <c r="D70" t="s">
+        <v>686</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F70" t="s">
         <v>687</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F70" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -9190,7 +9190,7 @@
         <v>24</v>
       </c>
       <c r="F73" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -9204,7 +9204,7 @@
         <v>24</v>
       </c>
       <c r="F74" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -9218,7 +9218,7 @@
         <v>23</v>
       </c>
       <c r="F75" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -9246,7 +9246,7 @@
         <v>33</v>
       </c>
       <c r="D78" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>24</v>
@@ -9260,7 +9260,7 @@
         <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>23</v>
@@ -9294,7 +9294,7 @@
         <v>3</v>
       </c>
       <c r="D82" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>23</v>
@@ -9314,7 +9314,7 @@
         <v>33</v>
       </c>
       <c r="D84" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>23</v>
@@ -9354,7 +9354,7 @@
         <v>23</v>
       </c>
       <c r="F87" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -9385,7 +9385,7 @@
   <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9429,13 +9429,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
+        <v>692</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
         <v>693</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -9445,13 +9445,13 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -9469,7 +9469,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
@@ -9483,13 +9483,13 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -9511,7 +9511,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>24</v>
@@ -9531,7 +9531,7 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -9615,7 +9615,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>24</v>
@@ -9635,12 +9635,12 @@
         <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -9663,7 +9663,7 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>23</v>
@@ -9689,7 +9689,7 @@
         <v>24</v>
       </c>
       <c r="F22" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -9697,13 +9697,13 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F23" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -9711,7 +9711,7 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>24</v>
@@ -9725,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>24</v>
@@ -9745,12 +9745,12 @@
         <v>23</v>
       </c>
       <c r="F26" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
@@ -9765,7 +9765,7 @@
         <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -9779,7 +9779,7 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>24</v>
@@ -9793,7 +9793,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>24</v>
@@ -9827,7 +9827,7 @@
         <v>23</v>
       </c>
       <c r="F33" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -9841,7 +9841,7 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>24</v>
@@ -9875,7 +9875,7 @@
         <v>24</v>
       </c>
       <c r="F37" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -9883,7 +9883,7 @@
         <v>58</v>
       </c>
       <c r="D38" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>24</v>
@@ -9894,7 +9894,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B40" t="s">
         <v>39</v>
@@ -9965,7 +9965,7 @@
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>24</v>
@@ -9979,13 +9979,13 @@
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F46" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -9999,7 +9999,7 @@
         <v>32</v>
       </c>
       <c r="D48" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>24</v>
@@ -10027,7 +10027,7 @@
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>24</v>
@@ -10052,7 +10052,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B53" t="s">
         <v>22</v>
@@ -10061,13 +10061,13 @@
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F53" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -10081,7 +10081,7 @@
         <v>32</v>
       </c>
       <c r="D55" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>24</v>
@@ -10121,7 +10121,7 @@
         <v>24</v>
       </c>
       <c r="F58" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -10143,7 +10143,7 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>24</v>
@@ -10157,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>23</v>
@@ -10245,7 +10245,7 @@
         <v>24</v>
       </c>
       <c r="F68" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -10259,7 +10259,7 @@
         <v>23</v>
       </c>
       <c r="F69" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
   </sheetData>
@@ -10276,7 +10276,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10320,7 +10320,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
@@ -10336,7 +10336,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
@@ -10352,7 +10352,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
@@ -10410,7 +10410,7 @@
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>24</v>
@@ -10424,7 +10424,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>24</v>
@@ -10438,7 +10438,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>24</v>
@@ -10458,12 +10458,12 @@
         <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
@@ -10472,13 +10472,13 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
+        <v>716</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>717</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -10486,18 +10486,18 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F14" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -10526,7 +10526,7 @@
         <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -10534,13 +10534,13 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -10562,7 +10562,7 @@
         <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>23</v>
@@ -10573,7 +10573,7 @@
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -10588,7 +10588,7 @@
         <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10602,7 +10602,7 @@
         <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>24</v>
@@ -10616,7 +10616,7 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>24</v>
@@ -10630,7 +10630,7 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>24</v>
@@ -10644,13 +10644,13 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
+        <v>723</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" t="s">
         <v>724</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -10664,7 +10664,7 @@
         <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>24</v>
@@ -10678,7 +10678,7 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>24</v>
@@ -10692,7 +10692,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>24</v>
@@ -10720,7 +10720,7 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>24</v>
@@ -10757,7 +10757,7 @@
   <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10815,13 +10815,13 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
+        <v>728</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
         <v>729</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10835,7 +10835,7 @@
         <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
@@ -10855,12 +10855,12 @@
         <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>534</v>
+        <v>827</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
@@ -10869,7 +10869,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>24</v>
@@ -10883,13 +10883,13 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -10897,7 +10897,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>24</v>
@@ -10931,13 +10931,13 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
+        <v>732</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
         <v>733</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -10985,12 +10985,12 @@
         <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B19" t="s">
         <v>39</v>
@@ -10999,7 +10999,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>24</v>
@@ -11013,7 +11013,7 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>23</v>
@@ -11033,7 +11033,7 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>24</v>
@@ -11047,13 +11047,13 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F23" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -11067,12 +11067,12 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B26" t="s">
         <v>39</v>
@@ -11087,7 +11087,7 @@
         <v>24</v>
       </c>
       <c r="F26" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -11101,7 +11101,7 @@
         <v>24</v>
       </c>
       <c r="F27" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -11109,7 +11109,7 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>24</v>
@@ -11129,7 +11129,7 @@
         <v>23</v>
       </c>
       <c r="F29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -11143,13 +11143,13 @@
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -11177,13 +11177,13 @@
         <v>32</v>
       </c>
       <c r="D34" t="s">
+        <v>743</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" t="s">
         <v>744</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F34" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -11197,12 +11197,12 @@
         <v>91</v>
       </c>
       <c r="F35" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B37" t="s">
         <v>46</v>
@@ -11211,13 +11211,13 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F37" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -11225,13 +11225,13 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
+        <v>748</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" t="s">
         <v>749</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F38" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -11239,13 +11239,13 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F39" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -11259,7 +11259,7 @@
         <v>23</v>
       </c>
       <c r="F40" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -11273,7 +11273,7 @@
         <v>32</v>
       </c>
       <c r="D42" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>23</v>
@@ -11293,7 +11293,7 @@
         <v>33</v>
       </c>
       <c r="D44" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>24</v>
@@ -11307,18 +11307,18 @@
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F45" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B47" t="s">
         <v>22</v>
@@ -11327,7 +11327,7 @@
         <v>33</v>
       </c>
       <c r="D47" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>24</v>
@@ -11341,7 +11341,7 @@
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>23</v>
@@ -11352,7 +11352,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B50" t="s">
         <v>22</v>
@@ -11375,7 +11375,7 @@
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>24</v>
@@ -11389,7 +11389,7 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>24</v>
@@ -11409,7 +11409,7 @@
         <v>23</v>
       </c>
       <c r="F53" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -11423,7 +11423,7 @@
         <v>32</v>
       </c>
       <c r="D55" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>24</v>
@@ -11451,7 +11451,7 @@
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>23</v>
@@ -11462,7 +11462,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B59" t="s">
         <v>22</v>
@@ -11471,13 +11471,13 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
+        <v>771</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59" t="s">
         <v>772</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F59" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -11485,7 +11485,7 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>24</v>
@@ -11499,7 +11499,7 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>23</v>
@@ -11510,7 +11510,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B63" t="s">
         <v>22</v>
@@ -11519,7 +11519,7 @@
         <v>33</v>
       </c>
       <c r="D63" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>24</v>
@@ -11557,7 +11557,7 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11592,22 +11592,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>777</v>
       </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>778</v>
-      </c>
       <c r="E2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11621,13 +11621,13 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -11635,7 +11635,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>23</v>
@@ -11666,7 +11666,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -11675,7 +11675,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>24</v>
@@ -11689,7 +11689,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>23</v>
@@ -11709,7 +11709,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>24</v>
@@ -11723,7 +11723,7 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>24</v>
@@ -11743,12 +11743,12 @@
         <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>534</v>
+        <v>827</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -11757,7 +11757,7 @@
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>24</v>
@@ -11771,18 +11771,18 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
+        <v>782</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
         <v>783</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -11791,13 +11791,13 @@
         <v>33</v>
       </c>
       <c r="D19" t="s">
+        <v>784</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
         <v>785</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -11805,7 +11805,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>23</v>
@@ -11825,13 +11825,13 @@
         <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F22" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -11839,7 +11839,7 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>24</v>
@@ -11853,13 +11853,13 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F24" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -11867,7 +11867,7 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>23</v>
@@ -11878,7 +11878,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B27" t="s">
         <v>39</v>
@@ -11887,13 +11887,13 @@
         <v>33</v>
       </c>
       <c r="D27" t="s">
+        <v>791</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" t="s">
         <v>792</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -11913,12 +11913,12 @@
         <v>23</v>
       </c>
       <c r="F29" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B31" t="s">
         <v>39</v>
@@ -11927,7 +11927,7 @@
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>23</v>
@@ -11947,13 +11947,13 @@
         <v>32</v>
       </c>
       <c r="D33" t="s">
+        <v>794</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" t="s">
         <v>795</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -11961,7 +11961,7 @@
         <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>23</v>
@@ -11981,7 +11981,7 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>23</v>
@@ -12001,13 +12001,13 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F38" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -12015,13 +12015,13 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F39" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -12029,7 +12029,7 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>24</v>
@@ -12043,13 +12043,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F41" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -12077,13 +12077,13 @@
         <v>32</v>
       </c>
       <c r="D44" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F44" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -12091,13 +12091,13 @@
         <v>33</v>
       </c>
       <c r="D45" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F45" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -12105,18 +12105,18 @@
         <v>4</v>
       </c>
       <c r="D46" t="s">
+        <v>804</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" t="s">
         <v>805</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F46" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B48" t="s">
         <v>22</v>
@@ -12125,7 +12125,7 @@
         <v>33</v>
       </c>
       <c r="D48" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>23</v>
@@ -12136,7 +12136,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B50" t="s">
         <v>22</v>
@@ -12145,13 +12145,13 @@
         <v>33</v>
       </c>
       <c r="D50" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F50" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -12173,13 +12173,13 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F52" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -12187,7 +12187,7 @@
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>24</v>
@@ -12207,7 +12207,7 @@
         <v>24</v>
       </c>
       <c r="F54" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -12215,7 +12215,7 @@
         <v>58</v>
       </c>
       <c r="D55" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>23</v>
@@ -12235,13 +12235,13 @@
         <v>32</v>
       </c>
       <c r="D57" t="s">
+        <v>813</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F57" t="s">
         <v>814</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F57" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -12249,13 +12249,13 @@
         <v>33</v>
       </c>
       <c r="D58" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F58" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -12269,7 +12269,7 @@
         <v>24</v>
       </c>
       <c r="F59" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -12277,7 +12277,7 @@
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>23</v>
@@ -12288,7 +12288,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B62" t="s">
         <v>22</v>
@@ -12297,7 +12297,7 @@
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>24</v>
@@ -12311,7 +12311,7 @@
         <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>24</v>
@@ -12325,18 +12325,18 @@
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F64" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B66" t="s">
         <v>22</v>
@@ -12345,7 +12345,7 @@
         <v>33</v>
       </c>
       <c r="D66" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>24</v>
@@ -12359,13 +12359,13 @@
         <v>4</v>
       </c>
       <c r="D67" t="s">
+        <v>821</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F67" t="s">
         <v>822</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F67" t="s">
-        <v>823</v>
       </c>
     </row>
   </sheetData>
@@ -12381,13 +12381,13 @@
   </sheetPr>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
@@ -12417,7 +12417,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -12426,7 +12426,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
@@ -12441,13 +12441,13 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -12456,13 +12456,13 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -12476,7 +12476,7 @@
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
@@ -12491,7 +12491,7 @@
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>23</v>
@@ -12502,7 +12502,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -12511,7 +12511,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>24</v>
@@ -12525,7 +12525,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>23</v>
@@ -12536,7 +12536,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>244</v>
+        <v>861</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
@@ -12545,7 +12545,7 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>24</v>
@@ -12559,7 +12559,7 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>24</v>
@@ -12573,7 +12573,7 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>23</v>
@@ -12584,7 +12584,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -12593,7 +12593,7 @@
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>24</v>
@@ -12613,7 +12613,7 @@
         <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -12621,13 +12621,13 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -12635,7 +12635,7 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>23</v>
@@ -12655,7 +12655,7 @@
         <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>24</v>
@@ -12669,7 +12669,7 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>24</v>
@@ -12683,13 +12683,13 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
+        <v>836</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" t="s">
         <v>837</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -12697,13 +12697,13 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F24" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -12725,18 +12725,18 @@
         <v>58</v>
       </c>
       <c r="D26" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F26" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B28" t="s">
         <v>39</v>
@@ -12745,13 +12745,13 @@
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -12765,7 +12765,7 @@
         <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>23</v>
@@ -12776,7 +12776,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B32" t="s">
         <v>46</v>
@@ -12799,7 +12799,7 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>24</v>
@@ -12813,7 +12813,7 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>24</v>
@@ -12827,7 +12827,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>24</v>
@@ -12841,13 +12841,13 @@
         <v>58</v>
       </c>
       <c r="D36" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F36" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -12861,13 +12861,13 @@
         <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F38" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -12875,7 +12875,7 @@
         <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>24</v>
@@ -12889,7 +12889,7 @@
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>24</v>
@@ -12903,7 +12903,7 @@
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>23</v>
@@ -12914,7 +12914,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B43" t="s">
         <v>22</v>
@@ -12923,13 +12923,13 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F43" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -12943,12 +12943,12 @@
         <v>23</v>
       </c>
       <c r="F44" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B46" t="s">
         <v>22</v>
@@ -12957,13 +12957,13 @@
         <v>33</v>
       </c>
       <c r="D46" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F46" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -12971,7 +12971,7 @@
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>23</v>
@@ -12991,13 +12991,13 @@
         <v>32</v>
       </c>
       <c r="D49" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E49" s="2" t="s">
         <v